--- a/Elecciones 11 Abril 2021/Constituyentes PI.xlsx
+++ b/Elecciones 11 Abril 2021/Constituyentes PI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Elecciones 11 Abril 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Elecciones 11 Abril 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D417BB0-58E4-493C-BD96-7AB6FA6B1BBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F2975C-EB75-458A-81EF-82D0E40B8545}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{60F7545B-3EF7-47B8-B6F1-BF05007745DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{60F7545B-3EF7-47B8-B6F1-BF05007745DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="237">
   <si>
     <t>Pueblo</t>
   </si>
@@ -411,9 +411,6 @@
     <t xml:space="preserve">NATIVIDAD DEL CARMEN LLANQUILEO PILQUIMAN </t>
   </si>
   <si>
-    <t>BIOBIO</t>
-  </si>
-  <si>
     <t>DANIEL DEL CARMEN TOBAR JARA</t>
   </si>
   <si>
@@ -697,13 +694,64 @@
   </si>
   <si>
     <t>Imagen pueblo</t>
+  </si>
+  <si>
+    <t>Tarapacá</t>
+  </si>
+  <si>
+    <t>Antofagasta</t>
+  </si>
+  <si>
+    <t>Atacama</t>
+  </si>
+  <si>
+    <t>Coquimbo</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
+  </si>
+  <si>
+    <t>O'Higgins</t>
+  </si>
+  <si>
+    <t>Maule</t>
+  </si>
+  <si>
+    <t>Biobío</t>
+  </si>
+  <si>
+    <t>La Araucanía</t>
+  </si>
+  <si>
+    <t>Los Lagos</t>
+  </si>
+  <si>
+    <t>Aysén</t>
+  </si>
+  <si>
+    <t>Magallanes</t>
+  </si>
+  <si>
+    <t>Metropolitana</t>
+  </si>
+  <si>
+    <t>Los Ríos</t>
+  </si>
+  <si>
+    <t>Arica y Parinacota</t>
+  </si>
+  <si>
+    <t>Ñuble</t>
+  </si>
+  <si>
+    <t>Cupo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,16 +759,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -728,20 +794,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -755,16 +908,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{171D0B00-5739-4FCB-9D3F-C5E1B3228124}" name="Constituyentes_PI_Candidatos" displayName="Constituyentes_PI_Candidatos" ref="A1:L183" totalsRowShown="0">
-  <autoFilter ref="A1:L183" xr:uid="{001C7DCB-0205-469B-A320-625D862BE634}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{171D0B00-5739-4FCB-9D3F-C5E1B3228124}" name="Constituyentes_PI_Candidatos" displayName="Constituyentes_PI_Candidatos" ref="A1:M183" totalsRowShown="0">
+  <autoFilter ref="A1:M183" xr:uid="{001C7DCB-0205-469B-A320-625D862BE634}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{BB4F69CD-1D9C-4D83-903E-ACDD1052975F}" name="Pueblo"/>
     <tableColumn id="2" xr3:uid="{861D453C-3901-4DD0-BC47-D772A2528FB6}" name="Correlativo"/>
     <tableColumn id="3" xr3:uid="{CB09834D-5D98-4064-82EC-8AEE266C59C0}" name="Candidato (TyA)"/>
     <tableColumn id="4" xr3:uid="{965B6AE0-9EA3-48A9-B24F-B8C90C41656E}" name="T&amp;A"/>
     <tableColumn id="5" xr3:uid="{5B4FAD07-7B4D-46EE-92F0-074A4E933628}" name="Sexo"/>
     <tableColumn id="6" xr3:uid="{ABBB94BE-2360-44ED-AC68-A17FF3E7884A}" name="Región"/>
-    <tableColumn id="7" xr3:uid="{EE7D721F-F6AD-47DB-92C2-392B678AE2FE}" name="Codreg"/>
+    <tableColumn id="7" xr3:uid="{EE7D721F-F6AD-47DB-92C2-392B678AE2FE}" name="Codreg" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{A3348174-FB5B-4BF8-B71D-C06C47AFE97E}" name="Cupo"/>
     <tableColumn id="8" xr3:uid="{D0802BC7-9035-4A4F-BC9E-867C9CCB0FAE}" name="FB"/>
     <tableColumn id="9" xr3:uid="{C2126D96-15BC-433C-A5BF-80552AFF005E}" name="TW"/>
     <tableColumn id="10" xr3:uid="{A8FD893E-C5B4-43FB-BBE7-23895A296089}" name="ING"/>
@@ -1072,22 +1226,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A628787C-CB18-4385-9B00-3683138E44A8}">
-  <dimension ref="A1:L183"/>
+  <dimension ref="A1:Q346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,25 +1264,34 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" t="s">
         <v>216</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>217</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>218</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>219</v>
       </c>
-      <c r="L1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1136,7 +1302,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1144,8 +1310,21 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="P2" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1156,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1164,8 +1343,20 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1367,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1184,8 +1375,20 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1399,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1204,8 +1407,20 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1431,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1224,8 +1439,20 @@
       <c r="F6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1236,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1244,8 +1471,20 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1256,7 +1495,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -1264,8 +1503,20 @@
       <c r="F8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1276,7 +1527,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1284,8 +1535,20 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1296,7 +1559,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -1304,8 +1567,20 @@
       <c r="F10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +1591,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1324,8 +1599,20 @@
       <c r="F11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1336,7 +1623,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -1344,8 +1631,20 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1356,7 +1655,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1364,8 +1663,20 @@
       <c r="F13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1376,7 +1687,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1384,8 +1695,20 @@
       <c r="F14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1396,7 +1719,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -1404,8 +1727,20 @@
       <c r="F15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1416,7 +1751,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1424,8 +1759,20 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1436,7 +1783,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1444,8 +1791,20 @@
       <c r="F17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1456,7 +1815,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1464,8 +1823,20 @@
       <c r="F18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1476,7 +1847,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1484,8 +1855,20 @@
       <c r="F19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1496,7 +1879,7 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -1504,8 +1887,20 @@
       <c r="F20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1516,7 +1911,7 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -1524,8 +1919,20 @@
       <c r="F21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1536,7 +1943,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -1544,8 +1951,20 @@
       <c r="F22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1556,7 +1975,7 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1564,8 +1983,20 @@
       <c r="F23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1576,7 +2007,7 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1584,8 +2015,20 @@
       <c r="F24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1596,7 +2039,7 @@
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -1604,8 +2047,20 @@
       <c r="F25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1616,7 +2071,7 @@
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -1624,8 +2079,20 @@
       <c r="F26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +2103,7 @@
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -1644,8 +2111,20 @@
       <c r="F27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1656,7 +2135,7 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -1664,8 +2143,20 @@
       <c r="F28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1676,7 +2167,7 @@
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -1684,8 +2175,20 @@
       <c r="F29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1696,7 +2199,7 @@
         <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -1704,8 +2207,20 @@
       <c r="F30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1716,7 +2231,7 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -1724,8 +2239,20 @@
       <c r="F31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1736,7 +2263,7 @@
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -1744,8 +2271,20 @@
       <c r="F32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1756,7 +2295,7 @@
         <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1764,8 +2303,20 @@
       <c r="F33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1776,7 +2327,7 @@
         <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -1784,8 +2335,20 @@
       <c r="F34" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1796,7 +2359,7 @@
         <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1804,8 +2367,20 @@
       <c r="F35" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1816,7 +2391,7 @@
         <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -1824,8 +2399,20 @@
       <c r="F36" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1836,7 +2423,7 @@
         <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1844,8 +2431,20 @@
       <c r="F37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1856,7 +2455,7 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -1864,8 +2463,20 @@
       <c r="F38" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1876,7 +2487,7 @@
         <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -1884,8 +2495,20 @@
       <c r="F39" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1896,7 +2519,7 @@
         <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -1904,8 +2527,20 @@
       <c r="F40" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1916,7 +2551,7 @@
         <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -1924,8 +2559,20 @@
       <c r="F41" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1936,7 +2583,7 @@
         <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
@@ -1944,8 +2591,20 @@
       <c r="F42" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1956,7 +2615,7 @@
         <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -1964,8 +2623,20 @@
       <c r="F43" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -1976,7 +2647,7 @@
         <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -1984,8 +2655,20 @@
       <c r="F44" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -1996,7 +2679,7 @@
         <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -2004,8 +2687,20 @@
       <c r="F45" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2016,7 +2711,7 @@
         <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -2024,8 +2719,20 @@
       <c r="F46" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -2036,7 +2743,7 @@
         <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -2044,8 +2751,20 @@
       <c r="F47" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -2056,7 +2775,7 @@
         <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -2064,8 +2783,20 @@
       <c r="F48" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -2076,7 +2807,7 @@
         <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -2084,8 +2815,20 @@
       <c r="F49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -2096,7 +2839,7 @@
         <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -2104,8 +2847,20 @@
       <c r="F50" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2116,7 +2871,7 @@
         <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
@@ -2124,8 +2879,20 @@
       <c r="F51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -2136,7 +2903,7 @@
         <v>66</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -2144,8 +2911,20 @@
       <c r="F52" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -2156,7 +2935,7 @@
         <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -2164,8 +2943,20 @@
       <c r="F53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -2176,7 +2967,7 @@
         <v>68</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
@@ -2184,8 +2975,20 @@
       <c r="F54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2196,7 +2999,7 @@
         <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -2204,8 +3007,20 @@
       <c r="F55" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2216,7 +3031,7 @@
         <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
@@ -2224,8 +3039,20 @@
       <c r="F56" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2236,7 +3063,7 @@
         <v>71</v>
       </c>
       <c r="D57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -2244,8 +3071,20 @@
       <c r="F57" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -2256,7 +3095,7 @@
         <v>73</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -2264,8 +3103,20 @@
       <c r="F58" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -2276,7 +3127,7 @@
         <v>74</v>
       </c>
       <c r="D59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
@@ -2284,8 +3135,20 @@
       <c r="F59" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -2296,7 +3159,7 @@
         <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -2304,8 +3167,20 @@
       <c r="F60" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -2316,7 +3191,7 @@
         <v>76</v>
       </c>
       <c r="D61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
@@ -2324,8 +3199,20 @@
       <c r="F61" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -2336,7 +3223,7 @@
         <v>77</v>
       </c>
       <c r="D62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
@@ -2344,8 +3231,20 @@
       <c r="F62" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -2356,7 +3255,7 @@
         <v>78</v>
       </c>
       <c r="D63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
@@ -2364,8 +3263,20 @@
       <c r="F63" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -2376,7 +3287,7 @@
         <v>79</v>
       </c>
       <c r="D64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -2384,8 +3295,20 @@
       <c r="F64" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -2396,7 +3319,7 @@
         <v>80</v>
       </c>
       <c r="D65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E65" t="s">
         <v>8</v>
@@ -2404,8 +3327,20 @@
       <c r="F65" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="P65" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2416,7 +3351,7 @@
         <v>81</v>
       </c>
       <c r="D66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -2424,8 +3359,20 @@
       <c r="F66" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -2436,7 +3383,7 @@
         <v>82</v>
       </c>
       <c r="D67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
@@ -2444,8 +3391,20 @@
       <c r="F67" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67">
+        <v>4</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="P67" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -2456,7 +3415,7 @@
         <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -2464,8 +3423,20 @@
       <c r="F68" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68">
+        <v>12</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -2476,7 +3447,7 @@
         <v>86</v>
       </c>
       <c r="D69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
@@ -2484,8 +3455,20 @@
       <c r="F69" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69">
+        <v>12</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -2496,7 +3479,7 @@
         <v>87</v>
       </c>
       <c r="D70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -2504,8 +3487,20 @@
       <c r="F70" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70">
+        <v>12</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="P70" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -2516,7 +3511,7 @@
         <v>88</v>
       </c>
       <c r="D71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
@@ -2524,8 +3519,20 @@
       <c r="F71" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <v>12</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2536,7 +3543,7 @@
         <v>89</v>
       </c>
       <c r="D72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -2544,8 +3551,20 @@
       <c r="F72" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <v>12</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -2556,7 +3575,7 @@
         <v>90</v>
       </c>
       <c r="D73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
@@ -2564,8 +3583,20 @@
       <c r="F73" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <v>12</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -2576,7 +3607,7 @@
         <v>91</v>
       </c>
       <c r="D74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -2584,8 +3615,20 @@
       <c r="F74" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <v>12</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -2596,7 +3639,7 @@
         <v>92</v>
       </c>
       <c r="D75" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
@@ -2604,8 +3647,20 @@
       <c r="F75" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <v>12</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -2616,7 +3671,7 @@
         <v>93</v>
       </c>
       <c r="D76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E76" t="s">
         <v>8</v>
@@ -2624,8 +3679,20 @@
       <c r="F76" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76">
+        <v>12</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="P76" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2636,7 +3703,7 @@
         <v>94</v>
       </c>
       <c r="D77" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
@@ -2644,8 +3711,20 @@
       <c r="F77" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77">
+        <v>12</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="P77" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -2656,7 +3735,7 @@
         <v>96</v>
       </c>
       <c r="D78" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
@@ -2664,8 +3743,20 @@
       <c r="F78" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="P78" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>95</v>
       </c>
@@ -2676,7 +3767,7 @@
         <v>97</v>
       </c>
       <c r="D79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
@@ -2684,8 +3775,20 @@
       <c r="F79" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -2696,7 +3799,7 @@
         <v>98</v>
       </c>
       <c r="D80" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
@@ -2704,8 +3807,20 @@
       <c r="F80" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="P80" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -2716,7 +3831,7 @@
         <v>99</v>
       </c>
       <c r="D81" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -2724,8 +3839,20 @@
       <c r="F81" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -2736,7 +3863,7 @@
         <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -2744,8 +3871,20 @@
       <c r="F82" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="P82" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -2756,7 +3895,7 @@
         <v>101</v>
       </c>
       <c r="D83" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
@@ -2764,8 +3903,20 @@
       <c r="F83" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="P83" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -2776,7 +3927,7 @@
         <v>102</v>
       </c>
       <c r="D84" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -2784,8 +3935,20 @@
       <c r="F84" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="P84" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -2796,7 +3959,7 @@
         <v>103</v>
       </c>
       <c r="D85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
@@ -2804,8 +3967,20 @@
       <c r="F85" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -2816,7 +3991,7 @@
         <v>104</v>
       </c>
       <c r="D86" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
@@ -2824,8 +3999,20 @@
       <c r="F86" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="P86" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -2836,7 +4023,7 @@
         <v>105</v>
       </c>
       <c r="D87" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
@@ -2844,8 +4031,20 @@
       <c r="F87" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="P87" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -2856,7 +4055,7 @@
         <v>106</v>
       </c>
       <c r="D88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
@@ -2864,8 +4063,20 @@
       <c r="F88" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="P88" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -2876,7 +4087,7 @@
         <v>107</v>
       </c>
       <c r="D89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
@@ -2884,8 +4095,20 @@
       <c r="F89" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -2896,7 +4119,7 @@
         <v>108</v>
       </c>
       <c r="D90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
@@ -2904,8 +4127,20 @@
       <c r="F90" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="P90" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2916,7 +4151,7 @@
         <v>109</v>
       </c>
       <c r="D91" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -2924,8 +4159,20 @@
       <c r="F91" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -2936,7 +4183,7 @@
         <v>110</v>
       </c>
       <c r="D92" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -2944,8 +4191,20 @@
       <c r="F92" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="P92" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -2956,7 +4215,7 @@
         <v>111</v>
       </c>
       <c r="D93" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
@@ -2964,8 +4223,20 @@
       <c r="F93" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="P93" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>112</v>
       </c>
@@ -2976,7 +4247,7 @@
         <v>113</v>
       </c>
       <c r="D94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
@@ -2984,8 +4255,20 @@
       <c r="F94" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94">
+        <v>13</v>
+      </c>
+      <c r="H94">
+        <v>7</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -2996,7 +4279,7 @@
         <v>115</v>
       </c>
       <c r="D95" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
@@ -3004,8 +4287,20 @@
       <c r="F95" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95">
+        <v>13</v>
+      </c>
+      <c r="H95">
+        <v>7</v>
+      </c>
+      <c r="P95" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -3016,7 +4311,7 @@
         <v>116</v>
       </c>
       <c r="D96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
@@ -3024,8 +4319,20 @@
       <c r="F96" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96">
+        <v>13</v>
+      </c>
+      <c r="H96">
+        <v>7</v>
+      </c>
+      <c r="P96" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -3036,7 +4343,7 @@
         <v>117</v>
       </c>
       <c r="D97" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
@@ -3044,8 +4351,20 @@
       <c r="F97" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97">
+        <v>13</v>
+      </c>
+      <c r="H97">
+        <v>7</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -3056,7 +4375,7 @@
         <v>118</v>
       </c>
       <c r="D98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
@@ -3064,8 +4383,20 @@
       <c r="F98" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98">
+        <v>13</v>
+      </c>
+      <c r="H98">
+        <v>7</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -3076,7 +4407,7 @@
         <v>119</v>
       </c>
       <c r="D99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -3084,8 +4415,20 @@
       <c r="F99" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99">
+        <v>13</v>
+      </c>
+      <c r="H99">
+        <v>7</v>
+      </c>
+      <c r="P99" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>112</v>
       </c>
@@ -3096,7 +4439,7 @@
         <v>120</v>
       </c>
       <c r="D100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E100" t="s">
         <v>8</v>
@@ -3104,8 +4447,20 @@
       <c r="F100" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100">
+        <v>13</v>
+      </c>
+      <c r="H100">
+        <v>7</v>
+      </c>
+      <c r="P100" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -3116,7 +4471,7 @@
         <v>121</v>
       </c>
       <c r="D101" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -3124,8 +4479,20 @@
       <c r="F101" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101">
+        <v>13</v>
+      </c>
+      <c r="H101">
+        <v>7</v>
+      </c>
+      <c r="P101" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -3136,7 +4503,7 @@
         <v>122</v>
       </c>
       <c r="D102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
@@ -3144,8 +4511,20 @@
       <c r="F102" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102">
+        <v>13</v>
+      </c>
+      <c r="H102">
+        <v>7</v>
+      </c>
+      <c r="P102" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -3156,7 +4535,7 @@
         <v>123</v>
       </c>
       <c r="D103" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E103" t="s">
         <v>8</v>
@@ -3164,8 +4543,20 @@
       <c r="F103" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103">
+        <v>13</v>
+      </c>
+      <c r="H103">
+        <v>7</v>
+      </c>
+      <c r="P103" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q103" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>112</v>
       </c>
@@ -3176,16 +4567,28 @@
         <v>124</v>
       </c>
       <c r="D104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
       </c>
-      <c r="F104" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F104" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G104">
+        <v>8</v>
+      </c>
+      <c r="H104">
+        <v>7</v>
+      </c>
+      <c r="P104" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q104" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>112</v>
       </c>
@@ -3193,19 +4596,31 @@
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D105" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
       </c>
-      <c r="F105" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F105" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G105">
+        <v>8</v>
+      </c>
+      <c r="H105">
+        <v>7</v>
+      </c>
+      <c r="P105" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -3213,19 +4628,31 @@
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
       </c>
-      <c r="F106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F106" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G106">
+        <v>8</v>
+      </c>
+      <c r="H106">
+        <v>7</v>
+      </c>
+      <c r="P106" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q106" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -3233,19 +4660,31 @@
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
       </c>
-      <c r="F107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F107" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G107">
+        <v>8</v>
+      </c>
+      <c r="H107">
+        <v>7</v>
+      </c>
+      <c r="P107" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q107" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -3253,19 +4692,31 @@
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D108" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E108" t="s">
         <v>8</v>
       </c>
-      <c r="F108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F108" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G108">
+        <v>8</v>
+      </c>
+      <c r="H108">
+        <v>7</v>
+      </c>
+      <c r="P108" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q108" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -3273,19 +4724,31 @@
         <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D109" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
       </c>
-      <c r="F109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F109" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G109">
+        <v>8</v>
+      </c>
+      <c r="H109">
+        <v>7</v>
+      </c>
+      <c r="P109" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q109" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -3293,19 +4756,31 @@
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
       </c>
-      <c r="F110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F110" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G110">
+        <v>8</v>
+      </c>
+      <c r="H110">
+        <v>7</v>
+      </c>
+      <c r="P110" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -3313,19 +4788,31 @@
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D111" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
       </c>
-      <c r="F111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F111" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G111">
+        <v>8</v>
+      </c>
+      <c r="H111">
+        <v>7</v>
+      </c>
+      <c r="P111" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -3333,19 +4820,31 @@
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D112" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E112" t="s">
         <v>8</v>
       </c>
-      <c r="F112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F112" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G112">
+        <v>8</v>
+      </c>
+      <c r="H112">
+        <v>7</v>
+      </c>
+      <c r="P112" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -3353,19 +4852,31 @@
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D113" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
       </c>
-      <c r="F113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F113" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G113">
+        <v>8</v>
+      </c>
+      <c r="H113">
+        <v>7</v>
+      </c>
+      <c r="P113" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q113" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -3373,19 +4884,31 @@
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D114" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
       </c>
-      <c r="F114" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F114" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G114">
+        <v>8</v>
+      </c>
+      <c r="H114">
+        <v>7</v>
+      </c>
+      <c r="P114" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q114" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -3393,19 +4916,31 @@
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D115" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E115" t="s">
         <v>8</v>
       </c>
-      <c r="F115" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F115" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G115">
+        <v>8</v>
+      </c>
+      <c r="H115">
+        <v>7</v>
+      </c>
+      <c r="P115" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q115" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>112</v>
       </c>
@@ -3413,19 +4948,31 @@
         <v>115</v>
       </c>
       <c r="C116" t="s">
+        <v>136</v>
+      </c>
+      <c r="D116" t="s">
+        <v>213</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" t="s">
         <v>137</v>
       </c>
-      <c r="D116" t="s">
-        <v>214</v>
-      </c>
-      <c r="E116" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116">
+        <v>9</v>
+      </c>
+      <c r="H116">
+        <v>7</v>
+      </c>
+      <c r="P116" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q116" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>112</v>
       </c>
@@ -3433,19 +4980,31 @@
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D117" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E117" t="s">
         <v>8</v>
       </c>
       <c r="F117" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G117">
+        <v>9</v>
+      </c>
+      <c r="H117">
+        <v>7</v>
+      </c>
+      <c r="P117" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q117" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -3453,19 +5012,31 @@
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D118" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G118">
+        <v>9</v>
+      </c>
+      <c r="H118">
+        <v>7</v>
+      </c>
+      <c r="P118" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q118" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>112</v>
       </c>
@@ -3473,19 +5044,31 @@
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D119" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E119" t="s">
         <v>8</v>
       </c>
       <c r="F119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G119">
+        <v>9</v>
+      </c>
+      <c r="H119">
+        <v>7</v>
+      </c>
+      <c r="P119" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q119" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>112</v>
       </c>
@@ -3493,19 +5076,31 @@
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D120" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E120" t="s">
         <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G120">
+        <v>9</v>
+      </c>
+      <c r="H120">
+        <v>7</v>
+      </c>
+      <c r="P120" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q120" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>112</v>
       </c>
@@ -3513,19 +5108,31 @@
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D121" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G121">
+        <v>9</v>
+      </c>
+      <c r="H121">
+        <v>7</v>
+      </c>
+      <c r="P121" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q121" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -3533,19 +5140,31 @@
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D122" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G122">
+        <v>9</v>
+      </c>
+      <c r="H122">
+        <v>7</v>
+      </c>
+      <c r="P122" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q122" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>112</v>
       </c>
@@ -3553,19 +5172,31 @@
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D123" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E123" t="s">
         <v>8</v>
       </c>
       <c r="F123" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G123">
+        <v>9</v>
+      </c>
+      <c r="H123">
+        <v>7</v>
+      </c>
+      <c r="P123" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q123" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>112</v>
       </c>
@@ -3573,19 +5204,31 @@
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G124">
+        <v>9</v>
+      </c>
+      <c r="H124">
+        <v>7</v>
+      </c>
+      <c r="P124" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q124" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>112</v>
       </c>
@@ -3593,19 +5236,31 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D125" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E125" t="s">
         <v>8</v>
       </c>
       <c r="F125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G125">
+        <v>9</v>
+      </c>
+      <c r="H125">
+        <v>7</v>
+      </c>
+      <c r="P125" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q125" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>112</v>
       </c>
@@ -3613,19 +5268,31 @@
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D126" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E126" t="s">
         <v>8</v>
       </c>
       <c r="F126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G126">
+        <v>9</v>
+      </c>
+      <c r="H126">
+        <v>7</v>
+      </c>
+      <c r="P126" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q126" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>112</v>
       </c>
@@ -3633,19 +5300,31 @@
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D127" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G127">
+        <v>9</v>
+      </c>
+      <c r="H127">
+        <v>7</v>
+      </c>
+      <c r="P127" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q127" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>112</v>
       </c>
@@ -3653,19 +5332,31 @@
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D128" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
       </c>
       <c r="F128" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G128">
+        <v>9</v>
+      </c>
+      <c r="H128">
+        <v>7</v>
+      </c>
+      <c r="P128" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q128" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>112</v>
       </c>
@@ -3673,19 +5364,31 @@
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D129" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G129">
+        <v>9</v>
+      </c>
+      <c r="H129">
+        <v>7</v>
+      </c>
+      <c r="P129" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q129" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>112</v>
       </c>
@@ -3693,19 +5396,31 @@
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D130" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G130">
+        <v>9</v>
+      </c>
+      <c r="H130">
+        <v>7</v>
+      </c>
+      <c r="P130" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q130" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>112</v>
       </c>
@@ -3713,19 +5428,31 @@
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E131" t="s">
         <v>8</v>
       </c>
       <c r="F131" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G131">
+        <v>9</v>
+      </c>
+      <c r="H131">
+        <v>7</v>
+      </c>
+      <c r="P131" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q131" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>112</v>
       </c>
@@ -3733,19 +5460,31 @@
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D132" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E132" t="s">
         <v>8</v>
       </c>
       <c r="F132" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G132">
+        <v>9</v>
+      </c>
+      <c r="H132">
+        <v>7</v>
+      </c>
+      <c r="P132" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q132" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>112</v>
       </c>
@@ -3753,19 +5492,31 @@
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D133" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G133">
+        <v>9</v>
+      </c>
+      <c r="H133">
+        <v>7</v>
+      </c>
+      <c r="P133" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q133" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>112</v>
       </c>
@@ -3773,19 +5524,31 @@
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D134" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E134" t="s">
         <v>8</v>
       </c>
       <c r="F134" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G134">
+        <v>9</v>
+      </c>
+      <c r="H134">
+        <v>7</v>
+      </c>
+      <c r="P134" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q134" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>112</v>
       </c>
@@ -3793,19 +5556,31 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D135" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G135">
+        <v>9</v>
+      </c>
+      <c r="H135">
+        <v>7</v>
+      </c>
+      <c r="P135" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q135" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>112</v>
       </c>
@@ -3813,19 +5588,31 @@
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D136" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E136" t="s">
         <v>8</v>
       </c>
       <c r="F136" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G136">
+        <v>9</v>
+      </c>
+      <c r="H136">
+        <v>7</v>
+      </c>
+      <c r="P136" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q136" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>112</v>
       </c>
@@ -3833,19 +5620,31 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D137" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E137" t="s">
         <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G137">
+        <v>9</v>
+      </c>
+      <c r="H137">
+        <v>7</v>
+      </c>
+      <c r="P137" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q137" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>112</v>
       </c>
@@ -3853,19 +5652,31 @@
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D138" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E138" t="s">
         <v>8</v>
       </c>
       <c r="F138" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G138">
+        <v>9</v>
+      </c>
+      <c r="H138">
+        <v>7</v>
+      </c>
+      <c r="P138" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q138" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>112</v>
       </c>
@@ -3873,19 +5684,31 @@
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D139" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E139" t="s">
         <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G139">
+        <v>9</v>
+      </c>
+      <c r="H139">
+        <v>7</v>
+      </c>
+      <c r="P139" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q139" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>112</v>
       </c>
@@ -3893,19 +5716,31 @@
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
       </c>
       <c r="F140" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G140">
+        <v>9</v>
+      </c>
+      <c r="H140">
+        <v>7</v>
+      </c>
+      <c r="P140" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q140" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>112</v>
       </c>
@@ -3913,19 +5748,31 @@
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D141" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G141">
+        <v>9</v>
+      </c>
+      <c r="H141">
+        <v>7</v>
+      </c>
+      <c r="P141" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q141" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>112</v>
       </c>
@@ -3933,19 +5780,31 @@
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
       </c>
       <c r="F142" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G142">
+        <v>9</v>
+      </c>
+      <c r="H142">
+        <v>7</v>
+      </c>
+      <c r="P142" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q142" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>112</v>
       </c>
@@ -3953,19 +5812,31 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D143" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E143" t="s">
         <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G143">
+        <v>9</v>
+      </c>
+      <c r="H143">
+        <v>7</v>
+      </c>
+      <c r="P143" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q143" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>112</v>
       </c>
@@ -3973,19 +5844,31 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D144" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E144" t="s">
         <v>8</v>
       </c>
       <c r="F144" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G144">
+        <v>9</v>
+      </c>
+      <c r="H144">
+        <v>7</v>
+      </c>
+      <c r="P144" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q144" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>112</v>
       </c>
@@ -3993,19 +5876,31 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D145" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E145" t="s">
         <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G145">
+        <v>9</v>
+      </c>
+      <c r="H145">
+        <v>7</v>
+      </c>
+      <c r="P145" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q145" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>112</v>
       </c>
@@ -4013,19 +5908,31 @@
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D146" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
       </c>
       <c r="F146" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G146">
+        <v>9</v>
+      </c>
+      <c r="H146">
+        <v>7</v>
+      </c>
+      <c r="P146" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q146" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>112</v>
       </c>
@@ -4033,19 +5940,31 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D147" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E147" t="s">
         <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G147">
+        <v>9</v>
+      </c>
+      <c r="H147">
+        <v>7</v>
+      </c>
+      <c r="P147" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q147" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>112</v>
       </c>
@@ -4053,19 +5972,31 @@
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D148" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E148" t="s">
         <v>8</v>
       </c>
       <c r="F148" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G148">
+        <v>9</v>
+      </c>
+      <c r="H148">
+        <v>7</v>
+      </c>
+      <c r="P148" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q148" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>112</v>
       </c>
@@ -4073,19 +6004,31 @@
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D149" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G149">
+        <v>9</v>
+      </c>
+      <c r="H149">
+        <v>7</v>
+      </c>
+      <c r="P149" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q149" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>112</v>
       </c>
@@ -4093,19 +6036,31 @@
         <v>149</v>
       </c>
       <c r="C150" t="s">
+        <v>171</v>
+      </c>
+      <c r="D150" t="s">
+        <v>213</v>
+      </c>
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" t="s">
         <v>172</v>
       </c>
-      <c r="D150" t="s">
-        <v>214</v>
-      </c>
-      <c r="E150" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150">
+        <v>14</v>
+      </c>
+      <c r="H150">
+        <v>7</v>
+      </c>
+      <c r="P150" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q150" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>112</v>
       </c>
@@ -4113,19 +6068,31 @@
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D151" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E151" t="s">
         <v>8</v>
       </c>
       <c r="F151" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="G151">
+        <v>14</v>
+      </c>
+      <c r="H151">
+        <v>7</v>
+      </c>
+      <c r="P151" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q151" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>112</v>
       </c>
@@ -4133,19 +6100,31 @@
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D152" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E152" t="s">
         <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="G152">
+        <v>14</v>
+      </c>
+      <c r="H152">
+        <v>7</v>
+      </c>
+      <c r="P152" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q152" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>112</v>
       </c>
@@ -4153,19 +6132,31 @@
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D153" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E153" t="s">
         <v>8</v>
       </c>
       <c r="F153" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="G153">
+        <v>14</v>
+      </c>
+      <c r="H153">
+        <v>7</v>
+      </c>
+      <c r="P153" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q153" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>112</v>
       </c>
@@ -4173,19 +6164,31 @@
         <v>153</v>
       </c>
       <c r="C154" t="s">
+        <v>176</v>
+      </c>
+      <c r="D154" t="s">
+        <v>213</v>
+      </c>
+      <c r="E154" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" t="s">
         <v>177</v>
       </c>
-      <c r="D154" t="s">
-        <v>214</v>
-      </c>
-      <c r="E154" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154">
+        <v>10</v>
+      </c>
+      <c r="H154">
+        <v>7</v>
+      </c>
+      <c r="P154" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q154" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>112</v>
       </c>
@@ -4193,19 +6196,31 @@
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D155" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E155" t="s">
         <v>8</v>
       </c>
       <c r="F155" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="G155">
+        <v>10</v>
+      </c>
+      <c r="H155">
+        <v>7</v>
+      </c>
+      <c r="P155" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q155" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>112</v>
       </c>
@@ -4213,19 +6228,31 @@
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D156" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E156" t="s">
         <v>8</v>
       </c>
       <c r="F156" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="G156">
+        <v>10</v>
+      </c>
+      <c r="H156">
+        <v>7</v>
+      </c>
+      <c r="P156" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q156" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>112</v>
       </c>
@@ -4233,19 +6260,31 @@
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D157" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E157" t="s">
         <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="G157">
+        <v>10</v>
+      </c>
+      <c r="H157">
+        <v>7</v>
+      </c>
+      <c r="P157" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q157" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>112</v>
       </c>
@@ -4253,19 +6292,31 @@
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D158" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E158" t="s">
         <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="G158">
+        <v>10</v>
+      </c>
+      <c r="H158">
+        <v>7</v>
+      </c>
+      <c r="P158" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q158" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>112</v>
       </c>
@@ -4273,19 +6324,31 @@
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D159" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
       </c>
       <c r="F159" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="G159">
+        <v>10</v>
+      </c>
+      <c r="H159">
+        <v>7</v>
+      </c>
+      <c r="P159" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q159" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>112</v>
       </c>
@@ -4293,19 +6356,31 @@
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D160" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E160" t="s">
         <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="G160">
+        <v>10</v>
+      </c>
+      <c r="H160">
+        <v>7</v>
+      </c>
+      <c r="P160" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q160" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>112</v>
       </c>
@@ -4313,19 +6388,31 @@
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D161" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E161" t="s">
         <v>8</v>
       </c>
       <c r="F161" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="G161">
+        <v>10</v>
+      </c>
+      <c r="H161">
+        <v>7</v>
+      </c>
+      <c r="P161" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q161" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>112</v>
       </c>
@@ -4333,19 +6420,31 @@
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D162" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="G162">
+        <v>10</v>
+      </c>
+      <c r="H162">
+        <v>7</v>
+      </c>
+      <c r="P162" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q162" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>112</v>
       </c>
@@ -4353,19 +6452,31 @@
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D163" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E163" t="s">
         <v>8</v>
       </c>
       <c r="F163" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="G163">
+        <v>10</v>
+      </c>
+      <c r="H163">
+        <v>7</v>
+      </c>
+      <c r="P163" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q163" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>112</v>
       </c>
@@ -4373,19 +6484,31 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
+        <v>187</v>
+      </c>
+      <c r="D164" t="s">
+        <v>213</v>
+      </c>
+      <c r="E164" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" t="s">
         <v>188</v>
       </c>
-      <c r="D164" t="s">
-        <v>214</v>
-      </c>
-      <c r="E164" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164">
+        <v>11</v>
+      </c>
+      <c r="H164">
+        <v>7</v>
+      </c>
+      <c r="P164" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q164" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>112</v>
       </c>
@@ -4393,30 +6516,42 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
+        <v>189</v>
+      </c>
+      <c r="D165" t="s">
+        <v>214</v>
+      </c>
+      <c r="E165" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165" t="s">
+        <v>188</v>
+      </c>
+      <c r="G165">
+        <v>11</v>
+      </c>
+      <c r="H165">
+        <v>7</v>
+      </c>
+      <c r="P165" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q165" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>190</v>
-      </c>
-      <c r="D165" t="s">
-        <v>215</v>
-      </c>
-      <c r="E165" t="s">
-        <v>8</v>
-      </c>
-      <c r="F165" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>191</v>
       </c>
       <c r="B166">
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D166" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E166" t="s">
         <v>8</v>
@@ -4424,19 +6559,31 @@
       <c r="F166" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="P166" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q166" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B167">
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D167" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E167" t="s">
         <v>11</v>
@@ -4444,19 +6591,31 @@
       <c r="F167" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="P167" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q167" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D168" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E168" t="s">
         <v>8</v>
@@ -4464,19 +6623,31 @@
       <c r="F168" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="P168" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q168" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B169">
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D169" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -4484,19 +6655,31 @@
       <c r="F169" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="P169" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q169" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B170">
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D170" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E170" t="s">
         <v>11</v>
@@ -4504,19 +6687,31 @@
       <c r="F170" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170">
+        <v>2</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="P170" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q170" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B171">
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D171" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
@@ -4524,19 +6719,31 @@
       <c r="F171" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171">
+        <v>2</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="P171" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q171" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B172">
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D172" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E172" t="s">
         <v>11</v>
@@ -4544,19 +6751,31 @@
       <c r="F172" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172">
+        <v>2</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="P172" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q172" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B173">
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D173" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E173" t="s">
         <v>8</v>
@@ -4564,179 +6783,287 @@
       <c r="F173" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173">
+        <v>2</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="P173" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q173" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B174">
         <v>173</v>
       </c>
       <c r="C174" t="s">
+        <v>200</v>
+      </c>
+      <c r="D174" t="s">
+        <v>213</v>
+      </c>
+      <c r="E174" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174" t="s">
         <v>201</v>
       </c>
-      <c r="D174" t="s">
-        <v>214</v>
-      </c>
-      <c r="E174" t="s">
-        <v>8</v>
-      </c>
-      <c r="F174" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174">
+        <v>5</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="P174" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q174" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B175">
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D175" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E175" t="s">
         <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="G175">
+        <v>5</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="P175" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q175" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B176">
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D176" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E176" t="s">
         <v>8</v>
       </c>
       <c r="F176" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="G176">
+        <v>5</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="P176" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q176" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D177" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E177" t="s">
         <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="G177">
+        <v>5</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="P177" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q177" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B178">
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D178" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E178" t="s">
         <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="G178">
+        <v>5</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="P178" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q178" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B179">
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D179" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E179" t="s">
         <v>8</v>
       </c>
       <c r="F179" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="G179">
+        <v>5</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="P179" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q179" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B180">
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D180" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E180" t="s">
         <v>8</v>
       </c>
       <c r="F180" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="G180">
+        <v>5</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="P180" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q180" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B181">
         <v>180</v>
       </c>
       <c r="C181" t="s">
+        <v>208</v>
+      </c>
+      <c r="D181" t="s">
+        <v>214</v>
+      </c>
+      <c r="E181" t="s">
+        <v>11</v>
+      </c>
+      <c r="F181" t="s">
+        <v>201</v>
+      </c>
+      <c r="G181">
+        <v>5</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="P181" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q181" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>209</v>
-      </c>
-      <c r="D181" t="s">
-        <v>215</v>
-      </c>
-      <c r="E181" t="s">
-        <v>11</v>
-      </c>
-      <c r="F181" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>210</v>
       </c>
       <c r="B182">
         <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D182" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E182" t="s">
         <v>11</v>
@@ -4744,19 +7071,31 @@
       <c r="F182" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182">
+        <v>12</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="P182" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q182" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B183">
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D183" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E183" t="s">
         <v>8</v>
@@ -4764,11 +7103,1328 @@
       <c r="F183" t="s">
         <v>85</v>
       </c>
+      <c r="G183">
+        <v>12</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="P183" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q183" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P184" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q184" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P185" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q185" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P186" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q186" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P187" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q187" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P188" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q188" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P189" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q189" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P190" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q190" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P191" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q191" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P192" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q192" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P193" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q193" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P194" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q194" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P195" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q195" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P196" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q196" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P197" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q197" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P198" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q198" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P199" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q199" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P200" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q200" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P201" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q201" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P202" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q202" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P203" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q203" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P204" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q204" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P205" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q205" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P206" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q206" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P207" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q207" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P208" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q208" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P209" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q209" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P210" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q210" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P211" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q211" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P212" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q212" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P213" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q213" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P214" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q214" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P215" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q215" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P216" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q216" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P217" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q217" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P218" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q218" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P219" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q219" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P220" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q220" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P221" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q221" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P222" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q222" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P223" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q223" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P224" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q224" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P225" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q225" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P226" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q226" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P227" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q227" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P228" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q228" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P229" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q229" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P230" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q230" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P231" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q231" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P232" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q232" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P233" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q233" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P234" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q234" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P235" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q235" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P236" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q236" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P237" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q237" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P238" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q238" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P239" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q239" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P240" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q240" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P241" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q241" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P242" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q242" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P243" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q243" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P244" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q244" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P245" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q245" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P246" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q246" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P247" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q247" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P248" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q248" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P249" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q249" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P250" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q250" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P251" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q251" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P252" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q252" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P253" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q253" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P254" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q254" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P255" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q255" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P256" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q256" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P257" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q257" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P258" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q258" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P259" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q259" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P260" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q260" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P261" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q261" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P262" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q262" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P263" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q263" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P264" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q264" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P265" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q265" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P266" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q266" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P267" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q267" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P268" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q268" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P269" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q269" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P270" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q270" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P271" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q271" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P272" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q272" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P273" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q273" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P274" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q274" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P275" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q275" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P276" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q276" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P277" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q277" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P278" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q278" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P279" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q279" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P280" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q280" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P281" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q281" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P282" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q282" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P283" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q283" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P284" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q284" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P285" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q285" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P286" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q286" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P287" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q287" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P288" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q288" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P289" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q289" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="290" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P290" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q290" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P291" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q291" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P292" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q292" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P293" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q293" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P294" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q294" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P295" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q295" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P296" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q296" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P297" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q297" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P298" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q298" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P299" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q299" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P300" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q300" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P301" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q301" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="302" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P302" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q302" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="303" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P303" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q303" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="304" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P304" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q304" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="305" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P305" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q305" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="306" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P306" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q306" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P307" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q307" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P308" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q308" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P309" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q309" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P310" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q310" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P311" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q311" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="312" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P312" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q312" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="313" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P313" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q313" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="314" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P314" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q314" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="315" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P315" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q315" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="316" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P316" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q316" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P317" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q317" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="318" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P318" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q318" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="319" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P319" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q319" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P320" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q320" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="321" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P321" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q321" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P322" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q322" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P323" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q323" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P324" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q324" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P325" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q325" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P326" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q326" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="327" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P327" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q327" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="328" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P328" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q328" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="329" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P329" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q329" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="330" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P330" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q330" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="331" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P331" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q331" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="332" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P332" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q332" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="333" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P333" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q333" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P334" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q334" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="335" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P335" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q335" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="336" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P336" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q336" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="337" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P337" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q337" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="338" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P338" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q338" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="339" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P339" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q339" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="340" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P340" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q340" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="341" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P341" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q341" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="342" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P342" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q342" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="343" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P343" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q343" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="344" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P344" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q344" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="345" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P345" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q345" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="346" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P346" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q346" s="4">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Elecciones 11 Abril 2021/Constituyentes PI.xlsx
+++ b/Elecciones 11 Abril 2021/Constituyentes PI.xlsx
@@ -5,36 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Elecciones 11 Abril 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ELECCIONES\Elecciones 11 Abril 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F2975C-EB75-458A-81EF-82D0E40B8545}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E94781-9EEF-4041-BFDA-2723B0A648F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{60F7545B-3EF7-47B8-B6F1-BF05007745DD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{60F7545B-3EF7-47B8-B6F1-BF05007745DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="515">
   <si>
     <t>Pueblo</t>
   </si>
@@ -745,6 +736,840 @@
   </si>
   <si>
     <t>Cupo</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/wilmamarielconstituyentesdiaguitas/</t>
+  </si>
+  <si>
+    <t>sin Twitter</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.0-9/152339705_111823024282090_3658895135672408_o.jpg?_nc_cat=109&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=YnF47trrVH4AX8K6R9N&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=ba970cd299dfd87c497c7370383fa72f&amp;oe=606F80D7</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.0-9/153195853_111826907615035_3315278869395590355_o.jpg?_nc_cat=104&amp;ccb=1-3&amp;_nc_sid=e3f864&amp;_nc_ohc=N92Vc38i9K4AX9JAg6F&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=7357ecb21a0f6ab9f1582cd8fa20e296&amp;oe=60715DAA</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Solange-Bordones-Ernesto-Alcayaga-Diaguitas-de-cordillera-a-mar-100253378751831</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-8cbVzgD0uEA/VAJnX1DpHPI/AAAAAAAAFOE/JvQqC396JlM/s1600/DIAGUITAS.JPG</t>
+  </si>
+  <si>
+    <t>https://twitter.com/DiaguitaVirtual</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/solange_y_ernesto_diaguitas/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.0-9/151326377_111281327649036_6677447104256909330_n.jpg?_nc_cat=104&amp;ccb=1-3&amp;_nc_sid=730e14&amp;_nc_ohc=gWY6-b6gfCkAX-HF1zU&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=ac933e39bcd433cf8f5cd03b11e075f8&amp;oe=60710F76</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Red-Nacional-Diaguita-2100470693552068</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/gabrieladiaguitaconstituyente/?igshid=fll9l8tkhzqg</t>
+  </si>
+  <si>
+    <t>https://media.cnnchile.com/sites/2/2021/03/gabriela.jpeg</t>
+  </si>
+  <si>
+    <t>https://media.cnnchile.com/sites/2/2021/03/ERIC-e1614773429906.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/leticiaisabel.carokogler</t>
+  </si>
+  <si>
+    <t>https://conectadosconlamemoria.cl/masquenunca/wp-content/uploads/2020/06/CARO_RELSOCCHIL.jpg</t>
+  </si>
+  <si>
+    <t>Sin Facebook</t>
+  </si>
+  <si>
+    <t>https://conectadosconlamemoria.cl/masquenunca/wp-content/uploads/2020/06/VARGAS_TERRITORIO.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/margarita.v.lopez.9</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/formapunta/</t>
+  </si>
+  <si>
+    <t>https://fempatagonia.cl/wp/wp-content/uploads/2021/02/margarita-vargas2-660x400.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/mEVN7wWh4mI/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lucia.a.caro.1</t>
+  </si>
+  <si>
+    <t>https://twitter.com/lucia_lucia37?lang=es</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/828451140006195201/h7dZkmND_400x400.jpg</t>
+  </si>
+  <si>
+    <t>Sin Imagen</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/felicia.gonzalezcarcamo</t>
+  </si>
+  <si>
+    <t>https://archivo.laprensaaustral.cl/wp-content/uploads/2018/06/Mari%CC%81a-Felicia.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RenePanire/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Panire19</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rpanire/?hl=es-la</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-2.fna.fbcdn.net/v/t1.0-9/157202109_4211706045541209_1974245405787522705_o.jpg?_nc_cat=101&amp;ccb=1-3&amp;_nc_sid=8bfeb9&amp;_nc_ohc=FzunZ_nfFkgAX90c9GJ&amp;_nc_oc=AQlkDkn32vy2uCtqY3sFZT8UcrjLijYBVceg0g7QnQQD7s4hfh0kkTVI5dpCNZVpFoU&amp;_nc_ht=scontent.fscl11-2.fna&amp;oh=50665a83238b08d56f791911e85b7fed&amp;oe=6072A619</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/laurapb2</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-2.fna.fbcdn.net/v/t1.0-9/134808907_10158782149989246_302945136135433232_o.jpg?_nc_cat=103&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=9jrtm8c1YVwAX-DqjxV&amp;_nc_ht=scontent.fscl11-2.fna&amp;oh=94b2b67ce6c02214c18a9632aada547b&amp;oe=60713B15</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/rolando.alcaldesanpedro</t>
+  </si>
+  <si>
+    <t>https://twitter.com/rolandohumire</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.0-9/158009472_1912831878866678_2014437343027690877_n.jpg?_nc_cat=111&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=oreuGxwEgpwAX_VT7-J&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=4485e7cf02ca8cbc2d683e2c20b0f25f&amp;oe=60721F6C</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Lila-Colamar-Ter%C3%A1n-Constituyente-545191459749740/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.0-9/148372954_545193799749506_3361678464907916332_n.jpg?_nc_cat=108&amp;ccb=1-3&amp;_nc_sid=174925&amp;_nc_ohc=6y8ghlr0KWMAX_ZNcB5&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=b5f82fc49a5a9a166849e5b981eb4ffb&amp;oe=606F8055</t>
+  </si>
+  <si>
+    <t>https://www.museodeantofagasta.gob.cl/629/articles-54394_imagen_portada.thumb_listado.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100005655558079</t>
+  </si>
+  <si>
+    <t>https://twitter.com/janitacarmela40</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/alejandrinaayabire/?hl=es-la</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.0-9/156121927_1626382307560272_7442663428692732944_o.jpg?_nc_cat=110&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=bYMOl72pWlkAX88PQWb&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=77e56569e78656eb70fe734b9d3c7f6e&amp;oe=6070030E</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/cristian.varelaliendro</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/constituyentepueblolickanantay/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.0-9/146701949_542744946659915_3876036683963039916_n.jpg?_nc_cat=109&amp;ccb=1-3&amp;_nc_sid=174925&amp;_nc_ohc=GfvV3GiCR3wAX_HYTUJ&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=a5b920703c378ca03c9e2842f23eeba6&amp;oe=6071098D</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/constituyentelickanantay</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/constituyenteximenaanza/?hl=es-la</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.0-9/156729226_122055836589972_4532277769002359143_o.jpg?_nc_cat=110&amp;ccb=1-3&amp;_nc_sid=a26aad&amp;_nc_ohc=U4STz8k_smYAX8QP3-h&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=49337aa81c4e78eda1ef1ba275c6dc9d&amp;oe=60706727</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pablo.madariaga</t>
+  </si>
+  <si>
+    <t>https://twitter.com/pablosis</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/pablomadariagas/</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/1086758887401885696/jppuB_oz_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Lickau-Oriana-Mora-Rodr%C3%ADguez-Constituyente-100158592118050</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/omoraconstituyentelickanantay/?fbclid=IwAR1RVJwNdUIFjzPoLFK0VlFqMzk0rjlHxvmpeJBnQI1KbCtCqeTCtP9TFJQ</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.0-9/159302398_123780329755876_6783775804916985959_o.jpg?_nc_cat=106&amp;ccb=1-3&amp;_nc_sid=e3f864&amp;_nc_ohc=tJgEe0iVvU8AX-tF6iM&amp;_nc_oc=AQnwfKMwXKPXRUvqmW-noRYE6F7ZqD2YcyxUvlp3xo7G_8fC-ui_HE4CbiGpJRvoAks&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=870c88a20c94f56fab4d0679a3a495c4&amp;oe=60713F5E</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Alihuen-Antileo-Constituyente-Mapuche-101153018591121/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NAlihuen</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/alihuenantileon/</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/1367323800770117632/IQRE5mvq_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/elisa.loncon</t>
+  </si>
+  <si>
+    <t>https://twitter.com/elisaloncon</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/elisa.loncon/</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/1345891826281160706/RTS1OEZs_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/claudio.a.lincopi</t>
+  </si>
+  <si>
+    <t>https://twitter.com/incheclaudio?ref_src=twsrc%5Egoogle%7Ctwcamp%5Eserp%7Ctwgr%5Eauthor</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/1241171260396253184/zklamn-a_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/cayulisabel</t>
+  </si>
+  <si>
+    <t>https://twitter.com/isavestruz</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/isabel.cayul/</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/1368792636342099969/NKiYxy7s_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/mariano.cayulcanio</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=1226049141</t>
+  </si>
+  <si>
+    <t>https://twitter.com/icheuquelaf</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/icheuquelaf/</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/1359373027025248256/sU2CeS5c_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mabel_salas_colipi/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100013484262139</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ricardoinalef/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.0-9/127444093_1095279244264874_6587161800392017524_n.jpg?_nc_cat=107&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=3E4Y1Y8L2NQAX9Z9yHN&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=c05e42add302c1ff52961b0fa5ccf6a2&amp;oe=6070EAC4</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Natividad-Llanquileo-Constituyente-101645975100036/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NatividadLlanq3</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/natividadllanquileo/</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/1364238048507154435/_xTYM3VX_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/daniel.tobarjara</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/danieltobarjara/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.0-9/142540903_10223599816484600_6520990298020134661_o.jpg?_nc_cat=104&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=QPw-ZItSjVUAX8_Bmy7&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=8d10fd9ef928d0e023edf36f8f8fbeca&amp;oe=606FDADA</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AdolfoMillaburOficial/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/millaburadolfo?lang=es</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/adolfomillabur/</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/1359321947096686592/9ZQnTbrx_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/gabriel.kurruman</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/gabriel_kurruman_huenteman/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.0-9/154390278_3775131415937535_1000152044844295527_n.jpg?_nc_cat=107&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=mvZJUCFpKRQAX-xgKAk&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=72518edba6cc72774426f80b9f1a0c61&amp;oe=60706A0E</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/erikaernesrina.insoteozalonconao</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MariaOlmosLoncopanConstituyente</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mariaolmoslonconstituyente/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.0-9/158912449_117459650347126_1634275493300530965_o.jpg?_nc_cat=108&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=R7hVCHZPNgsAX--t5qN&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=d7ffcb458e5ecf708af6420e80082cf7&amp;oe=6070B146</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/juan.p.linco</t>
+  </si>
+  <si>
+    <t>https://twitter.com/juan_pichilen?lang=es</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/juan_pichilen/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.0-9/138334615_10224460572886094_6961055554481411646_o.jpg?_nc_cat=110&amp;ccb=1-3&amp;_nc_sid=e3f864&amp;_nc_ohc=2yuyaCjqF5EAX_esG2U&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=1f020058c1a9cd8d31d23a0078f842ae&amp;oe=6072759D</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/santoreinao.alcalde</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/santo_reinaoconstituyente/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/veroleviconstituyenteindigena/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-2.fna.fbcdn.net/v/t1.0-9/158226161_119219230154049_7816256381813135308_n.jpg?_nc_cat=102&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=1sWDztbBxQcAX-KBAxE&amp;_nc_ht=scontent.fscl11-2.fna&amp;oh=588dbeed63fdca7778f1df299d04dc86&amp;oe=60724678</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/juanagustin.correanaupa</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/franciscalinconao.huircapan</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/machifranciscalinconao/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.0-9/41659027_538235556634254_7895772721965957120_n.jpg?_nc_cat=106&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=MxmomZzJNaYAX8fzsFm&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=cd9215f254752e204da9d94c27d2987e&amp;oe=6072D5A3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Ingrid-Conejeros-Constituyente-103719884967939</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ConejerosIngrid</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ingrid.conejeros/</t>
+  </si>
+  <si>
+    <t>https://www.ingridconejerosconstituyente.cl/wp-content/uploads/2021/02/portadaprograma.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/mauriciolepinaninirl1</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mauriciolepinaninirl1/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.0-9/137623689_10225165709716385_2376040821946712093_n.jpg?_nc_cat=105&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=N0H1dnIHbmAAX9GV8NH&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=d224a04fe1e1eb078af642afe94bb89c&amp;oe=60722E31</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/gabriela.espanacollio</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/gabrielaespanacollio/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.0-9/137654692_106665471401671_6633791039837142314_n.jpg?_nc_cat=104&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=6H0IsHW1fbUAX-zTTN3&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=3972f062181f5148896bc1fc999f4b49&amp;oe=6071EF71</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/luis.jimenezcaceres/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/luisjimenezc?lang=en</t>
+  </si>
+  <si>
+    <t>Sin Instagram</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl9-1.fna.fbcdn.net/v/t1.0-9/155922216_10225518859018785_6411224642232887272_o.jpg?_nc_cat=101&amp;_nc_map=control&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=Vn3V_utFqNEAX9pEHlT&amp;_nc_ht=scontent.fscl9-1.fna&amp;oh=10938380f9ea95df38325e59ec4fdb9a&amp;oe=606F4E99</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kusi.jenn?fref=nf</t>
+  </si>
+  <si>
+    <t>https://twitter.com/choque_jennyfer/with_replies?lang=en</t>
+  </si>
+  <si>
+    <t>Sin imagen</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/maritzapatricia.quispemedina</t>
+  </si>
+  <si>
+    <t>Sin Twitter</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl9-1.fna.fbcdn.net/v/t1.0-9/159787654_10224815841206304_1489310886709368230_o.jpg?_nc_cat=102&amp;_nc_map=control&amp;ccb=1-3&amp;_nc_sid=e3f864&amp;_nc_ohc=7PB53TF25vEAX9IuqIU&amp;_nc_ht=scontent.fscl9-1.fna&amp;oh=e946fa333b9426d7e6b52bc4509b75b5&amp;oe=606F1B3C</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lesliejasmin.villcalovera</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/chiimu/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/naomicalleg?lang=es</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/callegnaomi/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl9-1.fna.fbcdn.net/v/t1.0-9/151892164_10224438732866961_7262948976120118797_o.jpg?_nc_cat=109&amp;_nc_map=control&amp;ccb=1-3&amp;_nc_sid=e3f864&amp;_nc_ohc=KrxFOFa0XZwAX9OBYQR&amp;_nc_ht=scontent.fscl9-1.fna&amp;oh=a3d32791a3c02d724f61d1df6aa837be&amp;oe=60728801</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/carlos.canariramirez</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/delia.condoriflores.18</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/miguelangel.mamanirios.587</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/miguel_mamani_rios/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl9-2.fna.fbcdn.net/v/t1.0-9/151090279_250216233251399_3080438348986865831_o.jpg?_nc_cat=107&amp;_nc_map=control&amp;ccb=1-3&amp;_nc_sid=e3f864&amp;_nc_ohc=W1FFvmmPvo0AX-mBlmw&amp;_nc_ht=scontent.fscl9-2.fna&amp;oh=ae5ccfcb30101ff505950a638224afa2&amp;oe=6072ED80</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/teresaandrea.centellamolina</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/angelino.huancamaita</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/alejandra.tapiaalave</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/CatalinaCortesConstituyente</t>
+  </si>
+  <si>
+    <t>https://twitter.com/CataCortes_Pica</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/catacortes_pica/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl9-1.fna.fbcdn.net/v/t1.0-9/141667057_104939511601177_5464159007359953566_n.jpg?_nc_cat=111&amp;_nc_map=control&amp;ccb=1-3&amp;_nc_sid=730e14&amp;_nc_ohc=rcebKdSHySYAX8HB2Os&amp;_nc_ht=scontent.fscl9-1.fna&amp;oh=719c711d577255e43cb53245a1f3b15a&amp;oe=6072E98F</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/javier.supanta</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl9-1.fna.fbcdn.net/v/t1.0-9/142454142_10225440300582741_9030303214853348918_o.jpg?_nc_cat=103&amp;_nc_map=control&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=n_KztyvZL68AX8Hc645&amp;_nc_oc=AQnz1exr2nPMCJW6QFu8wEzj31ruo-5kQBvhPu5eII9QmYznbOFjTEDbMq95tl3w8UxAje5yPKET5DREv27POryc&amp;_nc_ht=scontent.fscl9-1.fna&amp;oh=db294ac5c383f7a769f39ab0e4e2d405&amp;oe=6071E929</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/rolandojavier.aguirremedina/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/maria.i.cam</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nelida.diaz.731</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl9-2.fna.fbcdn.net/v/t1.0-9/146045005_4090903284276378_7836310543369769174_n.jpg?_nc_cat=108&amp;_nc_map=control&amp;ccb=1-3&amp;_nc_sid=a4a2d7&amp;_nc_ohc=GzTWwEW7WrIAX9Htrt6&amp;_nc_ht=scontent.fscl9-2.fna&amp;oh=ef5bf76358e1e4b2bf1ebfa6bc039ad8&amp;oe=6071BF7D</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/joelisaacmamani/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/brunigloria.mamanimamani</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl9-2.fna.fbcdn.net/v/t1.0-9/149306598_3723945034348414_8549809734114781344_o.jpg?_nc_cat=106&amp;_nc_map=control&amp;ccb=1-3&amp;_nc_sid=174925&amp;_nc_ohc=NWPRqRSMypIAX9IOH-q&amp;_nc_ht=scontent.fscl9-2.fna&amp;oh=56e7713a701e75e9b40885a05a0014c0&amp;oe=6072DE84</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/franko.eyzaguirre</t>
+  </si>
+  <si>
+    <t>https://twitter.com/eyzaguirre93</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nelida.moscoso</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MoscosoNelida</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/butron.ruido?hc_ref=ARSVyrh7MZBh1Yl4T-9mMGks6Z07EJVKqvh6E1HVSPIr7pd62lqKbgkdqXiN6ZORF8w&amp;ref=nf_target</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/butronyovich/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marcelo.condoreconstituyente</t>
+  </si>
+  <si>
+    <t>https://twitter.com/mcondore</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Papic72</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/richards.challapa</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/alexis.checo</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/cacho.cortes.39/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/horacio30105294</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl9-1.fna.fbcdn.net/v/t1.0-9/153025127_10225458902723135_6345936254943655069_o.jpg?_nc_cat=111&amp;_nc_map=control&amp;ccb=1-3&amp;_nc_sid=e3f864&amp;_nc_ohc=wGx7Ii7yrmAAX_nGei_&amp;_nc_ht=scontent.fscl9-1.fna&amp;oh=c385475a60038fbf0a0d0cbddde83cea&amp;oe=606FCADD</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/brenda.gutierrezalmendares/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Issa.Gm/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl9-1.fna.fbcdn.net/v/t1.0-9/151310546_10224437575878014_4689246375495955124_o.jpg?_nc_cat=101&amp;_nc_map=control&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=n7Guu41qV5UAX8tSrBA&amp;_nc_oc=AQnqRn5a4Up0etyijPxBLwluZ3hpoNgeuU9LcZ6Zy6jWyOnvdiWIFBRfKHkiY0E4K4C6gJ8py0NTPYwk5OipidVl&amp;_nc_ht=scontent.fscl9-1.fna&amp;oh=146e17b48ecd5ed1fe373a33fb574a02&amp;oe=60728561</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/violeta.palacio.31</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl9-1.fna.fbcdn.net/v/t1.0-9/160679785_1573991396324697_8638812272966460044_o.jpg?_nc_cat=103&amp;_nc_map=control&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=eYuAXFoJESMAX8YIhXh&amp;_nc_ht=scontent.fscl9-1.fna&amp;oh=3af1cbbb4311950262ccbb45e258cf4c&amp;oe=6074037B</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/franciscojavier.cortesgodoy.14</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/photo/?fbid=120608332599439&amp;set=a.102566251070314</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/zulemaluisa.mancillacardozo/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl9-1.fna.fbcdn.net/v/t1.0-9/156210389_10224892114667324_4171101078098782102_n.jpg?_nc_cat=111&amp;_nc_map=control&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=RBpG1eko_vMAX8FKUIE&amp;_nc_ht=scontent.fscl9-1.fna&amp;oh=40912102e62e583f24e883a430a8d3db&amp;oe=60719FAF</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/hector.salinascortez.3</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl9-1.fna.fbcdn.net/v/t1.0-9/151621352_475523390127397_1838568067254282585_n.jpg?_nc_cat=109&amp;_nc_map=control&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=phjNOPVAQNUAX8g8j4L&amp;_nc_ht=scontent.fscl9-1.fna&amp;oh=8b3deb461e92e6a914fc0e67550d52de&amp;oe=60728F77</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/inessoledadcarvajal/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/retamalalbina</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl9-2.fna.fbcdn.net/v/t1.0-9/144378291_4022026001175688_4291942159943771881_n.jpg?_nc_cat=107&amp;_nc_map=control&amp;ccb=1-3&amp;_nc_sid=730e14&amp;_nc_ohc=p2dLqPaPLyQAX-B6iox&amp;_nc_ht=scontent.fscl9-2.fna&amp;oh=340704b9604ab0dd5c386b78be637204&amp;oe=60709053</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/daniza.alvarezmoreno</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl9-1.fna.fbcdn.net/v/t1.0-9/156962895_3365565153547525_3967782697355339645_n.jpg?_nc_cat=101&amp;_nc_map=control&amp;ccb=1-3&amp;_nc_sid=e3f864&amp;_nc_ohc=Mim94BIFlDkAX-NNp27&amp;_nc_ht=scontent.fscl9-1.fna&amp;oh=4443a609226422980dcb658a36607d49&amp;oe=60712621</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/rosa.c.arias.9</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rosacatrileoconcejal/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl10-1.fna.fbcdn.net/v/t1.0-9/149397881_10225560386256920_2181474400229723387_n.jpg?_nc_cat=101&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=IuYLTfJfBxwAX9aMghH&amp;_nc_ht=scontent.fscl10-1.fna&amp;oh=35d734c43b3e596290dcb405577a429e&amp;oe=60729B39</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Cursomapuzuguntco</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/benitocumilaf/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl10-1.fna.fbcdn.net/v/t1.0-9/156294431_3138908699669796_3867967379388497731_n.jpg?_nc_cat=108&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=4qQ9mBaI-ggAX82FITT&amp;_nc_ht=scontent.fscl10-1.fna&amp;oh=3684428734ae5642559cf7d7c08775d3&amp;oe=60722EEE</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SofiaHuenchumillaMarilao/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/HuenchumillaM</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sofiahuenchumilla/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl10-1.fna.fbcdn.net/v/t1.0-9/151505939_122723626428528_1574997289299133749_o.jpg?_nc_cat=110&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=hQDLvkruepsAX-Peqxp&amp;_nc_ht=scontent.fscl10-1.fna&amp;oh=f5579c4ec26252d7c23557966c3030d3&amp;oe=60724441</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/gustavoquilaqueoconstituyente/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl10-1.fna.fbcdn.net/v/t1.0-9/142864286_104450194991682_7531367104350960339_o.jpg?_nc_cat=102&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=lUSczuPe9gYAX_Z3YXk&amp;_nc_ht=scontent.fscl10-1.fna&amp;oh=ba3924f1f6a77f04b08c2ee9ed327864&amp;oe=607128A0</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/yessica.huenteman</t>
+  </si>
+  <si>
+    <t>https://twitter.com/WenteManke</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/1368320684443762693/pjvFCLo5_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marcialcolinlincolao/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Marcial_Colin</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/colinlincolao/</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/455331344168394752/FaUR4W85_400x400.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ana.llaollao</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AnaLlao</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/anallaollaoconstituyente/</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/media/EwUquGYWQAAo4_U?format=jpg&amp;name=medium</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/manuel.curioolivares</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/curiomanolo/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl10-1.fna.fbcdn.net/v/t1.0-9/150579282_10208303599984686_5587074854243841746_n.jpg?_nc_cat=101&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=YJ8f-2QO4tcAX_o0TwV&amp;_nc_ht=scontent.fscl10-1.fna&amp;oh=8679843580267acc5f823bca97cb0164&amp;oe=6072D242</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/herbolaria.mapulawen</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl10-1.fna.fbcdn.net/v/t1.0-9/156940625_3633728533363022_9053681751185351651_n.jpg?_nc_cat=111&amp;ccb=1-3&amp;_nc_sid=8bfeb9&amp;_nc_ohc=6pg5tay7AP0AX-7-yD3&amp;_nc_ht=scontent.fscl10-1.fna&amp;oh=4f6281890581697cf0ed16f518b351d1&amp;oe=6071BE4B</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Galvarino-Reiman-H-Werken-a-Constituyente-103237705059258/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/galvarino.reiman/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl10-1.fna.fbcdn.net/v/t1.0-9/136675095_105805981469097_5769960372270001789_o.jpg?_nc_cat=105&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=pH96hDDnX-0AX_EZlp9&amp;_nc_ht=scontent.fscl10-1.fna&amp;oh=db3799cb36d310be8cca9bc3dc82c19e&amp;oe=60736DD7</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/angelica.catrileogaete</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl10-1.fna.fbcdn.net/v/t1.0-9/79588202_2779853398703170_5831296038584975360_o.jpg?_nc_cat=101&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=aX0P-nOIUTcAX_psN1w&amp;_nc_oc=AQlOEXImZ39ia8sqEFAkbmxmZ61JUgiDy0xiJc-fi9mh-ArM9Po5tkcg2BWNjZWda7Y&amp;_nc_ht=scontent.fscl10-1.fna&amp;oh=feeea94bf12e6dde2fc280a26280b8ca&amp;oe=6070D17F</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/manuelalbertosantandersolis/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/rosamaria.caniupilhuaiquinir</t>
+  </si>
+  <si>
+    <t>https://twitter.com/merycayuman</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/1282863541494730754/hAU-0Q_N_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/andres.cuminao/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl10-1.fna.fbcdn.net/v/t1.0-9/119633234_10223064340539033_3750348871983699992_o.jpg?_nc_cat=103&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=5XtM9WozVXwAX9q_-jV&amp;_nc_ht=scontent.fscl10-1.fna&amp;oh=b711ff62d25d523a34812ff6bd1dbecf&amp;oe=6070863C</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/elbaolayam</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl10-1.fna.fbcdn.net/v/t1.0-9/150351951_10219408927956438_6081972298534557076_n.jpg?_nc_cat=111&amp;ccb=1-3&amp;_nc_sid=174925&amp;_nc_ohc=53VsFprYITQAX82OzrP&amp;_nc_ht=scontent.fscl10-1.fna&amp;oh=8cda13e67acf4f19cdf90e9b36c14487&amp;oe=6073B61B</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/people/Pedro-Omar-Calbu%C3%B1ir-Pinoleo/100010878789892</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl10-1.fna.fbcdn.net/v/t1.0-1/c53.0.320.320a/p320x320/13494823_255500971489194_4224317499242800137_n.jpg?_nc_cat=107&amp;ccb=1-3&amp;_nc_sid=7206a8&amp;_nc_ohc=vSbTcQWs0loAX-i2jzS&amp;_nc_ht=scontent.fscl10-1.fna&amp;tp=27&amp;oh=bc1ab71989c045007c12e7b04b38d1a4&amp;oe=6071C8F5</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ingrid_pedraza_huinca/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/VanessaHuaiquimilla/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/vhuaiquimillaconstituyente/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl10-1.fna.fbcdn.net/v/t1.0-9/126496454_101399438474692_4507439545780809247_o.jpg?_nc_cat=105&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=xCFWYorTYq4AX_hFv4D&amp;_nc_ht=scontent.fscl10-1.fna&amp;oh=6ec44c4400ec0836ac8c7ca38e078a51&amp;oe=6070CDBE</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/carmentomasacaifil/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/carmencaifilyvictorinoantilefconstituyente/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/orietta.huala/</t>
+  </si>
+  <si>
+    <t>http://revistadefrente.cl/wp-content/uploads/2020/12/1009087_10202172236926510_1243020400_o.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/yonathan.eduardo.14</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/yona.0010/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl10-1.fna.fbcdn.net/v/t1.0-9/149969154_3131067077120636_8762588982378260812_n.jpg?_nc_cat=102&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=E7fTNMJDaq4AX8jaip2&amp;_nc_ht=scontent.fscl10-1.fna&amp;oh=dab7d96cc756109ac01297fecd054086&amp;oe=60716E73</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/maribel.varas.908?fref=nf</t>
+  </si>
+  <si>
+    <t>https://twitter.com/varas_maribel?lang=ar</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/1362523627736956929/ZqSgXAft_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/karmen.gualaman</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl10-1.fna.fbcdn.net/v/t1.0-9/157247873_10225047481275870_4940848843955076331_n.jpg?_nc_cat=103&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=Rn3LQt2dLEEAX8ozHP5&amp;_nc_ht=scontent.fscl10-1.fna&amp;oh=5f212612effc6b21faf3c6a7719012e5&amp;oe=6070547A</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/hilda.guenteoguenteo</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl10-1.fna.fbcdn.net/v/t1.0-9/140398379_3576246329156034_5855771586384634492_n.jpg?_nc_cat=106&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=W5h7-SLUbloAX_uRcX1&amp;_nc_ht=scontent.fscl10-1.fna&amp;oh=f6c219a198b11edc842e736f8567c625&amp;oe=60733742</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/vargasquinchaman_constituyente/</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/Rb2TMkQnjnQ/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/soniacatepillanguinao/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/manuelrolando.rauqueguenteo?hc_ref=PAGES_TIMELINE&amp;fref=nf</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/juanricardovasquez</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/juanvasquezalarcon/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl10-1.fna.fbcdn.net/v/t1.0-9/149823764_10223157238414284_2551464977896233904_o.jpg?_nc_cat=111&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=NO8ZTu1OK7YAX_KEZMo&amp;_nc_ht=scontent.fscl10-1.fna&amp;oh=5ea5f9a14ce91dd8f72dc24ebbc39609&amp;oe=6071FEC3</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ceferinocastro</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ceferino.constituyente/</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/2777679410/4eb521e0a2aec7699a476666b7eeb131_400x400.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.banderasdelmundo.net/wp-content/uploads/2019/09/bandera-quechua-o-wiphala-300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/wilfredo.b.delgado.5</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl10-1.fna.fbcdn.net/v/t1.0-9/157130376_10225490855677958_3203629182686233508_o.jpg?_nc_cat=110&amp;ccb=1-3&amp;_nc_sid=e3f864&amp;_nc_ohc=qKmOnaV8KLUAX96Hx9Z&amp;_nc_ht=scontent.fscl10-1.fna&amp;oh=df5beb23fa1d0c8c1639ed8e27b840e7&amp;oe=607092FF</t>
+  </si>
+  <si>
+    <t>https://twitter.com/pameoliden?lang=es</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/media/EwCqwzsWgAMdyAf?format=jpg&amp;name=large</t>
+  </si>
+  <si>
+    <t>http://img.soy-chile.cl/Fotos/municipales2016/fotos-alcaldes/20161025/ollague/alexis-javier-vicentelo-vicentelo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pedro.fatitepano/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/fatitepano/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl10-1.fna.fbcdn.net/v/t1.0-9/136087258_1151034471980961_8391092641514370083_n.jpg?_nc_cat=103&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=3lCr3ZyoI60AX-YXimd&amp;_nc_oc=AQlPU99Pjbd0EQcnki2KUTbTQWFJnIDSDsRk3o7RkEaS_PqfxortV6o-c0fwrTYL90U&amp;_nc_ht=scontent.fscl10-1.fna&amp;oh=1a84bac120671848e61da899b9995e71&amp;oe=60737428</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tiare.aguilera.3/</t>
+  </si>
+  <si>
+    <t>https://media.cnnchile.com/sites/2/2021/03/221948ea-8542-412a-b8ba-a366b857be5a-e1615320176303.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/rafael.tepano</t>
+  </si>
+  <si>
+    <t>https://twitter.com/matamea</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rafaeltukitepano/</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/1129596892/HOHOA-RINKO_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/5523/14358749242_e50cd7d642_c.jpg</t>
+  </si>
+  <si>
+    <t>https://static.emol.cl/emol50/Fotos/2021/01/28/file_20210128165206.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/f4/f6/7f/f4f67fd33ae7cb43d38c7aa59ea421db.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2f/Bandera_Kawesqar.svg/1024px-Bandera_Kawesqar.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f1/Flag_of_the_Mapuches.svg/800px-Flag_of_the_Mapuches.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d8/Flag_of_Rapa_Nui%2C_Chile.svg/1024px-Flag_of_Rapa_Nui%2C_Chile.svg.png</t>
   </si>
 </sst>
 </file>
@@ -772,7 +1597,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,6 +1607,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,7 +1705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -886,6 +1717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1229,7 +2061,7 @@
   <dimension ref="A1:Q346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +2148,21 @@
       <c r="H2">
         <v>2</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="I2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J2" t="s">
+        <v>358</v>
+      </c>
+      <c r="K2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="M2" t="s">
+        <v>511</v>
+      </c>
       <c r="P2" s="6" t="s">
         <v>220</v>
       </c>
@@ -1349,6 +2195,21 @@
       <c r="H3">
         <v>2</v>
       </c>
+      <c r="I3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J3" t="s">
+        <v>362</v>
+      </c>
+      <c r="K3" t="s">
+        <v>359</v>
+      </c>
+      <c r="L3" t="s">
+        <v>363</v>
+      </c>
+      <c r="M3" t="s">
+        <v>511</v>
+      </c>
       <c r="P3" s="6" t="s">
         <v>220</v>
       </c>
@@ -1381,6 +2242,21 @@
       <c r="H4">
         <v>2</v>
       </c>
+      <c r="I4" t="s">
+        <v>364</v>
+      </c>
+      <c r="J4" t="s">
+        <v>365</v>
+      </c>
+      <c r="K4" t="s">
+        <v>359</v>
+      </c>
+      <c r="L4" t="s">
+        <v>366</v>
+      </c>
+      <c r="M4" t="s">
+        <v>511</v>
+      </c>
       <c r="P4" s="6" t="s">
         <v>220</v>
       </c>
@@ -1413,6 +2289,21 @@
       <c r="H5">
         <v>2</v>
       </c>
+      <c r="I5" t="s">
+        <v>252</v>
+      </c>
+      <c r="J5" t="s">
+        <v>365</v>
+      </c>
+      <c r="K5" t="s">
+        <v>359</v>
+      </c>
+      <c r="L5" t="s">
+        <v>363</v>
+      </c>
+      <c r="M5" t="s">
+        <v>511</v>
+      </c>
       <c r="P5" s="6" t="s">
         <v>220</v>
       </c>
@@ -1445,6 +2336,21 @@
       <c r="H6">
         <v>2</v>
       </c>
+      <c r="I6" t="s">
+        <v>252</v>
+      </c>
+      <c r="J6" t="s">
+        <v>365</v>
+      </c>
+      <c r="K6" t="s">
+        <v>359</v>
+      </c>
+      <c r="L6" t="s">
+        <v>363</v>
+      </c>
+      <c r="M6" t="s">
+        <v>511</v>
+      </c>
       <c r="P6" s="6" t="s">
         <v>220</v>
       </c>
@@ -1477,6 +2383,21 @@
       <c r="H7">
         <v>2</v>
       </c>
+      <c r="I7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L7" t="s">
+        <v>363</v>
+      </c>
+      <c r="M7" t="s">
+        <v>511</v>
+      </c>
       <c r="P7" s="6" t="s">
         <v>220</v>
       </c>
@@ -1509,6 +2430,21 @@
       <c r="H8">
         <v>2</v>
       </c>
+      <c r="I8" t="s">
+        <v>368</v>
+      </c>
+      <c r="J8" t="s">
+        <v>369</v>
+      </c>
+      <c r="K8" t="s">
+        <v>370</v>
+      </c>
+      <c r="L8" t="s">
+        <v>371</v>
+      </c>
+      <c r="M8" t="s">
+        <v>511</v>
+      </c>
       <c r="P8" s="6" t="s">
         <v>220</v>
       </c>
@@ -1541,6 +2477,21 @@
       <c r="H9">
         <v>2</v>
       </c>
+      <c r="I9" t="s">
+        <v>372</v>
+      </c>
+      <c r="J9" t="s">
+        <v>365</v>
+      </c>
+      <c r="K9" t="s">
+        <v>359</v>
+      </c>
+      <c r="L9" t="s">
+        <v>363</v>
+      </c>
+      <c r="M9" t="s">
+        <v>511</v>
+      </c>
       <c r="P9" s="6" t="s">
         <v>221</v>
       </c>
@@ -1573,6 +2524,21 @@
       <c r="H10">
         <v>2</v>
       </c>
+      <c r="I10" t="s">
+        <v>373</v>
+      </c>
+      <c r="J10" t="s">
+        <v>365</v>
+      </c>
+      <c r="K10" t="s">
+        <v>359</v>
+      </c>
+      <c r="L10" t="s">
+        <v>363</v>
+      </c>
+      <c r="M10" t="s">
+        <v>511</v>
+      </c>
       <c r="P10" s="6" t="s">
         <v>221</v>
       </c>
@@ -1605,6 +2571,21 @@
       <c r="H11">
         <v>2</v>
       </c>
+      <c r="I11" t="s">
+        <v>252</v>
+      </c>
+      <c r="J11" t="s">
+        <v>365</v>
+      </c>
+      <c r="K11" t="s">
+        <v>359</v>
+      </c>
+      <c r="L11" t="s">
+        <v>363</v>
+      </c>
+      <c r="M11" t="s">
+        <v>511</v>
+      </c>
       <c r="P11" s="6" t="s">
         <v>221</v>
       </c>
@@ -1637,6 +2618,21 @@
       <c r="H12">
         <v>2</v>
       </c>
+      <c r="I12" t="s">
+        <v>252</v>
+      </c>
+      <c r="J12" t="s">
+        <v>365</v>
+      </c>
+      <c r="K12" t="s">
+        <v>359</v>
+      </c>
+      <c r="L12" t="s">
+        <v>363</v>
+      </c>
+      <c r="M12" t="s">
+        <v>511</v>
+      </c>
       <c r="P12" s="6" t="s">
         <v>221</v>
       </c>
@@ -1669,6 +2665,21 @@
       <c r="H13">
         <v>2</v>
       </c>
+      <c r="I13" t="s">
+        <v>252</v>
+      </c>
+      <c r="J13" t="s">
+        <v>365</v>
+      </c>
+      <c r="K13" t="s">
+        <v>359</v>
+      </c>
+      <c r="L13" t="s">
+        <v>363</v>
+      </c>
+      <c r="M13" t="s">
+        <v>511</v>
+      </c>
       <c r="P13" s="6" t="s">
         <v>221</v>
       </c>
@@ -1701,6 +2712,21 @@
       <c r="H14">
         <v>2</v>
       </c>
+      <c r="I14" t="s">
+        <v>374</v>
+      </c>
+      <c r="J14" t="s">
+        <v>365</v>
+      </c>
+      <c r="K14" t="s">
+        <v>375</v>
+      </c>
+      <c r="L14" t="s">
+        <v>376</v>
+      </c>
+      <c r="M14" t="s">
+        <v>511</v>
+      </c>
       <c r="P14" s="6" t="s">
         <v>221</v>
       </c>
@@ -1733,6 +2759,21 @@
       <c r="H15">
         <v>2</v>
       </c>
+      <c r="I15" t="s">
+        <v>252</v>
+      </c>
+      <c r="J15" t="s">
+        <v>365</v>
+      </c>
+      <c r="K15" t="s">
+        <v>359</v>
+      </c>
+      <c r="L15" t="s">
+        <v>363</v>
+      </c>
+      <c r="M15" t="s">
+        <v>511</v>
+      </c>
       <c r="P15" s="6" t="s">
         <v>221</v>
       </c>
@@ -1765,6 +2806,21 @@
       <c r="H16">
         <v>2</v>
       </c>
+      <c r="I16" t="s">
+        <v>252</v>
+      </c>
+      <c r="J16" t="s">
+        <v>365</v>
+      </c>
+      <c r="K16" t="s">
+        <v>359</v>
+      </c>
+      <c r="L16" t="s">
+        <v>363</v>
+      </c>
+      <c r="M16" t="s">
+        <v>511</v>
+      </c>
       <c r="P16" s="6" t="s">
         <v>221</v>
       </c>
@@ -1797,6 +2853,21 @@
       <c r="H17">
         <v>2</v>
       </c>
+      <c r="I17" t="s">
+        <v>377</v>
+      </c>
+      <c r="J17" t="s">
+        <v>365</v>
+      </c>
+      <c r="K17" t="s">
+        <v>359</v>
+      </c>
+      <c r="L17" t="s">
+        <v>363</v>
+      </c>
+      <c r="M17" t="s">
+        <v>511</v>
+      </c>
       <c r="P17" s="6" t="s">
         <v>221</v>
       </c>
@@ -1829,6 +2900,21 @@
       <c r="H18">
         <v>2</v>
       </c>
+      <c r="I18" t="s">
+        <v>378</v>
+      </c>
+      <c r="J18" t="s">
+        <v>365</v>
+      </c>
+      <c r="K18" t="s">
+        <v>359</v>
+      </c>
+      <c r="L18" t="s">
+        <v>363</v>
+      </c>
+      <c r="M18" t="s">
+        <v>511</v>
+      </c>
       <c r="P18" s="6" t="s">
         <v>222</v>
       </c>
@@ -1861,6 +2947,21 @@
       <c r="H19">
         <v>2</v>
       </c>
+      <c r="I19" t="s">
+        <v>379</v>
+      </c>
+      <c r="J19" t="s">
+        <v>365</v>
+      </c>
+      <c r="K19" t="s">
+        <v>359</v>
+      </c>
+      <c r="L19" t="s">
+        <v>363</v>
+      </c>
+      <c r="M19" t="s">
+        <v>511</v>
+      </c>
       <c r="P19" s="6" t="s">
         <v>222</v>
       </c>
@@ -1893,6 +2994,21 @@
       <c r="H20">
         <v>2</v>
       </c>
+      <c r="I20" t="s">
+        <v>380</v>
+      </c>
+      <c r="J20" t="s">
+        <v>381</v>
+      </c>
+      <c r="K20" t="s">
+        <v>382</v>
+      </c>
+      <c r="L20" t="s">
+        <v>383</v>
+      </c>
+      <c r="M20" t="s">
+        <v>511</v>
+      </c>
       <c r="P20" s="6" t="s">
         <v>222</v>
       </c>
@@ -1925,6 +3041,21 @@
       <c r="H21">
         <v>2</v>
       </c>
+      <c r="I21" t="s">
+        <v>384</v>
+      </c>
+      <c r="J21" t="s">
+        <v>365</v>
+      </c>
+      <c r="K21" t="s">
+        <v>359</v>
+      </c>
+      <c r="L21" t="s">
+        <v>385</v>
+      </c>
+      <c r="M21" t="s">
+        <v>511</v>
+      </c>
       <c r="P21" s="6" t="s">
         <v>222</v>
       </c>
@@ -1957,6 +3088,21 @@
       <c r="H22">
         <v>2</v>
       </c>
+      <c r="I22" t="s">
+        <v>386</v>
+      </c>
+      <c r="J22" t="s">
+        <v>365</v>
+      </c>
+      <c r="K22" t="s">
+        <v>359</v>
+      </c>
+      <c r="L22" t="s">
+        <v>363</v>
+      </c>
+      <c r="M22" t="s">
+        <v>511</v>
+      </c>
       <c r="P22" s="6" t="s">
         <v>222</v>
       </c>
@@ -1989,6 +3135,21 @@
       <c r="H23">
         <v>2</v>
       </c>
+      <c r="I23" t="s">
+        <v>387</v>
+      </c>
+      <c r="J23" t="s">
+        <v>365</v>
+      </c>
+      <c r="K23" t="s">
+        <v>359</v>
+      </c>
+      <c r="L23" t="s">
+        <v>363</v>
+      </c>
+      <c r="M23" t="s">
+        <v>511</v>
+      </c>
       <c r="P23" s="6" t="s">
         <v>222</v>
       </c>
@@ -2021,6 +3182,21 @@
       <c r="H24">
         <v>2</v>
       </c>
+      <c r="I24" t="s">
+        <v>388</v>
+      </c>
+      <c r="J24" t="s">
+        <v>365</v>
+      </c>
+      <c r="K24" t="s">
+        <v>359</v>
+      </c>
+      <c r="L24" t="s">
+        <v>389</v>
+      </c>
+      <c r="M24" t="s">
+        <v>511</v>
+      </c>
       <c r="P24" s="6" t="s">
         <v>222</v>
       </c>
@@ -2053,6 +3229,21 @@
       <c r="H25">
         <v>2</v>
       </c>
+      <c r="I25" t="s">
+        <v>252</v>
+      </c>
+      <c r="J25" t="s">
+        <v>365</v>
+      </c>
+      <c r="K25" t="s">
+        <v>390</v>
+      </c>
+      <c r="L25" t="s">
+        <v>363</v>
+      </c>
+      <c r="M25" t="s">
+        <v>511</v>
+      </c>
       <c r="P25" s="6" t="s">
         <v>222</v>
       </c>
@@ -2085,6 +3276,21 @@
       <c r="H26">
         <v>2</v>
       </c>
+      <c r="I26" t="s">
+        <v>391</v>
+      </c>
+      <c r="J26" t="s">
+        <v>365</v>
+      </c>
+      <c r="K26" t="s">
+        <v>359</v>
+      </c>
+      <c r="L26" t="s">
+        <v>392</v>
+      </c>
+      <c r="M26" t="s">
+        <v>511</v>
+      </c>
       <c r="P26" s="6" t="s">
         <v>222</v>
       </c>
@@ -2117,6 +3323,21 @@
       <c r="H27">
         <v>2</v>
       </c>
+      <c r="I27" t="s">
+        <v>393</v>
+      </c>
+      <c r="J27" t="s">
+        <v>394</v>
+      </c>
+      <c r="K27" t="s">
+        <v>359</v>
+      </c>
+      <c r="L27" t="s">
+        <v>363</v>
+      </c>
+      <c r="M27" t="s">
+        <v>511</v>
+      </c>
       <c r="P27" s="6" t="s">
         <v>223</v>
       </c>
@@ -2149,6 +3370,21 @@
       <c r="H28">
         <v>2</v>
       </c>
+      <c r="I28" t="s">
+        <v>395</v>
+      </c>
+      <c r="J28" t="s">
+        <v>396</v>
+      </c>
+      <c r="K28" t="s">
+        <v>359</v>
+      </c>
+      <c r="L28" t="s">
+        <v>363</v>
+      </c>
+      <c r="M28" t="s">
+        <v>511</v>
+      </c>
       <c r="P28" s="6" t="s">
         <v>223</v>
       </c>
@@ -2181,6 +3417,21 @@
       <c r="H29">
         <v>2</v>
       </c>
+      <c r="I29" t="s">
+        <v>397</v>
+      </c>
+      <c r="J29" t="s">
+        <v>365</v>
+      </c>
+      <c r="K29" t="s">
+        <v>398</v>
+      </c>
+      <c r="L29" t="s">
+        <v>363</v>
+      </c>
+      <c r="M29" t="s">
+        <v>511</v>
+      </c>
       <c r="P29" s="6" t="s">
         <v>223</v>
       </c>
@@ -2213,6 +3464,21 @@
       <c r="H30">
         <v>2</v>
       </c>
+      <c r="I30" t="s">
+        <v>252</v>
+      </c>
+      <c r="J30" t="s">
+        <v>365</v>
+      </c>
+      <c r="K30" t="s">
+        <v>359</v>
+      </c>
+      <c r="L30" t="s">
+        <v>363</v>
+      </c>
+      <c r="M30" t="s">
+        <v>511</v>
+      </c>
       <c r="P30" s="6" t="s">
         <v>223</v>
       </c>
@@ -2245,6 +3511,21 @@
       <c r="H31">
         <v>2</v>
       </c>
+      <c r="I31" t="s">
+        <v>252</v>
+      </c>
+      <c r="J31" t="s">
+        <v>365</v>
+      </c>
+      <c r="K31" t="s">
+        <v>359</v>
+      </c>
+      <c r="L31" t="s">
+        <v>363</v>
+      </c>
+      <c r="M31" t="s">
+        <v>511</v>
+      </c>
       <c r="P31" s="6" t="s">
         <v>223</v>
       </c>
@@ -2277,6 +3558,21 @@
       <c r="H32">
         <v>2</v>
       </c>
+      <c r="I32" t="s">
+        <v>399</v>
+      </c>
+      <c r="J32" t="s">
+        <v>400</v>
+      </c>
+      <c r="K32" t="s">
+        <v>359</v>
+      </c>
+      <c r="L32" t="s">
+        <v>363</v>
+      </c>
+      <c r="M32" t="s">
+        <v>511</v>
+      </c>
       <c r="P32" s="6" t="s">
         <v>223</v>
       </c>
@@ -2309,6 +3605,21 @@
       <c r="H33">
         <v>2</v>
       </c>
+      <c r="I33" t="s">
+        <v>252</v>
+      </c>
+      <c r="J33" t="s">
+        <v>401</v>
+      </c>
+      <c r="K33" t="s">
+        <v>359</v>
+      </c>
+      <c r="L33" t="s">
+        <v>363</v>
+      </c>
+      <c r="M33" t="s">
+        <v>511</v>
+      </c>
       <c r="P33" s="6" t="s">
         <v>223</v>
       </c>
@@ -2341,6 +3652,21 @@
       <c r="H34">
         <v>2</v>
       </c>
+      <c r="I34" t="s">
+        <v>402</v>
+      </c>
+      <c r="J34" t="s">
+        <v>365</v>
+      </c>
+      <c r="K34" t="s">
+        <v>359</v>
+      </c>
+      <c r="L34" t="s">
+        <v>363</v>
+      </c>
+      <c r="M34" t="s">
+        <v>511</v>
+      </c>
       <c r="P34" s="6" t="s">
         <v>223</v>
       </c>
@@ -2373,6 +3699,21 @@
       <c r="H35">
         <v>2</v>
       </c>
+      <c r="I35" t="s">
+        <v>252</v>
+      </c>
+      <c r="J35" t="s">
+        <v>365</v>
+      </c>
+      <c r="K35" t="s">
+        <v>359</v>
+      </c>
+      <c r="L35" t="s">
+        <v>363</v>
+      </c>
+      <c r="M35" t="s">
+        <v>511</v>
+      </c>
       <c r="P35" s="6" t="s">
         <v>223</v>
       </c>
@@ -2405,6 +3746,21 @@
       <c r="H36">
         <v>2</v>
       </c>
+      <c r="I36" t="s">
+        <v>252</v>
+      </c>
+      <c r="J36" t="s">
+        <v>365</v>
+      </c>
+      <c r="K36" t="s">
+        <v>359</v>
+      </c>
+      <c r="L36" t="s">
+        <v>363</v>
+      </c>
+      <c r="M36" t="s">
+        <v>511</v>
+      </c>
       <c r="P36" s="6" t="s">
         <v>223</v>
       </c>
@@ -2437,6 +3793,21 @@
       <c r="H37">
         <v>2</v>
       </c>
+      <c r="I37" t="s">
+        <v>403</v>
+      </c>
+      <c r="J37" t="s">
+        <v>365</v>
+      </c>
+      <c r="K37" t="s">
+        <v>359</v>
+      </c>
+      <c r="L37" t="s">
+        <v>363</v>
+      </c>
+      <c r="M37" t="s">
+        <v>511</v>
+      </c>
       <c r="P37" s="6" t="s">
         <v>223</v>
       </c>
@@ -2469,6 +3840,21 @@
       <c r="H38">
         <v>1</v>
       </c>
+      <c r="I38" t="s">
+        <v>404</v>
+      </c>
+      <c r="J38" t="s">
+        <v>405</v>
+      </c>
+      <c r="K38" t="s">
+        <v>359</v>
+      </c>
+      <c r="L38" t="s">
+        <v>406</v>
+      </c>
+      <c r="M38" t="s">
+        <v>261</v>
+      </c>
       <c r="P38" s="6" t="s">
         <v>223</v>
       </c>
@@ -2501,6 +3887,21 @@
       <c r="H39">
         <v>1</v>
       </c>
+      <c r="I39" t="s">
+        <v>252</v>
+      </c>
+      <c r="J39" t="s">
+        <v>365</v>
+      </c>
+      <c r="K39" t="s">
+        <v>359</v>
+      </c>
+      <c r="L39" t="s">
+        <v>363</v>
+      </c>
+      <c r="M39" t="s">
+        <v>261</v>
+      </c>
       <c r="P39" s="6" t="s">
         <v>223</v>
       </c>
@@ -2533,6 +3934,21 @@
       <c r="H40">
         <v>1</v>
       </c>
+      <c r="I40" t="s">
+        <v>252</v>
+      </c>
+      <c r="J40" t="s">
+        <v>365</v>
+      </c>
+      <c r="K40" t="s">
+        <v>359</v>
+      </c>
+      <c r="L40" t="s">
+        <v>363</v>
+      </c>
+      <c r="M40" t="s">
+        <v>261</v>
+      </c>
       <c r="P40" s="6" t="s">
         <v>223</v>
       </c>
@@ -2565,6 +3981,21 @@
       <c r="H41">
         <v>1</v>
       </c>
+      <c r="I41" t="s">
+        <v>407</v>
+      </c>
+      <c r="J41" t="s">
+        <v>365</v>
+      </c>
+      <c r="K41" t="s">
+        <v>359</v>
+      </c>
+      <c r="L41" t="s">
+        <v>363</v>
+      </c>
+      <c r="M41" t="s">
+        <v>261</v>
+      </c>
       <c r="P41" s="6" t="s">
         <v>223</v>
       </c>
@@ -2597,6 +4028,21 @@
       <c r="H42">
         <v>1</v>
       </c>
+      <c r="I42" t="s">
+        <v>252</v>
+      </c>
+      <c r="J42" t="s">
+        <v>365</v>
+      </c>
+      <c r="K42" t="s">
+        <v>359</v>
+      </c>
+      <c r="L42" t="s">
+        <v>363</v>
+      </c>
+      <c r="M42" t="s">
+        <v>261</v>
+      </c>
       <c r="P42" s="6" t="s">
         <v>224</v>
       </c>
@@ -2629,6 +4075,21 @@
       <c r="H43">
         <v>1</v>
       </c>
+      <c r="I43" t="s">
+        <v>252</v>
+      </c>
+      <c r="J43" t="s">
+        <v>365</v>
+      </c>
+      <c r="K43" t="s">
+        <v>359</v>
+      </c>
+      <c r="L43" t="s">
+        <v>363</v>
+      </c>
+      <c r="M43" t="s">
+        <v>261</v>
+      </c>
       <c r="P43" s="6" t="s">
         <v>224</v>
       </c>
@@ -2661,6 +4122,21 @@
       <c r="H44">
         <v>1</v>
       </c>
+      <c r="I44" t="s">
+        <v>408</v>
+      </c>
+      <c r="J44" t="s">
+        <v>365</v>
+      </c>
+      <c r="K44" t="s">
+        <v>359</v>
+      </c>
+      <c r="L44" t="s">
+        <v>409</v>
+      </c>
+      <c r="M44" t="s">
+        <v>261</v>
+      </c>
       <c r="P44" s="6" t="s">
         <v>224</v>
       </c>
@@ -2693,6 +4169,21 @@
       <c r="H45">
         <v>1</v>
       </c>
+      <c r="I45" t="s">
+        <v>252</v>
+      </c>
+      <c r="J45" t="s">
+        <v>365</v>
+      </c>
+      <c r="K45" t="s">
+        <v>359</v>
+      </c>
+      <c r="L45" t="s">
+        <v>363</v>
+      </c>
+      <c r="M45" t="s">
+        <v>261</v>
+      </c>
       <c r="P45" s="6" t="s">
         <v>224</v>
       </c>
@@ -2725,6 +4216,21 @@
       <c r="H46">
         <v>1</v>
       </c>
+      <c r="I46" t="s">
+        <v>410</v>
+      </c>
+      <c r="J46" t="s">
+        <v>365</v>
+      </c>
+      <c r="K46" t="s">
+        <v>359</v>
+      </c>
+      <c r="L46" t="s">
+        <v>411</v>
+      </c>
+      <c r="M46" t="s">
+        <v>261</v>
+      </c>
       <c r="P46" s="6" t="s">
         <v>224</v>
       </c>
@@ -2757,6 +4263,21 @@
       <c r="H47">
         <v>1</v>
       </c>
+      <c r="I47" t="s">
+        <v>412</v>
+      </c>
+      <c r="J47" t="s">
+        <v>365</v>
+      </c>
+      <c r="K47" t="s">
+        <v>359</v>
+      </c>
+      <c r="L47" t="s">
+        <v>413</v>
+      </c>
+      <c r="M47" t="s">
+        <v>261</v>
+      </c>
       <c r="P47" s="6" t="s">
         <v>224</v>
       </c>
@@ -2789,6 +4310,21 @@
       <c r="H48">
         <v>1</v>
       </c>
+      <c r="I48" t="s">
+        <v>252</v>
+      </c>
+      <c r="J48" t="s">
+        <v>365</v>
+      </c>
+      <c r="K48" t="s">
+        <v>359</v>
+      </c>
+      <c r="L48" t="s">
+        <v>363</v>
+      </c>
+      <c r="M48" t="s">
+        <v>261</v>
+      </c>
       <c r="P48" s="6" t="s">
         <v>224</v>
       </c>
@@ -2821,6 +4357,21 @@
       <c r="H49">
         <v>1</v>
       </c>
+      <c r="I49" t="s">
+        <v>414</v>
+      </c>
+      <c r="J49" t="s">
+        <v>365</v>
+      </c>
+      <c r="K49" t="s">
+        <v>359</v>
+      </c>
+      <c r="L49" t="s">
+        <v>415</v>
+      </c>
+      <c r="M49" t="s">
+        <v>261</v>
+      </c>
       <c r="P49" s="6" t="s">
         <v>224</v>
       </c>
@@ -2853,6 +4404,21 @@
       <c r="H50">
         <v>1</v>
       </c>
+      <c r="I50" t="s">
+        <v>252</v>
+      </c>
+      <c r="J50" t="s">
+        <v>365</v>
+      </c>
+      <c r="K50" t="s">
+        <v>359</v>
+      </c>
+      <c r="L50" t="s">
+        <v>363</v>
+      </c>
+      <c r="M50" t="s">
+        <v>261</v>
+      </c>
       <c r="P50" s="6" t="s">
         <v>224</v>
       </c>
@@ -2885,6 +4451,21 @@
       <c r="H51">
         <v>1</v>
       </c>
+      <c r="I51" t="s">
+        <v>252</v>
+      </c>
+      <c r="J51" t="s">
+        <v>365</v>
+      </c>
+      <c r="K51" t="s">
+        <v>359</v>
+      </c>
+      <c r="L51" t="s">
+        <v>363</v>
+      </c>
+      <c r="M51" t="s">
+        <v>261</v>
+      </c>
       <c r="P51" s="6" t="s">
         <v>224</v>
       </c>
@@ -2917,6 +4498,21 @@
       <c r="H52">
         <v>1</v>
       </c>
+      <c r="I52" t="s">
+        <v>416</v>
+      </c>
+      <c r="J52" t="s">
+        <v>365</v>
+      </c>
+      <c r="K52" t="s">
+        <v>359</v>
+      </c>
+      <c r="L52" t="s">
+        <v>417</v>
+      </c>
+      <c r="M52" t="s">
+        <v>261</v>
+      </c>
       <c r="P52" s="6" t="s">
         <v>224</v>
       </c>
@@ -2949,6 +4545,21 @@
       <c r="H53">
         <v>1</v>
       </c>
+      <c r="I53" t="s">
+        <v>252</v>
+      </c>
+      <c r="J53" t="s">
+        <v>365</v>
+      </c>
+      <c r="K53" t="s">
+        <v>359</v>
+      </c>
+      <c r="L53" t="s">
+        <v>363</v>
+      </c>
+      <c r="M53" t="s">
+        <v>261</v>
+      </c>
       <c r="P53" s="6" t="s">
         <v>224</v>
       </c>
@@ -2981,6 +4592,21 @@
       <c r="H54">
         <v>1</v>
       </c>
+      <c r="I54" t="s">
+        <v>252</v>
+      </c>
+      <c r="J54" t="s">
+        <v>365</v>
+      </c>
+      <c r="K54" t="s">
+        <v>359</v>
+      </c>
+      <c r="L54" t="s">
+        <v>363</v>
+      </c>
+      <c r="M54" t="s">
+        <v>261</v>
+      </c>
       <c r="P54" s="6" t="s">
         <v>224</v>
       </c>
@@ -3013,6 +4639,21 @@
       <c r="H55">
         <v>1</v>
       </c>
+      <c r="I55" t="s">
+        <v>252</v>
+      </c>
+      <c r="J55" t="s">
+        <v>365</v>
+      </c>
+      <c r="K55" t="s">
+        <v>359</v>
+      </c>
+      <c r="L55" t="s">
+        <v>363</v>
+      </c>
+      <c r="M55" t="s">
+        <v>261</v>
+      </c>
       <c r="P55" s="6" t="s">
         <v>224</v>
       </c>
@@ -3045,6 +4686,21 @@
       <c r="H56">
         <v>1</v>
       </c>
+      <c r="I56" t="s">
+        <v>252</v>
+      </c>
+      <c r="J56" t="s">
+        <v>365</v>
+      </c>
+      <c r="K56" t="s">
+        <v>359</v>
+      </c>
+      <c r="L56" t="s">
+        <v>363</v>
+      </c>
+      <c r="M56" t="s">
+        <v>261</v>
+      </c>
       <c r="P56" s="6" t="s">
         <v>224</v>
       </c>
@@ -3077,6 +4733,21 @@
       <c r="H57">
         <v>1</v>
       </c>
+      <c r="I57" t="s">
+        <v>252</v>
+      </c>
+      <c r="J57" t="s">
+        <v>365</v>
+      </c>
+      <c r="K57" t="s">
+        <v>359</v>
+      </c>
+      <c r="L57" t="s">
+        <v>363</v>
+      </c>
+      <c r="M57" t="s">
+        <v>261</v>
+      </c>
       <c r="P57" s="6" t="s">
         <v>224</v>
       </c>
@@ -3109,6 +4780,21 @@
       <c r="H58">
         <v>1</v>
       </c>
+      <c r="I58" t="s">
+        <v>252</v>
+      </c>
+      <c r="J58" t="s">
+        <v>365</v>
+      </c>
+      <c r="K58" t="s">
+        <v>418</v>
+      </c>
+      <c r="L58" t="s">
+        <v>363</v>
+      </c>
+      <c r="M58" t="s">
+        <v>261</v>
+      </c>
       <c r="P58" s="6" t="s">
         <v>224</v>
       </c>
@@ -3141,6 +4827,21 @@
       <c r="H59">
         <v>1</v>
       </c>
+      <c r="I59" t="s">
+        <v>419</v>
+      </c>
+      <c r="J59" t="s">
+        <v>365</v>
+      </c>
+      <c r="K59" t="s">
+        <v>359</v>
+      </c>
+      <c r="L59" t="s">
+        <v>420</v>
+      </c>
+      <c r="M59" t="s">
+        <v>261</v>
+      </c>
       <c r="P59" s="6" t="s">
         <v>224</v>
       </c>
@@ -3173,6 +4874,21 @@
       <c r="H60">
         <v>1</v>
       </c>
+      <c r="I60" t="s">
+        <v>421</v>
+      </c>
+      <c r="J60" t="s">
+        <v>365</v>
+      </c>
+      <c r="K60" t="s">
+        <v>359</v>
+      </c>
+      <c r="L60" t="s">
+        <v>422</v>
+      </c>
+      <c r="M60" t="s">
+        <v>261</v>
+      </c>
       <c r="P60" s="6" t="s">
         <v>224</v>
       </c>
@@ -3205,6 +4921,21 @@
       <c r="H61">
         <v>1</v>
       </c>
+      <c r="I61" t="s">
+        <v>252</v>
+      </c>
+      <c r="J61" t="s">
+        <v>365</v>
+      </c>
+      <c r="K61" t="s">
+        <v>359</v>
+      </c>
+      <c r="L61" t="s">
+        <v>363</v>
+      </c>
+      <c r="M61" t="s">
+        <v>261</v>
+      </c>
       <c r="P61" s="6" t="s">
         <v>224</v>
       </c>
@@ -3237,6 +4968,21 @@
       <c r="H62">
         <v>1</v>
       </c>
+      <c r="I62" t="s">
+        <v>237</v>
+      </c>
+      <c r="J62" t="s">
+        <v>238</v>
+      </c>
+      <c r="K62" t="s">
+        <v>359</v>
+      </c>
+      <c r="L62" t="s">
+        <v>239</v>
+      </c>
+      <c r="M62" t="s">
+        <v>261</v>
+      </c>
       <c r="P62" s="6" t="s">
         <v>224</v>
       </c>
@@ -3269,6 +5015,21 @@
       <c r="H63">
         <v>1</v>
       </c>
+      <c r="I63" t="s">
+        <v>237</v>
+      </c>
+      <c r="J63" t="s">
+        <v>238</v>
+      </c>
+      <c r="K63" t="s">
+        <v>359</v>
+      </c>
+      <c r="L63" t="s">
+        <v>240</v>
+      </c>
+      <c r="M63" t="s">
+        <v>261</v>
+      </c>
       <c r="P63" s="6" t="s">
         <v>224</v>
       </c>
@@ -3301,6 +5062,21 @@
       <c r="H64">
         <v>1</v>
       </c>
+      <c r="I64" t="s">
+        <v>241</v>
+      </c>
+      <c r="J64" t="s">
+        <v>238</v>
+      </c>
+      <c r="K64" t="s">
+        <v>359</v>
+      </c>
+      <c r="L64" t="s">
+        <v>242</v>
+      </c>
+      <c r="M64" t="s">
+        <v>261</v>
+      </c>
       <c r="P64" s="6" t="s">
         <v>224</v>
       </c>
@@ -3333,6 +5109,21 @@
       <c r="H65">
         <v>1</v>
       </c>
+      <c r="I65" t="s">
+        <v>241</v>
+      </c>
+      <c r="J65" t="s">
+        <v>243</v>
+      </c>
+      <c r="K65" t="s">
+        <v>244</v>
+      </c>
+      <c r="L65" t="s">
+        <v>245</v>
+      </c>
+      <c r="M65" t="s">
+        <v>261</v>
+      </c>
       <c r="P65" s="6" t="s">
         <v>224</v>
       </c>
@@ -3365,6 +5156,21 @@
       <c r="H66">
         <v>1</v>
       </c>
+      <c r="I66" t="s">
+        <v>246</v>
+      </c>
+      <c r="J66" t="s">
+        <v>238</v>
+      </c>
+      <c r="K66" t="s">
+        <v>247</v>
+      </c>
+      <c r="L66" t="s">
+        <v>248</v>
+      </c>
+      <c r="M66" t="s">
+        <v>261</v>
+      </c>
       <c r="P66" s="6" t="s">
         <v>224</v>
       </c>
@@ -3397,6 +5203,21 @@
       <c r="H67">
         <v>1</v>
       </c>
+      <c r="I67" t="s">
+        <v>246</v>
+      </c>
+      <c r="J67" t="s">
+        <v>238</v>
+      </c>
+      <c r="K67" t="s">
+        <v>359</v>
+      </c>
+      <c r="L67" t="s">
+        <v>249</v>
+      </c>
+      <c r="M67" t="s">
+        <v>261</v>
+      </c>
       <c r="P67" s="6" t="s">
         <v>224</v>
       </c>
@@ -3429,6 +5250,21 @@
       <c r="H68">
         <v>1</v>
       </c>
+      <c r="I68" t="s">
+        <v>250</v>
+      </c>
+      <c r="J68" t="s">
+        <v>238</v>
+      </c>
+      <c r="K68" t="s">
+        <v>359</v>
+      </c>
+      <c r="L68" t="s">
+        <v>251</v>
+      </c>
+      <c r="M68" t="s">
+        <v>512</v>
+      </c>
       <c r="P68" s="6" t="s">
         <v>224</v>
       </c>
@@ -3461,6 +5297,21 @@
       <c r="H69">
         <v>1</v>
       </c>
+      <c r="I69" t="s">
+        <v>252</v>
+      </c>
+      <c r="J69" t="s">
+        <v>238</v>
+      </c>
+      <c r="K69" t="s">
+        <v>359</v>
+      </c>
+      <c r="L69" t="s">
+        <v>253</v>
+      </c>
+      <c r="M69" t="s">
+        <v>512</v>
+      </c>
       <c r="P69" s="6" t="s">
         <v>224</v>
       </c>
@@ -3493,6 +5344,21 @@
       <c r="H70">
         <v>1</v>
       </c>
+      <c r="I70" t="s">
+        <v>254</v>
+      </c>
+      <c r="J70" t="s">
+        <v>238</v>
+      </c>
+      <c r="K70" t="s">
+        <v>255</v>
+      </c>
+      <c r="L70" t="s">
+        <v>256</v>
+      </c>
+      <c r="M70" t="s">
+        <v>512</v>
+      </c>
       <c r="P70" s="6" t="s">
         <v>224</v>
       </c>
@@ -3525,6 +5391,21 @@
       <c r="H71">
         <v>1</v>
       </c>
+      <c r="I71" t="s">
+        <v>252</v>
+      </c>
+      <c r="J71" t="s">
+        <v>238</v>
+      </c>
+      <c r="K71" t="s">
+        <v>359</v>
+      </c>
+      <c r="L71" t="s">
+        <v>257</v>
+      </c>
+      <c r="M71" t="s">
+        <v>512</v>
+      </c>
       <c r="P71" s="6" t="s">
         <v>224</v>
       </c>
@@ -3557,6 +5438,21 @@
       <c r="H72">
         <v>1</v>
       </c>
+      <c r="I72" t="s">
+        <v>258</v>
+      </c>
+      <c r="J72" t="s">
+        <v>259</v>
+      </c>
+      <c r="K72" t="s">
+        <v>359</v>
+      </c>
+      <c r="L72" t="s">
+        <v>260</v>
+      </c>
+      <c r="M72" t="s">
+        <v>512</v>
+      </c>
       <c r="P72" s="6" t="s">
         <v>224</v>
       </c>
@@ -3589,6 +5485,21 @@
       <c r="H73">
         <v>1</v>
       </c>
+      <c r="I73" t="s">
+        <v>252</v>
+      </c>
+      <c r="J73" t="s">
+        <v>238</v>
+      </c>
+      <c r="K73" t="s">
+        <v>359</v>
+      </c>
+      <c r="L73" t="s">
+        <v>261</v>
+      </c>
+      <c r="M73" t="s">
+        <v>512</v>
+      </c>
       <c r="P73" s="6" t="s">
         <v>224</v>
       </c>
@@ -3621,6 +5532,21 @@
       <c r="H74">
         <v>1</v>
       </c>
+      <c r="I74" t="s">
+        <v>262</v>
+      </c>
+      <c r="J74" t="s">
+        <v>238</v>
+      </c>
+      <c r="K74" t="s">
+        <v>359</v>
+      </c>
+      <c r="L74" t="s">
+        <v>263</v>
+      </c>
+      <c r="M74" t="s">
+        <v>512</v>
+      </c>
       <c r="P74" s="6" t="s">
         <v>224</v>
       </c>
@@ -3653,6 +5579,21 @@
       <c r="H75">
         <v>1</v>
       </c>
+      <c r="I75" t="s">
+        <v>252</v>
+      </c>
+      <c r="J75" t="s">
+        <v>238</v>
+      </c>
+      <c r="K75" t="s">
+        <v>359</v>
+      </c>
+      <c r="L75" t="s">
+        <v>261</v>
+      </c>
+      <c r="M75" t="s">
+        <v>512</v>
+      </c>
       <c r="P75" s="6" t="s">
         <v>224</v>
       </c>
@@ -3685,6 +5626,21 @@
       <c r="H76">
         <v>1</v>
       </c>
+      <c r="I76" t="s">
+        <v>252</v>
+      </c>
+      <c r="J76" t="s">
+        <v>238</v>
+      </c>
+      <c r="K76" t="s">
+        <v>359</v>
+      </c>
+      <c r="L76" t="s">
+        <v>261</v>
+      </c>
+      <c r="M76" t="s">
+        <v>512</v>
+      </c>
       <c r="P76" s="6" t="s">
         <v>224</v>
       </c>
@@ -3717,6 +5673,21 @@
       <c r="H77">
         <v>1</v>
       </c>
+      <c r="I77" t="s">
+        <v>252</v>
+      </c>
+      <c r="J77" t="s">
+        <v>238</v>
+      </c>
+      <c r="K77" t="s">
+        <v>359</v>
+      </c>
+      <c r="L77" t="s">
+        <v>261</v>
+      </c>
+      <c r="M77" t="s">
+        <v>512</v>
+      </c>
       <c r="P77" s="6" t="s">
         <v>224</v>
       </c>
@@ -3749,6 +5720,21 @@
       <c r="H78">
         <v>1</v>
       </c>
+      <c r="I78" t="s">
+        <v>264</v>
+      </c>
+      <c r="J78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K78" t="s">
+        <v>266</v>
+      </c>
+      <c r="L78" t="s">
+        <v>267</v>
+      </c>
+      <c r="M78" t="s">
+        <v>261</v>
+      </c>
       <c r="P78" s="6" t="s">
         <v>224</v>
       </c>
@@ -3781,6 +5767,21 @@
       <c r="H79">
         <v>1</v>
       </c>
+      <c r="I79" t="s">
+        <v>268</v>
+      </c>
+      <c r="J79" t="s">
+        <v>238</v>
+      </c>
+      <c r="K79" t="s">
+        <v>359</v>
+      </c>
+      <c r="L79" t="s">
+        <v>269</v>
+      </c>
+      <c r="M79" t="s">
+        <v>261</v>
+      </c>
       <c r="P79" s="6" t="s">
         <v>224</v>
       </c>
@@ -3813,6 +5814,21 @@
       <c r="H80">
         <v>1</v>
       </c>
+      <c r="I80" t="s">
+        <v>270</v>
+      </c>
+      <c r="J80" t="s">
+        <v>271</v>
+      </c>
+      <c r="K80" t="s">
+        <v>359</v>
+      </c>
+      <c r="L80" t="s">
+        <v>272</v>
+      </c>
+      <c r="M80" t="s">
+        <v>261</v>
+      </c>
       <c r="P80" s="6" t="s">
         <v>225</v>
       </c>
@@ -3845,6 +5861,21 @@
       <c r="H81">
         <v>1</v>
       </c>
+      <c r="I81" t="s">
+        <v>252</v>
+      </c>
+      <c r="J81" t="s">
+        <v>238</v>
+      </c>
+      <c r="K81" t="s">
+        <v>359</v>
+      </c>
+      <c r="L81" t="s">
+        <v>261</v>
+      </c>
+      <c r="M81" t="s">
+        <v>261</v>
+      </c>
       <c r="P81" s="6" t="s">
         <v>225</v>
       </c>
@@ -3877,6 +5908,21 @@
       <c r="H82">
         <v>1</v>
       </c>
+      <c r="I82" t="s">
+        <v>273</v>
+      </c>
+      <c r="J82" t="s">
+        <v>238</v>
+      </c>
+      <c r="K82" t="s">
+        <v>359</v>
+      </c>
+      <c r="L82" t="s">
+        <v>274</v>
+      </c>
+      <c r="M82" t="s">
+        <v>261</v>
+      </c>
       <c r="P82" s="6" t="s">
         <v>225</v>
       </c>
@@ -3909,6 +5955,21 @@
       <c r="H83">
         <v>1</v>
       </c>
+      <c r="I83" t="s">
+        <v>252</v>
+      </c>
+      <c r="J83" t="s">
+        <v>238</v>
+      </c>
+      <c r="K83" t="s">
+        <v>359</v>
+      </c>
+      <c r="L83" t="s">
+        <v>275</v>
+      </c>
+      <c r="M83" t="s">
+        <v>261</v>
+      </c>
       <c r="P83" s="6" t="s">
         <v>225</v>
       </c>
@@ -3941,6 +6002,21 @@
       <c r="H84">
         <v>1</v>
       </c>
+      <c r="I84" t="s">
+        <v>276</v>
+      </c>
+      <c r="J84" t="s">
+        <v>277</v>
+      </c>
+      <c r="K84" t="s">
+        <v>278</v>
+      </c>
+      <c r="L84" t="s">
+        <v>279</v>
+      </c>
+      <c r="M84" t="s">
+        <v>261</v>
+      </c>
       <c r="P84" s="6" t="s">
         <v>225</v>
       </c>
@@ -3973,6 +6049,21 @@
       <c r="H85">
         <v>1</v>
       </c>
+      <c r="I85" t="s">
+        <v>252</v>
+      </c>
+      <c r="J85" t="s">
+        <v>238</v>
+      </c>
+      <c r="K85" t="s">
+        <v>359</v>
+      </c>
+      <c r="L85" t="s">
+        <v>261</v>
+      </c>
+      <c r="M85" t="s">
+        <v>261</v>
+      </c>
       <c r="P85" s="6" t="s">
         <v>225</v>
       </c>
@@ -4005,6 +6096,21 @@
       <c r="H86">
         <v>1</v>
       </c>
+      <c r="I86" t="s">
+        <v>280</v>
+      </c>
+      <c r="J86" t="s">
+        <v>238</v>
+      </c>
+      <c r="K86" t="s">
+        <v>281</v>
+      </c>
+      <c r="L86" t="s">
+        <v>282</v>
+      </c>
+      <c r="M86" t="s">
+        <v>261</v>
+      </c>
       <c r="P86" s="6" t="s">
         <v>225</v>
       </c>
@@ -4037,6 +6143,21 @@
       <c r="H87">
         <v>1</v>
       </c>
+      <c r="I87" t="s">
+        <v>252</v>
+      </c>
+      <c r="J87" t="s">
+        <v>238</v>
+      </c>
+      <c r="K87" t="s">
+        <v>359</v>
+      </c>
+      <c r="L87" t="s">
+        <v>261</v>
+      </c>
+      <c r="M87" t="s">
+        <v>261</v>
+      </c>
       <c r="P87" s="6" t="s">
         <v>225</v>
       </c>
@@ -4069,6 +6190,21 @@
       <c r="H88">
         <v>1</v>
       </c>
+      <c r="I88" t="s">
+        <v>283</v>
+      </c>
+      <c r="J88" t="s">
+        <v>238</v>
+      </c>
+      <c r="K88" t="s">
+        <v>284</v>
+      </c>
+      <c r="L88" t="s">
+        <v>285</v>
+      </c>
+      <c r="M88" t="s">
+        <v>261</v>
+      </c>
       <c r="P88" s="6" t="s">
         <v>225</v>
       </c>
@@ -4101,6 +6237,21 @@
       <c r="H89">
         <v>1</v>
       </c>
+      <c r="I89" t="s">
+        <v>283</v>
+      </c>
+      <c r="J89" t="s">
+        <v>238</v>
+      </c>
+      <c r="K89" t="s">
+        <v>284</v>
+      </c>
+      <c r="L89" t="s">
+        <v>285</v>
+      </c>
+      <c r="M89" t="s">
+        <v>261</v>
+      </c>
       <c r="P89" s="6" t="s">
         <v>225</v>
       </c>
@@ -4133,6 +6284,21 @@
       <c r="H90">
         <v>1</v>
       </c>
+      <c r="I90" t="s">
+        <v>286</v>
+      </c>
+      <c r="J90" t="s">
+        <v>287</v>
+      </c>
+      <c r="K90" t="s">
+        <v>288</v>
+      </c>
+      <c r="L90" t="s">
+        <v>289</v>
+      </c>
+      <c r="M90" t="s">
+        <v>261</v>
+      </c>
       <c r="P90" s="6" t="s">
         <v>225</v>
       </c>
@@ -4165,6 +6331,21 @@
       <c r="H91">
         <v>1</v>
       </c>
+      <c r="I91" t="s">
+        <v>252</v>
+      </c>
+      <c r="J91" t="s">
+        <v>238</v>
+      </c>
+      <c r="K91" t="s">
+        <v>359</v>
+      </c>
+      <c r="L91" t="s">
+        <v>261</v>
+      </c>
+      <c r="M91" t="s">
+        <v>261</v>
+      </c>
       <c r="P91" s="6" t="s">
         <v>225</v>
       </c>
@@ -4197,6 +6378,21 @@
       <c r="H92">
         <v>1</v>
       </c>
+      <c r="I92" t="s">
+        <v>290</v>
+      </c>
+      <c r="J92" t="s">
+        <v>238</v>
+      </c>
+      <c r="K92" t="s">
+        <v>291</v>
+      </c>
+      <c r="L92" t="s">
+        <v>292</v>
+      </c>
+      <c r="M92" t="s">
+        <v>261</v>
+      </c>
       <c r="P92" s="6" t="s">
         <v>225</v>
       </c>
@@ -4229,6 +6425,21 @@
       <c r="H93">
         <v>1</v>
       </c>
+      <c r="I93" t="s">
+        <v>252</v>
+      </c>
+      <c r="J93" t="s">
+        <v>238</v>
+      </c>
+      <c r="K93" t="s">
+        <v>359</v>
+      </c>
+      <c r="L93" t="s">
+        <v>261</v>
+      </c>
+      <c r="M93" t="s">
+        <v>261</v>
+      </c>
       <c r="P93" s="6" t="s">
         <v>225</v>
       </c>
@@ -4261,6 +6472,21 @@
       <c r="H94">
         <v>7</v>
       </c>
+      <c r="I94" t="s">
+        <v>293</v>
+      </c>
+      <c r="J94" t="s">
+        <v>294</v>
+      </c>
+      <c r="K94" t="s">
+        <v>295</v>
+      </c>
+      <c r="L94" t="s">
+        <v>296</v>
+      </c>
+      <c r="M94" t="s">
+        <v>513</v>
+      </c>
       <c r="P94" s="6" t="s">
         <v>225</v>
       </c>
@@ -4293,6 +6519,21 @@
       <c r="H95">
         <v>7</v>
       </c>
+      <c r="I95" t="s">
+        <v>252</v>
+      </c>
+      <c r="J95" t="s">
+        <v>238</v>
+      </c>
+      <c r="K95" t="s">
+        <v>359</v>
+      </c>
+      <c r="L95" t="s">
+        <v>261</v>
+      </c>
+      <c r="M95" t="s">
+        <v>513</v>
+      </c>
       <c r="P95" s="6" t="s">
         <v>225</v>
       </c>
@@ -4325,6 +6566,21 @@
       <c r="H96">
         <v>7</v>
       </c>
+      <c r="I96" t="s">
+        <v>297</v>
+      </c>
+      <c r="J96" t="s">
+        <v>298</v>
+      </c>
+      <c r="K96" t="s">
+        <v>299</v>
+      </c>
+      <c r="L96" t="s">
+        <v>300</v>
+      </c>
+      <c r="M96" t="s">
+        <v>513</v>
+      </c>
       <c r="P96" s="6" t="s">
         <v>225</v>
       </c>
@@ -4357,6 +6613,21 @@
       <c r="H97">
         <v>7</v>
       </c>
+      <c r="I97" t="s">
+        <v>301</v>
+      </c>
+      <c r="J97" t="s">
+        <v>302</v>
+      </c>
+      <c r="K97" t="s">
+        <v>359</v>
+      </c>
+      <c r="L97" t="s">
+        <v>303</v>
+      </c>
+      <c r="M97" t="s">
+        <v>513</v>
+      </c>
       <c r="P97" s="6" t="s">
         <v>225</v>
       </c>
@@ -4389,6 +6660,21 @@
       <c r="H98">
         <v>7</v>
       </c>
+      <c r="I98" t="s">
+        <v>304</v>
+      </c>
+      <c r="J98" t="s">
+        <v>305</v>
+      </c>
+      <c r="K98" t="s">
+        <v>306</v>
+      </c>
+      <c r="L98" t="s">
+        <v>307</v>
+      </c>
+      <c r="M98" t="s">
+        <v>513</v>
+      </c>
       <c r="P98" s="6" t="s">
         <v>225</v>
       </c>
@@ -4421,6 +6707,21 @@
       <c r="H99">
         <v>7</v>
       </c>
+      <c r="I99" t="s">
+        <v>308</v>
+      </c>
+      <c r="J99" t="s">
+        <v>238</v>
+      </c>
+      <c r="K99" t="s">
+        <v>359</v>
+      </c>
+      <c r="L99" t="s">
+        <v>261</v>
+      </c>
+      <c r="M99" t="s">
+        <v>513</v>
+      </c>
       <c r="P99" s="6" t="s">
         <v>225</v>
       </c>
@@ -4453,6 +6754,21 @@
       <c r="H100">
         <v>7</v>
       </c>
+      <c r="I100" t="s">
+        <v>309</v>
+      </c>
+      <c r="J100" t="s">
+        <v>310</v>
+      </c>
+      <c r="K100" t="s">
+        <v>311</v>
+      </c>
+      <c r="L100" t="s">
+        <v>312</v>
+      </c>
+      <c r="M100" t="s">
+        <v>513</v>
+      </c>
       <c r="P100" s="6" t="s">
         <v>225</v>
       </c>
@@ -4485,6 +6801,21 @@
       <c r="H101">
         <v>7</v>
       </c>
+      <c r="I101" t="s">
+        <v>252</v>
+      </c>
+      <c r="J101" t="s">
+        <v>238</v>
+      </c>
+      <c r="K101" t="s">
+        <v>313</v>
+      </c>
+      <c r="L101" t="s">
+        <v>261</v>
+      </c>
+      <c r="M101" t="s">
+        <v>513</v>
+      </c>
       <c r="P101" s="6" t="s">
         <v>225</v>
       </c>
@@ -4517,6 +6848,21 @@
       <c r="H102">
         <v>7</v>
       </c>
+      <c r="I102" t="s">
+        <v>252</v>
+      </c>
+      <c r="J102" t="s">
+        <v>238</v>
+      </c>
+      <c r="K102" t="s">
+        <v>359</v>
+      </c>
+      <c r="L102" t="s">
+        <v>261</v>
+      </c>
+      <c r="M102" t="s">
+        <v>513</v>
+      </c>
       <c r="P102" s="6" t="s">
         <v>225</v>
       </c>
@@ -4549,6 +6895,21 @@
       <c r="H103">
         <v>7</v>
       </c>
+      <c r="I103" t="s">
+        <v>314</v>
+      </c>
+      <c r="J103" t="s">
+        <v>238</v>
+      </c>
+      <c r="K103" t="s">
+        <v>315</v>
+      </c>
+      <c r="L103" t="s">
+        <v>316</v>
+      </c>
+      <c r="M103" t="s">
+        <v>513</v>
+      </c>
       <c r="P103" s="6" t="s">
         <v>225</v>
       </c>
@@ -4581,6 +6942,21 @@
       <c r="H104">
         <v>7</v>
       </c>
+      <c r="I104" t="s">
+        <v>317</v>
+      </c>
+      <c r="J104" t="s">
+        <v>318</v>
+      </c>
+      <c r="K104" t="s">
+        <v>319</v>
+      </c>
+      <c r="L104" t="s">
+        <v>320</v>
+      </c>
+      <c r="M104" t="s">
+        <v>513</v>
+      </c>
       <c r="P104" s="6" t="s">
         <v>225</v>
       </c>
@@ -4613,6 +6989,21 @@
       <c r="H105">
         <v>7</v>
       </c>
+      <c r="I105" t="s">
+        <v>321</v>
+      </c>
+      <c r="J105" t="s">
+        <v>238</v>
+      </c>
+      <c r="K105" t="s">
+        <v>322</v>
+      </c>
+      <c r="L105" t="s">
+        <v>323</v>
+      </c>
+      <c r="M105" t="s">
+        <v>513</v>
+      </c>
       <c r="P105" s="6" t="s">
         <v>225</v>
       </c>
@@ -4645,6 +7036,21 @@
       <c r="H106">
         <v>7</v>
       </c>
+      <c r="I106" t="s">
+        <v>324</v>
+      </c>
+      <c r="J106" t="s">
+        <v>325</v>
+      </c>
+      <c r="K106" t="s">
+        <v>326</v>
+      </c>
+      <c r="L106" t="s">
+        <v>327</v>
+      </c>
+      <c r="M106" t="s">
+        <v>513</v>
+      </c>
       <c r="P106" s="6" t="s">
         <v>225</v>
       </c>
@@ -4677,6 +7083,21 @@
       <c r="H107">
         <v>7</v>
       </c>
+      <c r="I107" t="s">
+        <v>252</v>
+      </c>
+      <c r="J107" t="s">
+        <v>238</v>
+      </c>
+      <c r="K107" t="s">
+        <v>359</v>
+      </c>
+      <c r="L107" t="s">
+        <v>261</v>
+      </c>
+      <c r="M107" t="s">
+        <v>513</v>
+      </c>
       <c r="P107" s="6" t="s">
         <v>225</v>
       </c>
@@ -4709,6 +7130,21 @@
       <c r="H108">
         <v>7</v>
       </c>
+      <c r="I108" t="s">
+        <v>328</v>
+      </c>
+      <c r="J108" t="s">
+        <v>238</v>
+      </c>
+      <c r="K108" t="s">
+        <v>329</v>
+      </c>
+      <c r="L108" t="s">
+        <v>330</v>
+      </c>
+      <c r="M108" t="s">
+        <v>513</v>
+      </c>
       <c r="P108" s="6" t="s">
         <v>225</v>
       </c>
@@ -4741,6 +7177,21 @@
       <c r="H109">
         <v>7</v>
       </c>
+      <c r="I109" t="s">
+        <v>331</v>
+      </c>
+      <c r="J109" t="s">
+        <v>238</v>
+      </c>
+      <c r="K109" t="s">
+        <v>359</v>
+      </c>
+      <c r="L109" t="s">
+        <v>261</v>
+      </c>
+      <c r="M109" t="s">
+        <v>513</v>
+      </c>
       <c r="P109" s="6" t="s">
         <v>225</v>
       </c>
@@ -4773,6 +7224,21 @@
       <c r="H110">
         <v>7</v>
       </c>
+      <c r="I110" t="s">
+        <v>332</v>
+      </c>
+      <c r="J110" t="s">
+        <v>238</v>
+      </c>
+      <c r="K110" t="s">
+        <v>333</v>
+      </c>
+      <c r="L110" t="s">
+        <v>334</v>
+      </c>
+      <c r="M110" t="s">
+        <v>513</v>
+      </c>
       <c r="P110" s="6" t="s">
         <v>225</v>
       </c>
@@ -4805,6 +7271,21 @@
       <c r="H111">
         <v>7</v>
       </c>
+      <c r="I111" t="s">
+        <v>335</v>
+      </c>
+      <c r="J111" t="s">
+        <v>336</v>
+      </c>
+      <c r="K111" t="s">
+        <v>337</v>
+      </c>
+      <c r="L111" t="s">
+        <v>338</v>
+      </c>
+      <c r="M111" t="s">
+        <v>513</v>
+      </c>
       <c r="P111" s="6" t="s">
         <v>225</v>
       </c>
@@ -4837,6 +7318,21 @@
       <c r="H112">
         <v>7</v>
       </c>
+      <c r="I112" t="s">
+        <v>339</v>
+      </c>
+      <c r="J112" t="s">
+        <v>238</v>
+      </c>
+      <c r="K112" t="s">
+        <v>340</v>
+      </c>
+      <c r="L112" t="s">
+        <v>261</v>
+      </c>
+      <c r="M112" t="s">
+        <v>513</v>
+      </c>
       <c r="P112" s="6" t="s">
         <v>225</v>
       </c>
@@ -4869,6 +7365,21 @@
       <c r="H113">
         <v>7</v>
       </c>
+      <c r="I113" t="s">
+        <v>252</v>
+      </c>
+      <c r="J113" t="s">
+        <v>238</v>
+      </c>
+      <c r="K113" t="s">
+        <v>359</v>
+      </c>
+      <c r="L113" t="s">
+        <v>261</v>
+      </c>
+      <c r="M113" t="s">
+        <v>513</v>
+      </c>
       <c r="P113" s="6" t="s">
         <v>226</v>
       </c>
@@ -4901,6 +7412,21 @@
       <c r="H114">
         <v>7</v>
       </c>
+      <c r="I114" t="s">
+        <v>341</v>
+      </c>
+      <c r="J114" t="s">
+        <v>238</v>
+      </c>
+      <c r="K114" t="s">
+        <v>359</v>
+      </c>
+      <c r="L114" t="s">
+        <v>342</v>
+      </c>
+      <c r="M114" t="s">
+        <v>513</v>
+      </c>
       <c r="P114" s="6" t="s">
         <v>226</v>
       </c>
@@ -4933,6 +7459,21 @@
       <c r="H115">
         <v>7</v>
       </c>
+      <c r="I115" t="s">
+        <v>343</v>
+      </c>
+      <c r="J115" t="s">
+        <v>238</v>
+      </c>
+      <c r="K115" t="s">
+        <v>359</v>
+      </c>
+      <c r="L115" t="s">
+        <v>261</v>
+      </c>
+      <c r="M115" t="s">
+        <v>513</v>
+      </c>
       <c r="P115" s="6" t="s">
         <v>226</v>
       </c>
@@ -4965,6 +7506,21 @@
       <c r="H116">
         <v>7</v>
       </c>
+      <c r="I116" t="s">
+        <v>344</v>
+      </c>
+      <c r="J116" t="s">
+        <v>238</v>
+      </c>
+      <c r="K116" t="s">
+        <v>345</v>
+      </c>
+      <c r="L116" t="s">
+        <v>346</v>
+      </c>
+      <c r="M116" t="s">
+        <v>513</v>
+      </c>
       <c r="P116" s="6" t="s">
         <v>226</v>
       </c>
@@ -4997,6 +7553,21 @@
       <c r="H117">
         <v>7</v>
       </c>
+      <c r="I117" t="s">
+        <v>252</v>
+      </c>
+      <c r="J117" t="s">
+        <v>238</v>
+      </c>
+      <c r="K117" t="s">
+        <v>359</v>
+      </c>
+      <c r="L117" t="s">
+        <v>261</v>
+      </c>
+      <c r="M117" t="s">
+        <v>513</v>
+      </c>
       <c r="P117" s="6" t="s">
         <v>226</v>
       </c>
@@ -5029,6 +7600,21 @@
       <c r="H118">
         <v>7</v>
       </c>
+      <c r="I118" t="s">
+        <v>347</v>
+      </c>
+      <c r="J118" t="s">
+        <v>348</v>
+      </c>
+      <c r="K118" t="s">
+        <v>349</v>
+      </c>
+      <c r="L118" t="s">
+        <v>350</v>
+      </c>
+      <c r="M118" t="s">
+        <v>513</v>
+      </c>
       <c r="P118" s="6" t="s">
         <v>226</v>
       </c>
@@ -5061,6 +7647,21 @@
       <c r="H119">
         <v>7</v>
       </c>
+      <c r="I119" t="s">
+        <v>252</v>
+      </c>
+      <c r="J119" t="s">
+        <v>238</v>
+      </c>
+      <c r="K119" t="s">
+        <v>359</v>
+      </c>
+      <c r="L119" t="s">
+        <v>261</v>
+      </c>
+      <c r="M119" t="s">
+        <v>513</v>
+      </c>
       <c r="P119" s="6" t="s">
         <v>226</v>
       </c>
@@ -5093,6 +7694,21 @@
       <c r="H120">
         <v>7</v>
       </c>
+      <c r="I120" t="s">
+        <v>351</v>
+      </c>
+      <c r="J120" t="s">
+        <v>238</v>
+      </c>
+      <c r="K120" t="s">
+        <v>352</v>
+      </c>
+      <c r="L120" t="s">
+        <v>353</v>
+      </c>
+      <c r="M120" t="s">
+        <v>513</v>
+      </c>
       <c r="P120" s="6" t="s">
         <v>226</v>
       </c>
@@ -5125,6 +7741,21 @@
       <c r="H121">
         <v>7</v>
       </c>
+      <c r="I121" t="s">
+        <v>354</v>
+      </c>
+      <c r="J121" t="s">
+        <v>238</v>
+      </c>
+      <c r="K121" t="s">
+        <v>355</v>
+      </c>
+      <c r="L121" t="s">
+        <v>356</v>
+      </c>
+      <c r="M121" t="s">
+        <v>513</v>
+      </c>
       <c r="P121" s="6" t="s">
         <v>226</v>
       </c>
@@ -5157,6 +7788,21 @@
       <c r="H122">
         <v>7</v>
       </c>
+      <c r="I122" t="s">
+        <v>423</v>
+      </c>
+      <c r="J122" t="s">
+        <v>365</v>
+      </c>
+      <c r="K122" t="s">
+        <v>424</v>
+      </c>
+      <c r="L122" t="s">
+        <v>425</v>
+      </c>
+      <c r="M122" t="s">
+        <v>513</v>
+      </c>
       <c r="P122" s="6" t="s">
         <v>226</v>
       </c>
@@ -5189,6 +7835,21 @@
       <c r="H123">
         <v>7</v>
       </c>
+      <c r="I123" t="s">
+        <v>426</v>
+      </c>
+      <c r="J123" t="s">
+        <v>365</v>
+      </c>
+      <c r="K123" t="s">
+        <v>427</v>
+      </c>
+      <c r="L123" t="s">
+        <v>428</v>
+      </c>
+      <c r="M123" t="s">
+        <v>513</v>
+      </c>
       <c r="P123" s="6" t="s">
         <v>226</v>
       </c>
@@ -5221,6 +7882,21 @@
       <c r="H124">
         <v>7</v>
       </c>
+      <c r="I124" t="s">
+        <v>429</v>
+      </c>
+      <c r="J124" t="s">
+        <v>430</v>
+      </c>
+      <c r="K124" t="s">
+        <v>431</v>
+      </c>
+      <c r="L124" t="s">
+        <v>432</v>
+      </c>
+      <c r="M124" t="s">
+        <v>513</v>
+      </c>
       <c r="P124" s="6" t="s">
         <v>226</v>
       </c>
@@ -5253,6 +7929,21 @@
       <c r="H125">
         <v>7</v>
       </c>
+      <c r="I125" t="s">
+        <v>252</v>
+      </c>
+      <c r="J125" t="s">
+        <v>365</v>
+      </c>
+      <c r="K125" t="s">
+        <v>359</v>
+      </c>
+      <c r="L125" t="s">
+        <v>261</v>
+      </c>
+      <c r="M125" t="s">
+        <v>513</v>
+      </c>
       <c r="P125" s="6" t="s">
         <v>226</v>
       </c>
@@ -5285,6 +7976,21 @@
       <c r="H126">
         <v>7</v>
       </c>
+      <c r="I126" t="s">
+        <v>433</v>
+      </c>
+      <c r="J126" t="s">
+        <v>365</v>
+      </c>
+      <c r="K126" t="s">
+        <v>359</v>
+      </c>
+      <c r="L126" t="s">
+        <v>434</v>
+      </c>
+      <c r="M126" t="s">
+        <v>513</v>
+      </c>
       <c r="P126" s="6" t="s">
         <v>226</v>
       </c>
@@ -5317,6 +8023,21 @@
       <c r="H127">
         <v>7</v>
       </c>
+      <c r="I127" t="s">
+        <v>435</v>
+      </c>
+      <c r="J127" t="s">
+        <v>436</v>
+      </c>
+      <c r="K127" t="s">
+        <v>359</v>
+      </c>
+      <c r="L127" t="s">
+        <v>437</v>
+      </c>
+      <c r="M127" t="s">
+        <v>513</v>
+      </c>
       <c r="P127" s="6" t="s">
         <v>226</v>
       </c>
@@ -5349,6 +8070,21 @@
       <c r="H128">
         <v>7</v>
       </c>
+      <c r="I128" t="s">
+        <v>438</v>
+      </c>
+      <c r="J128" t="s">
+        <v>439</v>
+      </c>
+      <c r="K128" t="s">
+        <v>440</v>
+      </c>
+      <c r="L128" t="s">
+        <v>441</v>
+      </c>
+      <c r="M128" t="s">
+        <v>513</v>
+      </c>
       <c r="P128" s="6" t="s">
         <v>226</v>
       </c>
@@ -5381,6 +8117,21 @@
       <c r="H129">
         <v>7</v>
       </c>
+      <c r="I129" t="s">
+        <v>252</v>
+      </c>
+      <c r="J129" t="s">
+        <v>365</v>
+      </c>
+      <c r="K129" t="s">
+        <v>359</v>
+      </c>
+      <c r="L129" t="s">
+        <v>261</v>
+      </c>
+      <c r="M129" t="s">
+        <v>513</v>
+      </c>
       <c r="P129" s="6" t="s">
         <v>226</v>
       </c>
@@ -5413,6 +8164,21 @@
       <c r="H130">
         <v>7</v>
       </c>
+      <c r="I130" t="s">
+        <v>442</v>
+      </c>
+      <c r="J130" t="s">
+        <v>443</v>
+      </c>
+      <c r="K130" t="s">
+        <v>444</v>
+      </c>
+      <c r="L130" t="s">
+        <v>445</v>
+      </c>
+      <c r="M130" t="s">
+        <v>513</v>
+      </c>
       <c r="P130" s="6" t="s">
         <v>226</v>
       </c>
@@ -5445,6 +8211,21 @@
       <c r="H131">
         <v>7</v>
       </c>
+      <c r="I131" t="s">
+        <v>446</v>
+      </c>
+      <c r="J131" t="s">
+        <v>365</v>
+      </c>
+      <c r="K131" t="s">
+        <v>447</v>
+      </c>
+      <c r="L131" t="s">
+        <v>448</v>
+      </c>
+      <c r="M131" t="s">
+        <v>513</v>
+      </c>
       <c r="P131" s="6" t="s">
         <v>226</v>
       </c>
@@ -5477,6 +8258,21 @@
       <c r="H132">
         <v>7</v>
       </c>
+      <c r="I132" t="s">
+        <v>449</v>
+      </c>
+      <c r="J132" t="s">
+        <v>365</v>
+      </c>
+      <c r="K132" t="s">
+        <v>359</v>
+      </c>
+      <c r="L132" t="s">
+        <v>450</v>
+      </c>
+      <c r="M132" t="s">
+        <v>513</v>
+      </c>
       <c r="P132" s="6" t="s">
         <v>226</v>
       </c>
@@ -5509,6 +8305,21 @@
       <c r="H133">
         <v>7</v>
       </c>
+      <c r="I133" t="s">
+        <v>252</v>
+      </c>
+      <c r="J133" t="s">
+        <v>365</v>
+      </c>
+      <c r="K133" t="s">
+        <v>359</v>
+      </c>
+      <c r="L133" t="s">
+        <v>261</v>
+      </c>
+      <c r="M133" t="s">
+        <v>513</v>
+      </c>
       <c r="P133" s="6" t="s">
         <v>226</v>
       </c>
@@ -5541,6 +8352,21 @@
       <c r="H134">
         <v>7</v>
       </c>
+      <c r="I134" t="s">
+        <v>252</v>
+      </c>
+      <c r="J134" t="s">
+        <v>365</v>
+      </c>
+      <c r="K134" t="s">
+        <v>359</v>
+      </c>
+      <c r="L134" t="s">
+        <v>261</v>
+      </c>
+      <c r="M134" t="s">
+        <v>513</v>
+      </c>
       <c r="P134" s="6" t="s">
         <v>226</v>
       </c>
@@ -5573,6 +8399,21 @@
       <c r="H135">
         <v>7</v>
       </c>
+      <c r="I135" t="s">
+        <v>252</v>
+      </c>
+      <c r="J135" t="s">
+        <v>365</v>
+      </c>
+      <c r="K135" t="s">
+        <v>359</v>
+      </c>
+      <c r="L135" t="s">
+        <v>261</v>
+      </c>
+      <c r="M135" t="s">
+        <v>513</v>
+      </c>
       <c r="P135" s="6" t="s">
         <v>226</v>
       </c>
@@ -5605,6 +8446,21 @@
       <c r="H136">
         <v>7</v>
       </c>
+      <c r="I136" t="s">
+        <v>451</v>
+      </c>
+      <c r="J136" t="s">
+        <v>365</v>
+      </c>
+      <c r="K136" t="s">
+        <v>452</v>
+      </c>
+      <c r="L136" t="s">
+        <v>453</v>
+      </c>
+      <c r="M136" t="s">
+        <v>513</v>
+      </c>
       <c r="P136" s="6" t="s">
         <v>226</v>
       </c>
@@ -5637,6 +8493,21 @@
       <c r="H137">
         <v>7</v>
       </c>
+      <c r="I137" t="s">
+        <v>252</v>
+      </c>
+      <c r="J137" t="s">
+        <v>365</v>
+      </c>
+      <c r="K137" t="s">
+        <v>359</v>
+      </c>
+      <c r="L137" t="s">
+        <v>261</v>
+      </c>
+      <c r="M137" t="s">
+        <v>513</v>
+      </c>
       <c r="P137" s="6" t="s">
         <v>226</v>
       </c>
@@ -5669,6 +8540,21 @@
       <c r="H138">
         <v>7</v>
       </c>
+      <c r="I138" t="s">
+        <v>454</v>
+      </c>
+      <c r="J138" t="s">
+        <v>365</v>
+      </c>
+      <c r="K138" t="s">
+        <v>359</v>
+      </c>
+      <c r="L138" t="s">
+        <v>455</v>
+      </c>
+      <c r="M138" t="s">
+        <v>513</v>
+      </c>
       <c r="P138" s="6" t="s">
         <v>226</v>
       </c>
@@ -5701,6 +8587,21 @@
       <c r="H139">
         <v>7</v>
       </c>
+      <c r="I139" t="s">
+        <v>252</v>
+      </c>
+      <c r="J139" t="s">
+        <v>365</v>
+      </c>
+      <c r="K139" t="s">
+        <v>359</v>
+      </c>
+      <c r="L139" t="s">
+        <v>261</v>
+      </c>
+      <c r="M139" t="s">
+        <v>513</v>
+      </c>
       <c r="P139" s="6" t="s">
         <v>226</v>
       </c>
@@ -5733,6 +8634,21 @@
       <c r="H140">
         <v>7</v>
       </c>
+      <c r="I140" t="s">
+        <v>252</v>
+      </c>
+      <c r="J140" t="s">
+        <v>365</v>
+      </c>
+      <c r="K140" t="s">
+        <v>456</v>
+      </c>
+      <c r="L140" t="s">
+        <v>261</v>
+      </c>
+      <c r="M140" t="s">
+        <v>513</v>
+      </c>
       <c r="P140" s="6" t="s">
         <v>226</v>
       </c>
@@ -5765,6 +8681,21 @@
       <c r="H141">
         <v>7</v>
       </c>
+      <c r="I141" t="s">
+        <v>457</v>
+      </c>
+      <c r="J141" t="s">
+        <v>365</v>
+      </c>
+      <c r="K141" t="s">
+        <v>359</v>
+      </c>
+      <c r="L141" t="s">
+        <v>261</v>
+      </c>
+      <c r="M141" t="s">
+        <v>513</v>
+      </c>
       <c r="P141" s="6" t="s">
         <v>226</v>
       </c>
@@ -5797,6 +8728,21 @@
       <c r="H142">
         <v>7</v>
       </c>
+      <c r="I142" t="s">
+        <v>252</v>
+      </c>
+      <c r="J142" t="s">
+        <v>365</v>
+      </c>
+      <c r="K142" t="s">
+        <v>359</v>
+      </c>
+      <c r="L142" t="s">
+        <v>261</v>
+      </c>
+      <c r="M142" t="s">
+        <v>513</v>
+      </c>
       <c r="P142" s="6" t="s">
         <v>226</v>
       </c>
@@ -5829,6 +8775,21 @@
       <c r="H143">
         <v>7</v>
       </c>
+      <c r="I143" t="s">
+        <v>252</v>
+      </c>
+      <c r="J143" t="s">
+        <v>458</v>
+      </c>
+      <c r="K143" t="s">
+        <v>359</v>
+      </c>
+      <c r="L143" t="s">
+        <v>459</v>
+      </c>
+      <c r="M143" t="s">
+        <v>513</v>
+      </c>
       <c r="P143" s="6" t="s">
         <v>227</v>
       </c>
@@ -5861,6 +8822,21 @@
       <c r="H144">
         <v>7</v>
       </c>
+      <c r="I144" t="s">
+        <v>252</v>
+      </c>
+      <c r="J144" t="s">
+        <v>365</v>
+      </c>
+      <c r="K144" t="s">
+        <v>359</v>
+      </c>
+      <c r="L144" t="s">
+        <v>261</v>
+      </c>
+      <c r="M144" t="s">
+        <v>513</v>
+      </c>
       <c r="P144" s="6" t="s">
         <v>227</v>
       </c>
@@ -5893,6 +8869,21 @@
       <c r="H145">
         <v>7</v>
       </c>
+      <c r="I145" t="s">
+        <v>252</v>
+      </c>
+      <c r="J145" t="s">
+        <v>365</v>
+      </c>
+      <c r="K145" t="s">
+        <v>359</v>
+      </c>
+      <c r="L145" t="s">
+        <v>261</v>
+      </c>
+      <c r="M145" t="s">
+        <v>513</v>
+      </c>
       <c r="P145" s="6" t="s">
         <v>227</v>
       </c>
@@ -5925,6 +8916,21 @@
       <c r="H146">
         <v>7</v>
       </c>
+      <c r="I146" t="s">
+        <v>460</v>
+      </c>
+      <c r="J146" t="s">
+        <v>365</v>
+      </c>
+      <c r="K146" t="s">
+        <v>359</v>
+      </c>
+      <c r="L146" t="s">
+        <v>461</v>
+      </c>
+      <c r="M146" t="s">
+        <v>513</v>
+      </c>
       <c r="P146" s="6" t="s">
         <v>227</v>
       </c>
@@ -5957,6 +8963,21 @@
       <c r="H147">
         <v>7</v>
       </c>
+      <c r="I147" t="s">
+        <v>462</v>
+      </c>
+      <c r="J147" t="s">
+        <v>365</v>
+      </c>
+      <c r="K147" t="s">
+        <v>359</v>
+      </c>
+      <c r="L147" t="s">
+        <v>463</v>
+      </c>
+      <c r="M147" t="s">
+        <v>513</v>
+      </c>
       <c r="P147" s="6" t="s">
         <v>227</v>
       </c>
@@ -5989,6 +9010,21 @@
       <c r="H148">
         <v>7</v>
       </c>
+      <c r="I148" t="s">
+        <v>464</v>
+      </c>
+      <c r="J148" t="s">
+        <v>365</v>
+      </c>
+      <c r="K148" t="s">
+        <v>359</v>
+      </c>
+      <c r="L148" t="s">
+        <v>465</v>
+      </c>
+      <c r="M148" t="s">
+        <v>513</v>
+      </c>
       <c r="P148" s="6" t="s">
         <v>227</v>
       </c>
@@ -6021,6 +9057,21 @@
       <c r="H149">
         <v>7</v>
       </c>
+      <c r="I149" t="s">
+        <v>252</v>
+      </c>
+      <c r="J149" t="s">
+        <v>365</v>
+      </c>
+      <c r="K149" t="s">
+        <v>466</v>
+      </c>
+      <c r="L149" t="s">
+        <v>261</v>
+      </c>
+      <c r="M149" t="s">
+        <v>513</v>
+      </c>
       <c r="P149" s="6" t="s">
         <v>227</v>
       </c>
@@ -6053,6 +9104,21 @@
       <c r="H150">
         <v>7</v>
       </c>
+      <c r="I150" t="s">
+        <v>467</v>
+      </c>
+      <c r="J150" t="s">
+        <v>365</v>
+      </c>
+      <c r="K150" t="s">
+        <v>468</v>
+      </c>
+      <c r="L150" t="s">
+        <v>469</v>
+      </c>
+      <c r="M150" t="s">
+        <v>513</v>
+      </c>
       <c r="P150" s="6" t="s">
         <v>227</v>
       </c>
@@ -6085,6 +9151,21 @@
       <c r="H151">
         <v>7</v>
       </c>
+      <c r="I151" t="s">
+        <v>252</v>
+      </c>
+      <c r="J151" t="s">
+        <v>365</v>
+      </c>
+      <c r="K151" t="s">
+        <v>359</v>
+      </c>
+      <c r="L151" t="s">
+        <v>261</v>
+      </c>
+      <c r="M151" t="s">
+        <v>513</v>
+      </c>
       <c r="P151" s="6" t="s">
         <v>227</v>
       </c>
@@ -6117,6 +9198,21 @@
       <c r="H152">
         <v>7</v>
       </c>
+      <c r="I152" t="s">
+        <v>252</v>
+      </c>
+      <c r="J152" t="s">
+        <v>365</v>
+      </c>
+      <c r="K152" t="s">
+        <v>470</v>
+      </c>
+      <c r="L152" t="s">
+        <v>261</v>
+      </c>
+      <c r="M152" t="s">
+        <v>513</v>
+      </c>
       <c r="P152" s="6" t="s">
         <v>227</v>
       </c>
@@ -6149,6 +9245,21 @@
       <c r="H153">
         <v>7</v>
       </c>
+      <c r="I153" t="s">
+        <v>471</v>
+      </c>
+      <c r="J153" t="s">
+        <v>365</v>
+      </c>
+      <c r="K153" t="s">
+        <v>359</v>
+      </c>
+      <c r="L153" t="s">
+        <v>261</v>
+      </c>
+      <c r="M153" t="s">
+        <v>513</v>
+      </c>
       <c r="P153" s="6" t="s">
         <v>227</v>
       </c>
@@ -6181,6 +9292,21 @@
       <c r="H154">
         <v>7</v>
       </c>
+      <c r="I154" t="s">
+        <v>472</v>
+      </c>
+      <c r="J154" t="s">
+        <v>365</v>
+      </c>
+      <c r="K154" t="s">
+        <v>359</v>
+      </c>
+      <c r="L154" t="s">
+        <v>473</v>
+      </c>
+      <c r="M154" t="s">
+        <v>513</v>
+      </c>
       <c r="P154" s="6" t="s">
         <v>227</v>
       </c>
@@ -6213,6 +9339,21 @@
       <c r="H155">
         <v>7</v>
       </c>
+      <c r="I155" t="s">
+        <v>252</v>
+      </c>
+      <c r="J155" t="s">
+        <v>365</v>
+      </c>
+      <c r="K155" t="s">
+        <v>359</v>
+      </c>
+      <c r="L155" t="s">
+        <v>261</v>
+      </c>
+      <c r="M155" t="s">
+        <v>513</v>
+      </c>
       <c r="P155" s="6" t="s">
         <v>227</v>
       </c>
@@ -6245,6 +9386,21 @@
       <c r="H156">
         <v>7</v>
       </c>
+      <c r="I156" t="s">
+        <v>474</v>
+      </c>
+      <c r="J156" t="s">
+        <v>365</v>
+      </c>
+      <c r="K156" t="s">
+        <v>475</v>
+      </c>
+      <c r="L156" t="s">
+        <v>476</v>
+      </c>
+      <c r="M156" t="s">
+        <v>513</v>
+      </c>
       <c r="P156" s="6" t="s">
         <v>227</v>
       </c>
@@ -6277,6 +9433,21 @@
       <c r="H157">
         <v>7</v>
       </c>
+      <c r="I157" t="s">
+        <v>477</v>
+      </c>
+      <c r="J157" t="s">
+        <v>478</v>
+      </c>
+      <c r="K157" t="s">
+        <v>359</v>
+      </c>
+      <c r="L157" t="s">
+        <v>479</v>
+      </c>
+      <c r="M157" t="s">
+        <v>513</v>
+      </c>
       <c r="P157" s="6" t="s">
         <v>227</v>
       </c>
@@ -6309,6 +9480,21 @@
       <c r="H158">
         <v>7</v>
       </c>
+      <c r="I158" t="s">
+        <v>480</v>
+      </c>
+      <c r="J158" t="s">
+        <v>365</v>
+      </c>
+      <c r="K158" t="s">
+        <v>359</v>
+      </c>
+      <c r="L158" t="s">
+        <v>481</v>
+      </c>
+      <c r="M158" t="s">
+        <v>513</v>
+      </c>
       <c r="P158" s="6" t="s">
         <v>227</v>
       </c>
@@ -6341,6 +9527,21 @@
       <c r="H159">
         <v>7</v>
       </c>
+      <c r="I159" t="s">
+        <v>252</v>
+      </c>
+      <c r="J159" t="s">
+        <v>365</v>
+      </c>
+      <c r="K159" t="s">
+        <v>359</v>
+      </c>
+      <c r="L159" t="s">
+        <v>261</v>
+      </c>
+      <c r="M159" t="s">
+        <v>513</v>
+      </c>
       <c r="P159" s="6" t="s">
         <v>227</v>
       </c>
@@ -6373,6 +9574,21 @@
       <c r="H160">
         <v>7</v>
       </c>
+      <c r="I160" t="s">
+        <v>482</v>
+      </c>
+      <c r="J160" t="s">
+        <v>365</v>
+      </c>
+      <c r="K160" t="s">
+        <v>359</v>
+      </c>
+      <c r="L160" t="s">
+        <v>483</v>
+      </c>
+      <c r="M160" t="s">
+        <v>513</v>
+      </c>
       <c r="P160" s="6" t="s">
         <v>227</v>
       </c>
@@ -6405,6 +9621,21 @@
       <c r="H161">
         <v>7</v>
       </c>
+      <c r="I161" t="s">
+        <v>252</v>
+      </c>
+      <c r="J161" t="s">
+        <v>365</v>
+      </c>
+      <c r="K161" t="s">
+        <v>484</v>
+      </c>
+      <c r="L161" t="s">
+        <v>485</v>
+      </c>
+      <c r="M161" t="s">
+        <v>513</v>
+      </c>
       <c r="P161" s="6" t="s">
         <v>227</v>
       </c>
@@ -6437,6 +9668,21 @@
       <c r="H162">
         <v>7</v>
       </c>
+      <c r="I162" t="s">
+        <v>252</v>
+      </c>
+      <c r="J162" t="s">
+        <v>365</v>
+      </c>
+      <c r="K162" t="s">
+        <v>486</v>
+      </c>
+      <c r="L162" t="s">
+        <v>261</v>
+      </c>
+      <c r="M162" t="s">
+        <v>513</v>
+      </c>
       <c r="P162" s="6" t="s">
         <v>227</v>
       </c>
@@ -6469,6 +9715,21 @@
       <c r="H163">
         <v>7</v>
       </c>
+      <c r="I163" t="s">
+        <v>487</v>
+      </c>
+      <c r="J163" t="s">
+        <v>365</v>
+      </c>
+      <c r="K163" t="s">
+        <v>359</v>
+      </c>
+      <c r="L163" t="s">
+        <v>261</v>
+      </c>
+      <c r="M163" t="s">
+        <v>513</v>
+      </c>
       <c r="P163" s="6" t="s">
         <v>227</v>
       </c>
@@ -6501,6 +9762,21 @@
       <c r="H164">
         <v>7</v>
       </c>
+      <c r="I164" t="s">
+        <v>252</v>
+      </c>
+      <c r="J164" t="s">
+        <v>365</v>
+      </c>
+      <c r="K164" t="s">
+        <v>359</v>
+      </c>
+      <c r="L164" t="s">
+        <v>261</v>
+      </c>
+      <c r="M164" t="s">
+        <v>513</v>
+      </c>
       <c r="P164" s="6" t="s">
         <v>227</v>
       </c>
@@ -6533,6 +9809,21 @@
       <c r="H165">
         <v>7</v>
       </c>
+      <c r="I165" t="s">
+        <v>488</v>
+      </c>
+      <c r="J165" t="s">
+        <v>365</v>
+      </c>
+      <c r="K165" t="s">
+        <v>489</v>
+      </c>
+      <c r="L165" t="s">
+        <v>490</v>
+      </c>
+      <c r="M165" t="s">
+        <v>513</v>
+      </c>
       <c r="P165" s="6" t="s">
         <v>227</v>
       </c>
@@ -6565,6 +9856,21 @@
       <c r="H166">
         <v>1</v>
       </c>
+      <c r="I166" t="s">
+        <v>252</v>
+      </c>
+      <c r="J166" t="s">
+        <v>491</v>
+      </c>
+      <c r="K166" t="s">
+        <v>492</v>
+      </c>
+      <c r="L166" t="s">
+        <v>493</v>
+      </c>
+      <c r="M166" s="9" t="s">
+        <v>494</v>
+      </c>
       <c r="P166" s="6" t="s">
         <v>227</v>
       </c>
@@ -6597,6 +9903,21 @@
       <c r="H167">
         <v>1</v>
       </c>
+      <c r="I167" t="s">
+        <v>252</v>
+      </c>
+      <c r="J167" t="s">
+        <v>365</v>
+      </c>
+      <c r="K167" t="s">
+        <v>359</v>
+      </c>
+      <c r="L167" t="s">
+        <v>261</v>
+      </c>
+      <c r="M167" s="9" t="s">
+        <v>494</v>
+      </c>
       <c r="P167" s="6" t="s">
         <v>227</v>
       </c>
@@ -6629,6 +9950,21 @@
       <c r="H168">
         <v>1</v>
       </c>
+      <c r="I168" t="s">
+        <v>495</v>
+      </c>
+      <c r="J168" t="s">
+        <v>365</v>
+      </c>
+      <c r="K168" t="s">
+        <v>359</v>
+      </c>
+      <c r="L168" t="s">
+        <v>496</v>
+      </c>
+      <c r="M168" s="9" t="s">
+        <v>494</v>
+      </c>
       <c r="P168" s="6" t="s">
         <v>227</v>
       </c>
@@ -6661,6 +9997,21 @@
       <c r="H169">
         <v>1</v>
       </c>
+      <c r="I169" t="s">
+        <v>252</v>
+      </c>
+      <c r="J169" t="s">
+        <v>365</v>
+      </c>
+      <c r="K169" t="s">
+        <v>359</v>
+      </c>
+      <c r="L169" t="s">
+        <v>261</v>
+      </c>
+      <c r="M169" s="9" t="s">
+        <v>494</v>
+      </c>
       <c r="P169" s="6" t="s">
         <v>227</v>
       </c>
@@ -6693,6 +10044,21 @@
       <c r="H170">
         <v>1</v>
       </c>
+      <c r="I170" t="s">
+        <v>252</v>
+      </c>
+      <c r="J170" t="s">
+        <v>497</v>
+      </c>
+      <c r="K170" t="s">
+        <v>359</v>
+      </c>
+      <c r="L170" t="s">
+        <v>498</v>
+      </c>
+      <c r="M170" s="9" t="s">
+        <v>494</v>
+      </c>
       <c r="P170" s="6" t="s">
         <v>227</v>
       </c>
@@ -6725,6 +10091,21 @@
       <c r="H171">
         <v>1</v>
       </c>
+      <c r="I171" t="s">
+        <v>252</v>
+      </c>
+      <c r="J171" t="s">
+        <v>365</v>
+      </c>
+      <c r="K171" t="s">
+        <v>359</v>
+      </c>
+      <c r="L171" t="s">
+        <v>499</v>
+      </c>
+      <c r="M171" s="9" t="s">
+        <v>494</v>
+      </c>
       <c r="P171" s="6" t="s">
         <v>227</v>
       </c>
@@ -6757,6 +10138,21 @@
       <c r="H172">
         <v>1</v>
       </c>
+      <c r="I172" t="s">
+        <v>252</v>
+      </c>
+      <c r="J172" t="s">
+        <v>365</v>
+      </c>
+      <c r="K172" t="s">
+        <v>359</v>
+      </c>
+      <c r="L172" t="s">
+        <v>261</v>
+      </c>
+      <c r="M172" s="9" t="s">
+        <v>494</v>
+      </c>
       <c r="P172" s="6" t="s">
         <v>227</v>
       </c>
@@ -6789,6 +10185,21 @@
       <c r="H173">
         <v>1</v>
       </c>
+      <c r="I173" t="s">
+        <v>252</v>
+      </c>
+      <c r="J173" t="s">
+        <v>365</v>
+      </c>
+      <c r="K173" t="s">
+        <v>359</v>
+      </c>
+      <c r="L173" t="s">
+        <v>261</v>
+      </c>
+      <c r="M173" s="9" t="s">
+        <v>494</v>
+      </c>
       <c r="P173" s="6" t="s">
         <v>227</v>
       </c>
@@ -6821,6 +10232,21 @@
       <c r="H174">
         <v>1</v>
       </c>
+      <c r="I174" t="s">
+        <v>252</v>
+      </c>
+      <c r="J174" t="s">
+        <v>365</v>
+      </c>
+      <c r="K174" t="s">
+        <v>359</v>
+      </c>
+      <c r="L174" t="s">
+        <v>261</v>
+      </c>
+      <c r="M174" t="s">
+        <v>514</v>
+      </c>
       <c r="P174" s="6" t="s">
         <v>227</v>
       </c>
@@ -6853,6 +10279,21 @@
       <c r="H175">
         <v>1</v>
       </c>
+      <c r="I175" t="s">
+        <v>252</v>
+      </c>
+      <c r="J175" t="s">
+        <v>365</v>
+      </c>
+      <c r="K175" t="s">
+        <v>359</v>
+      </c>
+      <c r="L175" t="s">
+        <v>261</v>
+      </c>
+      <c r="M175" t="s">
+        <v>514</v>
+      </c>
       <c r="P175" s="6" t="s">
         <v>227</v>
       </c>
@@ -6885,6 +10326,21 @@
       <c r="H176">
         <v>1</v>
       </c>
+      <c r="I176" t="s">
+        <v>500</v>
+      </c>
+      <c r="J176" t="s">
+        <v>365</v>
+      </c>
+      <c r="K176" t="s">
+        <v>501</v>
+      </c>
+      <c r="L176" t="s">
+        <v>502</v>
+      </c>
+      <c r="M176" t="s">
+        <v>514</v>
+      </c>
       <c r="P176" s="6" t="s">
         <v>228</v>
       </c>
@@ -6917,6 +10373,21 @@
       <c r="H177">
         <v>1</v>
       </c>
+      <c r="I177" t="s">
+        <v>252</v>
+      </c>
+      <c r="J177" t="s">
+        <v>365</v>
+      </c>
+      <c r="K177" t="s">
+        <v>359</v>
+      </c>
+      <c r="L177" t="s">
+        <v>261</v>
+      </c>
+      <c r="M177" t="s">
+        <v>514</v>
+      </c>
       <c r="P177" s="6" t="s">
         <v>228</v>
       </c>
@@ -6949,6 +10420,21 @@
       <c r="H178">
         <v>1</v>
       </c>
+      <c r="I178" t="s">
+        <v>503</v>
+      </c>
+      <c r="J178" t="s">
+        <v>365</v>
+      </c>
+      <c r="K178" t="s">
+        <v>359</v>
+      </c>
+      <c r="L178" t="s">
+        <v>504</v>
+      </c>
+      <c r="M178" t="s">
+        <v>514</v>
+      </c>
       <c r="P178" s="6" t="s">
         <v>228</v>
       </c>
@@ -6981,6 +10467,21 @@
       <c r="H179">
         <v>1</v>
       </c>
+      <c r="I179" t="s">
+        <v>252</v>
+      </c>
+      <c r="J179" t="s">
+        <v>365</v>
+      </c>
+      <c r="K179" t="s">
+        <v>359</v>
+      </c>
+      <c r="L179" t="s">
+        <v>261</v>
+      </c>
+      <c r="M179" t="s">
+        <v>514</v>
+      </c>
       <c r="P179" s="6" t="s">
         <v>228</v>
       </c>
@@ -7013,6 +10514,21 @@
       <c r="H180">
         <v>1</v>
       </c>
+      <c r="I180" t="s">
+        <v>505</v>
+      </c>
+      <c r="J180" t="s">
+        <v>506</v>
+      </c>
+      <c r="K180" t="s">
+        <v>507</v>
+      </c>
+      <c r="L180" t="s">
+        <v>508</v>
+      </c>
+      <c r="M180" t="s">
+        <v>514</v>
+      </c>
       <c r="P180" s="6" t="s">
         <v>228</v>
       </c>
@@ -7045,6 +10561,21 @@
       <c r="H181">
         <v>1</v>
       </c>
+      <c r="I181" t="s">
+        <v>252</v>
+      </c>
+      <c r="J181" t="s">
+        <v>365</v>
+      </c>
+      <c r="K181" t="s">
+        <v>359</v>
+      </c>
+      <c r="L181" t="s">
+        <v>509</v>
+      </c>
+      <c r="M181" t="s">
+        <v>514</v>
+      </c>
       <c r="P181" s="6" t="s">
         <v>228</v>
       </c>
@@ -7077,6 +10608,21 @@
       <c r="H182">
         <v>1</v>
       </c>
+      <c r="I182" t="s">
+        <v>252</v>
+      </c>
+      <c r="J182" t="s">
+        <v>365</v>
+      </c>
+      <c r="K182" t="s">
+        <v>359</v>
+      </c>
+      <c r="L182" t="s">
+        <v>510</v>
+      </c>
+      <c r="M182" t="s">
+        <v>261</v>
+      </c>
       <c r="P182" s="6" t="s">
         <v>228</v>
       </c>
@@ -7108,6 +10654,21 @@
       </c>
       <c r="H183">
         <v>1</v>
+      </c>
+      <c r="I183" t="s">
+        <v>252</v>
+      </c>
+      <c r="J183" t="s">
+        <v>365</v>
+      </c>
+      <c r="K183" t="s">
+        <v>359</v>
+      </c>
+      <c r="L183" t="s">
+        <v>261</v>
+      </c>
+      <c r="M183" t="s">
+        <v>261</v>
       </c>
       <c r="P183" s="6" t="s">
         <v>228</v>

--- a/Elecciones 11 Abril 2021/Constituyentes PI.xlsx
+++ b/Elecciones 11 Abril 2021/Constituyentes PI.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ELECCIONES\Elecciones 11 Abril 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E94781-9EEF-4041-BFDA-2723B0A648F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC997001-989B-4EA8-A980-5FA37B9B18C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{60F7545B-3EF7-47B8-B6F1-BF05007745DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{60F7545B-3EF7-47B8-B6F1-BF05007745DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="526">
   <si>
     <t>Pueblo</t>
   </si>
@@ -1570,6 +1571,39 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d8/Flag_of_Rapa_Nui%2C_Chile.svg/1024px-Flag_of_Rapa_Nui%2C_Chile.svg.png</t>
+  </si>
+  <si>
+    <t>Eliana Esmeralda Monardez Díaz</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>Heriberto Evaristo Monardez Díaz</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Rosa Isolde Reuque Paillalef</t>
+  </si>
+  <si>
+    <t>Leonardo Javier Castillo Cárdenas</t>
+  </si>
+  <si>
+    <t>Jaime Javier Mariman Naguelquín</t>
+  </si>
+  <si>
+    <t>Carla Patricia Guaquín Barrientos</t>
+  </si>
+  <si>
+    <t>TituLar</t>
+  </si>
+  <si>
+    <t>Luis Hernando Pailapichún Yefi</t>
+  </si>
+  <si>
+    <t>Susana Jacqueline Rumian Vidal</t>
   </si>
 </sst>
 </file>
@@ -1705,7 +1739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1718,6 +1752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2061,7 +2096,7 @@
   <dimension ref="A1:Q346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7488,7 +7523,7 @@
       <c r="B116">
         <v>115</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="10" t="s">
         <v>136</v>
       </c>
       <c r="D116" t="s">
@@ -7582,7 +7617,7 @@
       <c r="B118">
         <v>117</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="10" t="s">
         <v>139</v>
       </c>
       <c r="D118" t="s">
@@ -7676,7 +7711,7 @@
       <c r="B120">
         <v>119</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D120" t="s">
@@ -7770,7 +7805,7 @@
       <c r="B122">
         <v>121</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="10" t="s">
         <v>143</v>
       </c>
       <c r="D122" t="s">
@@ -7864,7 +7899,7 @@
       <c r="B124">
         <v>123</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="10" t="s">
         <v>145</v>
       </c>
       <c r="D124" t="s">
@@ -7958,7 +7993,7 @@
       <c r="B126">
         <v>125</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D126" t="s">
@@ -8052,7 +8087,7 @@
       <c r="B128">
         <v>127</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="10" t="s">
         <v>149</v>
       </c>
       <c r="D128" t="s">
@@ -8146,7 +8181,7 @@
       <c r="B130">
         <v>129</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="10" t="s">
         <v>151</v>
       </c>
       <c r="D130" t="s">
@@ -8240,7 +8275,7 @@
       <c r="B132">
         <v>131</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="10" t="s">
         <v>153</v>
       </c>
       <c r="D132" t="s">
@@ -8334,7 +8369,7 @@
       <c r="B134">
         <v>133</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="10" t="s">
         <v>155</v>
       </c>
       <c r="D134" t="s">
@@ -8428,7 +8463,7 @@
       <c r="B136">
         <v>135</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="10" t="s">
         <v>157</v>
       </c>
       <c r="D136" t="s">
@@ -8522,7 +8557,7 @@
       <c r="B138">
         <v>137</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="10" t="s">
         <v>159</v>
       </c>
       <c r="D138" t="s">
@@ -8616,7 +8651,7 @@
       <c r="B140">
         <v>139</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D140" t="s">
@@ -8710,7 +8745,7 @@
       <c r="B142">
         <v>141</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="10" t="s">
         <v>163</v>
       </c>
       <c r="D142" t="s">
@@ -8804,7 +8839,7 @@
       <c r="B144">
         <v>143</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D144" t="s">
@@ -8898,7 +8933,7 @@
       <c r="B146">
         <v>145</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="10" t="s">
         <v>167</v>
       </c>
       <c r="D146" t="s">
@@ -8992,7 +9027,7 @@
       <c r="B148">
         <v>147</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="10" t="s">
         <v>169</v>
       </c>
       <c r="D148" t="s">
@@ -11988,4 +12023,202 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9B211B-3659-4C66-95BE-8614E0095507}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E4" t="s">
+        <v>516</v>
+      </c>
+      <c r="F4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" t="s">
+        <v>518</v>
+      </c>
+      <c r="F5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" t="s">
+        <v>518</v>
+      </c>
+      <c r="F6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>522</v>
+      </c>
+      <c r="D7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" t="s">
+        <v>518</v>
+      </c>
+      <c r="F8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>525</v>
+      </c>
+      <c r="D9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" t="s">
+        <v>516</v>
+      </c>
+      <c r="F9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Elecciones 11 Abril 2021/Constituyentes PI.xlsx
+++ b/Elecciones 11 Abril 2021/Constituyentes PI.xlsx
@@ -5,28 +5,37 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ELECCIONES\Elecciones 11 Abril 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Elecciones 11 Abril 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC997001-989B-4EA8-A980-5FA37B9B18C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F74CD9-E7FE-4738-BB64-A2095325BAC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{60F7545B-3EF7-47B8-B6F1-BF05007745DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{60F7545B-3EF7-47B8-B6F1-BF05007745DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="530">
   <si>
     <t>Pueblo</t>
   </si>
@@ -742,9 +751,6 @@
     <t>https://www.facebook.com/wilmamarielconstituyentesdiaguitas/</t>
   </si>
   <si>
-    <t>sin Twitter</t>
-  </si>
-  <si>
     <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.0-9/152339705_111823024282090_3658895135672408_o.jpg?_nc_cat=109&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=YnF47trrVH4AX8K6R9N&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=ba970cd299dfd87c497c7370383fa72f&amp;oe=606F80D7</t>
   </si>
   <si>
@@ -784,9 +790,6 @@
     <t>https://conectadosconlamemoria.cl/masquenunca/wp-content/uploads/2020/06/CARO_RELSOCCHIL.jpg</t>
   </si>
   <si>
-    <t>Sin Facebook</t>
-  </si>
-  <si>
     <t>https://conectadosconlamemoria.cl/masquenunca/wp-content/uploads/2020/06/VARGAS_TERRITORIO.jpg</t>
   </si>
   <si>
@@ -1105,9 +1108,6 @@
     <t>https://twitter.com/luisjimenezc?lang=en</t>
   </si>
   <si>
-    <t>Sin Instagram</t>
-  </si>
-  <si>
     <t>https://scontent.fscl9-1.fna.fbcdn.net/v/t1.0-9/155922216_10225518859018785_6411224642232887272_o.jpg?_nc_cat=101&amp;_nc_map=control&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=Vn3V_utFqNEAX9pEHlT&amp;_nc_ht=scontent.fscl9-1.fna&amp;oh=10938380f9ea95df38325e59ec4fdb9a&amp;oe=606F4E99</t>
   </si>
   <si>
@@ -1117,15 +1117,9 @@
     <t>https://twitter.com/choque_jennyfer/with_replies?lang=en</t>
   </si>
   <si>
-    <t>Sin imagen</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/maritzapatricia.quispemedina</t>
   </si>
   <si>
-    <t>Sin Twitter</t>
-  </si>
-  <si>
     <t>https://scontent.fscl9-1.fna.fbcdn.net/v/t1.0-9/159787654_10224815841206304_1489310886709368230_o.jpg?_nc_cat=102&amp;_nc_map=control&amp;ccb=1-3&amp;_nc_sid=e3f864&amp;_nc_ohc=7PB53TF25vEAX9IuqIU&amp;_nc_ht=scontent.fscl9-1.fna&amp;oh=e946fa333b9426d7e6b52bc4509b75b5&amp;oe=606F1B3C</t>
   </si>
   <si>
@@ -1604,6 +1598,33 @@
   </si>
   <si>
     <t>Susana Jacqueline Rumian Vidal</t>
+  </si>
+  <si>
+    <t>ELIANA ESMERALDA MONARDEZ DIAZ</t>
+  </si>
+  <si>
+    <t>HERIBERTO EVARISTO MONARDEZ DIAZ</t>
+  </si>
+  <si>
+    <t>ROSA ISOLDE REUQUE PAILLALEF</t>
+  </si>
+  <si>
+    <t>LEONARDO JAVIER CASTILLO CARDENAS</t>
+  </si>
+  <si>
+    <t>JAIME JAVIER MARIMAN NAGUELQUIN</t>
+  </si>
+  <si>
+    <t>CARLA PATRICIA GUAQUIN BARRIENTOS</t>
+  </si>
+  <si>
+    <t>LUIS HERNANDO PAILAPICHUN YEFI</t>
+  </si>
+  <si>
+    <t>SUSANA JACQUELINE RUMIAN VIDAL</t>
+  </si>
+  <si>
+    <t>BIOBÍO</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1753,6 +1774,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1775,8 +1798,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{171D0B00-5739-4FCB-9D3F-C5E1B3228124}" name="Constituyentes_PI_Candidatos" displayName="Constituyentes_PI_Candidatos" ref="A1:M183" totalsRowShown="0">
-  <autoFilter ref="A1:M183" xr:uid="{001C7DCB-0205-469B-A320-625D862BE634}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{171D0B00-5739-4FCB-9D3F-C5E1B3228124}" name="Constituyentes_PI_Candidatos" displayName="Constituyentes_PI_Candidatos" ref="A1:M191" totalsRowShown="0">
+  <autoFilter ref="A1:M191" xr:uid="{001C7DCB-0205-469B-A320-625D862BE634}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M191">
+    <sortCondition ref="B1:B191"/>
+  </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{BB4F69CD-1D9C-4D83-903E-ACDD1052975F}" name="Pueblo"/>
     <tableColumn id="2" xr3:uid="{861D453C-3901-4DD0-BC47-D772A2528FB6}" name="Correlativo"/>
@@ -2095,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A628787C-CB18-4385-9B00-3683138E44A8}">
   <dimension ref="A1:Q346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B160" workbookViewId="0">
+      <selection activeCell="P189" sqref="P189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,19 +2210,16 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="J2" t="s">
-        <v>358</v>
-      </c>
-      <c r="K2" t="s">
-        <v>359</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>360</v>
-      </c>
       <c r="M2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>220</v>
@@ -2231,19 +2254,13 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J3" t="s">
-        <v>362</v>
-      </c>
-      <c r="K3" t="s">
         <v>359</v>
       </c>
-      <c r="L3" t="s">
-        <v>363</v>
-      </c>
       <c r="M3" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>220</v>
@@ -2278,19 +2295,13 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>364</v>
-      </c>
-      <c r="J4" t="s">
-        <v>365</v>
-      </c>
-      <c r="K4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>220</v>
@@ -2324,20 +2335,8 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
-        <v>252</v>
-      </c>
-      <c r="J5" t="s">
-        <v>365</v>
-      </c>
-      <c r="K5" t="s">
-        <v>359</v>
-      </c>
-      <c r="L5" t="s">
-        <v>363</v>
-      </c>
       <c r="M5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>220</v>
@@ -2371,20 +2370,8 @@
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
-        <v>252</v>
-      </c>
-      <c r="J6" t="s">
-        <v>365</v>
-      </c>
-      <c r="K6" t="s">
-        <v>359</v>
-      </c>
-      <c r="L6" t="s">
-        <v>363</v>
-      </c>
       <c r="M6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>220</v>
@@ -2409,7 +2396,7 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G7">
@@ -2419,19 +2406,10 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>367</v>
-      </c>
-      <c r="J7" t="s">
-        <v>365</v>
-      </c>
-      <c r="K7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>220</v>
@@ -2466,19 +2444,19 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="L8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>220</v>
@@ -2503,7 +2481,7 @@
       <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G9">
@@ -2513,19 +2491,10 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>372</v>
-      </c>
-      <c r="J9" t="s">
-        <v>365</v>
-      </c>
-      <c r="K9" t="s">
-        <v>359</v>
-      </c>
-      <c r="L9" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M9" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>221</v>
@@ -2550,7 +2519,7 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G10">
@@ -2560,19 +2529,10 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>373</v>
-      </c>
-      <c r="J10" t="s">
-        <v>365</v>
-      </c>
-      <c r="K10" t="s">
-        <v>359</v>
-      </c>
-      <c r="L10" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="M10" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>221</v>
@@ -2597,7 +2557,7 @@
       <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G11">
@@ -2606,20 +2566,8 @@
       <c r="H11">
         <v>2</v>
       </c>
-      <c r="I11" t="s">
-        <v>252</v>
-      </c>
-      <c r="J11" t="s">
-        <v>365</v>
-      </c>
-      <c r="K11" t="s">
-        <v>359</v>
-      </c>
-      <c r="L11" t="s">
-        <v>363</v>
-      </c>
       <c r="M11" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>221</v>
@@ -2644,7 +2592,7 @@
       <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G12">
@@ -2653,20 +2601,8 @@
       <c r="H12">
         <v>2</v>
       </c>
-      <c r="I12" t="s">
-        <v>252</v>
-      </c>
-      <c r="J12" t="s">
-        <v>365</v>
-      </c>
-      <c r="K12" t="s">
-        <v>359</v>
-      </c>
-      <c r="L12" t="s">
-        <v>363</v>
-      </c>
       <c r="M12" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>221</v>
@@ -2691,7 +2627,7 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G13">
@@ -2700,20 +2636,8 @@
       <c r="H13">
         <v>2</v>
       </c>
-      <c r="I13" t="s">
-        <v>252</v>
-      </c>
-      <c r="J13" t="s">
-        <v>365</v>
-      </c>
-      <c r="K13" t="s">
-        <v>359</v>
-      </c>
-      <c r="L13" t="s">
-        <v>363</v>
-      </c>
       <c r="M13" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>221</v>
@@ -2748,19 +2672,16 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>374</v>
-      </c>
-      <c r="J14" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K14" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L14" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M14" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>221</v>
@@ -2785,7 +2706,7 @@
       <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G15">
@@ -2794,20 +2715,8 @@
       <c r="H15">
         <v>2</v>
       </c>
-      <c r="I15" t="s">
-        <v>252</v>
-      </c>
-      <c r="J15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K15" t="s">
-        <v>359</v>
-      </c>
-      <c r="L15" t="s">
-        <v>363</v>
-      </c>
       <c r="M15" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>221</v>
@@ -2832,7 +2741,7 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G16">
@@ -2841,20 +2750,8 @@
       <c r="H16">
         <v>2</v>
       </c>
-      <c r="I16" t="s">
-        <v>252</v>
-      </c>
-      <c r="J16" t="s">
-        <v>365</v>
-      </c>
-      <c r="K16" t="s">
-        <v>359</v>
-      </c>
-      <c r="L16" t="s">
-        <v>363</v>
-      </c>
       <c r="M16" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>221</v>
@@ -2879,7 +2776,7 @@
       <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G17">
@@ -2889,19 +2786,10 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>377</v>
-      </c>
-      <c r="J17" t="s">
-        <v>365</v>
-      </c>
-      <c r="K17" t="s">
-        <v>359</v>
-      </c>
-      <c r="L17" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="M17" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>221</v>
@@ -2926,7 +2814,7 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G18">
@@ -2936,19 +2824,10 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>378</v>
-      </c>
-      <c r="J18" t="s">
-        <v>365</v>
-      </c>
-      <c r="K18" t="s">
-        <v>359</v>
-      </c>
-      <c r="L18" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="M18" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>222</v>
@@ -2973,7 +2852,7 @@
       <c r="E19" t="s">
         <v>11</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G19">
@@ -2983,19 +2862,10 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>379</v>
-      </c>
-      <c r="J19" t="s">
-        <v>365</v>
-      </c>
-      <c r="K19" t="s">
-        <v>359</v>
-      </c>
-      <c r="L19" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="M19" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>222</v>
@@ -3030,19 +2900,19 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="J20" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="K20" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L20" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="M20" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>222</v>
@@ -3067,7 +2937,7 @@
       <c r="E21" t="s">
         <v>8</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G21">
@@ -3077,19 +2947,13 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>384</v>
-      </c>
-      <c r="J21" t="s">
-        <v>365</v>
-      </c>
-      <c r="K21" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="L21" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M21" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>222</v>
@@ -3124,19 +2988,10 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>386</v>
-      </c>
-      <c r="J22" t="s">
-        <v>365</v>
-      </c>
-      <c r="K22" t="s">
-        <v>359</v>
-      </c>
-      <c r="L22" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="M22" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>222</v>
@@ -3171,19 +3026,10 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>387</v>
-      </c>
-      <c r="J23" t="s">
-        <v>365</v>
-      </c>
-      <c r="K23" t="s">
-        <v>359</v>
-      </c>
-      <c r="L23" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="M23" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>222</v>
@@ -3218,19 +3064,13 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>388</v>
-      </c>
-      <c r="J24" t="s">
-        <v>365</v>
-      </c>
-      <c r="K24" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="L24" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M24" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>222</v>
@@ -3264,20 +3104,11 @@
       <c r="H25">
         <v>2</v>
       </c>
-      <c r="I25" t="s">
-        <v>252</v>
-      </c>
-      <c r="J25" t="s">
-        <v>365</v>
-      </c>
       <c r="K25" t="s">
-        <v>390</v>
-      </c>
-      <c r="L25" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="M25" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>222</v>
@@ -3312,19 +3143,13 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>391</v>
-      </c>
-      <c r="J26" t="s">
-        <v>365</v>
-      </c>
-      <c r="K26" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="L26" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M26" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>222</v>
@@ -3359,19 +3184,13 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="J27" t="s">
-        <v>394</v>
-      </c>
-      <c r="K27" t="s">
-        <v>359</v>
-      </c>
-      <c r="L27" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="M27" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>223</v>
@@ -3406,19 +3225,13 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="J28" t="s">
-        <v>396</v>
-      </c>
-      <c r="K28" t="s">
-        <v>359</v>
-      </c>
-      <c r="L28" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="M28" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>223</v>
@@ -3453,19 +3266,13 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>397</v>
-      </c>
-      <c r="J29" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="K29" t="s">
-        <v>398</v>
-      </c>
-      <c r="L29" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="M29" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>223</v>
@@ -3499,20 +3306,8 @@
       <c r="H30">
         <v>2</v>
       </c>
-      <c r="I30" t="s">
-        <v>252</v>
-      </c>
-      <c r="J30" t="s">
-        <v>365</v>
-      </c>
-      <c r="K30" t="s">
-        <v>359</v>
-      </c>
-      <c r="L30" t="s">
-        <v>363</v>
-      </c>
       <c r="M30" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>223</v>
@@ -3546,20 +3341,8 @@
       <c r="H31">
         <v>2</v>
       </c>
-      <c r="I31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J31" t="s">
-        <v>365</v>
-      </c>
-      <c r="K31" t="s">
-        <v>359</v>
-      </c>
-      <c r="L31" t="s">
-        <v>363</v>
-      </c>
       <c r="M31" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>223</v>
@@ -3594,19 +3377,13 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="J32" t="s">
-        <v>400</v>
-      </c>
-      <c r="K32" t="s">
-        <v>359</v>
-      </c>
-      <c r="L32" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="M32" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P32" s="6" t="s">
         <v>223</v>
@@ -3640,20 +3417,11 @@
       <c r="H33">
         <v>2</v>
       </c>
-      <c r="I33" t="s">
-        <v>252</v>
-      </c>
       <c r="J33" t="s">
-        <v>401</v>
-      </c>
-      <c r="K33" t="s">
-        <v>359</v>
-      </c>
-      <c r="L33" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="M33" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>223</v>
@@ -3688,19 +3456,10 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>402</v>
-      </c>
-      <c r="J34" t="s">
-        <v>365</v>
-      </c>
-      <c r="K34" t="s">
-        <v>359</v>
-      </c>
-      <c r="L34" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="M34" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P34" s="6" t="s">
         <v>223</v>
@@ -3734,20 +3493,8 @@
       <c r="H35">
         <v>2</v>
       </c>
-      <c r="I35" t="s">
-        <v>252</v>
-      </c>
-      <c r="J35" t="s">
-        <v>365</v>
-      </c>
-      <c r="K35" t="s">
-        <v>359</v>
-      </c>
-      <c r="L35" t="s">
-        <v>363</v>
-      </c>
       <c r="M35" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>223</v>
@@ -3772,7 +3519,7 @@
       <c r="E36" t="s">
         <v>11</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G36">
@@ -3781,20 +3528,8 @@
       <c r="H36">
         <v>2</v>
       </c>
-      <c r="I36" t="s">
-        <v>252</v>
-      </c>
-      <c r="J36" t="s">
-        <v>365</v>
-      </c>
-      <c r="K36" t="s">
-        <v>359</v>
-      </c>
-      <c r="L36" t="s">
-        <v>363</v>
-      </c>
       <c r="M36" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P36" s="6" t="s">
         <v>223</v>
@@ -3819,7 +3554,7 @@
       <c r="E37" t="s">
         <v>8</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G37">
@@ -3829,19 +3564,10 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>403</v>
-      </c>
-      <c r="J37" t="s">
-        <v>365</v>
-      </c>
-      <c r="K37" t="s">
-        <v>359</v>
-      </c>
-      <c r="L37" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="M37" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>223</v>
@@ -3876,19 +3602,16 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="J38" t="s">
-        <v>405</v>
-      </c>
-      <c r="K38" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="L38" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>223</v>
@@ -3913,7 +3636,7 @@
       <c r="E39" t="s">
         <v>11</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G39">
@@ -3922,20 +3645,8 @@
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39" t="s">
-        <v>252</v>
-      </c>
-      <c r="J39" t="s">
-        <v>365</v>
-      </c>
-      <c r="K39" t="s">
-        <v>359</v>
-      </c>
-      <c r="L39" t="s">
-        <v>363</v>
-      </c>
       <c r="M39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>223</v>
@@ -3960,7 +3671,7 @@
       <c r="E40" t="s">
         <v>8</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="12" t="s">
         <v>52</v>
       </c>
       <c r="G40">
@@ -3969,20 +3680,8 @@
       <c r="H40">
         <v>1</v>
       </c>
-      <c r="I40" t="s">
-        <v>252</v>
-      </c>
-      <c r="J40" t="s">
-        <v>365</v>
-      </c>
-      <c r="K40" t="s">
-        <v>359</v>
-      </c>
-      <c r="L40" t="s">
-        <v>363</v>
-      </c>
       <c r="M40" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>223</v>
@@ -4007,7 +3706,7 @@
       <c r="E41" t="s">
         <v>11</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="12" t="s">
         <v>52</v>
       </c>
       <c r="G41">
@@ -4017,19 +3716,10 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>407</v>
-      </c>
-      <c r="J41" t="s">
-        <v>365</v>
-      </c>
-      <c r="K41" t="s">
-        <v>359</v>
-      </c>
-      <c r="L41" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="M41" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P41" s="6" t="s">
         <v>223</v>
@@ -4054,7 +3744,7 @@
       <c r="E42" t="s">
         <v>8</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G42">
@@ -4063,20 +3753,8 @@
       <c r="H42">
         <v>1</v>
       </c>
-      <c r="I42" t="s">
-        <v>252</v>
-      </c>
-      <c r="J42" t="s">
-        <v>365</v>
-      </c>
-      <c r="K42" t="s">
-        <v>359</v>
-      </c>
-      <c r="L42" t="s">
-        <v>363</v>
-      </c>
       <c r="M42" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P42" s="6" t="s">
         <v>224</v>
@@ -4101,7 +3779,7 @@
       <c r="E43" t="s">
         <v>11</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G43">
@@ -4110,20 +3788,8 @@
       <c r="H43">
         <v>1</v>
       </c>
-      <c r="I43" t="s">
-        <v>252</v>
-      </c>
-      <c r="J43" t="s">
-        <v>365</v>
-      </c>
-      <c r="K43" t="s">
-        <v>359</v>
-      </c>
-      <c r="L43" t="s">
-        <v>363</v>
-      </c>
       <c r="M43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P43" s="6" t="s">
         <v>224</v>
@@ -4148,7 +3814,7 @@
       <c r="E44" t="s">
         <v>11</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="12" t="s">
         <v>52</v>
       </c>
       <c r="G44">
@@ -4158,19 +3824,13 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>408</v>
-      </c>
-      <c r="J44" t="s">
-        <v>365</v>
-      </c>
-      <c r="K44" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="L44" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M44" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P44" s="6" t="s">
         <v>224</v>
@@ -4195,7 +3855,7 @@
       <c r="E45" t="s">
         <v>8</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="12" t="s">
         <v>52</v>
       </c>
       <c r="G45">
@@ -4204,20 +3864,8 @@
       <c r="H45">
         <v>1</v>
       </c>
-      <c r="I45" t="s">
-        <v>252</v>
-      </c>
-      <c r="J45" t="s">
-        <v>365</v>
-      </c>
-      <c r="K45" t="s">
-        <v>359</v>
-      </c>
-      <c r="L45" t="s">
-        <v>363</v>
-      </c>
       <c r="M45" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P45" s="6" t="s">
         <v>224</v>
@@ -4242,7 +3890,7 @@
       <c r="E46" t="s">
         <v>11</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="12" t="s">
         <v>52</v>
       </c>
       <c r="G46">
@@ -4252,19 +3900,13 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>410</v>
-      </c>
-      <c r="J46" t="s">
-        <v>365</v>
-      </c>
-      <c r="K46" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="L46" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M46" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P46" s="6" t="s">
         <v>224</v>
@@ -4289,7 +3931,7 @@
       <c r="E47" t="s">
         <v>8</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="12" t="s">
         <v>52</v>
       </c>
       <c r="G47">
@@ -4299,19 +3941,13 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>412</v>
-      </c>
-      <c r="J47" t="s">
-        <v>365</v>
-      </c>
-      <c r="K47" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="L47" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="M47" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P47" s="6" t="s">
         <v>224</v>
@@ -4336,7 +3972,7 @@
       <c r="E48" t="s">
         <v>8</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="12" t="s">
         <v>52</v>
       </c>
       <c r="G48">
@@ -4345,20 +3981,8 @@
       <c r="H48">
         <v>1</v>
       </c>
-      <c r="I48" t="s">
-        <v>252</v>
-      </c>
-      <c r="J48" t="s">
-        <v>365</v>
-      </c>
-      <c r="K48" t="s">
-        <v>359</v>
-      </c>
-      <c r="L48" t="s">
-        <v>363</v>
-      </c>
       <c r="M48" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P48" s="6" t="s">
         <v>224</v>
@@ -4393,19 +4017,13 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>414</v>
-      </c>
-      <c r="J49" t="s">
-        <v>365</v>
-      </c>
-      <c r="K49" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="L49" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M49" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P49" s="6" t="s">
         <v>224</v>
@@ -4439,20 +4057,8 @@
       <c r="H50">
         <v>1</v>
       </c>
-      <c r="I50" t="s">
-        <v>252</v>
-      </c>
-      <c r="J50" t="s">
-        <v>365</v>
-      </c>
-      <c r="K50" t="s">
-        <v>359</v>
-      </c>
-      <c r="L50" t="s">
-        <v>363</v>
-      </c>
       <c r="M50" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P50" s="6" t="s">
         <v>224</v>
@@ -4486,20 +4092,8 @@
       <c r="H51">
         <v>1</v>
       </c>
-      <c r="I51" t="s">
-        <v>252</v>
-      </c>
-      <c r="J51" t="s">
-        <v>365</v>
-      </c>
-      <c r="K51" t="s">
-        <v>359</v>
-      </c>
-      <c r="L51" t="s">
-        <v>363</v>
-      </c>
       <c r="M51" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P51" s="6" t="s">
         <v>224</v>
@@ -4534,19 +4128,13 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>416</v>
-      </c>
-      <c r="J52" t="s">
-        <v>365</v>
-      </c>
-      <c r="K52" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
       <c r="L52" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P52" s="6" t="s">
         <v>224</v>
@@ -4580,20 +4168,8 @@
       <c r="H53">
         <v>1</v>
       </c>
-      <c r="I53" t="s">
-        <v>252</v>
-      </c>
-      <c r="J53" t="s">
-        <v>365</v>
-      </c>
-      <c r="K53" t="s">
-        <v>359</v>
-      </c>
-      <c r="L53" t="s">
-        <v>363</v>
-      </c>
       <c r="M53" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P53" s="6" t="s">
         <v>224</v>
@@ -4627,20 +4203,8 @@
       <c r="H54">
         <v>1</v>
       </c>
-      <c r="I54" t="s">
-        <v>252</v>
-      </c>
-      <c r="J54" t="s">
-        <v>365</v>
-      </c>
-      <c r="K54" t="s">
-        <v>359</v>
-      </c>
-      <c r="L54" t="s">
-        <v>363</v>
-      </c>
       <c r="M54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P54" s="6" t="s">
         <v>224</v>
@@ -4674,20 +4238,8 @@
       <c r="H55">
         <v>1</v>
       </c>
-      <c r="I55" t="s">
-        <v>252</v>
-      </c>
-      <c r="J55" t="s">
-        <v>365</v>
-      </c>
-      <c r="K55" t="s">
-        <v>359</v>
-      </c>
-      <c r="L55" t="s">
-        <v>363</v>
-      </c>
       <c r="M55" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P55" s="6" t="s">
         <v>224</v>
@@ -4721,20 +4273,8 @@
       <c r="H56">
         <v>1</v>
       </c>
-      <c r="I56" t="s">
-        <v>252</v>
-      </c>
-      <c r="J56" t="s">
-        <v>365</v>
-      </c>
-      <c r="K56" t="s">
-        <v>359</v>
-      </c>
-      <c r="L56" t="s">
-        <v>363</v>
-      </c>
       <c r="M56" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>224</v>
@@ -4768,20 +4308,8 @@
       <c r="H57">
         <v>1</v>
       </c>
-      <c r="I57" t="s">
-        <v>252</v>
-      </c>
-      <c r="J57" t="s">
-        <v>365</v>
-      </c>
-      <c r="K57" t="s">
-        <v>359</v>
-      </c>
-      <c r="L57" t="s">
-        <v>363</v>
-      </c>
       <c r="M57" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P57" s="6" t="s">
         <v>224</v>
@@ -4815,20 +4343,11 @@
       <c r="H58">
         <v>1</v>
       </c>
-      <c r="I58" t="s">
-        <v>252</v>
-      </c>
-      <c r="J58" t="s">
-        <v>365</v>
-      </c>
       <c r="K58" t="s">
-        <v>418</v>
-      </c>
-      <c r="L58" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="M58" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P58" s="6" t="s">
         <v>224</v>
@@ -4863,19 +4382,13 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>419</v>
-      </c>
-      <c r="J59" t="s">
-        <v>365</v>
-      </c>
-      <c r="K59" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
       <c r="L59" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="M59" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P59" s="6" t="s">
         <v>224</v>
@@ -4910,19 +4423,13 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>421</v>
-      </c>
-      <c r="J60" t="s">
-        <v>365</v>
-      </c>
-      <c r="K60" t="s">
-        <v>359</v>
+        <v>416</v>
       </c>
       <c r="L60" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M60" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>224</v>
@@ -4956,20 +4463,8 @@
       <c r="H61">
         <v>1</v>
       </c>
-      <c r="I61" t="s">
-        <v>252</v>
-      </c>
-      <c r="J61" t="s">
-        <v>365</v>
-      </c>
-      <c r="K61" t="s">
-        <v>359</v>
-      </c>
-      <c r="L61" t="s">
-        <v>363</v>
-      </c>
       <c r="M61" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>224</v>
@@ -5006,17 +4501,11 @@
       <c r="I62" t="s">
         <v>237</v>
       </c>
-      <c r="J62" t="s">
+      <c r="L62" t="s">
         <v>238</v>
       </c>
-      <c r="K62" t="s">
-        <v>359</v>
-      </c>
-      <c r="L62" t="s">
-        <v>239</v>
-      </c>
       <c r="M62" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P62" s="6" t="s">
         <v>224</v>
@@ -5053,17 +4542,11 @@
       <c r="I63" t="s">
         <v>237</v>
       </c>
-      <c r="J63" t="s">
-        <v>238</v>
-      </c>
-      <c r="K63" t="s">
-        <v>359</v>
-      </c>
       <c r="L63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M63" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P63" s="6" t="s">
         <v>224</v>
@@ -5098,19 +4581,13 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
+        <v>240</v>
+      </c>
+      <c r="L64" t="s">
         <v>241</v>
       </c>
-      <c r="J64" t="s">
-        <v>238</v>
-      </c>
-      <c r="K64" t="s">
-        <v>359</v>
-      </c>
-      <c r="L64" t="s">
-        <v>242</v>
-      </c>
       <c r="M64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P64" s="6" t="s">
         <v>224</v>
@@ -5145,19 +4622,19 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J65" t="s">
+        <v>242</v>
+      </c>
+      <c r="K65" t="s">
         <v>243</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>244</v>
       </c>
-      <c r="L65" t="s">
-        <v>245</v>
-      </c>
       <c r="M65" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P65" s="6" t="s">
         <v>224</v>
@@ -5192,19 +4669,16 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
+        <v>245</v>
+      </c>
+      <c r="K66" t="s">
         <v>246</v>
       </c>
-      <c r="J66" t="s">
-        <v>238</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>247</v>
       </c>
-      <c r="L66" t="s">
-        <v>248</v>
-      </c>
       <c r="M66" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P66" s="6" t="s">
         <v>224</v>
@@ -5239,19 +4713,13 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>246</v>
-      </c>
-      <c r="J67" t="s">
-        <v>238</v>
-      </c>
-      <c r="K67" t="s">
-        <v>359</v>
+        <v>245</v>
       </c>
       <c r="L67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M67" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P67" s="6" t="s">
         <v>224</v>
@@ -5286,19 +4754,13 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
+        <v>249</v>
+      </c>
+      <c r="L68" t="s">
         <v>250</v>
       </c>
-      <c r="J68" t="s">
-        <v>238</v>
-      </c>
-      <c r="K68" t="s">
-        <v>359</v>
-      </c>
-      <c r="L68" t="s">
-        <v>251</v>
-      </c>
       <c r="M68" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="P68" s="6" t="s">
         <v>224</v>
@@ -5332,20 +4794,11 @@
       <c r="H69">
         <v>1</v>
       </c>
-      <c r="I69" t="s">
-        <v>252</v>
-      </c>
-      <c r="J69" t="s">
-        <v>238</v>
-      </c>
-      <c r="K69" t="s">
-        <v>359</v>
-      </c>
       <c r="L69" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M69" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="P69" s="6" t="s">
         <v>224</v>
@@ -5380,19 +4833,16 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
+        <v>252</v>
+      </c>
+      <c r="K70" t="s">
+        <v>253</v>
+      </c>
+      <c r="L70" t="s">
         <v>254</v>
       </c>
-      <c r="J70" t="s">
-        <v>238</v>
-      </c>
-      <c r="K70" t="s">
-        <v>255</v>
-      </c>
-      <c r="L70" t="s">
-        <v>256</v>
-      </c>
       <c r="M70" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="P70" s="6" t="s">
         <v>224</v>
@@ -5426,20 +4876,11 @@
       <c r="H71">
         <v>1</v>
       </c>
-      <c r="I71" t="s">
-        <v>252</v>
-      </c>
-      <c r="J71" t="s">
-        <v>238</v>
-      </c>
-      <c r="K71" t="s">
-        <v>359</v>
-      </c>
       <c r="L71" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M71" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="P71" s="6" t="s">
         <v>224</v>
@@ -5474,19 +4915,16 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
+        <v>256</v>
+      </c>
+      <c r="J72" t="s">
+        <v>257</v>
+      </c>
+      <c r="L72" t="s">
         <v>258</v>
       </c>
-      <c r="J72" t="s">
-        <v>259</v>
-      </c>
-      <c r="K72" t="s">
-        <v>359</v>
-      </c>
-      <c r="L72" t="s">
-        <v>260</v>
-      </c>
       <c r="M72" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="P72" s="6" t="s">
         <v>224</v>
@@ -5520,20 +4958,8 @@
       <c r="H73">
         <v>1</v>
       </c>
-      <c r="I73" t="s">
-        <v>252</v>
-      </c>
-      <c r="J73" t="s">
-        <v>238</v>
-      </c>
-      <c r="K73" t="s">
-        <v>359</v>
-      </c>
-      <c r="L73" t="s">
-        <v>261</v>
-      </c>
       <c r="M73" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="P73" s="6" t="s">
         <v>224</v>
@@ -5568,19 +4994,13 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>262</v>
-      </c>
-      <c r="J74" t="s">
-        <v>238</v>
-      </c>
-      <c r="K74" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="L74" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M74" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="P74" s="6" t="s">
         <v>224</v>
@@ -5614,20 +5034,8 @@
       <c r="H75">
         <v>1</v>
       </c>
-      <c r="I75" t="s">
-        <v>252</v>
-      </c>
-      <c r="J75" t="s">
-        <v>238</v>
-      </c>
-      <c r="K75" t="s">
-        <v>359</v>
-      </c>
-      <c r="L75" t="s">
-        <v>261</v>
-      </c>
       <c r="M75" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="P75" s="6" t="s">
         <v>224</v>
@@ -5661,20 +5069,8 @@
       <c r="H76">
         <v>1</v>
       </c>
-      <c r="I76" t="s">
-        <v>252</v>
-      </c>
-      <c r="J76" t="s">
-        <v>238</v>
-      </c>
-      <c r="K76" t="s">
-        <v>359</v>
-      </c>
-      <c r="L76" t="s">
-        <v>261</v>
-      </c>
       <c r="M76" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="P76" s="6" t="s">
         <v>224</v>
@@ -5708,20 +5104,8 @@
       <c r="H77">
         <v>1</v>
       </c>
-      <c r="I77" t="s">
-        <v>252</v>
-      </c>
-      <c r="J77" t="s">
-        <v>238</v>
-      </c>
-      <c r="K77" t="s">
-        <v>359</v>
-      </c>
-      <c r="L77" t="s">
-        <v>261</v>
-      </c>
       <c r="M77" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="P77" s="6" t="s">
         <v>224</v>
@@ -5756,19 +5140,19 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
+        <v>262</v>
+      </c>
+      <c r="J78" t="s">
+        <v>263</v>
+      </c>
+      <c r="K78" t="s">
         <v>264</v>
       </c>
-      <c r="J78" t="s">
+      <c r="L78" t="s">
         <v>265</v>
       </c>
-      <c r="K78" t="s">
-        <v>266</v>
-      </c>
-      <c r="L78" t="s">
-        <v>267</v>
-      </c>
       <c r="M78" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P78" s="6" t="s">
         <v>224</v>
@@ -5803,19 +5187,13 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>268</v>
-      </c>
-      <c r="J79" t="s">
-        <v>238</v>
-      </c>
-      <c r="K79" t="s">
-        <v>359</v>
+        <v>266</v>
       </c>
       <c r="L79" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M79" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P79" s="6" t="s">
         <v>224</v>
@@ -5850,19 +5228,16 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
+        <v>268</v>
+      </c>
+      <c r="J80" t="s">
+        <v>269</v>
+      </c>
+      <c r="L80" t="s">
         <v>270</v>
       </c>
-      <c r="J80" t="s">
-        <v>271</v>
-      </c>
-      <c r="K80" t="s">
-        <v>359</v>
-      </c>
-      <c r="L80" t="s">
-        <v>272</v>
-      </c>
       <c r="M80" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P80" s="6" t="s">
         <v>225</v>
@@ -5896,20 +5271,8 @@
       <c r="H81">
         <v>1</v>
       </c>
-      <c r="I81" t="s">
-        <v>252</v>
-      </c>
-      <c r="J81" t="s">
-        <v>238</v>
-      </c>
-      <c r="K81" t="s">
-        <v>359</v>
-      </c>
-      <c r="L81" t="s">
-        <v>261</v>
-      </c>
       <c r="M81" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P81" s="6" t="s">
         <v>225</v>
@@ -5944,19 +5307,13 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>273</v>
-      </c>
-      <c r="J82" t="s">
-        <v>238</v>
-      </c>
-      <c r="K82" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="L82" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M82" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P82" s="6" t="s">
         <v>225</v>
@@ -5990,20 +5347,11 @@
       <c r="H83">
         <v>1</v>
       </c>
-      <c r="I83" t="s">
-        <v>252</v>
-      </c>
-      <c r="J83" t="s">
-        <v>238</v>
-      </c>
-      <c r="K83" t="s">
-        <v>359</v>
-      </c>
       <c r="L83" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M83" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P83" s="6" t="s">
         <v>225</v>
@@ -6038,19 +5386,19 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
+        <v>274</v>
+      </c>
+      <c r="J84" t="s">
+        <v>275</v>
+      </c>
+      <c r="K84" t="s">
         <v>276</v>
       </c>
-      <c r="J84" t="s">
+      <c r="L84" t="s">
         <v>277</v>
       </c>
-      <c r="K84" t="s">
-        <v>278</v>
-      </c>
-      <c r="L84" t="s">
-        <v>279</v>
-      </c>
       <c r="M84" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P84" s="6" t="s">
         <v>225</v>
@@ -6084,20 +5432,8 @@
       <c r="H85">
         <v>1</v>
       </c>
-      <c r="I85" t="s">
-        <v>252</v>
-      </c>
-      <c r="J85" t="s">
-        <v>238</v>
-      </c>
-      <c r="K85" t="s">
-        <v>359</v>
-      </c>
-      <c r="L85" t="s">
-        <v>261</v>
-      </c>
       <c r="M85" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P85" s="6" t="s">
         <v>225</v>
@@ -6132,19 +5468,16 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
+        <v>278</v>
+      </c>
+      <c r="K86" t="s">
+        <v>279</v>
+      </c>
+      <c r="L86" t="s">
         <v>280</v>
       </c>
-      <c r="J86" t="s">
-        <v>238</v>
-      </c>
-      <c r="K86" t="s">
-        <v>281</v>
-      </c>
-      <c r="L86" t="s">
-        <v>282</v>
-      </c>
       <c r="M86" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P86" s="6" t="s">
         <v>225</v>
@@ -6178,20 +5511,8 @@
       <c r="H87">
         <v>1</v>
       </c>
-      <c r="I87" t="s">
-        <v>252</v>
-      </c>
-      <c r="J87" t="s">
-        <v>238</v>
-      </c>
-      <c r="K87" t="s">
-        <v>359</v>
-      </c>
-      <c r="L87" t="s">
-        <v>261</v>
-      </c>
       <c r="M87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P87" s="6" t="s">
         <v>225</v>
@@ -6226,19 +5547,16 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
+        <v>281</v>
+      </c>
+      <c r="K88" t="s">
+        <v>282</v>
+      </c>
+      <c r="L88" t="s">
         <v>283</v>
       </c>
-      <c r="J88" t="s">
-        <v>238</v>
-      </c>
-      <c r="K88" t="s">
-        <v>284</v>
-      </c>
-      <c r="L88" t="s">
-        <v>285</v>
-      </c>
       <c r="M88" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P88" s="6" t="s">
         <v>225</v>
@@ -6273,19 +5591,16 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
+        <v>281</v>
+      </c>
+      <c r="K89" t="s">
+        <v>282</v>
+      </c>
+      <c r="L89" t="s">
         <v>283</v>
       </c>
-      <c r="J89" t="s">
-        <v>238</v>
-      </c>
-      <c r="K89" t="s">
-        <v>284</v>
-      </c>
-      <c r="L89" t="s">
-        <v>285</v>
-      </c>
       <c r="M89" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P89" s="6" t="s">
         <v>225</v>
@@ -6320,19 +5635,19 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
+        <v>284</v>
+      </c>
+      <c r="J90" t="s">
+        <v>285</v>
+      </c>
+      <c r="K90" t="s">
         <v>286</v>
       </c>
-      <c r="J90" t="s">
+      <c r="L90" t="s">
         <v>287</v>
       </c>
-      <c r="K90" t="s">
-        <v>288</v>
-      </c>
-      <c r="L90" t="s">
-        <v>289</v>
-      </c>
       <c r="M90" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P90" s="6" t="s">
         <v>225</v>
@@ -6366,20 +5681,8 @@
       <c r="H91">
         <v>1</v>
       </c>
-      <c r="I91" t="s">
-        <v>252</v>
-      </c>
-      <c r="J91" t="s">
-        <v>238</v>
-      </c>
-      <c r="K91" t="s">
-        <v>359</v>
-      </c>
-      <c r="L91" t="s">
-        <v>261</v>
-      </c>
       <c r="M91" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P91" s="6" t="s">
         <v>225</v>
@@ -6414,19 +5717,16 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
+        <v>288</v>
+      </c>
+      <c r="K92" t="s">
+        <v>289</v>
+      </c>
+      <c r="L92" t="s">
         <v>290</v>
       </c>
-      <c r="J92" t="s">
-        <v>238</v>
-      </c>
-      <c r="K92" t="s">
-        <v>291</v>
-      </c>
-      <c r="L92" t="s">
-        <v>292</v>
-      </c>
       <c r="M92" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P92" s="6" t="s">
         <v>225</v>
@@ -6460,20 +5760,8 @@
       <c r="H93">
         <v>1</v>
       </c>
-      <c r="I93" t="s">
-        <v>252</v>
-      </c>
-      <c r="J93" t="s">
-        <v>238</v>
-      </c>
-      <c r="K93" t="s">
-        <v>359</v>
-      </c>
-      <c r="L93" t="s">
-        <v>261</v>
-      </c>
       <c r="M93" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P93" s="6" t="s">
         <v>225</v>
@@ -6508,19 +5796,19 @@
         <v>7</v>
       </c>
       <c r="I94" t="s">
+        <v>291</v>
+      </c>
+      <c r="J94" t="s">
+        <v>292</v>
+      </c>
+      <c r="K94" t="s">
         <v>293</v>
       </c>
-      <c r="J94" t="s">
+      <c r="L94" t="s">
         <v>294</v>
       </c>
-      <c r="K94" t="s">
-        <v>295</v>
-      </c>
-      <c r="L94" t="s">
-        <v>296</v>
-      </c>
       <c r="M94" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P94" s="6" t="s">
         <v>225</v>
@@ -6554,20 +5842,8 @@
       <c r="H95">
         <v>7</v>
       </c>
-      <c r="I95" t="s">
-        <v>252</v>
-      </c>
-      <c r="J95" t="s">
-        <v>238</v>
-      </c>
-      <c r="K95" t="s">
-        <v>359</v>
-      </c>
-      <c r="L95" t="s">
-        <v>261</v>
-      </c>
       <c r="M95" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P95" s="6" t="s">
         <v>225</v>
@@ -6602,19 +5878,19 @@
         <v>7</v>
       </c>
       <c r="I96" t="s">
+        <v>295</v>
+      </c>
+      <c r="J96" t="s">
+        <v>296</v>
+      </c>
+      <c r="K96" t="s">
         <v>297</v>
       </c>
-      <c r="J96" t="s">
+      <c r="L96" t="s">
         <v>298</v>
       </c>
-      <c r="K96" t="s">
-        <v>299</v>
-      </c>
-      <c r="L96" t="s">
-        <v>300</v>
-      </c>
       <c r="M96" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P96" s="6" t="s">
         <v>225</v>
@@ -6649,19 +5925,16 @@
         <v>7</v>
       </c>
       <c r="I97" t="s">
+        <v>299</v>
+      </c>
+      <c r="J97" t="s">
+        <v>300</v>
+      </c>
+      <c r="L97" t="s">
         <v>301</v>
       </c>
-      <c r="J97" t="s">
-        <v>302</v>
-      </c>
-      <c r="K97" t="s">
-        <v>359</v>
-      </c>
-      <c r="L97" t="s">
-        <v>303</v>
-      </c>
       <c r="M97" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P97" s="6" t="s">
         <v>225</v>
@@ -6696,19 +5969,19 @@
         <v>7</v>
       </c>
       <c r="I98" t="s">
+        <v>302</v>
+      </c>
+      <c r="J98" t="s">
+        <v>303</v>
+      </c>
+      <c r="K98" t="s">
         <v>304</v>
       </c>
-      <c r="J98" t="s">
+      <c r="L98" t="s">
         <v>305</v>
       </c>
-      <c r="K98" t="s">
-        <v>306</v>
-      </c>
-      <c r="L98" t="s">
-        <v>307</v>
-      </c>
       <c r="M98" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P98" s="6" t="s">
         <v>225</v>
@@ -6743,19 +6016,10 @@
         <v>7</v>
       </c>
       <c r="I99" t="s">
-        <v>308</v>
-      </c>
-      <c r="J99" t="s">
-        <v>238</v>
-      </c>
-      <c r="K99" t="s">
-        <v>359</v>
-      </c>
-      <c r="L99" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="M99" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P99" s="6" t="s">
         <v>225</v>
@@ -6790,19 +6054,19 @@
         <v>7</v>
       </c>
       <c r="I100" t="s">
+        <v>307</v>
+      </c>
+      <c r="J100" t="s">
+        <v>308</v>
+      </c>
+      <c r="K100" t="s">
         <v>309</v>
       </c>
-      <c r="J100" t="s">
+      <c r="L100" t="s">
         <v>310</v>
       </c>
-      <c r="K100" t="s">
-        <v>311</v>
-      </c>
-      <c r="L100" t="s">
-        <v>312</v>
-      </c>
       <c r="M100" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P100" s="6" t="s">
         <v>225</v>
@@ -6836,20 +6100,11 @@
       <c r="H101">
         <v>7</v>
       </c>
-      <c r="I101" t="s">
-        <v>252</v>
-      </c>
-      <c r="J101" t="s">
-        <v>238</v>
-      </c>
       <c r="K101" t="s">
-        <v>313</v>
-      </c>
-      <c r="L101" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="M101" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P101" s="6" t="s">
         <v>225</v>
@@ -6883,20 +6138,8 @@
       <c r="H102">
         <v>7</v>
       </c>
-      <c r="I102" t="s">
-        <v>252</v>
-      </c>
-      <c r="J102" t="s">
-        <v>238</v>
-      </c>
-      <c r="K102" t="s">
-        <v>359</v>
-      </c>
-      <c r="L102" t="s">
-        <v>261</v>
-      </c>
       <c r="M102" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P102" s="6" t="s">
         <v>225</v>
@@ -6931,19 +6174,16 @@
         <v>7</v>
       </c>
       <c r="I103" t="s">
+        <v>312</v>
+      </c>
+      <c r="K103" t="s">
+        <v>313</v>
+      </c>
+      <c r="L103" t="s">
         <v>314</v>
       </c>
-      <c r="J103" t="s">
-        <v>238</v>
-      </c>
-      <c r="K103" t="s">
-        <v>315</v>
-      </c>
-      <c r="L103" t="s">
-        <v>316</v>
-      </c>
       <c r="M103" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P103" s="6" t="s">
         <v>225</v>
@@ -6978,19 +6218,19 @@
         <v>7</v>
       </c>
       <c r="I104" t="s">
+        <v>315</v>
+      </c>
+      <c r="J104" t="s">
+        <v>316</v>
+      </c>
+      <c r="K104" t="s">
         <v>317</v>
       </c>
-      <c r="J104" t="s">
+      <c r="L104" t="s">
         <v>318</v>
       </c>
-      <c r="K104" t="s">
-        <v>319</v>
-      </c>
-      <c r="L104" t="s">
-        <v>320</v>
-      </c>
       <c r="M104" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P104" s="6" t="s">
         <v>225</v>
@@ -7025,19 +6265,16 @@
         <v>7</v>
       </c>
       <c r="I105" t="s">
+        <v>319</v>
+      </c>
+      <c r="K105" t="s">
+        <v>320</v>
+      </c>
+      <c r="L105" t="s">
         <v>321</v>
       </c>
-      <c r="J105" t="s">
-        <v>238</v>
-      </c>
-      <c r="K105" t="s">
-        <v>322</v>
-      </c>
-      <c r="L105" t="s">
-        <v>323</v>
-      </c>
       <c r="M105" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P105" s="6" t="s">
         <v>225</v>
@@ -7072,19 +6309,19 @@
         <v>7</v>
       </c>
       <c r="I106" t="s">
+        <v>322</v>
+      </c>
+      <c r="J106" t="s">
+        <v>323</v>
+      </c>
+      <c r="K106" t="s">
         <v>324</v>
       </c>
-      <c r="J106" t="s">
+      <c r="L106" t="s">
         <v>325</v>
       </c>
-      <c r="K106" t="s">
-        <v>326</v>
-      </c>
-      <c r="L106" t="s">
-        <v>327</v>
-      </c>
       <c r="M106" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P106" s="6" t="s">
         <v>225</v>
@@ -7110,7 +6347,7 @@
         <v>11</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>227</v>
+        <v>529</v>
       </c>
       <c r="G107">
         <v>8</v>
@@ -7118,20 +6355,8 @@
       <c r="H107">
         <v>7</v>
       </c>
-      <c r="I107" t="s">
-        <v>252</v>
-      </c>
-      <c r="J107" t="s">
-        <v>238</v>
-      </c>
-      <c r="K107" t="s">
-        <v>359</v>
-      </c>
-      <c r="L107" t="s">
-        <v>261</v>
-      </c>
       <c r="M107" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P107" s="6" t="s">
         <v>225</v>
@@ -7166,19 +6391,16 @@
         <v>7</v>
       </c>
       <c r="I108" t="s">
+        <v>326</v>
+      </c>
+      <c r="K108" t="s">
+        <v>327</v>
+      </c>
+      <c r="L108" t="s">
         <v>328</v>
       </c>
-      <c r="J108" t="s">
-        <v>238</v>
-      </c>
-      <c r="K108" t="s">
-        <v>329</v>
-      </c>
-      <c r="L108" t="s">
-        <v>330</v>
-      </c>
       <c r="M108" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P108" s="6" t="s">
         <v>225</v>
@@ -7213,19 +6435,10 @@
         <v>7</v>
       </c>
       <c r="I109" t="s">
-        <v>331</v>
-      </c>
-      <c r="J109" t="s">
-        <v>238</v>
-      </c>
-      <c r="K109" t="s">
-        <v>359</v>
-      </c>
-      <c r="L109" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
       <c r="M109" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P109" s="6" t="s">
         <v>225</v>
@@ -7260,19 +6473,16 @@
         <v>7</v>
       </c>
       <c r="I110" t="s">
+        <v>330</v>
+      </c>
+      <c r="K110" t="s">
+        <v>331</v>
+      </c>
+      <c r="L110" t="s">
         <v>332</v>
       </c>
-      <c r="J110" t="s">
-        <v>238</v>
-      </c>
-      <c r="K110" t="s">
-        <v>333</v>
-      </c>
-      <c r="L110" t="s">
-        <v>334</v>
-      </c>
       <c r="M110" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P110" s="6" t="s">
         <v>225</v>
@@ -7307,19 +6517,19 @@
         <v>7</v>
       </c>
       <c r="I111" t="s">
+        <v>333</v>
+      </c>
+      <c r="J111" t="s">
+        <v>334</v>
+      </c>
+      <c r="K111" t="s">
         <v>335</v>
       </c>
-      <c r="J111" t="s">
+      <c r="L111" t="s">
         <v>336</v>
       </c>
-      <c r="K111" t="s">
-        <v>337</v>
-      </c>
-      <c r="L111" t="s">
-        <v>338</v>
-      </c>
       <c r="M111" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P111" s="6" t="s">
         <v>225</v>
@@ -7354,19 +6564,13 @@
         <v>7</v>
       </c>
       <c r="I112" t="s">
-        <v>339</v>
-      </c>
-      <c r="J112" t="s">
-        <v>238</v>
+        <v>337</v>
       </c>
       <c r="K112" t="s">
-        <v>340</v>
-      </c>
-      <c r="L112" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
       <c r="M112" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P112" s="6" t="s">
         <v>225</v>
@@ -7392,7 +6596,7 @@
         <v>11</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>227</v>
+        <v>529</v>
       </c>
       <c r="G113">
         <v>8</v>
@@ -7400,20 +6604,8 @@
       <c r="H113">
         <v>7</v>
       </c>
-      <c r="I113" t="s">
-        <v>252</v>
-      </c>
-      <c r="J113" t="s">
-        <v>238</v>
-      </c>
-      <c r="K113" t="s">
-        <v>359</v>
-      </c>
-      <c r="L113" t="s">
-        <v>261</v>
-      </c>
       <c r="M113" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P113" s="6" t="s">
         <v>226</v>
@@ -7448,19 +6640,13 @@
         <v>7</v>
       </c>
       <c r="I114" t="s">
-        <v>341</v>
-      </c>
-      <c r="J114" t="s">
-        <v>238</v>
-      </c>
-      <c r="K114" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="L114" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M114" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P114" s="6" t="s">
         <v>226</v>
@@ -7495,19 +6681,10 @@
         <v>7</v>
       </c>
       <c r="I115" t="s">
-        <v>343</v>
-      </c>
-      <c r="J115" t="s">
-        <v>238</v>
-      </c>
-      <c r="K115" t="s">
-        <v>359</v>
-      </c>
-      <c r="L115" t="s">
-        <v>261</v>
+        <v>341</v>
       </c>
       <c r="M115" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P115" s="6" t="s">
         <v>226</v>
@@ -7542,19 +6719,16 @@
         <v>7</v>
       </c>
       <c r="I116" t="s">
+        <v>342</v>
+      </c>
+      <c r="K116" t="s">
+        <v>343</v>
+      </c>
+      <c r="L116" t="s">
         <v>344</v>
       </c>
-      <c r="J116" t="s">
-        <v>238</v>
-      </c>
-      <c r="K116" t="s">
-        <v>345</v>
-      </c>
-      <c r="L116" t="s">
-        <v>346</v>
-      </c>
       <c r="M116" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P116" s="6" t="s">
         <v>226</v>
@@ -7588,20 +6762,8 @@
       <c r="H117">
         <v>7</v>
       </c>
-      <c r="I117" t="s">
-        <v>252</v>
-      </c>
-      <c r="J117" t="s">
-        <v>238</v>
-      </c>
-      <c r="K117" t="s">
-        <v>359</v>
-      </c>
-      <c r="L117" t="s">
-        <v>261</v>
-      </c>
       <c r="M117" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P117" s="6" t="s">
         <v>226</v>
@@ -7636,19 +6798,19 @@
         <v>7</v>
       </c>
       <c r="I118" t="s">
+        <v>345</v>
+      </c>
+      <c r="J118" t="s">
+        <v>346</v>
+      </c>
+      <c r="K118" t="s">
         <v>347</v>
       </c>
-      <c r="J118" t="s">
+      <c r="L118" t="s">
         <v>348</v>
       </c>
-      <c r="K118" t="s">
-        <v>349</v>
-      </c>
-      <c r="L118" t="s">
-        <v>350</v>
-      </c>
       <c r="M118" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P118" s="6" t="s">
         <v>226</v>
@@ -7682,20 +6844,8 @@
       <c r="H119">
         <v>7</v>
       </c>
-      <c r="I119" t="s">
-        <v>252</v>
-      </c>
-      <c r="J119" t="s">
-        <v>238</v>
-      </c>
-      <c r="K119" t="s">
-        <v>359</v>
-      </c>
-      <c r="L119" t="s">
-        <v>261</v>
-      </c>
       <c r="M119" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P119" s="6" t="s">
         <v>226</v>
@@ -7730,19 +6880,16 @@
         <v>7</v>
       </c>
       <c r="I120" t="s">
+        <v>349</v>
+      </c>
+      <c r="K120" t="s">
+        <v>350</v>
+      </c>
+      <c r="L120" t="s">
         <v>351</v>
       </c>
-      <c r="J120" t="s">
-        <v>238</v>
-      </c>
-      <c r="K120" t="s">
-        <v>352</v>
-      </c>
-      <c r="L120" t="s">
-        <v>353</v>
-      </c>
       <c r="M120" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P120" s="6" t="s">
         <v>226</v>
@@ -7777,19 +6924,16 @@
         <v>7</v>
       </c>
       <c r="I121" t="s">
+        <v>352</v>
+      </c>
+      <c r="K121" t="s">
+        <v>353</v>
+      </c>
+      <c r="L121" t="s">
         <v>354</v>
       </c>
-      <c r="J121" t="s">
-        <v>238</v>
-      </c>
-      <c r="K121" t="s">
-        <v>355</v>
-      </c>
-      <c r="L121" t="s">
-        <v>356</v>
-      </c>
       <c r="M121" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P121" s="6" t="s">
         <v>226</v>
@@ -7824,19 +6968,16 @@
         <v>7</v>
       </c>
       <c r="I122" t="s">
-        <v>423</v>
-      </c>
-      <c r="J122" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="K122" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L122" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M122" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P122" s="6" t="s">
         <v>226</v>
@@ -7871,19 +7012,16 @@
         <v>7</v>
       </c>
       <c r="I123" t="s">
-        <v>426</v>
-      </c>
-      <c r="J123" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="K123" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L123" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M123" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P123" s="6" t="s">
         <v>226</v>
@@ -7918,19 +7056,19 @@
         <v>7</v>
       </c>
       <c r="I124" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="J124" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K124" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L124" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M124" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P124" s="6" t="s">
         <v>226</v>
@@ -7964,20 +7102,8 @@
       <c r="H125">
         <v>7</v>
       </c>
-      <c r="I125" t="s">
-        <v>252</v>
-      </c>
-      <c r="J125" t="s">
-        <v>365</v>
-      </c>
-      <c r="K125" t="s">
-        <v>359</v>
-      </c>
-      <c r="L125" t="s">
-        <v>261</v>
-      </c>
       <c r="M125" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P125" s="6" t="s">
         <v>226</v>
@@ -8012,19 +7138,13 @@
         <v>7</v>
       </c>
       <c r="I126" t="s">
-        <v>433</v>
-      </c>
-      <c r="J126" t="s">
-        <v>365</v>
-      </c>
-      <c r="K126" t="s">
-        <v>359</v>
+        <v>428</v>
       </c>
       <c r="L126" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M126" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P126" s="6" t="s">
         <v>226</v>
@@ -8059,19 +7179,16 @@
         <v>7</v>
       </c>
       <c r="I127" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="J127" t="s">
-        <v>436</v>
-      </c>
-      <c r="K127" t="s">
-        <v>359</v>
+        <v>431</v>
       </c>
       <c r="L127" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M127" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P127" s="6" t="s">
         <v>226</v>
@@ -8106,19 +7223,19 @@
         <v>7</v>
       </c>
       <c r="I128" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J128" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K128" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L128" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M128" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P128" s="6" t="s">
         <v>226</v>
@@ -8152,20 +7269,8 @@
       <c r="H129">
         <v>7</v>
       </c>
-      <c r="I129" t="s">
-        <v>252</v>
-      </c>
-      <c r="J129" t="s">
-        <v>365</v>
-      </c>
-      <c r="K129" t="s">
-        <v>359</v>
-      </c>
-      <c r="L129" t="s">
-        <v>261</v>
-      </c>
       <c r="M129" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P129" s="6" t="s">
         <v>226</v>
@@ -8200,19 +7305,19 @@
         <v>7</v>
       </c>
       <c r="I130" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="J130" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K130" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L130" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="M130" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P130" s="6" t="s">
         <v>226</v>
@@ -8247,19 +7352,16 @@
         <v>7</v>
       </c>
       <c r="I131" t="s">
-        <v>446</v>
-      </c>
-      <c r="J131" t="s">
-        <v>365</v>
+        <v>441</v>
       </c>
       <c r="K131" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="L131" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M131" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P131" s="6" t="s">
         <v>226</v>
@@ -8294,19 +7396,13 @@
         <v>7</v>
       </c>
       <c r="I132" t="s">
-        <v>449</v>
-      </c>
-      <c r="J132" t="s">
-        <v>365</v>
-      </c>
-      <c r="K132" t="s">
-        <v>359</v>
+        <v>444</v>
       </c>
       <c r="L132" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M132" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P132" s="6" t="s">
         <v>226</v>
@@ -8340,20 +7436,8 @@
       <c r="H133">
         <v>7</v>
       </c>
-      <c r="I133" t="s">
-        <v>252</v>
-      </c>
-      <c r="J133" t="s">
-        <v>365</v>
-      </c>
-      <c r="K133" t="s">
-        <v>359</v>
-      </c>
-      <c r="L133" t="s">
-        <v>261</v>
-      </c>
       <c r="M133" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P133" s="6" t="s">
         <v>226</v>
@@ -8387,20 +7471,8 @@
       <c r="H134">
         <v>7</v>
       </c>
-      <c r="I134" t="s">
-        <v>252</v>
-      </c>
-      <c r="J134" t="s">
-        <v>365</v>
-      </c>
-      <c r="K134" t="s">
-        <v>359</v>
-      </c>
-      <c r="L134" t="s">
-        <v>261</v>
-      </c>
       <c r="M134" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P134" s="6" t="s">
         <v>226</v>
@@ -8425,7 +7497,7 @@
       <c r="E135" t="s">
         <v>11</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G135">
@@ -8434,20 +7506,8 @@
       <c r="H135">
         <v>7</v>
       </c>
-      <c r="I135" t="s">
-        <v>252</v>
-      </c>
-      <c r="J135" t="s">
-        <v>365</v>
-      </c>
-      <c r="K135" t="s">
-        <v>359</v>
-      </c>
-      <c r="L135" t="s">
-        <v>261</v>
-      </c>
       <c r="M135" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P135" s="6" t="s">
         <v>226</v>
@@ -8482,19 +7542,16 @@
         <v>7</v>
       </c>
       <c r="I136" t="s">
-        <v>451</v>
-      </c>
-      <c r="J136" t="s">
-        <v>365</v>
+        <v>446</v>
       </c>
       <c r="K136" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="L136" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="M136" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P136" s="6" t="s">
         <v>226</v>
@@ -8519,7 +7576,7 @@
       <c r="E137" t="s">
         <v>11</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G137">
@@ -8528,20 +7585,8 @@
       <c r="H137">
         <v>7</v>
       </c>
-      <c r="I137" t="s">
-        <v>252</v>
-      </c>
-      <c r="J137" t="s">
-        <v>365</v>
-      </c>
-      <c r="K137" t="s">
-        <v>359</v>
-      </c>
-      <c r="L137" t="s">
-        <v>261</v>
-      </c>
       <c r="M137" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P137" s="6" t="s">
         <v>226</v>
@@ -8576,19 +7621,13 @@
         <v>7</v>
       </c>
       <c r="I138" t="s">
-        <v>454</v>
-      </c>
-      <c r="J138" t="s">
-        <v>365</v>
-      </c>
-      <c r="K138" t="s">
-        <v>359</v>
+        <v>449</v>
       </c>
       <c r="L138" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M138" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P138" s="6" t="s">
         <v>226</v>
@@ -8613,7 +7652,7 @@
       <c r="E139" t="s">
         <v>11</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G139">
@@ -8622,20 +7661,8 @@
       <c r="H139">
         <v>7</v>
       </c>
-      <c r="I139" t="s">
-        <v>252</v>
-      </c>
-      <c r="J139" t="s">
-        <v>365</v>
-      </c>
-      <c r="K139" t="s">
-        <v>359</v>
-      </c>
-      <c r="L139" t="s">
-        <v>261</v>
-      </c>
       <c r="M139" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P139" s="6" t="s">
         <v>226</v>
@@ -8669,20 +7696,11 @@
       <c r="H140">
         <v>7</v>
       </c>
-      <c r="I140" t="s">
-        <v>252</v>
-      </c>
-      <c r="J140" t="s">
-        <v>365</v>
-      </c>
       <c r="K140" t="s">
-        <v>456</v>
-      </c>
-      <c r="L140" t="s">
-        <v>261</v>
+        <v>451</v>
       </c>
       <c r="M140" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P140" s="6" t="s">
         <v>226</v>
@@ -8707,7 +7725,7 @@
       <c r="E141" t="s">
         <v>11</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G141">
@@ -8717,19 +7735,10 @@
         <v>7</v>
       </c>
       <c r="I141" t="s">
-        <v>457</v>
-      </c>
-      <c r="J141" t="s">
-        <v>365</v>
-      </c>
-      <c r="K141" t="s">
-        <v>359</v>
-      </c>
-      <c r="L141" t="s">
-        <v>261</v>
+        <v>452</v>
       </c>
       <c r="M141" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P141" s="6" t="s">
         <v>226</v>
@@ -8754,7 +7763,7 @@
       <c r="E142" t="s">
         <v>8</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G142">
@@ -8763,20 +7772,8 @@
       <c r="H142">
         <v>7</v>
       </c>
-      <c r="I142" t="s">
-        <v>252</v>
-      </c>
-      <c r="J142" t="s">
-        <v>365</v>
-      </c>
-      <c r="K142" t="s">
-        <v>359</v>
-      </c>
-      <c r="L142" t="s">
-        <v>261</v>
-      </c>
       <c r="M142" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P142" s="6" t="s">
         <v>226</v>
@@ -8810,20 +7807,14 @@
       <c r="H143">
         <v>7</v>
       </c>
-      <c r="I143" t="s">
-        <v>252</v>
-      </c>
       <c r="J143" t="s">
-        <v>458</v>
-      </c>
-      <c r="K143" t="s">
-        <v>359</v>
+        <v>453</v>
       </c>
       <c r="L143" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M143" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P143" s="6" t="s">
         <v>227</v>
@@ -8848,7 +7839,7 @@
       <c r="E144" t="s">
         <v>8</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G144">
@@ -8857,20 +7848,8 @@
       <c r="H144">
         <v>7</v>
       </c>
-      <c r="I144" t="s">
-        <v>252</v>
-      </c>
-      <c r="J144" t="s">
-        <v>365</v>
-      </c>
-      <c r="K144" t="s">
-        <v>359</v>
-      </c>
-      <c r="L144" t="s">
-        <v>261</v>
-      </c>
       <c r="M144" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P144" s="6" t="s">
         <v>227</v>
@@ -8895,7 +7874,7 @@
       <c r="E145" t="s">
         <v>11</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G145">
@@ -8904,20 +7883,8 @@
       <c r="H145">
         <v>7</v>
       </c>
-      <c r="I145" t="s">
-        <v>252</v>
-      </c>
-      <c r="J145" t="s">
-        <v>365</v>
-      </c>
-      <c r="K145" t="s">
-        <v>359</v>
-      </c>
-      <c r="L145" t="s">
-        <v>261</v>
-      </c>
       <c r="M145" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P145" s="6" t="s">
         <v>227</v>
@@ -8952,19 +7919,13 @@
         <v>7</v>
       </c>
       <c r="I146" t="s">
-        <v>460</v>
-      </c>
-      <c r="J146" t="s">
-        <v>365</v>
-      </c>
-      <c r="K146" t="s">
-        <v>359</v>
+        <v>455</v>
       </c>
       <c r="L146" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M146" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P146" s="6" t="s">
         <v>227</v>
@@ -8999,19 +7960,13 @@
         <v>7</v>
       </c>
       <c r="I147" t="s">
-        <v>462</v>
-      </c>
-      <c r="J147" t="s">
-        <v>365</v>
-      </c>
-      <c r="K147" t="s">
-        <v>359</v>
+        <v>457</v>
       </c>
       <c r="L147" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M147" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P147" s="6" t="s">
         <v>227</v>
@@ -9046,19 +8001,13 @@
         <v>7</v>
       </c>
       <c r="I148" t="s">
-        <v>464</v>
-      </c>
-      <c r="J148" t="s">
-        <v>365</v>
-      </c>
-      <c r="K148" t="s">
-        <v>359</v>
+        <v>459</v>
       </c>
       <c r="L148" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M148" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P148" s="6" t="s">
         <v>227</v>
@@ -9092,20 +8041,11 @@
       <c r="H149">
         <v>7</v>
       </c>
-      <c r="I149" t="s">
-        <v>252</v>
-      </c>
-      <c r="J149" t="s">
-        <v>365</v>
-      </c>
       <c r="K149" t="s">
-        <v>466</v>
-      </c>
-      <c r="L149" t="s">
-        <v>261</v>
+        <v>461</v>
       </c>
       <c r="M149" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P149" s="6" t="s">
         <v>227</v>
@@ -9140,19 +8080,16 @@
         <v>7</v>
       </c>
       <c r="I150" t="s">
-        <v>467</v>
-      </c>
-      <c r="J150" t="s">
-        <v>365</v>
+        <v>462</v>
       </c>
       <c r="K150" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="L150" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="M150" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P150" s="6" t="s">
         <v>227</v>
@@ -9177,7 +8114,7 @@
       <c r="E151" t="s">
         <v>8</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="12" t="s">
         <v>172</v>
       </c>
       <c r="G151">
@@ -9186,20 +8123,8 @@
       <c r="H151">
         <v>7</v>
       </c>
-      <c r="I151" t="s">
-        <v>252</v>
-      </c>
-      <c r="J151" t="s">
-        <v>365</v>
-      </c>
-      <c r="K151" t="s">
-        <v>359</v>
-      </c>
-      <c r="L151" t="s">
-        <v>261</v>
-      </c>
       <c r="M151" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P151" s="6" t="s">
         <v>227</v>
@@ -9233,20 +8158,11 @@
       <c r="H152">
         <v>7</v>
       </c>
-      <c r="I152" t="s">
-        <v>252</v>
-      </c>
-      <c r="J152" t="s">
-        <v>365</v>
-      </c>
       <c r="K152" t="s">
-        <v>470</v>
-      </c>
-      <c r="L152" t="s">
-        <v>261</v>
+        <v>465</v>
       </c>
       <c r="M152" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P152" s="6" t="s">
         <v>227</v>
@@ -9271,7 +8187,7 @@
       <c r="E153" t="s">
         <v>8</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="12" t="s">
         <v>172</v>
       </c>
       <c r="G153">
@@ -9281,19 +8197,10 @@
         <v>7</v>
       </c>
       <c r="I153" t="s">
-        <v>471</v>
-      </c>
-      <c r="J153" t="s">
-        <v>365</v>
-      </c>
-      <c r="K153" t="s">
-        <v>359</v>
-      </c>
-      <c r="L153" t="s">
-        <v>261</v>
+        <v>466</v>
       </c>
       <c r="M153" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P153" s="6" t="s">
         <v>227</v>
@@ -9328,19 +8235,13 @@
         <v>7</v>
       </c>
       <c r="I154" t="s">
-        <v>472</v>
-      </c>
-      <c r="J154" t="s">
-        <v>365</v>
-      </c>
-      <c r="K154" t="s">
-        <v>359</v>
+        <v>467</v>
       </c>
       <c r="L154" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="M154" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P154" s="6" t="s">
         <v>227</v>
@@ -9365,7 +8266,7 @@
       <c r="E155" t="s">
         <v>8</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="12" t="s">
         <v>177</v>
       </c>
       <c r="G155">
@@ -9374,20 +8275,8 @@
       <c r="H155">
         <v>7</v>
       </c>
-      <c r="I155" t="s">
-        <v>252</v>
-      </c>
-      <c r="J155" t="s">
-        <v>365</v>
-      </c>
-      <c r="K155" t="s">
-        <v>359</v>
-      </c>
-      <c r="L155" t="s">
-        <v>261</v>
-      </c>
       <c r="M155" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P155" s="6" t="s">
         <v>227</v>
@@ -9422,19 +8311,16 @@
         <v>7</v>
       </c>
       <c r="I156" t="s">
-        <v>474</v>
-      </c>
-      <c r="J156" t="s">
-        <v>365</v>
+        <v>469</v>
       </c>
       <c r="K156" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L156" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M156" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P156" s="6" t="s">
         <v>227</v>
@@ -9469,19 +8355,16 @@
         <v>7</v>
       </c>
       <c r="I157" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="J157" t="s">
-        <v>478</v>
-      </c>
-      <c r="K157" t="s">
-        <v>359</v>
+        <v>473</v>
       </c>
       <c r="L157" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="M157" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P157" s="6" t="s">
         <v>227</v>
@@ -9516,19 +8399,13 @@
         <v>7</v>
       </c>
       <c r="I158" t="s">
-        <v>480</v>
-      </c>
-      <c r="J158" t="s">
-        <v>365</v>
-      </c>
-      <c r="K158" t="s">
-        <v>359</v>
+        <v>475</v>
       </c>
       <c r="L158" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="M158" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P158" s="6" t="s">
         <v>227</v>
@@ -9553,7 +8430,7 @@
       <c r="E159" t="s">
         <v>8</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="12" t="s">
         <v>177</v>
       </c>
       <c r="G159">
@@ -9562,20 +8439,8 @@
       <c r="H159">
         <v>7</v>
       </c>
-      <c r="I159" t="s">
-        <v>252</v>
-      </c>
-      <c r="J159" t="s">
-        <v>365</v>
-      </c>
-      <c r="K159" t="s">
-        <v>359</v>
-      </c>
-      <c r="L159" t="s">
-        <v>261</v>
-      </c>
       <c r="M159" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P159" s="6" t="s">
         <v>227</v>
@@ -9610,19 +8475,13 @@
         <v>7</v>
       </c>
       <c r="I160" t="s">
-        <v>482</v>
-      </c>
-      <c r="J160" t="s">
-        <v>365</v>
-      </c>
-      <c r="K160" t="s">
-        <v>359</v>
+        <v>477</v>
       </c>
       <c r="L160" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="M160" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P160" s="6" t="s">
         <v>227</v>
@@ -9656,20 +8515,14 @@
       <c r="H161">
         <v>7</v>
       </c>
-      <c r="I161" t="s">
-        <v>252</v>
-      </c>
-      <c r="J161" t="s">
-        <v>365</v>
-      </c>
       <c r="K161" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="L161" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M161" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P161" s="6" t="s">
         <v>227</v>
@@ -9703,20 +8556,11 @@
       <c r="H162">
         <v>7</v>
       </c>
-      <c r="I162" t="s">
-        <v>252</v>
-      </c>
-      <c r="J162" t="s">
-        <v>365</v>
-      </c>
       <c r="K162" t="s">
-        <v>486</v>
-      </c>
-      <c r="L162" t="s">
-        <v>261</v>
+        <v>481</v>
       </c>
       <c r="M162" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P162" s="6" t="s">
         <v>227</v>
@@ -9741,7 +8585,7 @@
       <c r="E163" t="s">
         <v>8</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="12" t="s">
         <v>177</v>
       </c>
       <c r="G163">
@@ -9751,19 +8595,10 @@
         <v>7</v>
       </c>
       <c r="I163" t="s">
-        <v>487</v>
-      </c>
-      <c r="J163" t="s">
-        <v>365</v>
-      </c>
-      <c r="K163" t="s">
-        <v>359</v>
-      </c>
-      <c r="L163" t="s">
-        <v>261</v>
+        <v>482</v>
       </c>
       <c r="M163" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P163" s="6" t="s">
         <v>227</v>
@@ -9797,20 +8632,8 @@
       <c r="H164">
         <v>7</v>
       </c>
-      <c r="I164" t="s">
-        <v>252</v>
-      </c>
-      <c r="J164" t="s">
-        <v>365</v>
-      </c>
-      <c r="K164" t="s">
-        <v>359</v>
-      </c>
-      <c r="L164" t="s">
-        <v>261</v>
-      </c>
       <c r="M164" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P164" s="6" t="s">
         <v>227</v>
@@ -9845,19 +8668,16 @@
         <v>7</v>
       </c>
       <c r="I165" t="s">
-        <v>488</v>
-      </c>
-      <c r="J165" t="s">
-        <v>365</v>
+        <v>483</v>
       </c>
       <c r="K165" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="L165" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="M165" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P165" s="6" t="s">
         <v>227</v>
@@ -9891,20 +8711,17 @@
       <c r="H166">
         <v>1</v>
       </c>
-      <c r="I166" t="s">
-        <v>252</v>
-      </c>
       <c r="J166" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K166" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L166" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="M166" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="P166" s="6" t="s">
         <v>227</v>
@@ -9938,20 +8755,8 @@
       <c r="H167">
         <v>1</v>
       </c>
-      <c r="I167" t="s">
-        <v>252</v>
-      </c>
-      <c r="J167" t="s">
-        <v>365</v>
-      </c>
-      <c r="K167" t="s">
-        <v>359</v>
-      </c>
-      <c r="L167" t="s">
-        <v>261</v>
-      </c>
       <c r="M167" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="P167" s="6" t="s">
         <v>227</v>
@@ -9986,19 +8791,13 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>495</v>
-      </c>
-      <c r="J168" t="s">
-        <v>365</v>
-      </c>
-      <c r="K168" t="s">
-        <v>359</v>
+        <v>490</v>
       </c>
       <c r="L168" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="M168" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="P168" s="6" t="s">
         <v>227</v>
@@ -10032,20 +8831,8 @@
       <c r="H169">
         <v>1</v>
       </c>
-      <c r="I169" t="s">
-        <v>252</v>
-      </c>
-      <c r="J169" t="s">
-        <v>365</v>
-      </c>
-      <c r="K169" t="s">
-        <v>359</v>
-      </c>
-      <c r="L169" t="s">
-        <v>261</v>
-      </c>
       <c r="M169" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="P169" s="6" t="s">
         <v>227</v>
@@ -10079,20 +8866,14 @@
       <c r="H170">
         <v>1</v>
       </c>
-      <c r="I170" t="s">
-        <v>252</v>
-      </c>
       <c r="J170" t="s">
-        <v>497</v>
-      </c>
-      <c r="K170" t="s">
-        <v>359</v>
+        <v>492</v>
       </c>
       <c r="L170" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="M170" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="P170" s="6" t="s">
         <v>227</v>
@@ -10126,20 +8907,11 @@
       <c r="H171">
         <v>1</v>
       </c>
-      <c r="I171" t="s">
-        <v>252</v>
-      </c>
-      <c r="J171" t="s">
-        <v>365</v>
-      </c>
-      <c r="K171" t="s">
-        <v>359</v>
-      </c>
       <c r="L171" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M171" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="P171" s="6" t="s">
         <v>227</v>
@@ -10173,20 +8945,8 @@
       <c r="H172">
         <v>1</v>
       </c>
-      <c r="I172" t="s">
-        <v>252</v>
-      </c>
-      <c r="J172" t="s">
-        <v>365</v>
-      </c>
-      <c r="K172" t="s">
-        <v>359</v>
-      </c>
-      <c r="L172" t="s">
-        <v>261</v>
-      </c>
       <c r="M172" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="P172" s="6" t="s">
         <v>227</v>
@@ -10220,20 +8980,8 @@
       <c r="H173">
         <v>1</v>
       </c>
-      <c r="I173" t="s">
-        <v>252</v>
-      </c>
-      <c r="J173" t="s">
-        <v>365</v>
-      </c>
-      <c r="K173" t="s">
-        <v>359</v>
-      </c>
-      <c r="L173" t="s">
-        <v>261</v>
-      </c>
       <c r="M173" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="P173" s="6" t="s">
         <v>227</v>
@@ -10267,20 +9015,8 @@
       <c r="H174">
         <v>1</v>
       </c>
-      <c r="I174" t="s">
-        <v>252</v>
-      </c>
-      <c r="J174" t="s">
-        <v>365</v>
-      </c>
-      <c r="K174" t="s">
-        <v>359</v>
-      </c>
-      <c r="L174" t="s">
-        <v>261</v>
-      </c>
       <c r="M174" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="P174" s="6" t="s">
         <v>227</v>
@@ -10314,20 +9050,8 @@
       <c r="H175">
         <v>1</v>
       </c>
-      <c r="I175" t="s">
-        <v>252</v>
-      </c>
-      <c r="J175" t="s">
-        <v>365</v>
-      </c>
-      <c r="K175" t="s">
-        <v>359</v>
-      </c>
-      <c r="L175" t="s">
-        <v>261</v>
-      </c>
       <c r="M175" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="P175" s="6" t="s">
         <v>227</v>
@@ -10362,19 +9086,16 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>500</v>
-      </c>
-      <c r="J176" t="s">
-        <v>365</v>
+        <v>495</v>
       </c>
       <c r="K176" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="L176" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="M176" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="P176" s="6" t="s">
         <v>228</v>
@@ -10408,20 +9129,8 @@
       <c r="H177">
         <v>1</v>
       </c>
-      <c r="I177" t="s">
-        <v>252</v>
-      </c>
-      <c r="J177" t="s">
-        <v>365</v>
-      </c>
-      <c r="K177" t="s">
-        <v>359</v>
-      </c>
-      <c r="L177" t="s">
-        <v>261</v>
-      </c>
       <c r="M177" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="P177" s="6" t="s">
         <v>228</v>
@@ -10456,19 +9165,13 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>503</v>
-      </c>
-      <c r="J178" t="s">
-        <v>365</v>
-      </c>
-      <c r="K178" t="s">
-        <v>359</v>
+        <v>498</v>
       </c>
       <c r="L178" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="M178" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="P178" s="6" t="s">
         <v>228</v>
@@ -10502,20 +9205,8 @@
       <c r="H179">
         <v>1</v>
       </c>
-      <c r="I179" t="s">
-        <v>252</v>
-      </c>
-      <c r="J179" t="s">
-        <v>365</v>
-      </c>
-      <c r="K179" t="s">
-        <v>359</v>
-      </c>
-      <c r="L179" t="s">
-        <v>261</v>
-      </c>
       <c r="M179" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="P179" s="6" t="s">
         <v>228</v>
@@ -10550,19 +9241,19 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="J180" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K180" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L180" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="M180" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="P180" s="6" t="s">
         <v>228</v>
@@ -10596,20 +9287,11 @@
       <c r="H181">
         <v>1</v>
       </c>
-      <c r="I181" t="s">
-        <v>252</v>
-      </c>
-      <c r="J181" t="s">
-        <v>365</v>
-      </c>
-      <c r="K181" t="s">
-        <v>359</v>
-      </c>
       <c r="L181" t="s">
+        <v>504</v>
+      </c>
+      <c r="M181" t="s">
         <v>509</v>
-      </c>
-      <c r="M181" t="s">
-        <v>514</v>
       </c>
       <c r="P181" s="6" t="s">
         <v>228</v>
@@ -10643,20 +9325,11 @@
       <c r="H182">
         <v>1</v>
       </c>
-      <c r="I182" t="s">
-        <v>252</v>
-      </c>
-      <c r="J182" t="s">
-        <v>365</v>
-      </c>
-      <c r="K182" t="s">
-        <v>359</v>
-      </c>
       <c r="L182" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M182" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P182" s="6" t="s">
         <v>228</v>
@@ -10690,20 +9363,8 @@
       <c r="H183">
         <v>1</v>
       </c>
-      <c r="I183" t="s">
-        <v>252</v>
-      </c>
-      <c r="J183" t="s">
-        <v>365</v>
-      </c>
-      <c r="K183" t="s">
-        <v>359</v>
-      </c>
-      <c r="L183" t="s">
-        <v>261</v>
-      </c>
       <c r="M183" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P183" s="6" t="s">
         <v>228</v>
@@ -10713,6 +9374,33 @@
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>57</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
+      </c>
+      <c r="C184" t="s">
+        <v>521</v>
+      </c>
+      <c r="D184" t="s">
+        <v>213</v>
+      </c>
+      <c r="E184" t="s">
+        <v>511</v>
+      </c>
+      <c r="F184" t="s">
+        <v>52</v>
+      </c>
+      <c r="G184" s="11">
+        <v>3</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="M184" t="s">
+        <v>259</v>
+      </c>
       <c r="P184" s="6" t="s">
         <v>228</v>
       </c>
@@ -10721,6 +9409,33 @@
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>57</v>
+      </c>
+      <c r="B185">
+        <v>184</v>
+      </c>
+      <c r="C185" t="s">
+        <v>522</v>
+      </c>
+      <c r="D185" t="s">
+        <v>214</v>
+      </c>
+      <c r="E185" t="s">
+        <v>513</v>
+      </c>
+      <c r="F185" t="s">
+        <v>52</v>
+      </c>
+      <c r="G185" s="11">
+        <v>3</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="M185" t="s">
+        <v>259</v>
+      </c>
       <c r="P185" s="6" t="s">
         <v>228</v>
       </c>
@@ -10729,6 +9444,33 @@
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>112</v>
+      </c>
+      <c r="B186">
+        <v>185</v>
+      </c>
+      <c r="C186" t="s">
+        <v>523</v>
+      </c>
+      <c r="D186" t="s">
+        <v>518</v>
+      </c>
+      <c r="E186" t="s">
+        <v>511</v>
+      </c>
+      <c r="F186" t="s">
+        <v>137</v>
+      </c>
+      <c r="G186" s="11">
+        <v>9</v>
+      </c>
+      <c r="H186">
+        <v>7</v>
+      </c>
+      <c r="M186" t="s">
+        <v>508</v>
+      </c>
       <c r="P186" s="6" t="s">
         <v>228</v>
       </c>
@@ -10737,6 +9479,33 @@
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>112</v>
+      </c>
+      <c r="B187">
+        <v>186</v>
+      </c>
+      <c r="C187" t="s">
+        <v>524</v>
+      </c>
+      <c r="D187" t="s">
+        <v>214</v>
+      </c>
+      <c r="E187" t="s">
+        <v>513</v>
+      </c>
+      <c r="F187" t="s">
+        <v>137</v>
+      </c>
+      <c r="G187" s="11">
+        <v>9</v>
+      </c>
+      <c r="H187">
+        <v>7</v>
+      </c>
+      <c r="M187" t="s">
+        <v>508</v>
+      </c>
       <c r="P187" s="6" t="s">
         <v>228</v>
       </c>
@@ -10745,6 +9514,33 @@
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>112</v>
+      </c>
+      <c r="B188">
+        <v>187</v>
+      </c>
+      <c r="C188" t="s">
+        <v>525</v>
+      </c>
+      <c r="D188" t="s">
+        <v>213</v>
+      </c>
+      <c r="E188" t="s">
+        <v>513</v>
+      </c>
+      <c r="F188" t="s">
+        <v>177</v>
+      </c>
+      <c r="G188" s="11">
+        <v>10</v>
+      </c>
+      <c r="H188">
+        <v>7</v>
+      </c>
+      <c r="M188" t="s">
+        <v>508</v>
+      </c>
       <c r="P188" s="6" t="s">
         <v>228</v>
       </c>
@@ -10753,6 +9549,33 @@
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>112</v>
+      </c>
+      <c r="B189">
+        <v>188</v>
+      </c>
+      <c r="C189" t="s">
+        <v>526</v>
+      </c>
+      <c r="D189" t="s">
+        <v>214</v>
+      </c>
+      <c r="E189" t="s">
+        <v>511</v>
+      </c>
+      <c r="F189" t="s">
+        <v>177</v>
+      </c>
+      <c r="G189" s="11">
+        <v>10</v>
+      </c>
+      <c r="H189">
+        <v>7</v>
+      </c>
+      <c r="M189" t="s">
+        <v>508</v>
+      </c>
       <c r="P189" s="6" t="s">
         <v>228</v>
       </c>
@@ -10761,6 +9584,33 @@
       </c>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>112</v>
+      </c>
+      <c r="B190">
+        <v>189</v>
+      </c>
+      <c r="C190" t="s">
+        <v>527</v>
+      </c>
+      <c r="D190" t="s">
+        <v>213</v>
+      </c>
+      <c r="E190" t="s">
+        <v>513</v>
+      </c>
+      <c r="F190" t="s">
+        <v>177</v>
+      </c>
+      <c r="G190" s="11">
+        <v>10</v>
+      </c>
+      <c r="H190">
+        <v>7</v>
+      </c>
+      <c r="M190" t="s">
+        <v>508</v>
+      </c>
       <c r="P190" s="6" t="s">
         <v>228</v>
       </c>
@@ -10769,6 +9619,33 @@
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>112</v>
+      </c>
+      <c r="B191">
+        <v>190</v>
+      </c>
+      <c r="C191" t="s">
+        <v>528</v>
+      </c>
+      <c r="D191" t="s">
+        <v>214</v>
+      </c>
+      <c r="E191" t="s">
+        <v>511</v>
+      </c>
+      <c r="F191" t="s">
+        <v>177</v>
+      </c>
+      <c r="G191" s="11">
+        <v>10</v>
+      </c>
+      <c r="H191">
+        <v>7</v>
+      </c>
+      <c r="M191" t="s">
+        <v>508</v>
+      </c>
       <c r="P191" s="6" t="s">
         <v>228</v>
       </c>
@@ -12030,7 +10907,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12063,13 +10940,13 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D2" t="s">
         <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F2" t="s">
         <v>222</v>
@@ -12083,13 +10960,13 @@
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D3" t="s">
         <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F3" t="s">
         <v>222</v>
@@ -12103,13 +10980,13 @@
         <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E4" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F4" t="s">
         <v>228</v>
@@ -12123,13 +11000,13 @@
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D5" t="s">
         <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F5" t="s">
         <v>228</v>
@@ -12143,13 +11020,13 @@
         <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D6" t="s">
         <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F6" t="s">
         <v>229</v>
@@ -12163,13 +11040,13 @@
         <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D7" t="s">
         <v>214</v>
       </c>
       <c r="E7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F7" t="s">
         <v>229</v>
@@ -12183,13 +11060,13 @@
         <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D8" t="s">
         <v>213</v>
       </c>
       <c r="E8" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F8" t="s">
         <v>229</v>
@@ -12203,13 +11080,13 @@
         <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D9" t="s">
         <v>214</v>
       </c>
       <c r="E9" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F9" t="s">
         <v>229</v>

--- a/Elecciones 11 Abril 2021/Constituyentes PI.xlsx
+++ b/Elecciones 11 Abril 2021/Constituyentes PI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Elecciones 11 Abril 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F74CD9-E7FE-4738-BB64-A2095325BAC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77EBFBA-EF9A-4A61-81A8-20224944DAC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{60F7545B-3EF7-47B8-B6F1-BF05007745DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{60F7545B-3EF7-47B8-B6F1-BF05007745DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="531">
   <si>
     <t>Pueblo</t>
   </si>
@@ -1625,6 +1625,9 @@
   </si>
   <si>
     <t>BIOBÍO</t>
+  </si>
+  <si>
+    <t>Imagen Github</t>
   </si>
 </sst>
 </file>
@@ -1798,12 +1801,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{171D0B00-5739-4FCB-9D3F-C5E1B3228124}" name="Constituyentes_PI_Candidatos" displayName="Constituyentes_PI_Candidatos" ref="A1:M191" totalsRowShown="0">
-  <autoFilter ref="A1:M191" xr:uid="{001C7DCB-0205-469B-A320-625D862BE634}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{171D0B00-5739-4FCB-9D3F-C5E1B3228124}" name="Constituyentes_PI_Candidatos" displayName="Constituyentes_PI_Candidatos" ref="A1:N191" totalsRowShown="0">
+  <autoFilter ref="A1:N191" xr:uid="{001C7DCB-0205-469B-A320-625D862BE634}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N191">
     <sortCondition ref="B1:B191"/>
   </sortState>
-  <tableColumns count="13">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{BB4F69CD-1D9C-4D83-903E-ACDD1052975F}" name="Pueblo"/>
     <tableColumn id="2" xr3:uid="{861D453C-3901-4DD0-BC47-D772A2528FB6}" name="Correlativo"/>
     <tableColumn id="3" xr3:uid="{CB09834D-5D98-4064-82EC-8AEE266C59C0}" name="Candidato (TyA)"/>
@@ -1816,6 +1819,7 @@
     <tableColumn id="9" xr3:uid="{C2126D96-15BC-433C-A5BF-80552AFF005E}" name="TW"/>
     <tableColumn id="10" xr3:uid="{A8FD893E-C5B4-43FB-BBE7-23895A296089}" name="ING"/>
     <tableColumn id="11" xr3:uid="{4B315957-8460-4213-A40B-85963EA2BE51}" name="Imagen"/>
+    <tableColumn id="14" xr3:uid="{E79DCEE0-4EAE-466D-8F0C-3CE0389D5703}" name="Imagen Github"/>
     <tableColumn id="12" xr3:uid="{5076334F-BE1A-440E-9352-F974B073AA5D}" name="Imagen pueblo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2119,10 +2123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A628787C-CB18-4385-9B00-3683138E44A8}">
-  <dimension ref="A1:Q346"/>
+  <dimension ref="A1:R346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B160" workbookViewId="0">
-      <selection activeCell="P189" sqref="P189"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,13 +2135,13 @@
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" customWidth="1"/>
+    <col min="12" max="13" width="23.28515625" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2175,16 +2179,19 @@
         <v>218</v>
       </c>
       <c r="M1" t="s">
+        <v>530</v>
+      </c>
+      <c r="N1" t="s">
         <v>219</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2218,17 +2225,18 @@
       <c r="L2" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="8"/>
+      <c r="N2" t="s">
         <v>506</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2259,17 +2267,17 @@
       <c r="J3" t="s">
         <v>359</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>506</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2300,17 +2308,17 @@
       <c r="L4" t="s">
         <v>361</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>506</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2335,17 +2343,17 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>506</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2370,17 +2378,17 @@
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>506</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2408,17 +2416,17 @@
       <c r="I7" t="s">
         <v>362</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>506</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2455,17 +2463,17 @@
       <c r="L8" t="s">
         <v>366</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>506</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="Q8" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2493,17 +2501,17 @@
       <c r="I9" t="s">
         <v>367</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>506</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2531,17 +2539,17 @@
       <c r="I10" t="s">
         <v>368</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>506</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="Q10" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2566,17 +2574,17 @@
       <c r="H11">
         <v>2</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>506</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="Q11" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2601,17 +2609,17 @@
       <c r="H12">
         <v>2</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>506</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="Q12" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2636,17 +2644,17 @@
       <c r="H13">
         <v>2</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>506</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="Q13" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2680,17 +2688,17 @@
       <c r="L14" t="s">
         <v>371</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>506</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="Q14" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -2715,17 +2723,17 @@
       <c r="H15">
         <v>2</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>506</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="Q15" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2750,17 +2758,17 @@
       <c r="H16">
         <v>2</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>506</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="Q16" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="R16" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2788,17 +2796,17 @@
       <c r="I17" t="s">
         <v>372</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>506</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="Q17" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2826,17 +2834,17 @@
       <c r="I18" t="s">
         <v>373</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>506</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="Q18" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2864,17 +2872,17 @@
       <c r="I19" t="s">
         <v>374</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>506</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="Q19" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="R19" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2911,17 +2919,17 @@
       <c r="L20" t="s">
         <v>378</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>506</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="Q20" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2952,17 +2960,17 @@
       <c r="L21" t="s">
         <v>380</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>506</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="Q21" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2990,17 +2998,17 @@
       <c r="I22" t="s">
         <v>381</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>506</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="Q22" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -3028,17 +3036,17 @@
       <c r="I23" t="s">
         <v>382</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>506</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="Q23" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -3069,17 +3077,17 @@
       <c r="L24" t="s">
         <v>384</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>506</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="Q24" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -3107,17 +3115,17 @@
       <c r="K25" t="s">
         <v>385</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>506</v>
       </c>
-      <c r="P25" s="6" t="s">
+      <c r="Q25" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="R25" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -3148,17 +3156,17 @@
       <c r="L26" t="s">
         <v>387</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>506</v>
       </c>
-      <c r="P26" s="6" t="s">
+      <c r="Q26" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -3189,17 +3197,17 @@
       <c r="J27" t="s">
         <v>389</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>506</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="Q27" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -3230,17 +3238,17 @@
       <c r="J28" t="s">
         <v>391</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>506</v>
       </c>
-      <c r="P28" s="6" t="s">
+      <c r="Q28" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="R28" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -3271,17 +3279,17 @@
       <c r="K29" t="s">
         <v>393</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>506</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="Q29" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -3306,17 +3314,17 @@
       <c r="H30">
         <v>2</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>506</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="Q30" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="R30" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -3341,17 +3349,17 @@
       <c r="H31">
         <v>2</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>506</v>
       </c>
-      <c r="P31" s="6" t="s">
+      <c r="Q31" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="R31" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -3382,17 +3390,17 @@
       <c r="J32" t="s">
         <v>395</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>506</v>
       </c>
-      <c r="P32" s="6" t="s">
+      <c r="Q32" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -3420,17 +3428,17 @@
       <c r="J33" t="s">
         <v>396</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>506</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="Q33" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -3458,17 +3466,17 @@
       <c r="I34" t="s">
         <v>397</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>506</v>
       </c>
-      <c r="P34" s="6" t="s">
+      <c r="Q34" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="R34" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3493,17 +3501,17 @@
       <c r="H35">
         <v>2</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>506</v>
       </c>
-      <c r="P35" s="6" t="s">
+      <c r="Q35" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -3528,17 +3536,17 @@
       <c r="H36">
         <v>2</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>506</v>
       </c>
-      <c r="P36" s="6" t="s">
+      <c r="Q36" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="R36" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -3566,17 +3574,17 @@
       <c r="I37" t="s">
         <v>398</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>506</v>
       </c>
-      <c r="P37" s="6" t="s">
+      <c r="Q37" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="R37" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3610,17 +3618,17 @@
       <c r="L38" t="s">
         <v>401</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>259</v>
       </c>
-      <c r="P38" s="6" t="s">
+      <c r="Q38" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="R38" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -3645,17 +3653,17 @@
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>259</v>
       </c>
-      <c r="P39" s="6" t="s">
+      <c r="Q39" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="R39" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -3680,17 +3688,17 @@
       <c r="H40">
         <v>1</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>259</v>
       </c>
-      <c r="P40" s="6" t="s">
+      <c r="Q40" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="R40" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -3718,17 +3726,17 @@
       <c r="I41" t="s">
         <v>402</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>259</v>
       </c>
-      <c r="P41" s="6" t="s">
+      <c r="Q41" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -3753,17 +3761,17 @@
       <c r="H42">
         <v>1</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>259</v>
       </c>
-      <c r="P42" s="6" t="s">
+      <c r="Q42" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -3788,17 +3796,17 @@
       <c r="H43">
         <v>1</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>259</v>
       </c>
-      <c r="P43" s="6" t="s">
+      <c r="Q43" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -3829,17 +3837,17 @@
       <c r="L44" t="s">
         <v>404</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>259</v>
       </c>
-      <c r="P44" s="6" t="s">
+      <c r="Q44" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -3864,17 +3872,17 @@
       <c r="H45">
         <v>1</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>259</v>
       </c>
-      <c r="P45" s="6" t="s">
+      <c r="Q45" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -3905,17 +3913,17 @@
       <c r="L46" t="s">
         <v>406</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>259</v>
       </c>
-      <c r="P46" s="6" t="s">
+      <c r="Q46" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -3946,17 +3954,17 @@
       <c r="L47" t="s">
         <v>408</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>259</v>
       </c>
-      <c r="P47" s="6" t="s">
+      <c r="Q47" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -3981,17 +3989,17 @@
       <c r="H48">
         <v>1</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>259</v>
       </c>
-      <c r="P48" s="6" t="s">
+      <c r="Q48" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -4022,17 +4030,17 @@
       <c r="L49" t="s">
         <v>410</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>259</v>
       </c>
-      <c r="P49" s="6" t="s">
+      <c r="Q49" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -4057,17 +4065,17 @@
       <c r="H50">
         <v>1</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>259</v>
       </c>
-      <c r="P50" s="6" t="s">
+      <c r="Q50" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="R50" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -4092,17 +4100,17 @@
       <c r="H51">
         <v>1</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>259</v>
       </c>
-      <c r="P51" s="6" t="s">
+      <c r="Q51" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="R51" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -4133,17 +4141,17 @@
       <c r="L52" t="s">
         <v>412</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>259</v>
       </c>
-      <c r="P52" s="6" t="s">
+      <c r="Q52" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -4168,17 +4176,17 @@
       <c r="H53">
         <v>1</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>259</v>
       </c>
-      <c r="P53" s="6" t="s">
+      <c r="Q53" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="R53" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -4203,17 +4211,17 @@
       <c r="H54">
         <v>1</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>259</v>
       </c>
-      <c r="P54" s="6" t="s">
+      <c r="Q54" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -4238,17 +4246,17 @@
       <c r="H55">
         <v>1</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>259</v>
       </c>
-      <c r="P55" s="6" t="s">
+      <c r="Q55" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q55" s="3">
+      <c r="R55" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -4273,17 +4281,17 @@
       <c r="H56">
         <v>1</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>259</v>
       </c>
-      <c r="P56" s="6" t="s">
+      <c r="Q56" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="R56" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -4308,17 +4316,17 @@
       <c r="H57">
         <v>1</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>259</v>
       </c>
-      <c r="P57" s="6" t="s">
+      <c r="Q57" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -4346,17 +4354,17 @@
       <c r="K58" t="s">
         <v>413</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>259</v>
       </c>
-      <c r="P58" s="6" t="s">
+      <c r="Q58" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -4387,17 +4395,17 @@
       <c r="L59" t="s">
         <v>415</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>259</v>
       </c>
-      <c r="P59" s="6" t="s">
+      <c r="Q59" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -4428,17 +4436,17 @@
       <c r="L60" t="s">
         <v>417</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>259</v>
       </c>
-      <c r="P60" s="6" t="s">
+      <c r="Q60" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -4463,17 +4471,17 @@
       <c r="H61">
         <v>1</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>259</v>
       </c>
-      <c r="P61" s="6" t="s">
+      <c r="Q61" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -4504,17 +4512,17 @@
       <c r="L62" t="s">
         <v>238</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>259</v>
       </c>
-      <c r="P62" s="6" t="s">
+      <c r="Q62" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -4545,17 +4553,17 @@
       <c r="L63" t="s">
         <v>239</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>259</v>
       </c>
-      <c r="P63" s="6" t="s">
+      <c r="Q63" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q63" s="3">
+      <c r="R63" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -4586,17 +4594,17 @@
       <c r="L64" t="s">
         <v>241</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>259</v>
       </c>
-      <c r="P64" s="6" t="s">
+      <c r="Q64" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q64" s="3">
+      <c r="R64" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -4633,17 +4641,17 @@
       <c r="L65" t="s">
         <v>244</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>259</v>
       </c>
-      <c r="P65" s="6" t="s">
+      <c r="Q65" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q65" s="3">
+      <c r="R65" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -4677,17 +4685,17 @@
       <c r="L66" t="s">
         <v>247</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>259</v>
       </c>
-      <c r="P66" s="6" t="s">
+      <c r="Q66" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -4718,17 +4726,17 @@
       <c r="L67" t="s">
         <v>248</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>259</v>
       </c>
-      <c r="P67" s="6" t="s">
+      <c r="Q67" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q67" s="3">
+      <c r="R67" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -4759,17 +4767,17 @@
       <c r="L68" t="s">
         <v>250</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>507</v>
       </c>
-      <c r="P68" s="6" t="s">
+      <c r="Q68" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q68" s="3">
+      <c r="R68" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -4797,17 +4805,17 @@
       <c r="L69" t="s">
         <v>251</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>507</v>
       </c>
-      <c r="P69" s="6" t="s">
+      <c r="Q69" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q69" s="3">
+      <c r="R69" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -4841,17 +4849,17 @@
       <c r="L70" t="s">
         <v>254</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>507</v>
       </c>
-      <c r="P70" s="6" t="s">
+      <c r="Q70" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -4879,17 +4887,17 @@
       <c r="L71" t="s">
         <v>255</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>507</v>
       </c>
-      <c r="P71" s="6" t="s">
+      <c r="Q71" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q71" s="3">
+      <c r="R71" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -4923,17 +4931,17 @@
       <c r="L72" t="s">
         <v>258</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>507</v>
       </c>
-      <c r="P72" s="6" t="s">
+      <c r="Q72" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -4958,17 +4966,17 @@
       <c r="H73">
         <v>1</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>507</v>
       </c>
-      <c r="P73" s="6" t="s">
+      <c r="Q73" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q73" s="3">
+      <c r="R73" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -4999,17 +5007,17 @@
       <c r="L74" t="s">
         <v>261</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>507</v>
       </c>
-      <c r="P74" s="6" t="s">
+      <c r="Q74" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q74" s="3">
+      <c r="R74" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -5034,17 +5042,17 @@
       <c r="H75">
         <v>1</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>507</v>
       </c>
-      <c r="P75" s="6" t="s">
+      <c r="Q75" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q75" s="3">
+      <c r="R75" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -5069,17 +5077,17 @@
       <c r="H76">
         <v>1</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>507</v>
       </c>
-      <c r="P76" s="6" t="s">
+      <c r="Q76" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -5104,17 +5112,17 @@
       <c r="H77">
         <v>1</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N77" t="s">
         <v>507</v>
       </c>
-      <c r="P77" s="6" t="s">
+      <c r="Q77" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q77" s="3">
+      <c r="R77" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -5151,17 +5159,17 @@
       <c r="L78" t="s">
         <v>265</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>259</v>
       </c>
-      <c r="P78" s="6" t="s">
+      <c r="Q78" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q78" s="3">
+      <c r="R78" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>95</v>
       </c>
@@ -5192,17 +5200,17 @@
       <c r="L79" t="s">
         <v>267</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79" t="s">
         <v>259</v>
       </c>
-      <c r="P79" s="6" t="s">
+      <c r="Q79" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q79" s="3">
+      <c r="R79" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -5236,17 +5244,17 @@
       <c r="L80" t="s">
         <v>270</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>259</v>
       </c>
-      <c r="P80" s="6" t="s">
+      <c r="Q80" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q80" s="3">
+      <c r="R80" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -5271,17 +5279,17 @@
       <c r="H81">
         <v>1</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>259</v>
       </c>
-      <c r="P81" s="6" t="s">
+      <c r="Q81" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -5312,17 +5320,17 @@
       <c r="L82" t="s">
         <v>272</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
         <v>259</v>
       </c>
-      <c r="P82" s="6" t="s">
+      <c r="Q82" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q82" s="3">
+      <c r="R82" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -5350,17 +5358,17 @@
       <c r="L83" t="s">
         <v>273</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>259</v>
       </c>
-      <c r="P83" s="6" t="s">
+      <c r="Q83" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -5397,17 +5405,17 @@
       <c r="L84" t="s">
         <v>277</v>
       </c>
-      <c r="M84" t="s">
+      <c r="N84" t="s">
         <v>259</v>
       </c>
-      <c r="P84" s="6" t="s">
+      <c r="Q84" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q84" s="3">
+      <c r="R84" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -5432,17 +5440,17 @@
       <c r="H85">
         <v>1</v>
       </c>
-      <c r="M85" t="s">
+      <c r="N85" t="s">
         <v>259</v>
       </c>
-      <c r="P85" s="6" t="s">
+      <c r="Q85" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q85" s="3">
+      <c r="R85" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -5476,17 +5484,17 @@
       <c r="L86" t="s">
         <v>280</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>259</v>
       </c>
-      <c r="P86" s="6" t="s">
+      <c r="Q86" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q86" s="3">
+      <c r="R86" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -5511,17 +5519,17 @@
       <c r="H87">
         <v>1</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87" t="s">
         <v>259</v>
       </c>
-      <c r="P87" s="6" t="s">
+      <c r="Q87" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q87" s="3">
+      <c r="R87" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -5555,17 +5563,17 @@
       <c r="L88" t="s">
         <v>283</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>259</v>
       </c>
-      <c r="P88" s="6" t="s">
+      <c r="Q88" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q88" s="3">
+      <c r="R88" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -5599,17 +5607,17 @@
       <c r="L89" t="s">
         <v>283</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
         <v>259</v>
       </c>
-      <c r="P89" s="6" t="s">
+      <c r="Q89" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -5646,17 +5654,17 @@
       <c r="L90" t="s">
         <v>287</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>259</v>
       </c>
-      <c r="P90" s="6" t="s">
+      <c r="Q90" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q90" s="3">
+      <c r="R90" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -5681,17 +5689,17 @@
       <c r="H91">
         <v>1</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>259</v>
       </c>
-      <c r="P91" s="6" t="s">
+      <c r="Q91" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -5725,17 +5733,17 @@
       <c r="L92" t="s">
         <v>290</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>259</v>
       </c>
-      <c r="P92" s="6" t="s">
+      <c r="Q92" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q92" s="3">
+      <c r="R92" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -5760,17 +5768,17 @@
       <c r="H93">
         <v>1</v>
       </c>
-      <c r="M93" t="s">
+      <c r="N93" t="s">
         <v>259</v>
       </c>
-      <c r="P93" s="6" t="s">
+      <c r="Q93" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q93" s="3">
+      <c r="R93" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>112</v>
       </c>
@@ -5807,17 +5815,17 @@
       <c r="L94" t="s">
         <v>294</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>508</v>
       </c>
-      <c r="P94" s="6" t="s">
+      <c r="Q94" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -5842,17 +5850,17 @@
       <c r="H95">
         <v>7</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95" t="s">
         <v>508</v>
       </c>
-      <c r="P95" s="6" t="s">
+      <c r="Q95" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q95" s="3">
+      <c r="R95" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -5889,17 +5897,17 @@
       <c r="L96" t="s">
         <v>298</v>
       </c>
-      <c r="M96" t="s">
+      <c r="N96" t="s">
         <v>508</v>
       </c>
-      <c r="P96" s="6" t="s">
+      <c r="Q96" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -5933,17 +5941,17 @@
       <c r="L97" t="s">
         <v>301</v>
       </c>
-      <c r="M97" t="s">
+      <c r="N97" t="s">
         <v>508</v>
       </c>
-      <c r="P97" s="6" t="s">
+      <c r="Q97" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q97" s="3">
+      <c r="R97" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -5980,17 +5988,17 @@
       <c r="L98" t="s">
         <v>305</v>
       </c>
-      <c r="M98" t="s">
+      <c r="N98" t="s">
         <v>508</v>
       </c>
-      <c r="P98" s="6" t="s">
+      <c r="Q98" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q98" s="3">
+      <c r="R98" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -6018,17 +6026,17 @@
       <c r="I99" t="s">
         <v>306</v>
       </c>
-      <c r="M99" t="s">
+      <c r="N99" t="s">
         <v>508</v>
       </c>
-      <c r="P99" s="6" t="s">
+      <c r="Q99" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q99" s="3">
+      <c r="R99" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>112</v>
       </c>
@@ -6065,17 +6073,17 @@
       <c r="L100" t="s">
         <v>310</v>
       </c>
-      <c r="M100" t="s">
+      <c r="N100" t="s">
         <v>508</v>
       </c>
-      <c r="P100" s="6" t="s">
+      <c r="Q100" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -6103,17 +6111,17 @@
       <c r="K101" t="s">
         <v>311</v>
       </c>
-      <c r="M101" t="s">
+      <c r="N101" t="s">
         <v>508</v>
       </c>
-      <c r="P101" s="6" t="s">
+      <c r="Q101" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -6138,17 +6146,17 @@
       <c r="H102">
         <v>7</v>
       </c>
-      <c r="M102" t="s">
+      <c r="N102" t="s">
         <v>508</v>
       </c>
-      <c r="P102" s="6" t="s">
+      <c r="Q102" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -6182,17 +6190,17 @@
       <c r="L103" t="s">
         <v>314</v>
       </c>
-      <c r="M103" t="s">
+      <c r="N103" t="s">
         <v>508</v>
       </c>
-      <c r="P103" s="6" t="s">
+      <c r="Q103" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q103" s="3">
+      <c r="R103" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>112</v>
       </c>
@@ -6229,17 +6237,17 @@
       <c r="L104" t="s">
         <v>318</v>
       </c>
-      <c r="M104" t="s">
+      <c r="N104" t="s">
         <v>508</v>
       </c>
-      <c r="P104" s="6" t="s">
+      <c r="Q104" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q104" s="3">
+      <c r="R104" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>112</v>
       </c>
@@ -6273,17 +6281,17 @@
       <c r="L105" t="s">
         <v>321</v>
       </c>
-      <c r="M105" t="s">
+      <c r="N105" t="s">
         <v>508</v>
       </c>
-      <c r="P105" s="6" t="s">
+      <c r="Q105" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q105" s="3">
+      <c r="R105" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -6320,17 +6328,17 @@
       <c r="L106" t="s">
         <v>325</v>
       </c>
-      <c r="M106" t="s">
+      <c r="N106" t="s">
         <v>508</v>
       </c>
-      <c r="P106" s="6" t="s">
+      <c r="Q106" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q106" s="3">
+      <c r="R106" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -6355,17 +6363,17 @@
       <c r="H107">
         <v>7</v>
       </c>
-      <c r="M107" t="s">
+      <c r="N107" t="s">
         <v>508</v>
       </c>
-      <c r="P107" s="6" t="s">
+      <c r="Q107" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q107" s="3">
+      <c r="R107" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -6399,17 +6407,17 @@
       <c r="L108" t="s">
         <v>328</v>
       </c>
-      <c r="M108" t="s">
+      <c r="N108" t="s">
         <v>508</v>
       </c>
-      <c r="P108" s="6" t="s">
+      <c r="Q108" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q108" s="3">
+      <c r="R108" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -6437,17 +6445,17 @@
       <c r="I109" t="s">
         <v>329</v>
       </c>
-      <c r="M109" t="s">
+      <c r="N109" t="s">
         <v>508</v>
       </c>
-      <c r="P109" s="6" t="s">
+      <c r="Q109" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q109" s="3">
+      <c r="R109" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -6481,17 +6489,17 @@
       <c r="L110" t="s">
         <v>332</v>
       </c>
-      <c r="M110" t="s">
+      <c r="N110" t="s">
         <v>508</v>
       </c>
-      <c r="P110" s="6" t="s">
+      <c r="Q110" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q110" s="3">
+      <c r="R110" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -6528,17 +6536,17 @@
       <c r="L111" t="s">
         <v>336</v>
       </c>
-      <c r="M111" t="s">
+      <c r="N111" t="s">
         <v>508</v>
       </c>
-      <c r="P111" s="6" t="s">
+      <c r="Q111" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q111" s="3">
+      <c r="R111" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -6569,17 +6577,17 @@
       <c r="K112" t="s">
         <v>338</v>
       </c>
-      <c r="M112" t="s">
+      <c r="N112" t="s">
         <v>508</v>
       </c>
-      <c r="P112" s="6" t="s">
+      <c r="Q112" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Q112" s="3">
+      <c r="R112" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -6604,17 +6612,17 @@
       <c r="H113">
         <v>7</v>
       </c>
-      <c r="M113" t="s">
+      <c r="N113" t="s">
         <v>508</v>
       </c>
-      <c r="P113" s="6" t="s">
+      <c r="Q113" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q113" s="3">
+      <c r="R113" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -6645,17 +6653,17 @@
       <c r="L114" t="s">
         <v>340</v>
       </c>
-      <c r="M114" t="s">
+      <c r="N114" t="s">
         <v>508</v>
       </c>
-      <c r="P114" s="6" t="s">
+      <c r="Q114" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q114" s="3">
+      <c r="R114" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -6683,17 +6691,17 @@
       <c r="I115" t="s">
         <v>341</v>
       </c>
-      <c r="M115" t="s">
+      <c r="N115" t="s">
         <v>508</v>
       </c>
-      <c r="P115" s="6" t="s">
+      <c r="Q115" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q115" s="3">
+      <c r="R115" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>112</v>
       </c>
@@ -6727,17 +6735,17 @@
       <c r="L116" t="s">
         <v>344</v>
       </c>
-      <c r="M116" t="s">
+      <c r="N116" t="s">
         <v>508</v>
       </c>
-      <c r="P116" s="6" t="s">
+      <c r="Q116" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q116" s="3">
+      <c r="R116" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>112</v>
       </c>
@@ -6762,17 +6770,17 @@
       <c r="H117">
         <v>7</v>
       </c>
-      <c r="M117" t="s">
+      <c r="N117" t="s">
         <v>508</v>
       </c>
-      <c r="P117" s="6" t="s">
+      <c r="Q117" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q117" s="3">
+      <c r="R117" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -6809,17 +6817,17 @@
       <c r="L118" t="s">
         <v>348</v>
       </c>
-      <c r="M118" t="s">
+      <c r="N118" t="s">
         <v>508</v>
       </c>
-      <c r="P118" s="6" t="s">
+      <c r="Q118" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q118" s="3">
+      <c r="R118" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>112</v>
       </c>
@@ -6844,17 +6852,17 @@
       <c r="H119">
         <v>7</v>
       </c>
-      <c r="M119" t="s">
+      <c r="N119" t="s">
         <v>508</v>
       </c>
-      <c r="P119" s="6" t="s">
+      <c r="Q119" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q119" s="3">
+      <c r="R119" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>112</v>
       </c>
@@ -6888,17 +6896,17 @@
       <c r="L120" t="s">
         <v>351</v>
       </c>
-      <c r="M120" t="s">
+      <c r="N120" t="s">
         <v>508</v>
       </c>
-      <c r="P120" s="6" t="s">
+      <c r="Q120" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q120" s="3">
+      <c r="R120" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>112</v>
       </c>
@@ -6932,17 +6940,17 @@
       <c r="L121" t="s">
         <v>354</v>
       </c>
-      <c r="M121" t="s">
+      <c r="N121" t="s">
         <v>508</v>
       </c>
-      <c r="P121" s="6" t="s">
+      <c r="Q121" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q121" s="3">
+      <c r="R121" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -6976,17 +6984,17 @@
       <c r="L122" t="s">
         <v>420</v>
       </c>
-      <c r="M122" t="s">
+      <c r="N122" t="s">
         <v>508</v>
       </c>
-      <c r="P122" s="6" t="s">
+      <c r="Q122" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q122" s="3">
+      <c r="R122" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>112</v>
       </c>
@@ -7020,17 +7028,17 @@
       <c r="L123" t="s">
         <v>423</v>
       </c>
-      <c r="M123" t="s">
+      <c r="N123" t="s">
         <v>508</v>
       </c>
-      <c r="P123" s="6" t="s">
+      <c r="Q123" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q123" s="3">
+      <c r="R123" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>112</v>
       </c>
@@ -7067,17 +7075,17 @@
       <c r="L124" t="s">
         <v>427</v>
       </c>
-      <c r="M124" t="s">
+      <c r="N124" t="s">
         <v>508</v>
       </c>
-      <c r="P124" s="6" t="s">
+      <c r="Q124" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q124" s="3">
+      <c r="R124" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>112</v>
       </c>
@@ -7102,17 +7110,17 @@
       <c r="H125">
         <v>7</v>
       </c>
-      <c r="M125" t="s">
+      <c r="N125" t="s">
         <v>508</v>
       </c>
-      <c r="P125" s="6" t="s">
+      <c r="Q125" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q125" s="3">
+      <c r="R125" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>112</v>
       </c>
@@ -7143,17 +7151,17 @@
       <c r="L126" t="s">
         <v>429</v>
       </c>
-      <c r="M126" t="s">
+      <c r="N126" t="s">
         <v>508</v>
       </c>
-      <c r="P126" s="6" t="s">
+      <c r="Q126" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q126" s="3">
+      <c r="R126" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>112</v>
       </c>
@@ -7187,17 +7195,17 @@
       <c r="L127" t="s">
         <v>432</v>
       </c>
-      <c r="M127" t="s">
+      <c r="N127" t="s">
         <v>508</v>
       </c>
-      <c r="P127" s="6" t="s">
+      <c r="Q127" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q127" s="3">
+      <c r="R127" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>112</v>
       </c>
@@ -7234,17 +7242,17 @@
       <c r="L128" t="s">
         <v>436</v>
       </c>
-      <c r="M128" t="s">
+      <c r="N128" t="s">
         <v>508</v>
       </c>
-      <c r="P128" s="6" t="s">
+      <c r="Q128" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q128" s="3">
+      <c r="R128" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>112</v>
       </c>
@@ -7269,17 +7277,17 @@
       <c r="H129">
         <v>7</v>
       </c>
-      <c r="M129" t="s">
+      <c r="N129" t="s">
         <v>508</v>
       </c>
-      <c r="P129" s="6" t="s">
+      <c r="Q129" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q129" s="3">
+      <c r="R129" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>112</v>
       </c>
@@ -7316,17 +7324,17 @@
       <c r="L130" t="s">
         <v>440</v>
       </c>
-      <c r="M130" t="s">
+      <c r="N130" t="s">
         <v>508</v>
       </c>
-      <c r="P130" s="6" t="s">
+      <c r="Q130" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q130" s="3">
+      <c r="R130" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>112</v>
       </c>
@@ -7360,17 +7368,17 @@
       <c r="L131" t="s">
         <v>443</v>
       </c>
-      <c r="M131" t="s">
+      <c r="N131" t="s">
         <v>508</v>
       </c>
-      <c r="P131" s="6" t="s">
+      <c r="Q131" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q131" s="3">
+      <c r="R131" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>112</v>
       </c>
@@ -7401,17 +7409,17 @@
       <c r="L132" t="s">
         <v>445</v>
       </c>
-      <c r="M132" t="s">
+      <c r="N132" t="s">
         <v>508</v>
       </c>
-      <c r="P132" s="6" t="s">
+      <c r="Q132" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q132" s="3">
+      <c r="R132" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>112</v>
       </c>
@@ -7436,17 +7444,17 @@
       <c r="H133">
         <v>7</v>
       </c>
-      <c r="M133" t="s">
+      <c r="N133" t="s">
         <v>508</v>
       </c>
-      <c r="P133" s="6" t="s">
+      <c r="Q133" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q133" s="3">
+      <c r="R133" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>112</v>
       </c>
@@ -7471,17 +7479,17 @@
       <c r="H134">
         <v>7</v>
       </c>
-      <c r="M134" t="s">
+      <c r="N134" t="s">
         <v>508</v>
       </c>
-      <c r="P134" s="6" t="s">
+      <c r="Q134" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q134" s="3">
+      <c r="R134" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>112</v>
       </c>
@@ -7506,17 +7514,17 @@
       <c r="H135">
         <v>7</v>
       </c>
-      <c r="M135" t="s">
+      <c r="N135" t="s">
         <v>508</v>
       </c>
-      <c r="P135" s="6" t="s">
+      <c r="Q135" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q135" s="3">
+      <c r="R135" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>112</v>
       </c>
@@ -7550,17 +7558,17 @@
       <c r="L136" t="s">
         <v>448</v>
       </c>
-      <c r="M136" t="s">
+      <c r="N136" t="s">
         <v>508</v>
       </c>
-      <c r="P136" s="6" t="s">
+      <c r="Q136" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q136" s="3">
+      <c r="R136" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>112</v>
       </c>
@@ -7585,17 +7593,17 @@
       <c r="H137">
         <v>7</v>
       </c>
-      <c r="M137" t="s">
+      <c r="N137" t="s">
         <v>508</v>
       </c>
-      <c r="P137" s="6" t="s">
+      <c r="Q137" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q137" s="3">
+      <c r="R137" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>112</v>
       </c>
@@ -7626,17 +7634,17 @@
       <c r="L138" t="s">
         <v>450</v>
       </c>
-      <c r="M138" t="s">
+      <c r="N138" t="s">
         <v>508</v>
       </c>
-      <c r="P138" s="6" t="s">
+      <c r="Q138" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q138" s="3">
+      <c r="R138" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>112</v>
       </c>
@@ -7661,17 +7669,17 @@
       <c r="H139">
         <v>7</v>
       </c>
-      <c r="M139" t="s">
+      <c r="N139" t="s">
         <v>508</v>
       </c>
-      <c r="P139" s="6" t="s">
+      <c r="Q139" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q139" s="3">
+      <c r="R139" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>112</v>
       </c>
@@ -7699,17 +7707,17 @@
       <c r="K140" t="s">
         <v>451</v>
       </c>
-      <c r="M140" t="s">
+      <c r="N140" t="s">
         <v>508</v>
       </c>
-      <c r="P140" s="6" t="s">
+      <c r="Q140" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q140" s="3">
+      <c r="R140" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>112</v>
       </c>
@@ -7737,17 +7745,17 @@
       <c r="I141" t="s">
         <v>452</v>
       </c>
-      <c r="M141" t="s">
+      <c r="N141" t="s">
         <v>508</v>
       </c>
-      <c r="P141" s="6" t="s">
+      <c r="Q141" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q141" s="3">
+      <c r="R141" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>112</v>
       </c>
@@ -7772,17 +7780,17 @@
       <c r="H142">
         <v>7</v>
       </c>
-      <c r="M142" t="s">
+      <c r="N142" t="s">
         <v>508</v>
       </c>
-      <c r="P142" s="6" t="s">
+      <c r="Q142" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q142" s="3">
+      <c r="R142" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>112</v>
       </c>
@@ -7813,17 +7821,17 @@
       <c r="L143" t="s">
         <v>454</v>
       </c>
-      <c r="M143" t="s">
+      <c r="N143" t="s">
         <v>508</v>
       </c>
-      <c r="P143" s="6" t="s">
+      <c r="Q143" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q143" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R143" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>112</v>
       </c>
@@ -7848,17 +7856,17 @@
       <c r="H144">
         <v>7</v>
       </c>
-      <c r="M144" t="s">
+      <c r="N144" t="s">
         <v>508</v>
       </c>
-      <c r="P144" s="6" t="s">
+      <c r="Q144" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q144" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R144" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>112</v>
       </c>
@@ -7883,17 +7891,17 @@
       <c r="H145">
         <v>7</v>
       </c>
-      <c r="M145" t="s">
+      <c r="N145" t="s">
         <v>508</v>
       </c>
-      <c r="P145" s="6" t="s">
+      <c r="Q145" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q145" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R145" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>112</v>
       </c>
@@ -7924,17 +7932,17 @@
       <c r="L146" t="s">
         <v>456</v>
       </c>
-      <c r="M146" t="s">
+      <c r="N146" t="s">
         <v>508</v>
       </c>
-      <c r="P146" s="6" t="s">
+      <c r="Q146" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q146" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R146" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>112</v>
       </c>
@@ -7965,17 +7973,17 @@
       <c r="L147" t="s">
         <v>458</v>
       </c>
-      <c r="M147" t="s">
+      <c r="N147" t="s">
         <v>508</v>
       </c>
-      <c r="P147" s="6" t="s">
+      <c r="Q147" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q147" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R147" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>112</v>
       </c>
@@ -8006,17 +8014,17 @@
       <c r="L148" t="s">
         <v>460</v>
       </c>
-      <c r="M148" t="s">
+      <c r="N148" t="s">
         <v>508</v>
       </c>
-      <c r="P148" s="6" t="s">
+      <c r="Q148" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q148" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R148" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>112</v>
       </c>
@@ -8044,17 +8052,17 @@
       <c r="K149" t="s">
         <v>461</v>
       </c>
-      <c r="M149" t="s">
+      <c r="N149" t="s">
         <v>508</v>
       </c>
-      <c r="P149" s="6" t="s">
+      <c r="Q149" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q149" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R149" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>112</v>
       </c>
@@ -8088,17 +8096,17 @@
       <c r="L150" t="s">
         <v>464</v>
       </c>
-      <c r="M150" t="s">
+      <c r="N150" t="s">
         <v>508</v>
       </c>
-      <c r="P150" s="6" t="s">
+      <c r="Q150" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q150" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R150" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>112</v>
       </c>
@@ -8123,17 +8131,17 @@
       <c r="H151">
         <v>7</v>
       </c>
-      <c r="M151" t="s">
+      <c r="N151" t="s">
         <v>508</v>
       </c>
-      <c r="P151" s="6" t="s">
+      <c r="Q151" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q151" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R151" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>112</v>
       </c>
@@ -8161,17 +8169,17 @@
       <c r="K152" t="s">
         <v>465</v>
       </c>
-      <c r="M152" t="s">
+      <c r="N152" t="s">
         <v>508</v>
       </c>
-      <c r="P152" s="6" t="s">
+      <c r="Q152" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q152" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R152" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>112</v>
       </c>
@@ -8199,17 +8207,17 @@
       <c r="I153" t="s">
         <v>466</v>
       </c>
-      <c r="M153" t="s">
+      <c r="N153" t="s">
         <v>508</v>
       </c>
-      <c r="P153" s="6" t="s">
+      <c r="Q153" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q153" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R153" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>112</v>
       </c>
@@ -8240,17 +8248,17 @@
       <c r="L154" t="s">
         <v>468</v>
       </c>
-      <c r="M154" t="s">
+      <c r="N154" t="s">
         <v>508</v>
       </c>
-      <c r="P154" s="6" t="s">
+      <c r="Q154" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q154" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R154" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>112</v>
       </c>
@@ -8275,17 +8283,17 @@
       <c r="H155">
         <v>7</v>
       </c>
-      <c r="M155" t="s">
+      <c r="N155" t="s">
         <v>508</v>
       </c>
-      <c r="P155" s="6" t="s">
+      <c r="Q155" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q155" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R155" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>112</v>
       </c>
@@ -8319,17 +8327,17 @@
       <c r="L156" t="s">
         <v>471</v>
       </c>
-      <c r="M156" t="s">
+      <c r="N156" t="s">
         <v>508</v>
       </c>
-      <c r="P156" s="6" t="s">
+      <c r="Q156" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q156" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R156" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>112</v>
       </c>
@@ -8363,17 +8371,17 @@
       <c r="L157" t="s">
         <v>474</v>
       </c>
-      <c r="M157" t="s">
+      <c r="N157" t="s">
         <v>508</v>
       </c>
-      <c r="P157" s="6" t="s">
+      <c r="Q157" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q157" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R157" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>112</v>
       </c>
@@ -8404,17 +8412,17 @@
       <c r="L158" t="s">
         <v>476</v>
       </c>
-      <c r="M158" t="s">
+      <c r="N158" t="s">
         <v>508</v>
       </c>
-      <c r="P158" s="6" t="s">
+      <c r="Q158" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q158" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R158" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>112</v>
       </c>
@@ -8439,17 +8447,17 @@
       <c r="H159">
         <v>7</v>
       </c>
-      <c r="M159" t="s">
+      <c r="N159" t="s">
         <v>508</v>
       </c>
-      <c r="P159" s="6" t="s">
+      <c r="Q159" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q159" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R159" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>112</v>
       </c>
@@ -8480,17 +8488,17 @@
       <c r="L160" t="s">
         <v>478</v>
       </c>
-      <c r="M160" t="s">
+      <c r="N160" t="s">
         <v>508</v>
       </c>
-      <c r="P160" s="6" t="s">
+      <c r="Q160" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q160" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R160" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>112</v>
       </c>
@@ -8521,17 +8529,17 @@
       <c r="L161" t="s">
         <v>480</v>
       </c>
-      <c r="M161" t="s">
+      <c r="N161" t="s">
         <v>508</v>
       </c>
-      <c r="P161" s="6" t="s">
+      <c r="Q161" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q161" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R161" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>112</v>
       </c>
@@ -8559,17 +8567,17 @@
       <c r="K162" t="s">
         <v>481</v>
       </c>
-      <c r="M162" t="s">
+      <c r="N162" t="s">
         <v>508</v>
       </c>
-      <c r="P162" s="6" t="s">
+      <c r="Q162" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q162" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R162" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>112</v>
       </c>
@@ -8597,17 +8605,17 @@
       <c r="I163" t="s">
         <v>482</v>
       </c>
-      <c r="M163" t="s">
+      <c r="N163" t="s">
         <v>508</v>
       </c>
-      <c r="P163" s="6" t="s">
+      <c r="Q163" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q163" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R163" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>112</v>
       </c>
@@ -8632,17 +8640,17 @@
       <c r="H164">
         <v>7</v>
       </c>
-      <c r="M164" t="s">
+      <c r="N164" t="s">
         <v>508</v>
       </c>
-      <c r="P164" s="6" t="s">
+      <c r="Q164" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q164" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R164" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>112</v>
       </c>
@@ -8676,17 +8684,17 @@
       <c r="L165" t="s">
         <v>485</v>
       </c>
-      <c r="M165" t="s">
+      <c r="N165" t="s">
         <v>508</v>
       </c>
-      <c r="P165" s="6" t="s">
+      <c r="Q165" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q165" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R165" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>190</v>
       </c>
@@ -8720,17 +8728,17 @@
       <c r="L166" t="s">
         <v>488</v>
       </c>
-      <c r="M166" s="9" t="s">
+      <c r="N166" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="P166" s="6" t="s">
+      <c r="Q166" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q166" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R166" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>190</v>
       </c>
@@ -8755,17 +8763,17 @@
       <c r="H167">
         <v>1</v>
       </c>
-      <c r="M167" s="9" t="s">
+      <c r="N167" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="P167" s="6" t="s">
+      <c r="Q167" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q167" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R167" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>190</v>
       </c>
@@ -8796,17 +8804,17 @@
       <c r="L168" t="s">
         <v>491</v>
       </c>
-      <c r="M168" s="9" t="s">
+      <c r="N168" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="P168" s="6" t="s">
+      <c r="Q168" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q168" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R168" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>190</v>
       </c>
@@ -8831,17 +8839,17 @@
       <c r="H169">
         <v>1</v>
       </c>
-      <c r="M169" s="9" t="s">
+      <c r="N169" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="P169" s="6" t="s">
+      <c r="Q169" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q169" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R169" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -8872,17 +8880,17 @@
       <c r="L170" t="s">
         <v>493</v>
       </c>
-      <c r="M170" s="9" t="s">
+      <c r="N170" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="P170" s="6" t="s">
+      <c r="Q170" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q170" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R170" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>190</v>
       </c>
@@ -8910,17 +8918,17 @@
       <c r="L171" t="s">
         <v>494</v>
       </c>
-      <c r="M171" s="9" t="s">
+      <c r="N171" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="P171" s="6" t="s">
+      <c r="Q171" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q171" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R171" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>190</v>
       </c>
@@ -8945,17 +8953,17 @@
       <c r="H172">
         <v>1</v>
       </c>
-      <c r="M172" s="9" t="s">
+      <c r="N172" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="P172" s="6" t="s">
+      <c r="Q172" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q172" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R172" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>190</v>
       </c>
@@ -8980,17 +8988,17 @@
       <c r="H173">
         <v>1</v>
       </c>
-      <c r="M173" s="9" t="s">
+      <c r="N173" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="P173" s="6" t="s">
+      <c r="Q173" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q173" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R173" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>199</v>
       </c>
@@ -9015,17 +9023,17 @@
       <c r="H174">
         <v>1</v>
       </c>
-      <c r="M174" t="s">
+      <c r="N174" t="s">
         <v>509</v>
       </c>
-      <c r="P174" s="6" t="s">
+      <c r="Q174" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q174" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R174" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>199</v>
       </c>
@@ -9050,17 +9058,17 @@
       <c r="H175">
         <v>1</v>
       </c>
-      <c r="M175" t="s">
+      <c r="N175" t="s">
         <v>509</v>
       </c>
-      <c r="P175" s="6" t="s">
+      <c r="Q175" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Q175" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R175" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>199</v>
       </c>
@@ -9094,17 +9102,17 @@
       <c r="L176" t="s">
         <v>497</v>
       </c>
-      <c r="M176" t="s">
+      <c r="N176" t="s">
         <v>509</v>
       </c>
-      <c r="P176" s="6" t="s">
+      <c r="Q176" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q176" s="3">
+      <c r="R176" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>199</v>
       </c>
@@ -9129,17 +9137,17 @@
       <c r="H177">
         <v>1</v>
       </c>
-      <c r="M177" t="s">
+      <c r="N177" t="s">
         <v>509</v>
       </c>
-      <c r="P177" s="6" t="s">
+      <c r="Q177" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q177" s="3">
+      <c r="R177" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>199</v>
       </c>
@@ -9170,17 +9178,17 @@
       <c r="L178" t="s">
         <v>499</v>
       </c>
-      <c r="M178" t="s">
+      <c r="N178" t="s">
         <v>509</v>
       </c>
-      <c r="P178" s="6" t="s">
+      <c r="Q178" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q178" s="3">
+      <c r="R178" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>199</v>
       </c>
@@ -9205,17 +9213,17 @@
       <c r="H179">
         <v>1</v>
       </c>
-      <c r="M179" t="s">
+      <c r="N179" t="s">
         <v>509</v>
       </c>
-      <c r="P179" s="6" t="s">
+      <c r="Q179" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q179" s="3">
+      <c r="R179" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>199</v>
       </c>
@@ -9252,17 +9260,17 @@
       <c r="L180" t="s">
         <v>503</v>
       </c>
-      <c r="M180" t="s">
+      <c r="N180" t="s">
         <v>509</v>
       </c>
-      <c r="P180" s="6" t="s">
+      <c r="Q180" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q180" s="3">
+      <c r="R180" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>199</v>
       </c>
@@ -9290,17 +9298,17 @@
       <c r="L181" t="s">
         <v>504</v>
       </c>
-      <c r="M181" t="s">
+      <c r="N181" t="s">
         <v>509</v>
       </c>
-      <c r="P181" s="6" t="s">
+      <c r="Q181" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q181" s="3">
+      <c r="R181" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>209</v>
       </c>
@@ -9328,17 +9336,17 @@
       <c r="L182" t="s">
         <v>505</v>
       </c>
-      <c r="M182" t="s">
+      <c r="N182" t="s">
         <v>259</v>
       </c>
-      <c r="P182" s="6" t="s">
+      <c r="Q182" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q182" s="3">
+      <c r="R182" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>209</v>
       </c>
@@ -9363,17 +9371,17 @@
       <c r="H183">
         <v>1</v>
       </c>
-      <c r="M183" t="s">
+      <c r="N183" t="s">
         <v>259</v>
       </c>
-      <c r="P183" s="6" t="s">
+      <c r="Q183" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q183" s="3">
+      <c r="R183" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>57</v>
       </c>
@@ -9398,17 +9406,17 @@
       <c r="H184">
         <v>1</v>
       </c>
-      <c r="M184" t="s">
+      <c r="N184" t="s">
         <v>259</v>
       </c>
-      <c r="P184" s="6" t="s">
+      <c r="Q184" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q184" s="3">
+      <c r="R184" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>57</v>
       </c>
@@ -9433,17 +9441,17 @@
       <c r="H185">
         <v>1</v>
       </c>
-      <c r="M185" t="s">
+      <c r="N185" t="s">
         <v>259</v>
       </c>
-      <c r="P185" s="6" t="s">
+      <c r="Q185" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q185" s="3">
+      <c r="R185" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>112</v>
       </c>
@@ -9468,17 +9476,17 @@
       <c r="H186">
         <v>7</v>
       </c>
-      <c r="M186" t="s">
+      <c r="N186" t="s">
         <v>508</v>
       </c>
-      <c r="P186" s="6" t="s">
+      <c r="Q186" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q186" s="3">
+      <c r="R186" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>112</v>
       </c>
@@ -9503,17 +9511,17 @@
       <c r="H187">
         <v>7</v>
       </c>
-      <c r="M187" t="s">
+      <c r="N187" t="s">
         <v>508</v>
       </c>
-      <c r="P187" s="6" t="s">
+      <c r="Q187" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q187" s="3">
+      <c r="R187" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>112</v>
       </c>
@@ -9538,17 +9546,17 @@
       <c r="H188">
         <v>7</v>
       </c>
-      <c r="M188" t="s">
+      <c r="N188" t="s">
         <v>508</v>
       </c>
-      <c r="P188" s="6" t="s">
+      <c r="Q188" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q188" s="3">
+      <c r="R188" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>112</v>
       </c>
@@ -9573,17 +9581,17 @@
       <c r="H189">
         <v>7</v>
       </c>
-      <c r="M189" t="s">
+      <c r="N189" t="s">
         <v>508</v>
       </c>
-      <c r="P189" s="6" t="s">
+      <c r="Q189" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q189" s="3">
+      <c r="R189" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>112</v>
       </c>
@@ -9608,17 +9616,17 @@
       <c r="H190">
         <v>7</v>
       </c>
-      <c r="M190" t="s">
+      <c r="N190" t="s">
         <v>508</v>
       </c>
-      <c r="P190" s="6" t="s">
+      <c r="Q190" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q190" s="3">
+      <c r="R190" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>112</v>
       </c>
@@ -9643,1253 +9651,1253 @@
       <c r="H191">
         <v>7</v>
       </c>
-      <c r="M191" t="s">
+      <c r="N191" t="s">
         <v>508</v>
       </c>
-      <c r="P191" s="6" t="s">
+      <c r="Q191" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q191" s="3">
+      <c r="R191" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P192" s="6" t="s">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q192" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q192" s="3">
+      <c r="R192" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P193" s="6" t="s">
+    <row r="193" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q193" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q193" s="3">
+      <c r="R193" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P194" s="6" t="s">
+    <row r="194" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q194" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q194" s="3">
+      <c r="R194" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P195" s="6" t="s">
+    <row r="195" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q195" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q195" s="3">
+      <c r="R195" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P196" s="6" t="s">
+    <row r="196" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q196" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q196" s="3">
+      <c r="R196" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P197" s="6" t="s">
+    <row r="197" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q197" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q197" s="3">
+      <c r="R197" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P198" s="6" t="s">
+    <row r="198" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q198" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q198" s="3">
+      <c r="R198" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P199" s="6" t="s">
+    <row r="199" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q199" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q199" s="3">
+      <c r="R199" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P200" s="6" t="s">
+    <row r="200" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q200" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q200" s="3">
+      <c r="R200" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P201" s="6" t="s">
+    <row r="201" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q201" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q201" s="3">
+      <c r="R201" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P202" s="6" t="s">
+    <row r="202" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q202" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q202" s="3">
+      <c r="R202" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P203" s="6" t="s">
+    <row r="203" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q203" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q203" s="3">
+      <c r="R203" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P204" s="6" t="s">
+    <row r="204" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q204" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q204" s="3">
+      <c r="R204" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P205" s="6" t="s">
+    <row r="205" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q205" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q205" s="3">
+      <c r="R205" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P206" s="6" t="s">
+    <row r="206" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q206" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q206" s="3">
+      <c r="R206" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P207" s="6" t="s">
+    <row r="207" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q207" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Q207" s="3">
+      <c r="R207" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P208" s="6" t="s">
+    <row r="208" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q208" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q208" s="3">
+      <c r="R208" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P209" s="6" t="s">
+    <row r="209" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q209" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q209" s="3">
+      <c r="R209" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P210" s="6" t="s">
+    <row r="210" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q210" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q210" s="3">
+      <c r="R210" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P211" s="6" t="s">
+    <row r="211" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q211" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q211" s="3">
+      <c r="R211" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P212" s="6" t="s">
+    <row r="212" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q212" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q212" s="3">
+      <c r="R212" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P213" s="6" t="s">
+    <row r="213" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q213" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q213" s="3">
+      <c r="R213" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P214" s="6" t="s">
+    <row r="214" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q214" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q214" s="3">
+      <c r="R214" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P215" s="6" t="s">
+    <row r="215" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q215" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q215" s="3">
+      <c r="R215" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P216" s="6" t="s">
+    <row r="216" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q216" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q216" s="3">
+      <c r="R216" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P217" s="6" t="s">
+    <row r="217" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q217" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q217" s="3">
+      <c r="R217" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P218" s="6" t="s">
+    <row r="218" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q218" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q218" s="3">
+      <c r="R218" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P219" s="6" t="s">
+    <row r="219" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q219" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q219" s="3">
+      <c r="R219" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P220" s="6" t="s">
+    <row r="220" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q220" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q220" s="3">
+      <c r="R220" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P221" s="6" t="s">
+    <row r="221" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q221" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q221" s="3">
+      <c r="R221" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P222" s="6" t="s">
+    <row r="222" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q222" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q222" s="3">
+      <c r="R222" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P223" s="6" t="s">
+    <row r="223" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q223" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q223" s="3">
+      <c r="R223" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P224" s="6" t="s">
+    <row r="224" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q224" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q224" s="3">
+      <c r="R224" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P225" s="6" t="s">
+    <row r="225" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q225" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q225" s="3">
+      <c r="R225" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P226" s="6" t="s">
+    <row r="226" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q226" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q226" s="3">
+      <c r="R226" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P227" s="6" t="s">
+    <row r="227" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q227" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q227" s="3">
+      <c r="R227" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P228" s="6" t="s">
+    <row r="228" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q228" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q228" s="3">
+      <c r="R228" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P229" s="6" t="s">
+    <row r="229" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q229" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q229" s="3">
+      <c r="R229" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P230" s="6" t="s">
+    <row r="230" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q230" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q230" s="3">
+      <c r="R230" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P231" s="6" t="s">
+    <row r="231" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q231" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q231" s="3">
+      <c r="R231" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P232" s="6" t="s">
+    <row r="232" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q232" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q232" s="3">
+      <c r="R232" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P233" s="6" t="s">
+    <row r="233" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q233" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q233" s="3">
+      <c r="R233" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P234" s="6" t="s">
+    <row r="234" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q234" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q234" s="3">
+      <c r="R234" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P235" s="6" t="s">
+    <row r="235" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q235" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q235" s="3">
+      <c r="R235" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P236" s="6" t="s">
+    <row r="236" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q236" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q236" s="3">
+      <c r="R236" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P237" s="6" t="s">
+    <row r="237" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q237" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q237" s="3">
+      <c r="R237" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P238" s="6" t="s">
+    <row r="238" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q238" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Q238" s="3">
+      <c r="R238" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P239" s="6" t="s">
+    <row r="239" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q239" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Q239" s="3">
+      <c r="R239" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P240" s="6" t="s">
+    <row r="240" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q240" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Q240" s="3">
+      <c r="R240" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P241" s="6" t="s">
+    <row r="241" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q241" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Q241" s="3">
+      <c r="R241" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P242" s="6" t="s">
+    <row r="242" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q242" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Q242" s="3">
+      <c r="R242" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P243" s="6" t="s">
+    <row r="243" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q243" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Q243" s="3">
+      <c r="R243" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P244" s="6" t="s">
+    <row r="244" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q244" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Q244" s="3">
+      <c r="R244" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P245" s="6" t="s">
+    <row r="245" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q245" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Q245" s="3">
+      <c r="R245" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P246" s="6" t="s">
+    <row r="246" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q246" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Q246" s="3">
+      <c r="R246" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P247" s="6" t="s">
+    <row r="247" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q247" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Q247" s="3">
+      <c r="R247" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P248" s="6" t="s">
+    <row r="248" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q248" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="Q248" s="3">
+      <c r="R248" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P249" s="6" t="s">
+    <row r="249" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q249" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="Q249" s="3">
+      <c r="R249" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P250" s="6" t="s">
+    <row r="250" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q250" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="Q250" s="3">
+      <c r="R250" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P251" s="6" t="s">
+    <row r="251" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q251" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="Q251" s="3">
+      <c r="R251" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="252" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P252" s="6" t="s">
+    <row r="252" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q252" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="Q252" s="3">
+      <c r="R252" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P253" s="6" t="s">
+    <row r="253" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q253" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="Q253" s="3">
+      <c r="R253" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P254" s="6" t="s">
+    <row r="254" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q254" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="Q254" s="3">
+      <c r="R254" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P255" s="6" t="s">
+    <row r="255" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q255" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="Q255" s="3">
+      <c r="R255" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P256" s="6" t="s">
+    <row r="256" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q256" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="Q256" s="3">
+      <c r="R256" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P257" s="6" t="s">
+    <row r="257" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q257" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="Q257" s="3">
+      <c r="R257" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P258" s="6" t="s">
+    <row r="258" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q258" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q258" s="3">
+      <c r="R258" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P259" s="6" t="s">
+    <row r="259" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q259" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q259" s="3">
+      <c r="R259" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P260" s="6" t="s">
+    <row r="260" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q260" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q260" s="3">
+      <c r="R260" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P261" s="6" t="s">
+    <row r="261" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q261" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q261" s="3">
+      <c r="R261" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P262" s="6" t="s">
+    <row r="262" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q262" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q262" s="3">
+      <c r="R262" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P263" s="6" t="s">
+    <row r="263" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q263" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q263" s="3">
+      <c r="R263" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P264" s="6" t="s">
+    <row r="264" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q264" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q264" s="3">
+      <c r="R264" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P265" s="6" t="s">
+    <row r="265" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q265" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q265" s="3">
+      <c r="R265" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P266" s="6" t="s">
+    <row r="266" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q266" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q266" s="3">
+      <c r="R266" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P267" s="6" t="s">
+    <row r="267" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q267" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q267" s="3">
+      <c r="R267" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P268" s="6" t="s">
+    <row r="268" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q268" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q268" s="3">
+      <c r="R268" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P269" s="6" t="s">
+    <row r="269" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q269" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q269" s="3">
+      <c r="R269" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P270" s="6" t="s">
+    <row r="270" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q270" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q270" s="3">
+      <c r="R270" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P271" s="6" t="s">
+    <row r="271" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q271" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q271" s="3">
+      <c r="R271" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P272" s="6" t="s">
+    <row r="272" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q272" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q272" s="3">
+      <c r="R272" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P273" s="6" t="s">
+    <row r="273" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q273" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q273" s="3">
+      <c r="R273" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P274" s="6" t="s">
+    <row r="274" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q274" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q274" s="3">
+      <c r="R274" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P275" s="6" t="s">
+    <row r="275" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q275" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q275" s="3">
+      <c r="R275" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P276" s="6" t="s">
+    <row r="276" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q276" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q276" s="3">
+      <c r="R276" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P277" s="6" t="s">
+    <row r="277" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q277" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q277" s="3">
+      <c r="R277" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P278" s="6" t="s">
+    <row r="278" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q278" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q278" s="3">
+      <c r="R278" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P279" s="6" t="s">
+    <row r="279" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q279" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q279" s="3">
+      <c r="R279" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P280" s="6" t="s">
+    <row r="280" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q280" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q280" s="3">
+      <c r="R280" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P281" s="6" t="s">
+    <row r="281" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q281" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q281" s="3">
+      <c r="R281" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P282" s="6" t="s">
+    <row r="282" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q282" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q282" s="3">
+      <c r="R282" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P283" s="6" t="s">
+    <row r="283" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q283" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q283" s="3">
+      <c r="R283" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P284" s="6" t="s">
+    <row r="284" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q284" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q284" s="3">
+      <c r="R284" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P285" s="6" t="s">
+    <row r="285" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q285" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q285" s="3">
+      <c r="R285" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P286" s="6" t="s">
+    <row r="286" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q286" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q286" s="3">
+      <c r="R286" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P287" s="6" t="s">
+    <row r="287" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q287" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q287" s="3">
+      <c r="R287" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P288" s="6" t="s">
+    <row r="288" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q288" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q288" s="3">
+      <c r="R288" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P289" s="6" t="s">
+    <row r="289" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q289" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q289" s="3">
+      <c r="R289" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P290" s="6" t="s">
+    <row r="290" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q290" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q290" s="3">
+      <c r="R290" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P291" s="6" t="s">
+    <row r="291" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q291" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q291" s="3">
+      <c r="R291" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P292" s="6" t="s">
+    <row r="292" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q292" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q292" s="3">
+      <c r="R292" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P293" s="6" t="s">
+    <row r="293" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q293" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q293" s="3">
+      <c r="R293" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P294" s="6" t="s">
+    <row r="294" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q294" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q294" s="3">
+      <c r="R294" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P295" s="6" t="s">
+    <row r="295" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q295" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q295" s="3">
+      <c r="R295" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P296" s="6" t="s">
+    <row r="296" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q296" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q296" s="3">
+      <c r="R296" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P297" s="6" t="s">
+    <row r="297" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q297" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q297" s="3">
+      <c r="R297" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P298" s="6" t="s">
+    <row r="298" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q298" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q298" s="3">
+      <c r="R298" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P299" s="6" t="s">
+    <row r="299" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q299" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q299" s="3">
+      <c r="R299" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P300" s="6" t="s">
+    <row r="300" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q300" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q300" s="3">
+      <c r="R300" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P301" s="6" t="s">
+    <row r="301" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q301" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q301" s="3">
+      <c r="R301" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P302" s="6" t="s">
+    <row r="302" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q302" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q302" s="3">
+      <c r="R302" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P303" s="6" t="s">
+    <row r="303" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q303" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q303" s="3">
+      <c r="R303" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P304" s="6" t="s">
+    <row r="304" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q304" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q304" s="3">
+      <c r="R304" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P305" s="6" t="s">
+    <row r="305" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q305" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q305" s="3">
+      <c r="R305" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P306" s="6" t="s">
+    <row r="306" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q306" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q306" s="3">
+      <c r="R306" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P307" s="6" t="s">
+    <row r="307" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q307" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q307" s="3">
+      <c r="R307" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P308" s="6" t="s">
+    <row r="308" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q308" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q308" s="3">
+      <c r="R308" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P309" s="6" t="s">
+    <row r="309" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q309" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q309" s="3">
+      <c r="R309" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P310" s="6" t="s">
+    <row r="310" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q310" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Q310" s="3">
+      <c r="R310" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P311" s="6" t="s">
+    <row r="311" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q311" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Q311" s="3">
+      <c r="R311" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P312" s="6" t="s">
+    <row r="312" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q312" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Q312" s="3">
+      <c r="R312" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P313" s="6" t="s">
+    <row r="313" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q313" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Q313" s="3">
+      <c r="R313" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P314" s="6" t="s">
+    <row r="314" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q314" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Q314" s="3">
+      <c r="R314" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P315" s="6" t="s">
+    <row r="315" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q315" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Q315" s="3">
+      <c r="R315" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P316" s="6" t="s">
+    <row r="316" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q316" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Q316" s="3">
+      <c r="R316" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P317" s="6" t="s">
+    <row r="317" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q317" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Q317" s="3">
+      <c r="R317" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P318" s="6" t="s">
+    <row r="318" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q318" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Q318" s="3">
+      <c r="R318" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P319" s="6" t="s">
+    <row r="319" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q319" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Q319" s="3">
+      <c r="R319" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P320" s="6" t="s">
+    <row r="320" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q320" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Q320" s="3">
+      <c r="R320" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P321" s="6" t="s">
+    <row r="321" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q321" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Q321" s="3">
+      <c r="R321" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P322" s="6" t="s">
+    <row r="322" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q322" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="Q322" s="3">
+      <c r="R322" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P323" s="6" t="s">
+    <row r="323" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q323" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="Q323" s="3">
+      <c r="R323" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P324" s="6" t="s">
+    <row r="324" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q324" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="Q324" s="3">
+      <c r="R324" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P325" s="6" t="s">
+    <row r="325" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q325" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="Q325" s="3">
+      <c r="R325" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P326" s="6" t="s">
+    <row r="326" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q326" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q326" s="3">
+      <c r="R326" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P327" s="6" t="s">
+    <row r="327" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q327" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q327" s="3">
+      <c r="R327" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P328" s="6" t="s">
+    <row r="328" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q328" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q328" s="3">
+      <c r="R328" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P329" s="6" t="s">
+    <row r="329" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q329" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q329" s="3">
+      <c r="R329" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P330" s="6" t="s">
+    <row r="330" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q330" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q330" s="3">
+      <c r="R330" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P331" s="6" t="s">
+    <row r="331" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q331" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q331" s="3">
+      <c r="R331" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P332" s="6" t="s">
+    <row r="332" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q332" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q332" s="3">
+      <c r="R332" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P333" s="6" t="s">
+    <row r="333" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q333" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q333" s="3">
+      <c r="R333" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="334" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P334" s="6" t="s">
+    <row r="334" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q334" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q334" s="3">
+      <c r="R334" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="335" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P335" s="6" t="s">
+    <row r="335" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q335" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q335" s="3">
+      <c r="R335" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P336" s="6" t="s">
+    <row r="336" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q336" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q336" s="3">
+      <c r="R336" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="337" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P337" s="6" t="s">
+    <row r="337" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q337" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q337" s="3">
+      <c r="R337" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P338" s="6" t="s">
+    <row r="338" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q338" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q338" s="3">
+      <c r="R338" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="339" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P339" s="6" t="s">
+    <row r="339" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q339" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q339" s="3">
+      <c r="R339" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P340" s="6" t="s">
+    <row r="340" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q340" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q340" s="3">
+      <c r="R340" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P341" s="6" t="s">
+    <row r="341" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q341" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q341" s="3">
+      <c r="R341" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="342" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P342" s="6" t="s">
+    <row r="342" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q342" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q342" s="3">
+      <c r="R342" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="343" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P343" s="6" t="s">
+    <row r="343" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q343" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q343" s="3">
+      <c r="R343" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="344" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P344" s="6" t="s">
+    <row r="344" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q344" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q344" s="3">
+      <c r="R344" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="345" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P345" s="6" t="s">
+    <row r="345" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q345" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Q345" s="3">
+      <c r="R345" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="346" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P346" s="7" t="s">
+    <row r="346" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q346" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="Q346" s="4">
+      <c r="R346" s="4">
         <v>16</v>
       </c>
     </row>

--- a/Elecciones 11 Abril 2021/Constituyentes PI.xlsx
+++ b/Elecciones 11 Abril 2021/Constituyentes PI.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Elecciones 11 Abril 2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77EBFBA-EF9A-4A61-81A8-20224944DAC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{60F7545B-3EF7-47B8-B6F1-BF05007745DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="620">
   <si>
     <t>Pueblo</t>
   </si>
@@ -1628,13 +1622,280 @@
   </si>
   <si>
     <t>Imagen Github</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/luis_alberto_jimenez_caceres.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/maritza_patricia_quispe_medina.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/naoml_yenevierh_calle_guarachi.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/miguel_angel_mamani_rios.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/catalina_andrea_cortes_cortes.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/laureano_javier_supanta_quispe.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/nelida_noemi_diaz_mamani.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/isabella_brunilda_mamani_mamani.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/horacio_vicente_cortes_molina.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/isabel_selena_godoy_monardez.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/lucinda_violeta_palacio_cruz.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/francisco_javier_cortes_godoy.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/zulema_luisa_mancilla_cardozo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/hector_sergio_salinas_cortez.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/felipe_yuri_retamal_albina.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/daniza_pricila_alvarez_moreno.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/wilma_maria_campillay_rojas.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/mariel_henry_campillay_suazo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/solange_elsa_bordones_cartagena__.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/ernesto_eduardo_alca_yaga_arostica_.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/maria_gabriela_calderon_alvarez.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/eric_johanny_chinga_ferreira.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/leticia_isabel_caro_kogler.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/michel_jonatan_vargas_bustamante.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/margarita_virginia_vargas_lopez.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/jose_carlos_fernandez_lopez.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/lucia_andrea_uribe_caro.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/maria_felicia_gonzalez_carcamo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/rene_roberto_panire_panire.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/laura_leticia_alexandra_panire_bugueno_.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/rolando_pedro_humire_coca.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/lila_nolberta_colamar_teran.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/wilson_nibaldo_segovia_bartolo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/alejandrina_carmen_ayabire_ayabire.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/cristian_alberto_varela_liendro.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/xi_mena_anza_colamar.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/felix_ramon_galleguillos_aymani.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/pablo_madariaga_soto.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/oriana_mabel_mora_rodriguez.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/alihuen_antileo_navarrete.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/elisa_loncon_antileo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/claudio_alvarado_lincopi.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/isabel_del_carmen_cayul_pina.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/ivan_cheuquelaf_rodriguez.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/ricardo_inalef_mora.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/natividad_del_carmen_llanquileo_pilquiman_.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/daniel_del_carmen_tobar_jara.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/adolfo_millabur_nancuil.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/gabriel_kurruman_huenteman_pereira.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/maria_ines_olmos_loncopan.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/juan_bautista_pichilen_linco.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/veronica_maria_levi_quipainan.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/francisca_linconao_huircapan.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/ingrid_maritza_conejeros_montecino.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/mauricio_alejandro_lepin_aninir.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/gabriela_del_carmen_espana_collio.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/rosa_elizabeth_catrileo_arias.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/benito_bernabe_cumilaf_mariano.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/sofia_amanda_huenchumilla_marilao.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/gustavo_ivan_quilaqueo_bustos.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/yessica_maribel_huenteman_medina.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/marcial_domingo_colin_lincolao.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/ana_maria_llao_llao.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/manuel_agustin_curio_olivares.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/adan_nivaldo_romero_cheuquepil.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/galvarino_reiman_huilcaman.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/luis_alejandro_catrileo_gaete.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/mery_aurora_cayuman_coloma.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/andres_hernan_matta_cuminao.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/elba_olaya_matuz_aburto.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/pedro_omar_calbunir_pinoleo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/vanessa_huaiquimilla_pinochet.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/orietta_eliana_llauca_huala.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/yonathan_eduardo_paillacheo_barriga.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/maribel_del_carmen_varas_loncuante.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/carmen_veronica_jaramillo_gualaman.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/hilda_del_carmen_guenteo_guenteo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/eric_kurt_vargas_quinchaman.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/juan_ricardo_vasquez_alarcon.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/ceferino_castro_castro.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/wilfredo_manuel_bacian_delgado.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/pamela_cecilia_oliden_vega.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/alexis_javier_vicentelo_vicentelo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/pedro_hatirenga_fati_tepano.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/tiare_maeva_carolina_aguilera_hey.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/rafael_hernan_tuki_tepano.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/jackeline_rapu_tuki.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/lidia_cristina_gonzalez_calderon_.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1652,6 +1913,13 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1760,10 +2028,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1779,11 +2051,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1801,26 +2079,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{171D0B00-5739-4FCB-9D3F-C5E1B3228124}" name="Constituyentes_PI_Candidatos" displayName="Constituyentes_PI_Candidatos" ref="A1:N191" totalsRowShown="0">
-  <autoFilter ref="A1:N191" xr:uid="{001C7DCB-0205-469B-A320-625D862BE634}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Constituyentes_PI_Candidatos" displayName="Constituyentes_PI_Candidatos" ref="A1:N191" totalsRowShown="0">
+  <autoFilter ref="A1:N191"/>
+  <sortState ref="A2:N191">
     <sortCondition ref="B1:B191"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{BB4F69CD-1D9C-4D83-903E-ACDD1052975F}" name="Pueblo"/>
-    <tableColumn id="2" xr3:uid="{861D453C-3901-4DD0-BC47-D772A2528FB6}" name="Correlativo"/>
-    <tableColumn id="3" xr3:uid="{CB09834D-5D98-4064-82EC-8AEE266C59C0}" name="Candidato (TyA)"/>
-    <tableColumn id="4" xr3:uid="{965B6AE0-9EA3-48A9-B24F-B8C90C41656E}" name="T&amp;A"/>
-    <tableColumn id="5" xr3:uid="{5B4FAD07-7B4D-46EE-92F0-074A4E933628}" name="Sexo"/>
-    <tableColumn id="6" xr3:uid="{ABBB94BE-2360-44ED-AC68-A17FF3E7884A}" name="Región"/>
-    <tableColumn id="7" xr3:uid="{EE7D721F-F6AD-47DB-92C2-392B678AE2FE}" name="Codreg" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{A3348174-FB5B-4BF8-B71D-C06C47AFE97E}" name="Cupo"/>
-    <tableColumn id="8" xr3:uid="{D0802BC7-9035-4A4F-BC9E-867C9CCB0FAE}" name="FB"/>
-    <tableColumn id="9" xr3:uid="{C2126D96-15BC-433C-A5BF-80552AFF005E}" name="TW"/>
-    <tableColumn id="10" xr3:uid="{A8FD893E-C5B4-43FB-BBE7-23895A296089}" name="ING"/>
-    <tableColumn id="11" xr3:uid="{4B315957-8460-4213-A40B-85963EA2BE51}" name="Imagen"/>
-    <tableColumn id="14" xr3:uid="{E79DCEE0-4EAE-466D-8F0C-3CE0389D5703}" name="Imagen Github"/>
-    <tableColumn id="12" xr3:uid="{5076334F-BE1A-440E-9352-F974B073AA5D}" name="Imagen pueblo"/>
+    <tableColumn id="1" name="Pueblo"/>
+    <tableColumn id="2" name="Correlativo"/>
+    <tableColumn id="3" name="Candidato (TyA)"/>
+    <tableColumn id="4" name="T&amp;A"/>
+    <tableColumn id="5" name="Sexo"/>
+    <tableColumn id="6" name="Región"/>
+    <tableColumn id="7" name="Codreg" dataDxfId="1"/>
+    <tableColumn id="13" name="Cupo"/>
+    <tableColumn id="8" name="FB"/>
+    <tableColumn id="9" name="TW"/>
+    <tableColumn id="10" name="ING"/>
+    <tableColumn id="11" name="Imagen"/>
+    <tableColumn id="14" name="Imagen Github" dataDxfId="0" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="12" name="Imagen pueblo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1869,7 +2147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1921,7 +2199,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2115,33 +2393,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A628787C-CB18-4385-9B00-3683138E44A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C191"/>
+    <sheetView tabSelected="1" topLeftCell="D169" workbookViewId="0">
+      <selection activeCell="M182" sqref="M182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" customWidth="1"/>
     <col min="12" max="13" width="23.28515625" customWidth="1"/>
     <col min="14" max="14" width="23.5703125" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2191,7 +2471,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2225,7 +2505,9 @@
       <c r="L2" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="M2" s="8"/>
+      <c r="M2" s="13" t="s">
+        <v>531</v>
+      </c>
       <c r="N2" t="s">
         <v>506</v>
       </c>
@@ -2236,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2267,6 +2549,9 @@
       <c r="J3" t="s">
         <v>359</v>
       </c>
+      <c r="M3" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N3" t="s">
         <v>506</v>
       </c>
@@ -2277,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2308,6 +2593,9 @@
       <c r="L4" t="s">
         <v>361</v>
       </c>
+      <c r="M4" s="13" t="s">
+        <v>532</v>
+      </c>
       <c r="N4" t="s">
         <v>506</v>
       </c>
@@ -2318,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2343,6 +2631,9 @@
       <c r="H5">
         <v>2</v>
       </c>
+      <c r="M5" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N5" t="s">
         <v>506</v>
       </c>
@@ -2353,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2378,6 +2669,9 @@
       <c r="H6">
         <v>2</v>
       </c>
+      <c r="M6" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N6" t="s">
         <v>506</v>
       </c>
@@ -2388,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2416,6 +2710,9 @@
       <c r="I7" t="s">
         <v>362</v>
       </c>
+      <c r="M7" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N7" t="s">
         <v>506</v>
       </c>
@@ -2426,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2463,6 +2760,9 @@
       <c r="L8" t="s">
         <v>366</v>
       </c>
+      <c r="M8" s="13" t="s">
+        <v>533</v>
+      </c>
       <c r="N8" t="s">
         <v>506</v>
       </c>
@@ -2473,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2501,6 +2801,9 @@
       <c r="I9" t="s">
         <v>367</v>
       </c>
+      <c r="M9" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N9" t="s">
         <v>506</v>
       </c>
@@ -2511,7 +2814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2539,6 +2842,9 @@
       <c r="I10" t="s">
         <v>368</v>
       </c>
+      <c r="M10" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N10" t="s">
         <v>506</v>
       </c>
@@ -2549,7 +2855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2574,6 +2880,9 @@
       <c r="H11">
         <v>2</v>
       </c>
+      <c r="M11" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N11" t="s">
         <v>506</v>
       </c>
@@ -2584,7 +2893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2609,6 +2918,9 @@
       <c r="H12">
         <v>2</v>
       </c>
+      <c r="M12" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N12" t="s">
         <v>506</v>
       </c>
@@ -2619,7 +2931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2644,6 +2956,9 @@
       <c r="H13">
         <v>2</v>
       </c>
+      <c r="M13" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N13" t="s">
         <v>506</v>
       </c>
@@ -2654,7 +2969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2688,6 +3003,9 @@
       <c r="L14" t="s">
         <v>371</v>
       </c>
+      <c r="M14" s="13" t="s">
+        <v>534</v>
+      </c>
       <c r="N14" t="s">
         <v>506</v>
       </c>
@@ -2698,7 +3016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -2723,6 +3041,9 @@
       <c r="H15">
         <v>2</v>
       </c>
+      <c r="M15" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N15" t="s">
         <v>506</v>
       </c>
@@ -2733,7 +3054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2758,6 +3079,9 @@
       <c r="H16">
         <v>2</v>
       </c>
+      <c r="M16" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N16" t="s">
         <v>506</v>
       </c>
@@ -2768,7 +3092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2796,6 +3120,9 @@
       <c r="I17" t="s">
         <v>372</v>
       </c>
+      <c r="M17" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N17" t="s">
         <v>506</v>
       </c>
@@ -2806,7 +3133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2834,6 +3161,9 @@
       <c r="I18" t="s">
         <v>373</v>
       </c>
+      <c r="M18" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N18" t="s">
         <v>506</v>
       </c>
@@ -2844,7 +3174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2872,6 +3202,9 @@
       <c r="I19" t="s">
         <v>374</v>
       </c>
+      <c r="M19" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N19" t="s">
         <v>506</v>
       </c>
@@ -2882,7 +3215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2919,6 +3252,9 @@
       <c r="L20" t="s">
         <v>378</v>
       </c>
+      <c r="M20" s="13" t="s">
+        <v>535</v>
+      </c>
       <c r="N20" t="s">
         <v>506</v>
       </c>
@@ -2929,7 +3265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2960,6 +3296,9 @@
       <c r="L21" t="s">
         <v>380</v>
       </c>
+      <c r="M21" s="13" t="s">
+        <v>536</v>
+      </c>
       <c r="N21" t="s">
         <v>506</v>
       </c>
@@ -2970,7 +3309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2998,6 +3337,9 @@
       <c r="I22" t="s">
         <v>381</v>
       </c>
+      <c r="M22" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N22" t="s">
         <v>506</v>
       </c>
@@ -3008,7 +3350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -3036,6 +3378,9 @@
       <c r="I23" t="s">
         <v>382</v>
       </c>
+      <c r="M23" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N23" t="s">
         <v>506</v>
       </c>
@@ -3046,7 +3391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -3077,6 +3422,9 @@
       <c r="L24" t="s">
         <v>384</v>
       </c>
+      <c r="M24" s="13" t="s">
+        <v>537</v>
+      </c>
       <c r="N24" t="s">
         <v>506</v>
       </c>
@@ -3087,7 +3435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -3115,6 +3463,9 @@
       <c r="K25" t="s">
         <v>385</v>
       </c>
+      <c r="M25" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N25" t="s">
         <v>506</v>
       </c>
@@ -3125,7 +3476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -3156,6 +3507,9 @@
       <c r="L26" t="s">
         <v>387</v>
       </c>
+      <c r="M26" s="13" t="s">
+        <v>538</v>
+      </c>
       <c r="N26" t="s">
         <v>506</v>
       </c>
@@ -3166,7 +3520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -3197,6 +3551,9 @@
       <c r="J27" t="s">
         <v>389</v>
       </c>
+      <c r="M27" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N27" t="s">
         <v>506</v>
       </c>
@@ -3207,7 +3564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -3238,6 +3595,9 @@
       <c r="J28" t="s">
         <v>391</v>
       </c>
+      <c r="M28" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N28" t="s">
         <v>506</v>
       </c>
@@ -3248,7 +3608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -3279,6 +3639,9 @@
       <c r="K29" t="s">
         <v>393</v>
       </c>
+      <c r="M29" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N29" t="s">
         <v>506</v>
       </c>
@@ -3289,7 +3652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -3314,6 +3677,9 @@
       <c r="H30">
         <v>2</v>
       </c>
+      <c r="M30" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N30" t="s">
         <v>506</v>
       </c>
@@ -3324,7 +3690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -3349,6 +3715,9 @@
       <c r="H31">
         <v>2</v>
       </c>
+      <c r="M31" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N31" t="s">
         <v>506</v>
       </c>
@@ -3359,7 +3728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -3390,6 +3759,9 @@
       <c r="J32" t="s">
         <v>395</v>
       </c>
+      <c r="M32" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N32" t="s">
         <v>506</v>
       </c>
@@ -3400,7 +3772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -3428,6 +3800,9 @@
       <c r="J33" t="s">
         <v>396</v>
       </c>
+      <c r="M33" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N33" t="s">
         <v>506</v>
       </c>
@@ -3438,7 +3813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -3466,6 +3841,9 @@
       <c r="I34" t="s">
         <v>397</v>
       </c>
+      <c r="M34" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N34" t="s">
         <v>506</v>
       </c>
@@ -3476,7 +3854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3501,6 +3879,9 @@
       <c r="H35">
         <v>2</v>
       </c>
+      <c r="M35" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N35" t="s">
         <v>506</v>
       </c>
@@ -3511,7 +3892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -3536,6 +3917,9 @@
       <c r="H36">
         <v>2</v>
       </c>
+      <c r="M36" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N36" t="s">
         <v>506</v>
       </c>
@@ -3546,7 +3930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -3574,6 +3958,9 @@
       <c r="I37" t="s">
         <v>398</v>
       </c>
+      <c r="M37" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N37" t="s">
         <v>506</v>
       </c>
@@ -3584,7 +3971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3618,6 +4005,9 @@
       <c r="L38" t="s">
         <v>401</v>
       </c>
+      <c r="M38" s="13" t="s">
+        <v>539</v>
+      </c>
       <c r="N38" t="s">
         <v>259</v>
       </c>
@@ -3628,7 +4018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -3653,6 +4043,9 @@
       <c r="H39">
         <v>1</v>
       </c>
+      <c r="M39" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N39" t="s">
         <v>259</v>
       </c>
@@ -3663,7 +4056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -3688,6 +4081,9 @@
       <c r="H40">
         <v>1</v>
       </c>
+      <c r="M40" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N40" t="s">
         <v>259</v>
       </c>
@@ -3698,7 +4094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -3726,6 +4122,9 @@
       <c r="I41" t="s">
         <v>402</v>
       </c>
+      <c r="M41" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N41" t="s">
         <v>259</v>
       </c>
@@ -3736,7 +4135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -3761,6 +4160,9 @@
       <c r="H42">
         <v>1</v>
       </c>
+      <c r="M42" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N42" t="s">
         <v>259</v>
       </c>
@@ -3771,7 +4173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -3796,6 +4198,9 @@
       <c r="H43">
         <v>1</v>
       </c>
+      <c r="M43" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N43" t="s">
         <v>259</v>
       </c>
@@ -3806,7 +4211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -3837,6 +4242,9 @@
       <c r="L44" t="s">
         <v>404</v>
       </c>
+      <c r="M44" s="13" t="s">
+        <v>540</v>
+      </c>
       <c r="N44" t="s">
         <v>259</v>
       </c>
@@ -3847,7 +4255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -3872,6 +4280,9 @@
       <c r="H45">
         <v>1</v>
       </c>
+      <c r="M45" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N45" t="s">
         <v>259</v>
       </c>
@@ -3882,7 +4293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -3913,6 +4324,9 @@
       <c r="L46" t="s">
         <v>406</v>
       </c>
+      <c r="M46" s="13" t="s">
+        <v>541</v>
+      </c>
       <c r="N46" t="s">
         <v>259</v>
       </c>
@@ -3923,7 +4337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -3954,6 +4368,9 @@
       <c r="L47" t="s">
         <v>408</v>
       </c>
+      <c r="M47" s="13" t="s">
+        <v>542</v>
+      </c>
       <c r="N47" t="s">
         <v>259</v>
       </c>
@@ -3964,7 +4381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -3989,6 +4406,9 @@
       <c r="H48">
         <v>1</v>
       </c>
+      <c r="M48" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N48" t="s">
         <v>259</v>
       </c>
@@ -3999,7 +4419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -4030,6 +4450,9 @@
       <c r="L49" t="s">
         <v>410</v>
       </c>
+      <c r="M49" s="13" t="s">
+        <v>543</v>
+      </c>
       <c r="N49" t="s">
         <v>259</v>
       </c>
@@ -4040,7 +4463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -4065,6 +4488,9 @@
       <c r="H50">
         <v>1</v>
       </c>
+      <c r="M50" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N50" t="s">
         <v>259</v>
       </c>
@@ -4075,7 +4501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -4100,6 +4526,9 @@
       <c r="H51">
         <v>1</v>
       </c>
+      <c r="M51" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N51" t="s">
         <v>259</v>
       </c>
@@ -4110,7 +4539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -4141,6 +4570,9 @@
       <c r="L52" t="s">
         <v>412</v>
       </c>
+      <c r="M52" s="13" t="s">
+        <v>544</v>
+      </c>
       <c r="N52" t="s">
         <v>259</v>
       </c>
@@ -4151,7 +4583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -4176,6 +4608,9 @@
       <c r="H53">
         <v>1</v>
       </c>
+      <c r="M53" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N53" t="s">
         <v>259</v>
       </c>
@@ -4186,7 +4621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -4211,6 +4646,9 @@
       <c r="H54">
         <v>1</v>
       </c>
+      <c r="M54" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N54" t="s">
         <v>259</v>
       </c>
@@ -4221,7 +4659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -4246,6 +4684,9 @@
       <c r="H55">
         <v>1</v>
       </c>
+      <c r="M55" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N55" t="s">
         <v>259</v>
       </c>
@@ -4256,7 +4697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -4281,6 +4722,9 @@
       <c r="H56">
         <v>1</v>
       </c>
+      <c r="M56" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N56" t="s">
         <v>259</v>
       </c>
@@ -4291,7 +4735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -4316,6 +4760,9 @@
       <c r="H57">
         <v>1</v>
       </c>
+      <c r="M57" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N57" t="s">
         <v>259</v>
       </c>
@@ -4326,7 +4773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -4354,6 +4801,9 @@
       <c r="K58" t="s">
         <v>413</v>
       </c>
+      <c r="M58" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N58" t="s">
         <v>259</v>
       </c>
@@ -4364,7 +4814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -4395,6 +4845,9 @@
       <c r="L59" t="s">
         <v>415</v>
       </c>
+      <c r="M59" s="13" t="s">
+        <v>545</v>
+      </c>
       <c r="N59" t="s">
         <v>259</v>
       </c>
@@ -4405,7 +4858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -4436,6 +4889,9 @@
       <c r="L60" t="s">
         <v>417</v>
       </c>
+      <c r="M60" s="13" t="s">
+        <v>546</v>
+      </c>
       <c r="N60" t="s">
         <v>259</v>
       </c>
@@ -4446,7 +4902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -4471,6 +4927,9 @@
       <c r="H61">
         <v>1</v>
       </c>
+      <c r="M61" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N61" t="s">
         <v>259</v>
       </c>
@@ -4481,7 +4940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -4512,6 +4971,9 @@
       <c r="L62" t="s">
         <v>238</v>
       </c>
+      <c r="M62" s="13" t="s">
+        <v>547</v>
+      </c>
       <c r="N62" t="s">
         <v>259</v>
       </c>
@@ -4522,7 +4984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -4553,6 +5015,9 @@
       <c r="L63" t="s">
         <v>239</v>
       </c>
+      <c r="M63" s="13" t="s">
+        <v>548</v>
+      </c>
       <c r="N63" t="s">
         <v>259</v>
       </c>
@@ -4563,7 +5028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -4594,6 +5059,9 @@
       <c r="L64" t="s">
         <v>241</v>
       </c>
+      <c r="M64" s="13" t="s">
+        <v>549</v>
+      </c>
       <c r="N64" t="s">
         <v>259</v>
       </c>
@@ -4604,7 +5072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -4641,6 +5109,9 @@
       <c r="L65" t="s">
         <v>244</v>
       </c>
+      <c r="M65" s="13" t="s">
+        <v>550</v>
+      </c>
       <c r="N65" t="s">
         <v>259</v>
       </c>
@@ -4651,7 +5122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -4685,6 +5156,9 @@
       <c r="L66" t="s">
         <v>247</v>
       </c>
+      <c r="M66" s="13" t="s">
+        <v>551</v>
+      </c>
       <c r="N66" t="s">
         <v>259</v>
       </c>
@@ -4695,7 +5169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -4726,6 +5200,9 @@
       <c r="L67" t="s">
         <v>248</v>
       </c>
+      <c r="M67" s="13" t="s">
+        <v>552</v>
+      </c>
       <c r="N67" t="s">
         <v>259</v>
       </c>
@@ -4736,7 +5213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -4767,6 +5244,9 @@
       <c r="L68" t="s">
         <v>250</v>
       </c>
+      <c r="M68" s="13" t="s">
+        <v>553</v>
+      </c>
       <c r="N68" t="s">
         <v>507</v>
       </c>
@@ -4777,7 +5257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -4805,6 +5285,9 @@
       <c r="L69" t="s">
         <v>251</v>
       </c>
+      <c r="M69" s="13" t="s">
+        <v>554</v>
+      </c>
       <c r="N69" t="s">
         <v>507</v>
       </c>
@@ -4815,7 +5298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -4849,6 +5332,9 @@
       <c r="L70" t="s">
         <v>254</v>
       </c>
+      <c r="M70" s="13" t="s">
+        <v>555</v>
+      </c>
       <c r="N70" t="s">
         <v>507</v>
       </c>
@@ -4859,7 +5345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -4887,6 +5373,9 @@
       <c r="L71" t="s">
         <v>255</v>
       </c>
+      <c r="M71" s="13" t="s">
+        <v>556</v>
+      </c>
       <c r="N71" t="s">
         <v>507</v>
       </c>
@@ -4897,7 +5386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -4931,6 +5420,9 @@
       <c r="L72" t="s">
         <v>258</v>
       </c>
+      <c r="M72" s="13" t="s">
+        <v>557</v>
+      </c>
       <c r="N72" t="s">
         <v>507</v>
       </c>
@@ -4941,7 +5433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -4966,6 +5458,9 @@
       <c r="H73">
         <v>1</v>
       </c>
+      <c r="M73" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N73" t="s">
         <v>507</v>
       </c>
@@ -4976,7 +5471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -5007,6 +5502,9 @@
       <c r="L74" t="s">
         <v>261</v>
       </c>
+      <c r="M74" s="13" t="s">
+        <v>558</v>
+      </c>
       <c r="N74" t="s">
         <v>507</v>
       </c>
@@ -5017,7 +5515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -5042,6 +5540,9 @@
       <c r="H75">
         <v>1</v>
       </c>
+      <c r="M75" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N75" t="s">
         <v>507</v>
       </c>
@@ -5052,7 +5553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -5077,6 +5578,9 @@
       <c r="H76">
         <v>1</v>
       </c>
+      <c r="M76" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N76" t="s">
         <v>507</v>
       </c>
@@ -5087,7 +5591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -5112,6 +5616,9 @@
       <c r="H77">
         <v>1</v>
       </c>
+      <c r="M77" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N77" t="s">
         <v>507</v>
       </c>
@@ -5122,7 +5629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -5159,6 +5666,9 @@
       <c r="L78" t="s">
         <v>265</v>
       </c>
+      <c r="M78" s="13" t="s">
+        <v>559</v>
+      </c>
       <c r="N78" t="s">
         <v>259</v>
       </c>
@@ -5169,7 +5679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
         <v>95</v>
       </c>
@@ -5200,6 +5710,9 @@
       <c r="L79" t="s">
         <v>267</v>
       </c>
+      <c r="M79" s="13" t="s">
+        <v>560</v>
+      </c>
       <c r="N79" t="s">
         <v>259</v>
       </c>
@@ -5210,7 +5723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -5244,6 +5757,9 @@
       <c r="L80" t="s">
         <v>270</v>
       </c>
+      <c r="M80" s="13" t="s">
+        <v>561</v>
+      </c>
       <c r="N80" t="s">
         <v>259</v>
       </c>
@@ -5254,7 +5770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -5279,6 +5795,9 @@
       <c r="H81">
         <v>1</v>
       </c>
+      <c r="M81" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N81" t="s">
         <v>259</v>
       </c>
@@ -5289,7 +5808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -5320,6 +5839,9 @@
       <c r="L82" t="s">
         <v>272</v>
       </c>
+      <c r="M82" s="13" t="s">
+        <v>562</v>
+      </c>
       <c r="N82" t="s">
         <v>259</v>
       </c>
@@ -5330,7 +5852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -5358,6 +5880,9 @@
       <c r="L83" t="s">
         <v>273</v>
       </c>
+      <c r="M83" s="13" t="s">
+        <v>563</v>
+      </c>
       <c r="N83" t="s">
         <v>259</v>
       </c>
@@ -5368,7 +5893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -5405,6 +5930,9 @@
       <c r="L84" t="s">
         <v>277</v>
       </c>
+      <c r="M84" s="13" t="s">
+        <v>564</v>
+      </c>
       <c r="N84" t="s">
         <v>259</v>
       </c>
@@ -5415,7 +5943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -5440,6 +5968,9 @@
       <c r="H85">
         <v>1</v>
       </c>
+      <c r="M85" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N85" t="s">
         <v>259</v>
       </c>
@@ -5450,7 +5981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -5484,6 +6015,9 @@
       <c r="L86" t="s">
         <v>280</v>
       </c>
+      <c r="M86" s="13" t="s">
+        <v>565</v>
+      </c>
       <c r="N86" t="s">
         <v>259</v>
       </c>
@@ -5494,7 +6028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -5519,6 +6053,9 @@
       <c r="H87">
         <v>1</v>
       </c>
+      <c r="M87" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N87" t="s">
         <v>259</v>
       </c>
@@ -5529,7 +6066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -5563,6 +6100,9 @@
       <c r="L88" t="s">
         <v>283</v>
       </c>
+      <c r="M88" s="13" t="s">
+        <v>566</v>
+      </c>
       <c r="N88" t="s">
         <v>259</v>
       </c>
@@ -5573,7 +6113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -5607,6 +6147,9 @@
       <c r="L89" t="s">
         <v>283</v>
       </c>
+      <c r="M89" s="13" t="s">
+        <v>567</v>
+      </c>
       <c r="N89" t="s">
         <v>259</v>
       </c>
@@ -5617,7 +6160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -5654,6 +6197,9 @@
       <c r="L90" t="s">
         <v>287</v>
       </c>
+      <c r="M90" s="13" t="s">
+        <v>568</v>
+      </c>
       <c r="N90" t="s">
         <v>259</v>
       </c>
@@ -5664,7 +6210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -5689,6 +6235,9 @@
       <c r="H91">
         <v>1</v>
       </c>
+      <c r="M91" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N91" t="s">
         <v>259</v>
       </c>
@@ -5699,7 +6248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -5733,6 +6282,9 @@
       <c r="L92" t="s">
         <v>290</v>
       </c>
+      <c r="M92" s="13" t="s">
+        <v>569</v>
+      </c>
       <c r="N92" t="s">
         <v>259</v>
       </c>
@@ -5743,7 +6295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -5768,6 +6320,9 @@
       <c r="H93">
         <v>1</v>
       </c>
+      <c r="M93" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N93" t="s">
         <v>259</v>
       </c>
@@ -5778,7 +6333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18">
       <c r="A94" t="s">
         <v>112</v>
       </c>
@@ -5815,6 +6370,9 @@
       <c r="L94" t="s">
         <v>294</v>
       </c>
+      <c r="M94" s="13" t="s">
+        <v>570</v>
+      </c>
       <c r="N94" t="s">
         <v>508</v>
       </c>
@@ -5825,7 +6383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -5850,6 +6408,9 @@
       <c r="H95">
         <v>7</v>
       </c>
+      <c r="M95" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N95" t="s">
         <v>508</v>
       </c>
@@ -5860,7 +6421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -5897,6 +6458,9 @@
       <c r="L96" t="s">
         <v>298</v>
       </c>
+      <c r="M96" s="13" t="s">
+        <v>571</v>
+      </c>
       <c r="N96" t="s">
         <v>508</v>
       </c>
@@ -5907,7 +6471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -5941,6 +6505,9 @@
       <c r="L97" t="s">
         <v>301</v>
       </c>
+      <c r="M97" s="13" t="s">
+        <v>572</v>
+      </c>
       <c r="N97" t="s">
         <v>508</v>
       </c>
@@ -5951,7 +6518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -5988,6 +6555,9 @@
       <c r="L98" t="s">
         <v>305</v>
       </c>
+      <c r="M98" s="13" t="s">
+        <v>573</v>
+      </c>
       <c r="N98" t="s">
         <v>508</v>
       </c>
@@ -5998,7 +6568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -6026,6 +6596,9 @@
       <c r="I99" t="s">
         <v>306</v>
       </c>
+      <c r="M99" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N99" t="s">
         <v>508</v>
       </c>
@@ -6036,7 +6609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18">
       <c r="A100" t="s">
         <v>112</v>
       </c>
@@ -6073,6 +6646,9 @@
       <c r="L100" t="s">
         <v>310</v>
       </c>
+      <c r="M100" s="13" t="s">
+        <v>574</v>
+      </c>
       <c r="N100" t="s">
         <v>508</v>
       </c>
@@ -6083,7 +6659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -6111,6 +6687,9 @@
       <c r="K101" t="s">
         <v>311</v>
       </c>
+      <c r="M101" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N101" t="s">
         <v>508</v>
       </c>
@@ -6121,7 +6700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -6146,6 +6725,9 @@
       <c r="H102">
         <v>7</v>
       </c>
+      <c r="M102" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N102" t="s">
         <v>508</v>
       </c>
@@ -6156,7 +6738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -6190,6 +6772,9 @@
       <c r="L103" t="s">
         <v>314</v>
       </c>
+      <c r="M103" s="13" t="s">
+        <v>575</v>
+      </c>
       <c r="N103" t="s">
         <v>508</v>
       </c>
@@ -6200,7 +6785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18">
       <c r="A104" t="s">
         <v>112</v>
       </c>
@@ -6237,6 +6822,9 @@
       <c r="L104" t="s">
         <v>318</v>
       </c>
+      <c r="M104" s="13" t="s">
+        <v>576</v>
+      </c>
       <c r="N104" t="s">
         <v>508</v>
       </c>
@@ -6247,7 +6835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18">
       <c r="A105" t="s">
         <v>112</v>
       </c>
@@ -6281,6 +6869,9 @@
       <c r="L105" t="s">
         <v>321</v>
       </c>
+      <c r="M105" s="13" t="s">
+        <v>577</v>
+      </c>
       <c r="N105" t="s">
         <v>508</v>
       </c>
@@ -6291,7 +6882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -6328,6 +6919,9 @@
       <c r="L106" t="s">
         <v>325</v>
       </c>
+      <c r="M106" s="13" t="s">
+        <v>578</v>
+      </c>
       <c r="N106" t="s">
         <v>508</v>
       </c>
@@ -6338,7 +6932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -6363,6 +6957,9 @@
       <c r="H107">
         <v>7</v>
       </c>
+      <c r="M107" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N107" t="s">
         <v>508</v>
       </c>
@@ -6373,7 +6970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -6407,6 +7004,9 @@
       <c r="L108" t="s">
         <v>328</v>
       </c>
+      <c r="M108" s="13" t="s">
+        <v>579</v>
+      </c>
       <c r="N108" t="s">
         <v>508</v>
       </c>
@@ -6417,7 +7017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -6445,6 +7045,9 @@
       <c r="I109" t="s">
         <v>329</v>
       </c>
+      <c r="M109" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N109" t="s">
         <v>508</v>
       </c>
@@ -6455,7 +7058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -6489,6 +7092,9 @@
       <c r="L110" t="s">
         <v>332</v>
       </c>
+      <c r="M110" s="13" t="s">
+        <v>580</v>
+      </c>
       <c r="N110" t="s">
         <v>508</v>
       </c>
@@ -6499,7 +7105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -6536,6 +7142,9 @@
       <c r="L111" t="s">
         <v>336</v>
       </c>
+      <c r="M111" s="13" t="s">
+        <v>581</v>
+      </c>
       <c r="N111" t="s">
         <v>508</v>
       </c>
@@ -6546,7 +7155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -6577,6 +7186,9 @@
       <c r="K112" t="s">
         <v>338</v>
       </c>
+      <c r="M112" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N112" t="s">
         <v>508</v>
       </c>
@@ -6587,7 +7199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -6612,6 +7224,9 @@
       <c r="H113">
         <v>7</v>
       </c>
+      <c r="M113" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N113" t="s">
         <v>508</v>
       </c>
@@ -6622,7 +7237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -6653,6 +7268,9 @@
       <c r="L114" t="s">
         <v>340</v>
       </c>
+      <c r="M114" s="13" t="s">
+        <v>582</v>
+      </c>
       <c r="N114" t="s">
         <v>508</v>
       </c>
@@ -6663,7 +7281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -6691,6 +7309,9 @@
       <c r="I115" t="s">
         <v>341</v>
       </c>
+      <c r="M115" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N115" t="s">
         <v>508</v>
       </c>
@@ -6701,7 +7322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18">
       <c r="A116" t="s">
         <v>112</v>
       </c>
@@ -6735,6 +7356,9 @@
       <c r="L116" t="s">
         <v>344</v>
       </c>
+      <c r="M116" s="13" t="s">
+        <v>583</v>
+      </c>
       <c r="N116" t="s">
         <v>508</v>
       </c>
@@ -6745,7 +7369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18">
       <c r="A117" t="s">
         <v>112</v>
       </c>
@@ -6770,6 +7394,9 @@
       <c r="H117">
         <v>7</v>
       </c>
+      <c r="M117" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N117" t="s">
         <v>508</v>
       </c>
@@ -6780,7 +7407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -6817,6 +7444,9 @@
       <c r="L118" t="s">
         <v>348</v>
       </c>
+      <c r="M118" s="13" t="s">
+        <v>584</v>
+      </c>
       <c r="N118" t="s">
         <v>508</v>
       </c>
@@ -6827,7 +7457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18">
       <c r="A119" t="s">
         <v>112</v>
       </c>
@@ -6852,6 +7482,9 @@
       <c r="H119">
         <v>7</v>
       </c>
+      <c r="M119" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N119" t="s">
         <v>508</v>
       </c>
@@ -6862,7 +7495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18">
       <c r="A120" t="s">
         <v>112</v>
       </c>
@@ -6896,6 +7529,9 @@
       <c r="L120" t="s">
         <v>351</v>
       </c>
+      <c r="M120" s="13" t="s">
+        <v>585</v>
+      </c>
       <c r="N120" t="s">
         <v>508</v>
       </c>
@@ -6906,7 +7542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18">
       <c r="A121" t="s">
         <v>112</v>
       </c>
@@ -6940,6 +7576,9 @@
       <c r="L121" t="s">
         <v>354</v>
       </c>
+      <c r="M121" s="13" t="s">
+        <v>586</v>
+      </c>
       <c r="N121" t="s">
         <v>508</v>
       </c>
@@ -6950,7 +7589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -6984,6 +7623,9 @@
       <c r="L122" t="s">
         <v>420</v>
       </c>
+      <c r="M122" s="13" t="s">
+        <v>587</v>
+      </c>
       <c r="N122" t="s">
         <v>508</v>
       </c>
@@ -6994,7 +7636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18">
       <c r="A123" t="s">
         <v>112</v>
       </c>
@@ -7028,6 +7670,9 @@
       <c r="L123" t="s">
         <v>423</v>
       </c>
+      <c r="M123" s="13" t="s">
+        <v>588</v>
+      </c>
       <c r="N123" t="s">
         <v>508</v>
       </c>
@@ -7038,7 +7683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18">
       <c r="A124" t="s">
         <v>112</v>
       </c>
@@ -7075,6 +7720,9 @@
       <c r="L124" t="s">
         <v>427</v>
       </c>
+      <c r="M124" s="13" t="s">
+        <v>589</v>
+      </c>
       <c r="N124" t="s">
         <v>508</v>
       </c>
@@ -7085,7 +7733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18">
       <c r="A125" t="s">
         <v>112</v>
       </c>
@@ -7110,6 +7758,9 @@
       <c r="H125">
         <v>7</v>
       </c>
+      <c r="M125" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N125" t="s">
         <v>508</v>
       </c>
@@ -7120,7 +7771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18">
       <c r="A126" t="s">
         <v>112</v>
       </c>
@@ -7151,6 +7802,9 @@
       <c r="L126" t="s">
         <v>429</v>
       </c>
+      <c r="M126" s="13" t="s">
+        <v>590</v>
+      </c>
       <c r="N126" t="s">
         <v>508</v>
       </c>
@@ -7161,7 +7815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18">
       <c r="A127" t="s">
         <v>112</v>
       </c>
@@ -7195,6 +7849,9 @@
       <c r="L127" t="s">
         <v>432</v>
       </c>
+      <c r="M127" s="13" t="s">
+        <v>591</v>
+      </c>
       <c r="N127" t="s">
         <v>508</v>
       </c>
@@ -7205,7 +7862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18">
       <c r="A128" t="s">
         <v>112</v>
       </c>
@@ -7242,6 +7899,9 @@
       <c r="L128" t="s">
         <v>436</v>
       </c>
+      <c r="M128" s="13" t="s">
+        <v>592</v>
+      </c>
       <c r="N128" t="s">
         <v>508</v>
       </c>
@@ -7252,7 +7912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18">
       <c r="A129" t="s">
         <v>112</v>
       </c>
@@ -7277,6 +7937,9 @@
       <c r="H129">
         <v>7</v>
       </c>
+      <c r="M129" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N129" t="s">
         <v>508</v>
       </c>
@@ -7287,7 +7950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18">
       <c r="A130" t="s">
         <v>112</v>
       </c>
@@ -7324,6 +7987,9 @@
       <c r="L130" t="s">
         <v>440</v>
       </c>
+      <c r="M130" s="13" t="s">
+        <v>593</v>
+      </c>
       <c r="N130" t="s">
         <v>508</v>
       </c>
@@ -7334,7 +8000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18">
       <c r="A131" t="s">
         <v>112</v>
       </c>
@@ -7368,6 +8034,9 @@
       <c r="L131" t="s">
         <v>443</v>
       </c>
+      <c r="M131" s="13" t="s">
+        <v>594</v>
+      </c>
       <c r="N131" t="s">
         <v>508</v>
       </c>
@@ -7378,7 +8047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18">
       <c r="A132" t="s">
         <v>112</v>
       </c>
@@ -7409,6 +8078,9 @@
       <c r="L132" t="s">
         <v>445</v>
       </c>
+      <c r="M132" s="13" t="s">
+        <v>595</v>
+      </c>
       <c r="N132" t="s">
         <v>508</v>
       </c>
@@ -7419,7 +8091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18">
       <c r="A133" t="s">
         <v>112</v>
       </c>
@@ -7444,6 +8116,9 @@
       <c r="H133">
         <v>7</v>
       </c>
+      <c r="M133" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N133" t="s">
         <v>508</v>
       </c>
@@ -7454,7 +8129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18">
       <c r="A134" t="s">
         <v>112</v>
       </c>
@@ -7479,6 +8154,9 @@
       <c r="H134">
         <v>7</v>
       </c>
+      <c r="M134" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N134" t="s">
         <v>508</v>
       </c>
@@ -7489,7 +8167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18">
       <c r="A135" t="s">
         <v>112</v>
       </c>
@@ -7514,6 +8192,9 @@
       <c r="H135">
         <v>7</v>
       </c>
+      <c r="M135" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N135" t="s">
         <v>508</v>
       </c>
@@ -7524,7 +8205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18">
       <c r="A136" t="s">
         <v>112</v>
       </c>
@@ -7558,6 +8239,9 @@
       <c r="L136" t="s">
         <v>448</v>
       </c>
+      <c r="M136" s="13" t="s">
+        <v>596</v>
+      </c>
       <c r="N136" t="s">
         <v>508</v>
       </c>
@@ -7568,7 +8252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18">
       <c r="A137" t="s">
         <v>112</v>
       </c>
@@ -7593,6 +8277,9 @@
       <c r="H137">
         <v>7</v>
       </c>
+      <c r="M137" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N137" t="s">
         <v>508</v>
       </c>
@@ -7603,7 +8290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18">
       <c r="A138" t="s">
         <v>112</v>
       </c>
@@ -7634,6 +8321,9 @@
       <c r="L138" t="s">
         <v>450</v>
       </c>
+      <c r="M138" s="13" t="s">
+        <v>597</v>
+      </c>
       <c r="N138" t="s">
         <v>508</v>
       </c>
@@ -7644,7 +8334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18">
       <c r="A139" t="s">
         <v>112</v>
       </c>
@@ -7669,6 +8359,9 @@
       <c r="H139">
         <v>7</v>
       </c>
+      <c r="M139" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N139" t="s">
         <v>508</v>
       </c>
@@ -7679,7 +8372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18">
       <c r="A140" t="s">
         <v>112</v>
       </c>
@@ -7707,6 +8400,9 @@
       <c r="K140" t="s">
         <v>451</v>
       </c>
+      <c r="M140" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N140" t="s">
         <v>508</v>
       </c>
@@ -7717,7 +8413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18">
       <c r="A141" t="s">
         <v>112</v>
       </c>
@@ -7745,6 +8441,9 @@
       <c r="I141" t="s">
         <v>452</v>
       </c>
+      <c r="M141" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N141" t="s">
         <v>508</v>
       </c>
@@ -7755,7 +8454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18">
       <c r="A142" t="s">
         <v>112</v>
       </c>
@@ -7780,6 +8479,9 @@
       <c r="H142">
         <v>7</v>
       </c>
+      <c r="M142" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N142" t="s">
         <v>508</v>
       </c>
@@ -7790,7 +8492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18">
       <c r="A143" t="s">
         <v>112</v>
       </c>
@@ -7821,6 +8523,9 @@
       <c r="L143" t="s">
         <v>454</v>
       </c>
+      <c r="M143" s="13" t="s">
+        <v>598</v>
+      </c>
       <c r="N143" t="s">
         <v>508</v>
       </c>
@@ -7831,7 +8536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18">
       <c r="A144" t="s">
         <v>112</v>
       </c>
@@ -7856,6 +8561,9 @@
       <c r="H144">
         <v>7</v>
       </c>
+      <c r="M144" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N144" t="s">
         <v>508</v>
       </c>
@@ -7866,7 +8574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18">
       <c r="A145" t="s">
         <v>112</v>
       </c>
@@ -7891,6 +8599,9 @@
       <c r="H145">
         <v>7</v>
       </c>
+      <c r="M145" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N145" t="s">
         <v>508</v>
       </c>
@@ -7901,7 +8612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18">
       <c r="A146" t="s">
         <v>112</v>
       </c>
@@ -7932,6 +8643,9 @@
       <c r="L146" t="s">
         <v>456</v>
       </c>
+      <c r="M146" s="13" t="s">
+        <v>599</v>
+      </c>
       <c r="N146" t="s">
         <v>508</v>
       </c>
@@ -7942,7 +8656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18">
       <c r="A147" t="s">
         <v>112</v>
       </c>
@@ -7973,6 +8687,9 @@
       <c r="L147" t="s">
         <v>458</v>
       </c>
+      <c r="M147" s="13" t="s">
+        <v>600</v>
+      </c>
       <c r="N147" t="s">
         <v>508</v>
       </c>
@@ -7983,7 +8700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18">
       <c r="A148" t="s">
         <v>112</v>
       </c>
@@ -8014,6 +8731,9 @@
       <c r="L148" t="s">
         <v>460</v>
       </c>
+      <c r="M148" s="13" t="s">
+        <v>601</v>
+      </c>
       <c r="N148" t="s">
         <v>508</v>
       </c>
@@ -8024,7 +8744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18">
       <c r="A149" t="s">
         <v>112</v>
       </c>
@@ -8052,6 +8772,9 @@
       <c r="K149" t="s">
         <v>461</v>
       </c>
+      <c r="M149" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N149" t="s">
         <v>508</v>
       </c>
@@ -8062,7 +8785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18">
       <c r="A150" t="s">
         <v>112</v>
       </c>
@@ -8096,6 +8819,9 @@
       <c r="L150" t="s">
         <v>464</v>
       </c>
+      <c r="M150" s="13" t="s">
+        <v>602</v>
+      </c>
       <c r="N150" t="s">
         <v>508</v>
       </c>
@@ -8106,7 +8832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18">
       <c r="A151" t="s">
         <v>112</v>
       </c>
@@ -8131,6 +8857,9 @@
       <c r="H151">
         <v>7</v>
       </c>
+      <c r="M151" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N151" t="s">
         <v>508</v>
       </c>
@@ -8141,7 +8870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18">
       <c r="A152" t="s">
         <v>112</v>
       </c>
@@ -8169,6 +8898,9 @@
       <c r="K152" t="s">
         <v>465</v>
       </c>
+      <c r="M152" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N152" t="s">
         <v>508</v>
       </c>
@@ -8179,7 +8911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18">
       <c r="A153" t="s">
         <v>112</v>
       </c>
@@ -8207,6 +8939,9 @@
       <c r="I153" t="s">
         <v>466</v>
       </c>
+      <c r="M153" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N153" t="s">
         <v>508</v>
       </c>
@@ -8217,7 +8952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18">
       <c r="A154" t="s">
         <v>112</v>
       </c>
@@ -8248,6 +8983,9 @@
       <c r="L154" t="s">
         <v>468</v>
       </c>
+      <c r="M154" s="13" t="s">
+        <v>603</v>
+      </c>
       <c r="N154" t="s">
         <v>508</v>
       </c>
@@ -8258,7 +8996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18">
       <c r="A155" t="s">
         <v>112</v>
       </c>
@@ -8283,6 +9021,9 @@
       <c r="H155">
         <v>7</v>
       </c>
+      <c r="M155" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N155" t="s">
         <v>508</v>
       </c>
@@ -8293,7 +9034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18">
       <c r="A156" t="s">
         <v>112</v>
       </c>
@@ -8327,6 +9068,9 @@
       <c r="L156" t="s">
         <v>471</v>
       </c>
+      <c r="M156" s="13" t="s">
+        <v>604</v>
+      </c>
       <c r="N156" t="s">
         <v>508</v>
       </c>
@@ -8337,7 +9081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18">
       <c r="A157" t="s">
         <v>112</v>
       </c>
@@ -8371,6 +9115,9 @@
       <c r="L157" t="s">
         <v>474</v>
       </c>
+      <c r="M157" s="13" t="s">
+        <v>605</v>
+      </c>
       <c r="N157" t="s">
         <v>508</v>
       </c>
@@ -8381,7 +9128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18">
       <c r="A158" t="s">
         <v>112</v>
       </c>
@@ -8412,6 +9159,9 @@
       <c r="L158" t="s">
         <v>476</v>
       </c>
+      <c r="M158" s="13" t="s">
+        <v>606</v>
+      </c>
       <c r="N158" t="s">
         <v>508</v>
       </c>
@@ -8422,7 +9172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18">
       <c r="A159" t="s">
         <v>112</v>
       </c>
@@ -8447,6 +9197,9 @@
       <c r="H159">
         <v>7</v>
       </c>
+      <c r="M159" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N159" t="s">
         <v>508</v>
       </c>
@@ -8457,7 +9210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18">
       <c r="A160" t="s">
         <v>112</v>
       </c>
@@ -8488,6 +9241,9 @@
       <c r="L160" t="s">
         <v>478</v>
       </c>
+      <c r="M160" s="13" t="s">
+        <v>607</v>
+      </c>
       <c r="N160" t="s">
         <v>508</v>
       </c>
@@ -8498,7 +9254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18">
       <c r="A161" t="s">
         <v>112</v>
       </c>
@@ -8529,6 +9285,9 @@
       <c r="L161" t="s">
         <v>480</v>
       </c>
+      <c r="M161" s="13" t="s">
+        <v>608</v>
+      </c>
       <c r="N161" t="s">
         <v>508</v>
       </c>
@@ -8539,7 +9298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18">
       <c r="A162" t="s">
         <v>112</v>
       </c>
@@ -8567,6 +9326,9 @@
       <c r="K162" t="s">
         <v>481</v>
       </c>
+      <c r="M162" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N162" t="s">
         <v>508</v>
       </c>
@@ -8577,7 +9339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18">
       <c r="A163" t="s">
         <v>112</v>
       </c>
@@ -8605,6 +9367,9 @@
       <c r="I163" t="s">
         <v>482</v>
       </c>
+      <c r="M163" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N163" t="s">
         <v>508</v>
       </c>
@@ -8615,7 +9380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18">
       <c r="A164" t="s">
         <v>112</v>
       </c>
@@ -8640,6 +9405,9 @@
       <c r="H164">
         <v>7</v>
       </c>
+      <c r="M164" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N164" t="s">
         <v>508</v>
       </c>
@@ -8650,7 +9418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18">
       <c r="A165" t="s">
         <v>112</v>
       </c>
@@ -8684,6 +9452,9 @@
       <c r="L165" t="s">
         <v>485</v>
       </c>
+      <c r="M165" s="13" t="s">
+        <v>609</v>
+      </c>
       <c r="N165" t="s">
         <v>508</v>
       </c>
@@ -8694,7 +9465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18">
       <c r="A166" t="s">
         <v>190</v>
       </c>
@@ -8728,6 +9499,9 @@
       <c r="L166" t="s">
         <v>488</v>
       </c>
+      <c r="M166" s="13" t="s">
+        <v>610</v>
+      </c>
       <c r="N166" s="9" t="s">
         <v>489</v>
       </c>
@@ -8738,7 +9512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18">
       <c r="A167" t="s">
         <v>190</v>
       </c>
@@ -8763,6 +9537,9 @@
       <c r="H167">
         <v>1</v>
       </c>
+      <c r="M167" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N167" s="9" t="s">
         <v>489</v>
       </c>
@@ -8773,7 +9550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18">
       <c r="A168" t="s">
         <v>190</v>
       </c>
@@ -8804,6 +9581,9 @@
       <c r="L168" t="s">
         <v>491</v>
       </c>
+      <c r="M168" s="13" t="s">
+        <v>611</v>
+      </c>
       <c r="N168" s="9" t="s">
         <v>489</v>
       </c>
@@ -8814,7 +9594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18">
       <c r="A169" t="s">
         <v>190</v>
       </c>
@@ -8839,6 +9619,9 @@
       <c r="H169">
         <v>1</v>
       </c>
+      <c r="M169" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N169" s="9" t="s">
         <v>489</v>
       </c>
@@ -8849,7 +9632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -8880,6 +9663,9 @@
       <c r="L170" t="s">
         <v>493</v>
       </c>
+      <c r="M170" s="13" t="s">
+        <v>612</v>
+      </c>
       <c r="N170" s="9" t="s">
         <v>489</v>
       </c>
@@ -8890,7 +9676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18">
       <c r="A171" t="s">
         <v>190</v>
       </c>
@@ -8918,6 +9704,9 @@
       <c r="L171" t="s">
         <v>494</v>
       </c>
+      <c r="M171" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="N171" s="9" t="s">
         <v>489</v>
       </c>
@@ -8928,7 +9717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18">
       <c r="A172" t="s">
         <v>190</v>
       </c>
@@ -8953,6 +9742,9 @@
       <c r="H172">
         <v>1</v>
       </c>
+      <c r="M172" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N172" s="9" t="s">
         <v>489</v>
       </c>
@@ -8963,7 +9755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18">
       <c r="A173" t="s">
         <v>190</v>
       </c>
@@ -8988,6 +9780,9 @@
       <c r="H173">
         <v>1</v>
       </c>
+      <c r="M173" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N173" s="9" t="s">
         <v>489</v>
       </c>
@@ -8998,7 +9793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18">
       <c r="A174" t="s">
         <v>199</v>
       </c>
@@ -9023,6 +9818,9 @@
       <c r="H174">
         <v>1</v>
       </c>
+      <c r="M174" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N174" t="s">
         <v>509</v>
       </c>
@@ -9033,7 +9831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18">
       <c r="A175" t="s">
         <v>199</v>
       </c>
@@ -9058,6 +9856,9 @@
       <c r="H175">
         <v>1</v>
       </c>
+      <c r="M175" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N175" t="s">
         <v>509</v>
       </c>
@@ -9068,7 +9869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18">
       <c r="A176" t="s">
         <v>199</v>
       </c>
@@ -9102,6 +9903,9 @@
       <c r="L176" t="s">
         <v>497</v>
       </c>
+      <c r="M176" s="13" t="s">
+        <v>614</v>
+      </c>
       <c r="N176" t="s">
         <v>509</v>
       </c>
@@ -9112,7 +9916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18">
       <c r="A177" t="s">
         <v>199</v>
       </c>
@@ -9137,6 +9941,9 @@
       <c r="H177">
         <v>1</v>
       </c>
+      <c r="M177" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N177" t="s">
         <v>509</v>
       </c>
@@ -9147,7 +9954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18">
       <c r="A178" t="s">
         <v>199</v>
       </c>
@@ -9178,6 +9985,9 @@
       <c r="L178" t="s">
         <v>499</v>
       </c>
+      <c r="M178" s="13" t="s">
+        <v>615</v>
+      </c>
       <c r="N178" t="s">
         <v>509</v>
       </c>
@@ -9188,7 +9998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18">
       <c r="A179" t="s">
         <v>199</v>
       </c>
@@ -9213,6 +10023,9 @@
       <c r="H179">
         <v>1</v>
       </c>
+      <c r="M179" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N179" t="s">
         <v>509</v>
       </c>
@@ -9223,7 +10036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18">
       <c r="A180" t="s">
         <v>199</v>
       </c>
@@ -9260,6 +10073,9 @@
       <c r="L180" t="s">
         <v>503</v>
       </c>
+      <c r="M180" s="13" t="s">
+        <v>616</v>
+      </c>
       <c r="N180" t="s">
         <v>509</v>
       </c>
@@ -9270,7 +10086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18">
       <c r="A181" t="s">
         <v>199</v>
       </c>
@@ -9298,6 +10114,9 @@
       <c r="L181" t="s">
         <v>504</v>
       </c>
+      <c r="M181" s="13" t="s">
+        <v>617</v>
+      </c>
       <c r="N181" t="s">
         <v>509</v>
       </c>
@@ -9308,7 +10127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18">
       <c r="A182" t="s">
         <v>209</v>
       </c>
@@ -9336,6 +10155,9 @@
       <c r="L182" t="s">
         <v>505</v>
       </c>
+      <c r="M182" s="13" t="s">
+        <v>618</v>
+      </c>
       <c r="N182" t="s">
         <v>259</v>
       </c>
@@ -9346,7 +10168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18">
       <c r="A183" t="s">
         <v>209</v>
       </c>
@@ -9371,6 +10193,9 @@
       <c r="H183">
         <v>1</v>
       </c>
+      <c r="M183" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N183" t="s">
         <v>259</v>
       </c>
@@ -9381,7 +10206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18">
       <c r="A184" t="s">
         <v>57</v>
       </c>
@@ -9406,6 +10231,9 @@
       <c r="H184">
         <v>1</v>
       </c>
+      <c r="M184" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N184" t="s">
         <v>259</v>
       </c>
@@ -9416,7 +10244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18">
       <c r="A185" t="s">
         <v>57</v>
       </c>
@@ -9441,6 +10269,9 @@
       <c r="H185">
         <v>1</v>
       </c>
+      <c r="M185" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N185" t="s">
         <v>259</v>
       </c>
@@ -9451,7 +10282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18">
       <c r="A186" t="s">
         <v>112</v>
       </c>
@@ -9476,6 +10307,9 @@
       <c r="H186">
         <v>7</v>
       </c>
+      <c r="M186" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N186" t="s">
         <v>508</v>
       </c>
@@ -9486,7 +10320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18">
       <c r="A187" t="s">
         <v>112</v>
       </c>
@@ -9511,6 +10345,9 @@
       <c r="H187">
         <v>7</v>
       </c>
+      <c r="M187" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N187" t="s">
         <v>508</v>
       </c>
@@ -9521,7 +10358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18">
       <c r="A188" t="s">
         <v>112</v>
       </c>
@@ -9546,6 +10383,9 @@
       <c r="H188">
         <v>7</v>
       </c>
+      <c r="M188" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N188" t="s">
         <v>508</v>
       </c>
@@ -9556,7 +10396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18">
       <c r="A189" t="s">
         <v>112</v>
       </c>
@@ -9581,6 +10421,9 @@
       <c r="H189">
         <v>7</v>
       </c>
+      <c r="M189" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N189" t="s">
         <v>508</v>
       </c>
@@ -9591,7 +10434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18">
       <c r="A190" t="s">
         <v>112</v>
       </c>
@@ -9616,6 +10459,9 @@
       <c r="H190">
         <v>7</v>
       </c>
+      <c r="M190" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N190" t="s">
         <v>508</v>
       </c>
@@ -9626,7 +10472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18">
       <c r="A191" t="s">
         <v>112</v>
       </c>
@@ -9651,6 +10497,9 @@
       <c r="H191">
         <v>7</v>
       </c>
+      <c r="M191" s="13" t="s">
+        <v>619</v>
+      </c>
       <c r="N191" t="s">
         <v>508</v>
       </c>
@@ -9661,7 +10510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18">
       <c r="Q192" s="6" t="s">
         <v>228</v>
       </c>
@@ -9669,7 +10518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="17:18">
       <c r="Q193" s="6" t="s">
         <v>228</v>
       </c>
@@ -9677,7 +10526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="17:18">
       <c r="Q194" s="6" t="s">
         <v>228</v>
       </c>
@@ -9685,7 +10534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="17:18">
       <c r="Q195" s="6" t="s">
         <v>228</v>
       </c>
@@ -9693,7 +10542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="17:18">
       <c r="Q196" s="6" t="s">
         <v>228</v>
       </c>
@@ -9701,7 +10550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="17:18">
       <c r="Q197" s="6" t="s">
         <v>228</v>
       </c>
@@ -9709,7 +10558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="17:18">
       <c r="Q198" s="6" t="s">
         <v>228</v>
       </c>
@@ -9717,7 +10566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="17:18">
       <c r="Q199" s="6" t="s">
         <v>228</v>
       </c>
@@ -9725,7 +10574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="17:18">
       <c r="Q200" s="6" t="s">
         <v>228</v>
       </c>
@@ -9733,7 +10582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="17:18">
       <c r="Q201" s="6" t="s">
         <v>228</v>
       </c>
@@ -9741,7 +10590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="17:18">
       <c r="Q202" s="6" t="s">
         <v>228</v>
       </c>
@@ -9749,7 +10598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="17:18">
       <c r="Q203" s="6" t="s">
         <v>228</v>
       </c>
@@ -9757,7 +10606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="17:18">
       <c r="Q204" s="6" t="s">
         <v>228</v>
       </c>
@@ -9765,7 +10614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="17:18">
       <c r="Q205" s="6" t="s">
         <v>228</v>
       </c>
@@ -9773,7 +10622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="17:18">
       <c r="Q206" s="6" t="s">
         <v>228</v>
       </c>
@@ -9781,7 +10630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="17:18">
       <c r="Q207" s="6" t="s">
         <v>228</v>
       </c>
@@ -9789,7 +10638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="17:18">
       <c r="Q208" s="6" t="s">
         <v>229</v>
       </c>
@@ -9797,7 +10646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="17:18">
       <c r="Q209" s="6" t="s">
         <v>229</v>
       </c>
@@ -9805,7 +10654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="17:18">
       <c r="Q210" s="6" t="s">
         <v>229</v>
       </c>
@@ -9813,7 +10662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="17:18">
       <c r="Q211" s="6" t="s">
         <v>229</v>
       </c>
@@ -9821,7 +10670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="17:18">
       <c r="Q212" s="6" t="s">
         <v>229</v>
       </c>
@@ -9829,7 +10678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="17:18">
       <c r="Q213" s="6" t="s">
         <v>229</v>
       </c>
@@ -9837,7 +10686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="17:18">
       <c r="Q214" s="6" t="s">
         <v>229</v>
       </c>
@@ -9845,7 +10694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="17:18">
       <c r="Q215" s="6" t="s">
         <v>229</v>
       </c>
@@ -9853,7 +10702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="17:18">
       <c r="Q216" s="6" t="s">
         <v>229</v>
       </c>
@@ -9861,7 +10710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="17:18">
       <c r="Q217" s="6" t="s">
         <v>229</v>
       </c>
@@ -9869,7 +10718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="17:18">
       <c r="Q218" s="6" t="s">
         <v>229</v>
       </c>
@@ -9877,7 +10726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="17:18">
       <c r="Q219" s="6" t="s">
         <v>229</v>
       </c>
@@ -9885,7 +10734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="17:18">
       <c r="Q220" s="6" t="s">
         <v>229</v>
       </c>
@@ -9893,7 +10742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="17:18">
       <c r="Q221" s="6" t="s">
         <v>229</v>
       </c>
@@ -9901,7 +10750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="17:18">
       <c r="Q222" s="6" t="s">
         <v>229</v>
       </c>
@@ -9909,7 +10758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="17:18">
       <c r="Q223" s="6" t="s">
         <v>229</v>
       </c>
@@ -9917,7 +10766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="17:18">
       <c r="Q224" s="6" t="s">
         <v>229</v>
       </c>
@@ -9925,7 +10774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="17:18">
       <c r="Q225" s="6" t="s">
         <v>229</v>
       </c>
@@ -9933,7 +10782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="17:18">
       <c r="Q226" s="6" t="s">
         <v>229</v>
       </c>
@@ -9941,7 +10790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="17:18">
       <c r="Q227" s="6" t="s">
         <v>229</v>
       </c>
@@ -9949,7 +10798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="17:18">
       <c r="Q228" s="6" t="s">
         <v>229</v>
       </c>
@@ -9957,7 +10806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="17:18">
       <c r="Q229" s="6" t="s">
         <v>229</v>
       </c>
@@ -9965,7 +10814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="17:18">
       <c r="Q230" s="6" t="s">
         <v>229</v>
       </c>
@@ -9973,7 +10822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="17:18">
       <c r="Q231" s="6" t="s">
         <v>229</v>
       </c>
@@ -9981,7 +10830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="17:18">
       <c r="Q232" s="6" t="s">
         <v>229</v>
       </c>
@@ -9989,7 +10838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="17:18">
       <c r="Q233" s="6" t="s">
         <v>229</v>
       </c>
@@ -9997,7 +10846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="17:18">
       <c r="Q234" s="6" t="s">
         <v>229</v>
       </c>
@@ -10005,7 +10854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="17:18">
       <c r="Q235" s="6" t="s">
         <v>229</v>
       </c>
@@ -10013,7 +10862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="17:18">
       <c r="Q236" s="6" t="s">
         <v>229</v>
       </c>
@@ -10021,7 +10870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="17:18">
       <c r="Q237" s="6" t="s">
         <v>229</v>
       </c>
@@ -10029,7 +10878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="17:18">
       <c r="Q238" s="6" t="s">
         <v>230</v>
       </c>
@@ -10037,7 +10886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="17:18">
       <c r="Q239" s="6" t="s">
         <v>230</v>
       </c>
@@ -10045,7 +10894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="17:18">
       <c r="Q240" s="6" t="s">
         <v>230</v>
       </c>
@@ -10053,7 +10902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="17:18">
       <c r="Q241" s="6" t="s">
         <v>230</v>
       </c>
@@ -10061,7 +10910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="17:18">
       <c r="Q242" s="6" t="s">
         <v>230</v>
       </c>
@@ -10069,7 +10918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="17:18">
       <c r="Q243" s="6" t="s">
         <v>230</v>
       </c>
@@ -10077,7 +10926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="17:18">
       <c r="Q244" s="6" t="s">
         <v>230</v>
       </c>
@@ -10085,7 +10934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="17:18">
       <c r="Q245" s="6" t="s">
         <v>230</v>
       </c>
@@ -10093,7 +10942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="17:18">
       <c r="Q246" s="6" t="s">
         <v>230</v>
       </c>
@@ -10101,7 +10950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="17:18">
       <c r="Q247" s="6" t="s">
         <v>230</v>
       </c>
@@ -10109,7 +10958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="17:18">
       <c r="Q248" s="6" t="s">
         <v>231</v>
       </c>
@@ -10117,7 +10966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="17:18">
       <c r="Q249" s="6" t="s">
         <v>231</v>
       </c>
@@ -10125,7 +10974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="17:18">
       <c r="Q250" s="6" t="s">
         <v>231</v>
       </c>
@@ -10133,7 +10982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="17:18">
       <c r="Q251" s="6" t="s">
         <v>231</v>
       </c>
@@ -10141,7 +10990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="252" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="17:18">
       <c r="Q252" s="6" t="s">
         <v>231</v>
       </c>
@@ -10149,7 +10998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="17:18">
       <c r="Q253" s="6" t="s">
         <v>231</v>
       </c>
@@ -10157,7 +11006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="17:18">
       <c r="Q254" s="6" t="s">
         <v>231</v>
       </c>
@@ -10165,7 +11014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="17:18">
       <c r="Q255" s="6" t="s">
         <v>231</v>
       </c>
@@ -10173,7 +11022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="17:18">
       <c r="Q256" s="6" t="s">
         <v>231</v>
       </c>
@@ -10181,7 +11030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="17:18">
       <c r="Q257" s="6" t="s">
         <v>231</v>
       </c>
@@ -10189,7 +11038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="17:18">
       <c r="Q258" s="6" t="s">
         <v>232</v>
       </c>
@@ -10197,7 +11046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="17:18">
       <c r="Q259" s="6" t="s">
         <v>232</v>
       </c>
@@ -10205,7 +11054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="17:18">
       <c r="Q260" s="6" t="s">
         <v>232</v>
       </c>
@@ -10213,7 +11062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="17:18">
       <c r="Q261" s="6" t="s">
         <v>232</v>
       </c>
@@ -10221,7 +11070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="17:18">
       <c r="Q262" s="6" t="s">
         <v>232</v>
       </c>
@@ -10229,7 +11078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="17:18">
       <c r="Q263" s="6" t="s">
         <v>232</v>
       </c>
@@ -10237,7 +11086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="17:18">
       <c r="Q264" s="6" t="s">
         <v>232</v>
       </c>
@@ -10245,7 +11094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="17:18">
       <c r="Q265" s="6" t="s">
         <v>232</v>
       </c>
@@ -10253,7 +11102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="17:18">
       <c r="Q266" s="6" t="s">
         <v>232</v>
       </c>
@@ -10261,7 +11110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="17:18">
       <c r="Q267" s="6" t="s">
         <v>232</v>
       </c>
@@ -10269,7 +11118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="17:18">
       <c r="Q268" s="6" t="s">
         <v>232</v>
       </c>
@@ -10277,7 +11126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="17:18">
       <c r="Q269" s="6" t="s">
         <v>232</v>
       </c>
@@ -10285,7 +11134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="17:18">
       <c r="Q270" s="6" t="s">
         <v>232</v>
       </c>
@@ -10293,7 +11142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="17:18">
       <c r="Q271" s="6" t="s">
         <v>232</v>
       </c>
@@ -10301,7 +11150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="17:18">
       <c r="Q272" s="6" t="s">
         <v>232</v>
       </c>
@@ -10309,7 +11158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="17:18">
       <c r="Q273" s="6" t="s">
         <v>232</v>
       </c>
@@ -10317,7 +11166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="17:18">
       <c r="Q274" s="6" t="s">
         <v>232</v>
       </c>
@@ -10325,7 +11174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="17:18">
       <c r="Q275" s="6" t="s">
         <v>232</v>
       </c>
@@ -10333,7 +11182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="17:18">
       <c r="Q276" s="6" t="s">
         <v>232</v>
       </c>
@@ -10341,7 +11190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="17:18">
       <c r="Q277" s="6" t="s">
         <v>232</v>
       </c>
@@ -10349,7 +11198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="17:18">
       <c r="Q278" s="6" t="s">
         <v>232</v>
       </c>
@@ -10357,7 +11206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="17:18">
       <c r="Q279" s="6" t="s">
         <v>232</v>
       </c>
@@ -10365,7 +11214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="17:18">
       <c r="Q280" s="6" t="s">
         <v>232</v>
       </c>
@@ -10373,7 +11222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="17:18">
       <c r="Q281" s="6" t="s">
         <v>232</v>
       </c>
@@ -10381,7 +11230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="17:18">
       <c r="Q282" s="6" t="s">
         <v>232</v>
       </c>
@@ -10389,7 +11238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="17:18">
       <c r="Q283" s="6" t="s">
         <v>232</v>
       </c>
@@ -10397,7 +11246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="17:18">
       <c r="Q284" s="6" t="s">
         <v>232</v>
       </c>
@@ -10405,7 +11254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="17:18">
       <c r="Q285" s="6" t="s">
         <v>232</v>
       </c>
@@ -10413,7 +11262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="17:18">
       <c r="Q286" s="6" t="s">
         <v>232</v>
       </c>
@@ -10421,7 +11270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="17:18">
       <c r="Q287" s="6" t="s">
         <v>232</v>
       </c>
@@ -10429,7 +11278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="17:18">
       <c r="Q288" s="6" t="s">
         <v>232</v>
       </c>
@@ -10437,7 +11286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="17:18">
       <c r="Q289" s="6" t="s">
         <v>232</v>
       </c>
@@ -10445,7 +11294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="17:18">
       <c r="Q290" s="6" t="s">
         <v>232</v>
       </c>
@@ -10453,7 +11302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="17:18">
       <c r="Q291" s="6" t="s">
         <v>232</v>
       </c>
@@ -10461,7 +11310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="17:18">
       <c r="Q292" s="6" t="s">
         <v>232</v>
       </c>
@@ -10469,7 +11318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="17:18">
       <c r="Q293" s="6" t="s">
         <v>232</v>
       </c>
@@ -10477,7 +11326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="17:18">
       <c r="Q294" s="6" t="s">
         <v>232</v>
       </c>
@@ -10485,7 +11334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="17:18">
       <c r="Q295" s="6" t="s">
         <v>232</v>
       </c>
@@ -10493,7 +11342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="17:18">
       <c r="Q296" s="6" t="s">
         <v>232</v>
       </c>
@@ -10501,7 +11350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="17:18">
       <c r="Q297" s="6" t="s">
         <v>232</v>
       </c>
@@ -10509,7 +11358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="17:18">
       <c r="Q298" s="6" t="s">
         <v>232</v>
       </c>
@@ -10517,7 +11366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="17:18">
       <c r="Q299" s="6" t="s">
         <v>232</v>
       </c>
@@ -10525,7 +11374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="17:18">
       <c r="Q300" s="6" t="s">
         <v>232</v>
       </c>
@@ -10533,7 +11382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="17:18">
       <c r="Q301" s="6" t="s">
         <v>232</v>
       </c>
@@ -10541,7 +11390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="17:18">
       <c r="Q302" s="6" t="s">
         <v>232</v>
       </c>
@@ -10549,7 +11398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="17:18">
       <c r="Q303" s="6" t="s">
         <v>232</v>
       </c>
@@ -10557,7 +11406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="17:18">
       <c r="Q304" s="6" t="s">
         <v>232</v>
       </c>
@@ -10565,7 +11414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="17:18">
       <c r="Q305" s="6" t="s">
         <v>232</v>
       </c>
@@ -10573,7 +11422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="17:18">
       <c r="Q306" s="6" t="s">
         <v>232</v>
       </c>
@@ -10581,7 +11430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="17:18">
       <c r="Q307" s="6" t="s">
         <v>232</v>
       </c>
@@ -10589,7 +11438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="17:18">
       <c r="Q308" s="6" t="s">
         <v>232</v>
       </c>
@@ -10597,7 +11446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="17:18">
       <c r="Q309" s="6" t="s">
         <v>232</v>
       </c>
@@ -10605,7 +11454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="17:18">
       <c r="Q310" s="6" t="s">
         <v>233</v>
       </c>
@@ -10613,7 +11462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="17:18">
       <c r="Q311" s="6" t="s">
         <v>233</v>
       </c>
@@ -10621,7 +11470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="17:18">
       <c r="Q312" s="6" t="s">
         <v>233</v>
       </c>
@@ -10629,7 +11478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="17:18">
       <c r="Q313" s="6" t="s">
         <v>233</v>
       </c>
@@ -10637,7 +11486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="17:18">
       <c r="Q314" s="6" t="s">
         <v>233</v>
       </c>
@@ -10645,7 +11494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="17:18">
       <c r="Q315" s="6" t="s">
         <v>233</v>
       </c>
@@ -10653,7 +11502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="17:18">
       <c r="Q316" s="6" t="s">
         <v>233</v>
       </c>
@@ -10661,7 +11510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="17:18">
       <c r="Q317" s="6" t="s">
         <v>233</v>
       </c>
@@ -10669,7 +11518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="17:18">
       <c r="Q318" s="6" t="s">
         <v>233</v>
       </c>
@@ -10677,7 +11526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="17:18">
       <c r="Q319" s="6" t="s">
         <v>233</v>
       </c>
@@ -10685,7 +11534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="17:18">
       <c r="Q320" s="6" t="s">
         <v>233</v>
       </c>
@@ -10693,7 +11542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="17:18">
       <c r="Q321" s="6" t="s">
         <v>233</v>
       </c>
@@ -10701,7 +11550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="17:18">
       <c r="Q322" s="6" t="s">
         <v>234</v>
       </c>
@@ -10709,7 +11558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="17:18">
       <c r="Q323" s="6" t="s">
         <v>234</v>
       </c>
@@ -10717,7 +11566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="17:18">
       <c r="Q324" s="6" t="s">
         <v>234</v>
       </c>
@@ -10725,7 +11574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="17:18">
       <c r="Q325" s="6" t="s">
         <v>234</v>
       </c>
@@ -10733,7 +11582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="17:18">
       <c r="Q326" s="6" t="s">
         <v>235</v>
       </c>
@@ -10741,7 +11590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="17:18">
       <c r="Q327" s="6" t="s">
         <v>235</v>
       </c>
@@ -10749,7 +11598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="17:18">
       <c r="Q328" s="6" t="s">
         <v>235</v>
       </c>
@@ -10757,7 +11606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="17:18">
       <c r="Q329" s="6" t="s">
         <v>235</v>
       </c>
@@ -10765,7 +11614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="17:18">
       <c r="Q330" s="6" t="s">
         <v>235</v>
       </c>
@@ -10773,7 +11622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="17:18">
       <c r="Q331" s="6" t="s">
         <v>235</v>
       </c>
@@ -10781,7 +11630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="17:18">
       <c r="Q332" s="6" t="s">
         <v>235</v>
       </c>
@@ -10789,7 +11638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="17:18">
       <c r="Q333" s="6" t="s">
         <v>235</v>
       </c>
@@ -10797,7 +11646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="334" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="17:18">
       <c r="Q334" s="6" t="s">
         <v>235</v>
       </c>
@@ -10805,7 +11654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="335" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="17:18">
       <c r="Q335" s="6" t="s">
         <v>235</v>
       </c>
@@ -10813,7 +11662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="17:18">
       <c r="Q336" s="6" t="s">
         <v>235</v>
       </c>
@@ -10821,7 +11670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="337" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="17:18">
       <c r="Q337" s="6" t="s">
         <v>235</v>
       </c>
@@ -10829,7 +11678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="17:18">
       <c r="Q338" s="6" t="s">
         <v>235</v>
       </c>
@@ -10837,7 +11686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="339" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="17:18">
       <c r="Q339" s="6" t="s">
         <v>235</v>
       </c>
@@ -10845,7 +11694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="17:18">
       <c r="Q340" s="6" t="s">
         <v>235</v>
       </c>
@@ -10853,7 +11702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="17:18">
       <c r="Q341" s="6" t="s">
         <v>235</v>
       </c>
@@ -10861,7 +11710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="342" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="342" spans="17:18">
       <c r="Q342" s="6" t="s">
         <v>235</v>
       </c>
@@ -10869,7 +11718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="343" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="343" spans="17:18">
       <c r="Q343" s="6" t="s">
         <v>235</v>
       </c>
@@ -10877,7 +11726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="344" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="344" spans="17:18">
       <c r="Q344" s="6" t="s">
         <v>235</v>
       </c>
@@ -10885,7 +11734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="345" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="345" spans="17:18">
       <c r="Q345" s="6" t="s">
         <v>235</v>
       </c>
@@ -10893,7 +11742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="346" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="346" spans="17:18">
       <c r="Q346" s="7" t="s">
         <v>235</v>
       </c>
@@ -10902,25 +11751,217 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="M3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="M5" r:id="rId4"/>
+    <hyperlink ref="M6" r:id="rId5"/>
+    <hyperlink ref="M7" r:id="rId6"/>
+    <hyperlink ref="M8" r:id="rId7"/>
+    <hyperlink ref="M9" r:id="rId8"/>
+    <hyperlink ref="M10" r:id="rId9"/>
+    <hyperlink ref="M11" r:id="rId10"/>
+    <hyperlink ref="M12" r:id="rId11"/>
+    <hyperlink ref="M13" r:id="rId12"/>
+    <hyperlink ref="M14" r:id="rId13"/>
+    <hyperlink ref="M15" r:id="rId14"/>
+    <hyperlink ref="M16" r:id="rId15"/>
+    <hyperlink ref="M17" r:id="rId16"/>
+    <hyperlink ref="M18" r:id="rId17"/>
+    <hyperlink ref="M19" r:id="rId18"/>
+    <hyperlink ref="M20" r:id="rId19"/>
+    <hyperlink ref="M21" r:id="rId20"/>
+    <hyperlink ref="M22" r:id="rId21"/>
+    <hyperlink ref="M23" r:id="rId22"/>
+    <hyperlink ref="M24" r:id="rId23"/>
+    <hyperlink ref="M25" r:id="rId24"/>
+    <hyperlink ref="M26" r:id="rId25"/>
+    <hyperlink ref="M27" r:id="rId26"/>
+    <hyperlink ref="M28" r:id="rId27"/>
+    <hyperlink ref="M29" r:id="rId28"/>
+    <hyperlink ref="M30" r:id="rId29"/>
+    <hyperlink ref="M31" r:id="rId30"/>
+    <hyperlink ref="M32" r:id="rId31"/>
+    <hyperlink ref="M33" r:id="rId32"/>
+    <hyperlink ref="M34" r:id="rId33"/>
+    <hyperlink ref="M35" r:id="rId34"/>
+    <hyperlink ref="M36" r:id="rId35"/>
+    <hyperlink ref="M37" r:id="rId36"/>
+    <hyperlink ref="M38" r:id="rId37"/>
+    <hyperlink ref="M39" r:id="rId38"/>
+    <hyperlink ref="M40" r:id="rId39"/>
+    <hyperlink ref="M41" r:id="rId40"/>
+    <hyperlink ref="M42" r:id="rId41"/>
+    <hyperlink ref="M43" r:id="rId42"/>
+    <hyperlink ref="M44" r:id="rId43"/>
+    <hyperlink ref="M45" r:id="rId44"/>
+    <hyperlink ref="M46" r:id="rId45"/>
+    <hyperlink ref="M47" r:id="rId46"/>
+    <hyperlink ref="M48" r:id="rId47"/>
+    <hyperlink ref="M49" r:id="rId48"/>
+    <hyperlink ref="M50" r:id="rId49"/>
+    <hyperlink ref="M51" r:id="rId50"/>
+    <hyperlink ref="M52" r:id="rId51"/>
+    <hyperlink ref="M53" r:id="rId52"/>
+    <hyperlink ref="M54" r:id="rId53"/>
+    <hyperlink ref="M55" r:id="rId54"/>
+    <hyperlink ref="M56" r:id="rId55"/>
+    <hyperlink ref="M57" r:id="rId56"/>
+    <hyperlink ref="M58" r:id="rId57"/>
+    <hyperlink ref="M59" r:id="rId58"/>
+    <hyperlink ref="M60" r:id="rId59"/>
+    <hyperlink ref="M61" r:id="rId60"/>
+    <hyperlink ref="M62" r:id="rId61"/>
+    <hyperlink ref="M63" r:id="rId62"/>
+    <hyperlink ref="M64" r:id="rId63"/>
+    <hyperlink ref="M65" r:id="rId64"/>
+    <hyperlink ref="M66" r:id="rId65"/>
+    <hyperlink ref="M67" r:id="rId66"/>
+    <hyperlink ref="M68" r:id="rId67"/>
+    <hyperlink ref="M69" r:id="rId68"/>
+    <hyperlink ref="M70" r:id="rId69"/>
+    <hyperlink ref="M71" r:id="rId70"/>
+    <hyperlink ref="M72" r:id="rId71"/>
+    <hyperlink ref="M73" r:id="rId72"/>
+    <hyperlink ref="M74" r:id="rId73"/>
+    <hyperlink ref="M75" r:id="rId74"/>
+    <hyperlink ref="M76" r:id="rId75"/>
+    <hyperlink ref="M77" r:id="rId76"/>
+    <hyperlink ref="M78" r:id="rId77"/>
+    <hyperlink ref="M79" r:id="rId78"/>
+    <hyperlink ref="M80" r:id="rId79"/>
+    <hyperlink ref="M81" r:id="rId80"/>
+    <hyperlink ref="M82" r:id="rId81"/>
+    <hyperlink ref="M83" r:id="rId82"/>
+    <hyperlink ref="M84" r:id="rId83"/>
+    <hyperlink ref="M85" r:id="rId84"/>
+    <hyperlink ref="M86" r:id="rId85"/>
+    <hyperlink ref="M87" r:id="rId86"/>
+    <hyperlink ref="M88" r:id="rId87"/>
+    <hyperlink ref="M89" r:id="rId88"/>
+    <hyperlink ref="M90" r:id="rId89"/>
+    <hyperlink ref="M91" r:id="rId90"/>
+    <hyperlink ref="M92" r:id="rId91"/>
+    <hyperlink ref="M93" r:id="rId92"/>
+    <hyperlink ref="M94" r:id="rId93"/>
+    <hyperlink ref="M95" r:id="rId94"/>
+    <hyperlink ref="M96" r:id="rId95"/>
+    <hyperlink ref="M97" r:id="rId96"/>
+    <hyperlink ref="M98" r:id="rId97"/>
+    <hyperlink ref="M99" r:id="rId98"/>
+    <hyperlink ref="M100" r:id="rId99"/>
+    <hyperlink ref="M101" r:id="rId100"/>
+    <hyperlink ref="M102" r:id="rId101"/>
+    <hyperlink ref="M103" r:id="rId102"/>
+    <hyperlink ref="M104" r:id="rId103"/>
+    <hyperlink ref="M105" r:id="rId104"/>
+    <hyperlink ref="M106" r:id="rId105"/>
+    <hyperlink ref="M107" r:id="rId106"/>
+    <hyperlink ref="M108" r:id="rId107"/>
+    <hyperlink ref="M109" r:id="rId108"/>
+    <hyperlink ref="M110" r:id="rId109"/>
+    <hyperlink ref="M111" r:id="rId110"/>
+    <hyperlink ref="M112" r:id="rId111"/>
+    <hyperlink ref="M113" r:id="rId112"/>
+    <hyperlink ref="M114" r:id="rId113"/>
+    <hyperlink ref="M115" r:id="rId114"/>
+    <hyperlink ref="M116" r:id="rId115"/>
+    <hyperlink ref="M117" r:id="rId116"/>
+    <hyperlink ref="M118" r:id="rId117"/>
+    <hyperlink ref="M119" r:id="rId118"/>
+    <hyperlink ref="M120" r:id="rId119"/>
+    <hyperlink ref="M121" r:id="rId120"/>
+    <hyperlink ref="M122" r:id="rId121"/>
+    <hyperlink ref="M123" r:id="rId122"/>
+    <hyperlink ref="M124" r:id="rId123"/>
+    <hyperlink ref="M125" r:id="rId124"/>
+    <hyperlink ref="M126" r:id="rId125"/>
+    <hyperlink ref="M127" r:id="rId126"/>
+    <hyperlink ref="M128" r:id="rId127"/>
+    <hyperlink ref="M129" r:id="rId128"/>
+    <hyperlink ref="M130" r:id="rId129"/>
+    <hyperlink ref="M131" r:id="rId130"/>
+    <hyperlink ref="M132" r:id="rId131"/>
+    <hyperlink ref="M133" r:id="rId132"/>
+    <hyperlink ref="M134" r:id="rId133"/>
+    <hyperlink ref="M135" r:id="rId134"/>
+    <hyperlink ref="M136" r:id="rId135"/>
+    <hyperlink ref="M137" r:id="rId136"/>
+    <hyperlink ref="M138" r:id="rId137"/>
+    <hyperlink ref="M139" r:id="rId138"/>
+    <hyperlink ref="M140" r:id="rId139"/>
+    <hyperlink ref="M141" r:id="rId140"/>
+    <hyperlink ref="M142" r:id="rId141"/>
+    <hyperlink ref="M143" r:id="rId142"/>
+    <hyperlink ref="M144" r:id="rId143"/>
+    <hyperlink ref="M145" r:id="rId144"/>
+    <hyperlink ref="M146" r:id="rId145"/>
+    <hyperlink ref="M147" r:id="rId146"/>
+    <hyperlink ref="M148" r:id="rId147"/>
+    <hyperlink ref="M149" r:id="rId148"/>
+    <hyperlink ref="M150" r:id="rId149"/>
+    <hyperlink ref="M151" r:id="rId150"/>
+    <hyperlink ref="M152" r:id="rId151"/>
+    <hyperlink ref="M153" r:id="rId152"/>
+    <hyperlink ref="M154" r:id="rId153"/>
+    <hyperlink ref="M155" r:id="rId154"/>
+    <hyperlink ref="M156" r:id="rId155"/>
+    <hyperlink ref="M157" r:id="rId156"/>
+    <hyperlink ref="M158" r:id="rId157"/>
+    <hyperlink ref="M159" r:id="rId158"/>
+    <hyperlink ref="M160" r:id="rId159"/>
+    <hyperlink ref="M161" r:id="rId160"/>
+    <hyperlink ref="M162" r:id="rId161"/>
+    <hyperlink ref="M163" r:id="rId162"/>
+    <hyperlink ref="M164" r:id="rId163"/>
+    <hyperlink ref="M165" r:id="rId164"/>
+    <hyperlink ref="M166" r:id="rId165"/>
+    <hyperlink ref="M167" r:id="rId166"/>
+    <hyperlink ref="M168" r:id="rId167"/>
+    <hyperlink ref="M169" r:id="rId168"/>
+    <hyperlink ref="M170" r:id="rId169"/>
+    <hyperlink ref="M171" r:id="rId170"/>
+    <hyperlink ref="M172" r:id="rId171"/>
+    <hyperlink ref="M173" r:id="rId172"/>
+    <hyperlink ref="M174" r:id="rId173"/>
+    <hyperlink ref="M175" r:id="rId174"/>
+    <hyperlink ref="M176" r:id="rId175"/>
+    <hyperlink ref="M177" r:id="rId176"/>
+    <hyperlink ref="M178" r:id="rId177"/>
+    <hyperlink ref="M179" r:id="rId178"/>
+    <hyperlink ref="M180" r:id="rId179"/>
+    <hyperlink ref="M181" r:id="rId180"/>
+    <hyperlink ref="M182" r:id="rId181"/>
+    <hyperlink ref="M183" r:id="rId182"/>
+    <hyperlink ref="M184" r:id="rId183"/>
+    <hyperlink ref="M185" r:id="rId184"/>
+    <hyperlink ref="M186" r:id="rId185"/>
+    <hyperlink ref="M187" r:id="rId186"/>
+    <hyperlink ref="M188" r:id="rId187"/>
+    <hyperlink ref="M189" r:id="rId188"/>
+    <hyperlink ref="M190" r:id="rId189"/>
+    <hyperlink ref="M191" r:id="rId190"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId191"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId192"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9B211B-3659-4C66-95BE-8614E0095507}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10943,7 +11984,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -10963,7 +12004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -10983,7 +12024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -11003,7 +12044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -11023,7 +12064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -11043,7 +12084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -11063,7 +12104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -11083,7 +12124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>112</v>
       </c>

--- a/Elecciones 11 Abril 2021/Constituyentes PI.xlsx
+++ b/Elecciones 11 Abril 2021/Constituyentes PI.xlsx
@@ -1,35 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ELECCIONES\Elecciones 11 Abril 2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F6A8AE-C3BE-48C5-ADCD-34A0F8316C75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="674">
   <si>
     <t>Pueblo</t>
   </si>
@@ -1889,13 +1886,175 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/newenterritorial</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NewenTerritorio</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/leeo.gaete</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/miriamangelina.colinlincolao</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/HuirilefConstituyente</t>
+  </si>
+  <si>
+    <t>https://twitter.com/huirilefc</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hilario_huirilef_leal_cc/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/manuelsantander.solis</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RichardCaifal</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/Richard_caifal/?fbclid=IwAR24Nz6vnPXmFgJe_wfgbdglGCBLiXF01Ch584L4MFQtUHiqbFwNs9aBgQI</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/curamil</t>
+  </si>
+  <si>
+    <t>https://twitter.com/hanscuramil</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hanscuramil/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/carmentomasa.caifilcaifil</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sonia.catepillan</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ConvencionalesQuechuas/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/aetamaru.hukeainsa</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/people/Jackeline-Rapu-Tuki/100012212471226</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lidia.gonzalezcalderon</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/elianaesmeralda.monardezdiaz</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/heriberto.monardez.9</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ireuque</t>
+  </si>
+  <si>
+    <t>https://twitter.com/IsoldeLeo</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/leonardo.javier.castillo</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Jaime-Mariman-Constituyente-100124788742374</t>
+  </si>
+  <si>
+    <t>https://twitter.com/jaime_mariman</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jaime_mariman/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Apo-Ulmen-Luis-Pailapichun-Yefi-Y-Susana-Jacqueline-Rumian-Constituyentes-355151492392667</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/mariano_segundo_cayul_canio.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/mabel_salas_colipi.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/luz_lorena_cheuquel_paillalef.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/santo_reinao_millahual.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/juan_agustin_correa_naupa.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/samuel_leonardo_gaete_arcos.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/myriam_angelina_colin_lincolao.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/andres_hilario_huirilef_leal.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/josefina_isabel_fica_leufuman.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/manuel_alberto_santander_solis.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/rosa_maria_caniupil_huaiquiñir.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/richard_fernando_caifal_piutrin.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/hans_williams_samuel_curamil_aniñir.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/ingrid_jacqueline_pedraza_huinca.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/carmen_tomasa_caifil_caifil.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/sonia_marlene_catepillan_guinao.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/manuel_rolando_rauque_guenteo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/thelma_yobana_ramos_mamani.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/alejandro_enrique_tamaru_huke_ainsa.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/eliana_esmeralda_monardez_diaz.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/heriberto_evaristo_monardez_diaz.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/rosa_isolde_reuque_paillalef.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/leonardo_javier_castillo_cardenas.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/jaime_javier_mariman_naguelquin.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/luis_armando_pailapichun_yefi.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/susana_jacqueline_rumian_vidal.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2059,7 +2218,7 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -2079,26 +2238,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Constituyentes_PI_Candidatos" displayName="Constituyentes_PI_Candidatos" ref="A1:N191" totalsRowShown="0">
-  <autoFilter ref="A1:N191"/>
-  <sortState ref="A2:N191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Constituyentes_PI_Candidatos" displayName="Constituyentes_PI_Candidatos" ref="A1:N191" totalsRowShown="0">
+  <autoFilter ref="A1:N191" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N191">
     <sortCondition ref="B1:B191"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Pueblo"/>
-    <tableColumn id="2" name="Correlativo"/>
-    <tableColumn id="3" name="Candidato (TyA)"/>
-    <tableColumn id="4" name="T&amp;A"/>
-    <tableColumn id="5" name="Sexo"/>
-    <tableColumn id="6" name="Región"/>
-    <tableColumn id="7" name="Codreg" dataDxfId="1"/>
-    <tableColumn id="13" name="Cupo"/>
-    <tableColumn id="8" name="FB"/>
-    <tableColumn id="9" name="TW"/>
-    <tableColumn id="10" name="ING"/>
-    <tableColumn id="11" name="Imagen"/>
-    <tableColumn id="14" name="Imagen Github" dataDxfId="0" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="12" name="Imagen pueblo"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Pueblo"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Correlativo"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Candidato (TyA)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="T&amp;A"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sexo"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Región"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Codreg" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Cupo"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FB"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="TW"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ING"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Imagen"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Imagen Github" dataDxfId="0" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Imagen pueblo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2393,21 +2552,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D169" workbookViewId="0">
-      <selection activeCell="M182" sqref="M182"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="M154" sqref="M154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -2421,7 +2580,7 @@
     <col min="18" max="18" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2471,7 +2630,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2518,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2562,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2606,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2644,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2682,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2723,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2773,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2814,7 +2973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2855,7 +3014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2893,7 +3052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2931,7 +3090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2969,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -3016,7 +3175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -3054,7 +3213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3092,7 +3251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -3133,7 +3292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -3174,7 +3333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3215,7 +3374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -3265,7 +3424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -3309,7 +3468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -3350,7 +3509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -3391,7 +3550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -3435,7 +3594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -3476,7 +3635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -3520,7 +3679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -3564,7 +3723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -3608,7 +3767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -3652,7 +3811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -3690,7 +3849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -3728,7 +3887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -3772,7 +3931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -3813,7 +3972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -3854,7 +4013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3892,7 +4051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -3930,7 +4089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -3971,7 +4130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -4018,7 +4177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -4056,7 +4215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -4094,7 +4253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -4135,7 +4294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -4173,7 +4332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -4211,7 +4370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -4255,7 +4414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -4293,7 +4452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -4337,7 +4496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -4381,7 +4540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -4419,7 +4578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -4463,7 +4622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -4501,7 +4660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -4539,7 +4698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -4583,7 +4742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -4621,7 +4780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -4659,7 +4818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -4697,7 +4856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -4735,7 +4894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -4773,7 +4932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -4814,7 +4973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -4858,7 +5017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -4902,7 +5061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -4940,7 +5099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -4984,7 +5143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -5028,7 +5187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -5072,7 +5231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -5122,7 +5281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -5169,7 +5328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -5213,7 +5372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -5257,7 +5416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -5298,7 +5457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -5345,7 +5504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -5386,7 +5545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -5433,7 +5592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -5471,7 +5630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -5515,7 +5674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -5553,7 +5712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -5591,7 +5750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -5629,7 +5788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -5679,7 +5838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>95</v>
       </c>
@@ -5723,7 +5882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -5770,7 +5929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -5808,7 +5967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -5852,7 +6011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -5893,7 +6052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -5943,7 +6102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -5981,7 +6140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -6028,7 +6187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -6066,7 +6225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -6113,7 +6272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -6160,7 +6319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -6210,7 +6369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -6248,7 +6407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -6295,7 +6454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -6333,7 +6492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>112</v>
       </c>
@@ -6383,7 +6542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -6421,7 +6580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -6471,7 +6630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -6518,7 +6677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -6568,7 +6727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -6597,7 +6756,7 @@
         <v>306</v>
       </c>
       <c r="M99" s="13" t="s">
-        <v>619</v>
+        <v>648</v>
       </c>
       <c r="N99" t="s">
         <v>508</v>
@@ -6609,7 +6768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>112</v>
       </c>
@@ -6659,7 +6818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -6688,7 +6847,7 @@
         <v>311</v>
       </c>
       <c r="M101" s="13" t="s">
-        <v>619</v>
+        <v>649</v>
       </c>
       <c r="N101" t="s">
         <v>508</v>
@@ -6700,7 +6859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -6725,8 +6884,14 @@
       <c r="H102">
         <v>7</v>
       </c>
+      <c r="I102" t="s">
+        <v>620</v>
+      </c>
+      <c r="J102" t="s">
+        <v>621</v>
+      </c>
       <c r="M102" s="13" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="N102" t="s">
         <v>508</v>
@@ -6738,7 +6903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -6785,7 +6950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>112</v>
       </c>
@@ -6835,7 +7000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>112</v>
       </c>
@@ -6882,7 +7047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -6932,7 +7097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -6970,7 +7135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -7017,7 +7182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -7058,7 +7223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -7105,7 +7270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -7155,7 +7320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -7187,7 +7352,7 @@
         <v>338</v>
       </c>
       <c r="M112" s="13" t="s">
-        <v>619</v>
+        <v>651</v>
       </c>
       <c r="N112" t="s">
         <v>508</v>
@@ -7199,7 +7364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -7237,7 +7402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -7281,7 +7446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -7310,7 +7475,7 @@
         <v>341</v>
       </c>
       <c r="M115" s="13" t="s">
-        <v>619</v>
+        <v>652</v>
       </c>
       <c r="N115" t="s">
         <v>508</v>
@@ -7322,7 +7487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>112</v>
       </c>
@@ -7369,7 +7534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>112</v>
       </c>
@@ -7407,7 +7572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -7457,7 +7622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>112</v>
       </c>
@@ -7495,7 +7660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>112</v>
       </c>
@@ -7542,7 +7707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>112</v>
       </c>
@@ -7589,7 +7754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -7636,7 +7801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>112</v>
       </c>
@@ -7683,7 +7848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>112</v>
       </c>
@@ -7733,7 +7898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>112</v>
       </c>
@@ -7758,8 +7923,11 @@
       <c r="H125">
         <v>7</v>
       </c>
+      <c r="I125" t="s">
+        <v>622</v>
+      </c>
       <c r="M125" s="13" t="s">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c r="N125" t="s">
         <v>508</v>
@@ -7771,7 +7939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>112</v>
       </c>
@@ -7815,7 +7983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>112</v>
       </c>
@@ -7862,7 +8030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>112</v>
       </c>
@@ -7912,7 +8080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>112</v>
       </c>
@@ -7937,8 +8105,11 @@
       <c r="H129">
         <v>7</v>
       </c>
+      <c r="I129" t="s">
+        <v>623</v>
+      </c>
       <c r="M129" s="13" t="s">
-        <v>619</v>
+        <v>654</v>
       </c>
       <c r="N129" t="s">
         <v>508</v>
@@ -7950,7 +8121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>112</v>
       </c>
@@ -8000,7 +8171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>112</v>
       </c>
@@ -8047,7 +8218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>112</v>
       </c>
@@ -8091,7 +8262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>112</v>
       </c>
@@ -8129,7 +8300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>112</v>
       </c>
@@ -8154,8 +8325,17 @@
       <c r="H134">
         <v>7</v>
       </c>
+      <c r="I134" t="s">
+        <v>624</v>
+      </c>
+      <c r="J134" t="s">
+        <v>625</v>
+      </c>
+      <c r="K134" t="s">
+        <v>626</v>
+      </c>
       <c r="M134" s="13" t="s">
-        <v>619</v>
+        <v>655</v>
       </c>
       <c r="N134" t="s">
         <v>508</v>
@@ -8167,7 +8347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>112</v>
       </c>
@@ -8193,7 +8373,7 @@
         <v>7</v>
       </c>
       <c r="M135" s="13" t="s">
-        <v>619</v>
+        <v>656</v>
       </c>
       <c r="N135" t="s">
         <v>508</v>
@@ -8205,7 +8385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>112</v>
       </c>
@@ -8252,7 +8432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>112</v>
       </c>
@@ -8290,7 +8470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>112</v>
       </c>
@@ -8334,7 +8514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>112</v>
       </c>
@@ -8372,7 +8552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>112</v>
       </c>
@@ -8397,11 +8577,14 @@
       <c r="H140">
         <v>7</v>
       </c>
+      <c r="I140" t="s">
+        <v>627</v>
+      </c>
       <c r="K140" t="s">
         <v>451</v>
       </c>
       <c r="M140" s="13" t="s">
-        <v>619</v>
+        <v>657</v>
       </c>
       <c r="N140" t="s">
         <v>508</v>
@@ -8413,7 +8596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>112</v>
       </c>
@@ -8442,7 +8625,7 @@
         <v>452</v>
       </c>
       <c r="M141" s="13" t="s">
-        <v>619</v>
+        <v>658</v>
       </c>
       <c r="N141" t="s">
         <v>508</v>
@@ -8454,7 +8637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>112</v>
       </c>
@@ -8479,8 +8662,14 @@
       <c r="H142">
         <v>7</v>
       </c>
+      <c r="I142" t="s">
+        <v>628</v>
+      </c>
+      <c r="K142" t="s">
+        <v>629</v>
+      </c>
       <c r="M142" s="13" t="s">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="N142" t="s">
         <v>508</v>
@@ -8492,7 +8681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>112</v>
       </c>
@@ -8536,7 +8725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>112</v>
       </c>
@@ -8561,8 +8750,17 @@
       <c r="H144">
         <v>7</v>
       </c>
+      <c r="I144" t="s">
+        <v>630</v>
+      </c>
+      <c r="J144" t="s">
+        <v>631</v>
+      </c>
+      <c r="K144" t="s">
+        <v>632</v>
+      </c>
       <c r="M144" s="13" t="s">
-        <v>619</v>
+        <v>660</v>
       </c>
       <c r="N144" t="s">
         <v>508</v>
@@ -8574,7 +8772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>112</v>
       </c>
@@ -8612,7 +8810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>112</v>
       </c>
@@ -8656,7 +8854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>112</v>
       </c>
@@ -8700,7 +8898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>112</v>
       </c>
@@ -8744,7 +8942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>112</v>
       </c>
@@ -8773,7 +8971,7 @@
         <v>461</v>
       </c>
       <c r="M149" s="13" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="N149" t="s">
         <v>508</v>
@@ -8785,7 +8983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>112</v>
       </c>
@@ -8832,7 +9030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>112</v>
       </c>
@@ -8870,7 +9068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>112</v>
       </c>
@@ -8895,11 +9093,14 @@
       <c r="H152">
         <v>7</v>
       </c>
+      <c r="I152" t="s">
+        <v>633</v>
+      </c>
       <c r="K152" t="s">
         <v>465</v>
       </c>
       <c r="M152" s="13" t="s">
-        <v>619</v>
+        <v>662</v>
       </c>
       <c r="N152" t="s">
         <v>508</v>
@@ -8911,7 +9112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>112</v>
       </c>
@@ -8952,7 +9153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>112</v>
       </c>
@@ -8996,7 +9197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>112</v>
       </c>
@@ -9034,7 +9235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>112</v>
       </c>
@@ -9081,7 +9282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>112</v>
       </c>
@@ -9128,7 +9329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>112</v>
       </c>
@@ -9172,7 +9373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>112</v>
       </c>
@@ -9210,7 +9411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>112</v>
       </c>
@@ -9254,7 +9455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>112</v>
       </c>
@@ -9298,7 +9499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>112</v>
       </c>
@@ -9323,11 +9524,14 @@
       <c r="H162">
         <v>7</v>
       </c>
+      <c r="I162" t="s">
+        <v>634</v>
+      </c>
       <c r="K162" t="s">
         <v>481</v>
       </c>
       <c r="M162" s="13" t="s">
-        <v>619</v>
+        <v>663</v>
       </c>
       <c r="N162" t="s">
         <v>508</v>
@@ -9339,7 +9543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>112</v>
       </c>
@@ -9368,7 +9572,7 @@
         <v>482</v>
       </c>
       <c r="M163" s="13" t="s">
-        <v>619</v>
+        <v>664</v>
       </c>
       <c r="N163" t="s">
         <v>508</v>
@@ -9380,7 +9584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>112</v>
       </c>
@@ -9418,7 +9622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>112</v>
       </c>
@@ -9465,7 +9669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>190</v>
       </c>
@@ -9512,7 +9716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>190</v>
       </c>
@@ -9550,7 +9754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>190</v>
       </c>
@@ -9594,7 +9798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>190</v>
       </c>
@@ -9619,8 +9823,11 @@
       <c r="H169">
         <v>1</v>
       </c>
+      <c r="I169" t="s">
+        <v>635</v>
+      </c>
       <c r="M169" s="13" t="s">
-        <v>619</v>
+        <v>665</v>
       </c>
       <c r="N169" s="9" t="s">
         <v>489</v>
@@ -9632,7 +9839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -9676,7 +9883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>190</v>
       </c>
@@ -9717,7 +9924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>190</v>
       </c>
@@ -9755,7 +9962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>190</v>
       </c>
@@ -9793,7 +10000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>199</v>
       </c>
@@ -9818,8 +10025,11 @@
       <c r="H174">
         <v>1</v>
       </c>
+      <c r="I174" t="s">
+        <v>636</v>
+      </c>
       <c r="M174" s="13" t="s">
-        <v>619</v>
+        <v>666</v>
       </c>
       <c r="N174" t="s">
         <v>509</v>
@@ -9831,7 +10041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>199</v>
       </c>
@@ -9869,7 +10079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>199</v>
       </c>
@@ -9916,7 +10126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>199</v>
       </c>
@@ -9954,7 +10164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>199</v>
       </c>
@@ -9998,7 +10208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>199</v>
       </c>
@@ -10036,7 +10246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>199</v>
       </c>
@@ -10086,7 +10296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>199</v>
       </c>
@@ -10111,6 +10321,9 @@
       <c r="H181">
         <v>1</v>
       </c>
+      <c r="I181" t="s">
+        <v>637</v>
+      </c>
       <c r="L181" t="s">
         <v>504</v>
       </c>
@@ -10127,7 +10340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>209</v>
       </c>
@@ -10152,6 +10365,9 @@
       <c r="H182">
         <v>1</v>
       </c>
+      <c r="I182" t="s">
+        <v>638</v>
+      </c>
       <c r="L182" t="s">
         <v>505</v>
       </c>
@@ -10168,7 +10384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>209</v>
       </c>
@@ -10206,7 +10422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>57</v>
       </c>
@@ -10231,8 +10447,11 @@
       <c r="H184">
         <v>1</v>
       </c>
+      <c r="I184" t="s">
+        <v>639</v>
+      </c>
       <c r="M184" s="13" t="s">
-        <v>619</v>
+        <v>667</v>
       </c>
       <c r="N184" t="s">
         <v>259</v>
@@ -10244,7 +10463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>57</v>
       </c>
@@ -10269,8 +10488,11 @@
       <c r="H185">
         <v>1</v>
       </c>
+      <c r="I185" t="s">
+        <v>640</v>
+      </c>
       <c r="M185" s="13" t="s">
-        <v>619</v>
+        <v>668</v>
       </c>
       <c r="N185" t="s">
         <v>259</v>
@@ -10282,7 +10504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>112</v>
       </c>
@@ -10307,8 +10529,14 @@
       <c r="H186">
         <v>7</v>
       </c>
+      <c r="I186" t="s">
+        <v>641</v>
+      </c>
+      <c r="J186" t="s">
+        <v>642</v>
+      </c>
       <c r="M186" s="13" t="s">
-        <v>619</v>
+        <v>669</v>
       </c>
       <c r="N186" t="s">
         <v>508</v>
@@ -10320,7 +10548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>112</v>
       </c>
@@ -10345,8 +10573,11 @@
       <c r="H187">
         <v>7</v>
       </c>
+      <c r="I187" t="s">
+        <v>643</v>
+      </c>
       <c r="M187" s="13" t="s">
-        <v>619</v>
+        <v>670</v>
       </c>
       <c r="N187" t="s">
         <v>508</v>
@@ -10358,7 +10589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>112</v>
       </c>
@@ -10383,8 +10614,17 @@
       <c r="H188">
         <v>7</v>
       </c>
+      <c r="I188" t="s">
+        <v>644</v>
+      </c>
+      <c r="J188" t="s">
+        <v>645</v>
+      </c>
+      <c r="K188" t="s">
+        <v>646</v>
+      </c>
       <c r="M188" s="13" t="s">
-        <v>619</v>
+        <v>671</v>
       </c>
       <c r="N188" t="s">
         <v>508</v>
@@ -10396,7 +10636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>112</v>
       </c>
@@ -10434,7 +10674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>112</v>
       </c>
@@ -10459,8 +10699,11 @@
       <c r="H190">
         <v>7</v>
       </c>
+      <c r="I190" t="s">
+        <v>647</v>
+      </c>
       <c r="M190" s="13" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="N190" t="s">
         <v>508</v>
@@ -10472,7 +10715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>112</v>
       </c>
@@ -10497,8 +10740,11 @@
       <c r="H191">
         <v>7</v>
       </c>
+      <c r="I191" t="s">
+        <v>647</v>
+      </c>
       <c r="M191" s="13" t="s">
-        <v>619</v>
+        <v>673</v>
       </c>
       <c r="N191" t="s">
         <v>508</v>
@@ -10510,7 +10756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q192" s="6" t="s">
         <v>228</v>
       </c>
@@ -10518,7 +10764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="17:18">
+    <row r="193" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q193" s="6" t="s">
         <v>228</v>
       </c>
@@ -10526,7 +10772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="17:18">
+    <row r="194" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q194" s="6" t="s">
         <v>228</v>
       </c>
@@ -10534,7 +10780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="17:18">
+    <row r="195" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q195" s="6" t="s">
         <v>228</v>
       </c>
@@ -10542,7 +10788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="17:18">
+    <row r="196" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q196" s="6" t="s">
         <v>228</v>
       </c>
@@ -10550,7 +10796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="17:18">
+    <row r="197" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q197" s="6" t="s">
         <v>228</v>
       </c>
@@ -10558,7 +10804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="17:18">
+    <row r="198" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q198" s="6" t="s">
         <v>228</v>
       </c>
@@ -10566,7 +10812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="17:18">
+    <row r="199" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q199" s="6" t="s">
         <v>228</v>
       </c>
@@ -10574,7 +10820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="17:18">
+    <row r="200" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q200" s="6" t="s">
         <v>228</v>
       </c>
@@ -10582,7 +10828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="17:18">
+    <row r="201" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q201" s="6" t="s">
         <v>228</v>
       </c>
@@ -10590,7 +10836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="17:18">
+    <row r="202" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q202" s="6" t="s">
         <v>228</v>
       </c>
@@ -10598,7 +10844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="17:18">
+    <row r="203" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q203" s="6" t="s">
         <v>228</v>
       </c>
@@ -10606,7 +10852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="17:18">
+    <row r="204" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q204" s="6" t="s">
         <v>228</v>
       </c>
@@ -10614,7 +10860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="17:18">
+    <row r="205" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q205" s="6" t="s">
         <v>228</v>
       </c>
@@ -10622,7 +10868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="17:18">
+    <row r="206" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q206" s="6" t="s">
         <v>228</v>
       </c>
@@ -10630,7 +10876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="17:18">
+    <row r="207" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q207" s="6" t="s">
         <v>228</v>
       </c>
@@ -10638,7 +10884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="17:18">
+    <row r="208" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q208" s="6" t="s">
         <v>229</v>
       </c>
@@ -10646,7 +10892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="17:18">
+    <row r="209" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q209" s="6" t="s">
         <v>229</v>
       </c>
@@ -10654,7 +10900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="17:18">
+    <row r="210" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q210" s="6" t="s">
         <v>229</v>
       </c>
@@ -10662,7 +10908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="17:18">
+    <row r="211" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q211" s="6" t="s">
         <v>229</v>
       </c>
@@ -10670,7 +10916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="17:18">
+    <row r="212" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q212" s="6" t="s">
         <v>229</v>
       </c>
@@ -10678,7 +10924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="17:18">
+    <row r="213" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q213" s="6" t="s">
         <v>229</v>
       </c>
@@ -10686,7 +10932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="17:18">
+    <row r="214" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q214" s="6" t="s">
         <v>229</v>
       </c>
@@ -10694,7 +10940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="17:18">
+    <row r="215" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q215" s="6" t="s">
         <v>229</v>
       </c>
@@ -10702,7 +10948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="17:18">
+    <row r="216" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q216" s="6" t="s">
         <v>229</v>
       </c>
@@ -10710,7 +10956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="17:18">
+    <row r="217" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q217" s="6" t="s">
         <v>229</v>
       </c>
@@ -10718,7 +10964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="17:18">
+    <row r="218" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q218" s="6" t="s">
         <v>229</v>
       </c>
@@ -10726,7 +10972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="17:18">
+    <row r="219" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q219" s="6" t="s">
         <v>229</v>
       </c>
@@ -10734,7 +10980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="17:18">
+    <row r="220" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q220" s="6" t="s">
         <v>229</v>
       </c>
@@ -10742,7 +10988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="17:18">
+    <row r="221" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q221" s="6" t="s">
         <v>229</v>
       </c>
@@ -10750,7 +10996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="17:18">
+    <row r="222" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q222" s="6" t="s">
         <v>229</v>
       </c>
@@ -10758,7 +11004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="17:18">
+    <row r="223" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q223" s="6" t="s">
         <v>229</v>
       </c>
@@ -10766,7 +11012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="17:18">
+    <row r="224" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q224" s="6" t="s">
         <v>229</v>
       </c>
@@ -10774,7 +11020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="17:18">
+    <row r="225" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q225" s="6" t="s">
         <v>229</v>
       </c>
@@ -10782,7 +11028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="17:18">
+    <row r="226" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q226" s="6" t="s">
         <v>229</v>
       </c>
@@ -10790,7 +11036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="17:18">
+    <row r="227" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q227" s="6" t="s">
         <v>229</v>
       </c>
@@ -10798,7 +11044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="17:18">
+    <row r="228" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q228" s="6" t="s">
         <v>229</v>
       </c>
@@ -10806,7 +11052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="17:18">
+    <row r="229" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q229" s="6" t="s">
         <v>229</v>
       </c>
@@ -10814,7 +11060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="17:18">
+    <row r="230" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q230" s="6" t="s">
         <v>229</v>
       </c>
@@ -10822,7 +11068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="17:18">
+    <row r="231" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q231" s="6" t="s">
         <v>229</v>
       </c>
@@ -10830,7 +11076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="17:18">
+    <row r="232" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q232" s="6" t="s">
         <v>229</v>
       </c>
@@ -10838,7 +11084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="17:18">
+    <row r="233" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q233" s="6" t="s">
         <v>229</v>
       </c>
@@ -10846,7 +11092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="17:18">
+    <row r="234" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q234" s="6" t="s">
         <v>229</v>
       </c>
@@ -10854,7 +11100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="17:18">
+    <row r="235" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q235" s="6" t="s">
         <v>229</v>
       </c>
@@ -10862,7 +11108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="17:18">
+    <row r="236" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q236" s="6" t="s">
         <v>229</v>
       </c>
@@ -10870,7 +11116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="17:18">
+    <row r="237" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q237" s="6" t="s">
         <v>229</v>
       </c>
@@ -10878,7 +11124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="17:18">
+    <row r="238" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q238" s="6" t="s">
         <v>230</v>
       </c>
@@ -10886,7 +11132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="17:18">
+    <row r="239" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q239" s="6" t="s">
         <v>230</v>
       </c>
@@ -10894,7 +11140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="17:18">
+    <row r="240" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q240" s="6" t="s">
         <v>230</v>
       </c>
@@ -10902,7 +11148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="17:18">
+    <row r="241" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q241" s="6" t="s">
         <v>230</v>
       </c>
@@ -10910,7 +11156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="17:18">
+    <row r="242" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q242" s="6" t="s">
         <v>230</v>
       </c>
@@ -10918,7 +11164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="17:18">
+    <row r="243" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q243" s="6" t="s">
         <v>230</v>
       </c>
@@ -10926,7 +11172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="17:18">
+    <row r="244" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q244" s="6" t="s">
         <v>230</v>
       </c>
@@ -10934,7 +11180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="17:18">
+    <row r="245" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q245" s="6" t="s">
         <v>230</v>
       </c>
@@ -10942,7 +11188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="17:18">
+    <row r="246" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q246" s="6" t="s">
         <v>230</v>
       </c>
@@ -10950,7 +11196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="17:18">
+    <row r="247" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q247" s="6" t="s">
         <v>230</v>
       </c>
@@ -10958,7 +11204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="17:18">
+    <row r="248" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q248" s="6" t="s">
         <v>231</v>
       </c>
@@ -10966,7 +11212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="17:18">
+    <row r="249" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q249" s="6" t="s">
         <v>231</v>
       </c>
@@ -10974,7 +11220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="17:18">
+    <row r="250" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q250" s="6" t="s">
         <v>231</v>
       </c>
@@ -10982,7 +11228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="17:18">
+    <row r="251" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q251" s="6" t="s">
         <v>231</v>
       </c>
@@ -10990,7 +11236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="252" spans="17:18">
+    <row r="252" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q252" s="6" t="s">
         <v>231</v>
       </c>
@@ -10998,7 +11244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="17:18">
+    <row r="253" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q253" s="6" t="s">
         <v>231</v>
       </c>
@@ -11006,7 +11252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="17:18">
+    <row r="254" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q254" s="6" t="s">
         <v>231</v>
       </c>
@@ -11014,7 +11260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="17:18">
+    <row r="255" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q255" s="6" t="s">
         <v>231</v>
       </c>
@@ -11022,7 +11268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="17:18">
+    <row r="256" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q256" s="6" t="s">
         <v>231</v>
       </c>
@@ -11030,7 +11276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="17:18">
+    <row r="257" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q257" s="6" t="s">
         <v>231</v>
       </c>
@@ -11038,7 +11284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="17:18">
+    <row r="258" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q258" s="6" t="s">
         <v>232</v>
       </c>
@@ -11046,7 +11292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="17:18">
+    <row r="259" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q259" s="6" t="s">
         <v>232</v>
       </c>
@@ -11054,7 +11300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="17:18">
+    <row r="260" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q260" s="6" t="s">
         <v>232</v>
       </c>
@@ -11062,7 +11308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="17:18">
+    <row r="261" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q261" s="6" t="s">
         <v>232</v>
       </c>
@@ -11070,7 +11316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="17:18">
+    <row r="262" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q262" s="6" t="s">
         <v>232</v>
       </c>
@@ -11078,7 +11324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="17:18">
+    <row r="263" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q263" s="6" t="s">
         <v>232</v>
       </c>
@@ -11086,7 +11332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="17:18">
+    <row r="264" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q264" s="6" t="s">
         <v>232</v>
       </c>
@@ -11094,7 +11340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="17:18">
+    <row r="265" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q265" s="6" t="s">
         <v>232</v>
       </c>
@@ -11102,7 +11348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="17:18">
+    <row r="266" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q266" s="6" t="s">
         <v>232</v>
       </c>
@@ -11110,7 +11356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="17:18">
+    <row r="267" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q267" s="6" t="s">
         <v>232</v>
       </c>
@@ -11118,7 +11364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="17:18">
+    <row r="268" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q268" s="6" t="s">
         <v>232</v>
       </c>
@@ -11126,7 +11372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="17:18">
+    <row r="269" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q269" s="6" t="s">
         <v>232</v>
       </c>
@@ -11134,7 +11380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="17:18">
+    <row r="270" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q270" s="6" t="s">
         <v>232</v>
       </c>
@@ -11142,7 +11388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="17:18">
+    <row r="271" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q271" s="6" t="s">
         <v>232</v>
       </c>
@@ -11150,7 +11396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="17:18">
+    <row r="272" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q272" s="6" t="s">
         <v>232</v>
       </c>
@@ -11158,7 +11404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="17:18">
+    <row r="273" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q273" s="6" t="s">
         <v>232</v>
       </c>
@@ -11166,7 +11412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="17:18">
+    <row r="274" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q274" s="6" t="s">
         <v>232</v>
       </c>
@@ -11174,7 +11420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="17:18">
+    <row r="275" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q275" s="6" t="s">
         <v>232</v>
       </c>
@@ -11182,7 +11428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="17:18">
+    <row r="276" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q276" s="6" t="s">
         <v>232</v>
       </c>
@@ -11190,7 +11436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="17:18">
+    <row r="277" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q277" s="6" t="s">
         <v>232</v>
       </c>
@@ -11198,7 +11444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="17:18">
+    <row r="278" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q278" s="6" t="s">
         <v>232</v>
       </c>
@@ -11206,7 +11452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="17:18">
+    <row r="279" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q279" s="6" t="s">
         <v>232</v>
       </c>
@@ -11214,7 +11460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="17:18">
+    <row r="280" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q280" s="6" t="s">
         <v>232</v>
       </c>
@@ -11222,7 +11468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="17:18">
+    <row r="281" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q281" s="6" t="s">
         <v>232</v>
       </c>
@@ -11230,7 +11476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="17:18">
+    <row r="282" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q282" s="6" t="s">
         <v>232</v>
       </c>
@@ -11238,7 +11484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="17:18">
+    <row r="283" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q283" s="6" t="s">
         <v>232</v>
       </c>
@@ -11246,7 +11492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="17:18">
+    <row r="284" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q284" s="6" t="s">
         <v>232</v>
       </c>
@@ -11254,7 +11500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="17:18">
+    <row r="285" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q285" s="6" t="s">
         <v>232</v>
       </c>
@@ -11262,7 +11508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="17:18">
+    <row r="286" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q286" s="6" t="s">
         <v>232</v>
       </c>
@@ -11270,7 +11516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="17:18">
+    <row r="287" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q287" s="6" t="s">
         <v>232</v>
       </c>
@@ -11278,7 +11524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="17:18">
+    <row r="288" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q288" s="6" t="s">
         <v>232</v>
       </c>
@@ -11286,7 +11532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="17:18">
+    <row r="289" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q289" s="6" t="s">
         <v>232</v>
       </c>
@@ -11294,7 +11540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="17:18">
+    <row r="290" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q290" s="6" t="s">
         <v>232</v>
       </c>
@@ -11302,7 +11548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="17:18">
+    <row r="291" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q291" s="6" t="s">
         <v>232</v>
       </c>
@@ -11310,7 +11556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="17:18">
+    <row r="292" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q292" s="6" t="s">
         <v>232</v>
       </c>
@@ -11318,7 +11564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="17:18">
+    <row r="293" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q293" s="6" t="s">
         <v>232</v>
       </c>
@@ -11326,7 +11572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="17:18">
+    <row r="294" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q294" s="6" t="s">
         <v>232</v>
       </c>
@@ -11334,7 +11580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="17:18">
+    <row r="295" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q295" s="6" t="s">
         <v>232</v>
       </c>
@@ -11342,7 +11588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="17:18">
+    <row r="296" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q296" s="6" t="s">
         <v>232</v>
       </c>
@@ -11350,7 +11596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="17:18">
+    <row r="297" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q297" s="6" t="s">
         <v>232</v>
       </c>
@@ -11358,7 +11604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="17:18">
+    <row r="298" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q298" s="6" t="s">
         <v>232</v>
       </c>
@@ -11366,7 +11612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="17:18">
+    <row r="299" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q299" s="6" t="s">
         <v>232</v>
       </c>
@@ -11374,7 +11620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="17:18">
+    <row r="300" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q300" s="6" t="s">
         <v>232</v>
       </c>
@@ -11382,7 +11628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="17:18">
+    <row r="301" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q301" s="6" t="s">
         <v>232</v>
       </c>
@@ -11390,7 +11636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="17:18">
+    <row r="302" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q302" s="6" t="s">
         <v>232</v>
       </c>
@@ -11398,7 +11644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="17:18">
+    <row r="303" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q303" s="6" t="s">
         <v>232</v>
       </c>
@@ -11406,7 +11652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="17:18">
+    <row r="304" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q304" s="6" t="s">
         <v>232</v>
       </c>
@@ -11414,7 +11660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="17:18">
+    <row r="305" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q305" s="6" t="s">
         <v>232</v>
       </c>
@@ -11422,7 +11668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="17:18">
+    <row r="306" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q306" s="6" t="s">
         <v>232</v>
       </c>
@@ -11430,7 +11676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="17:18">
+    <row r="307" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q307" s="6" t="s">
         <v>232</v>
       </c>
@@ -11438,7 +11684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="17:18">
+    <row r="308" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q308" s="6" t="s">
         <v>232</v>
       </c>
@@ -11446,7 +11692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="17:18">
+    <row r="309" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q309" s="6" t="s">
         <v>232</v>
       </c>
@@ -11454,7 +11700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="17:18">
+    <row r="310" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q310" s="6" t="s">
         <v>233</v>
       </c>
@@ -11462,7 +11708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="17:18">
+    <row r="311" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q311" s="6" t="s">
         <v>233</v>
       </c>
@@ -11470,7 +11716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="17:18">
+    <row r="312" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q312" s="6" t="s">
         <v>233</v>
       </c>
@@ -11478,7 +11724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="17:18">
+    <row r="313" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q313" s="6" t="s">
         <v>233</v>
       </c>
@@ -11486,7 +11732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="17:18">
+    <row r="314" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q314" s="6" t="s">
         <v>233</v>
       </c>
@@ -11494,7 +11740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="17:18">
+    <row r="315" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q315" s="6" t="s">
         <v>233</v>
       </c>
@@ -11502,7 +11748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="17:18">
+    <row r="316" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q316" s="6" t="s">
         <v>233</v>
       </c>
@@ -11510,7 +11756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="17:18">
+    <row r="317" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q317" s="6" t="s">
         <v>233</v>
       </c>
@@ -11518,7 +11764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="17:18">
+    <row r="318" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q318" s="6" t="s">
         <v>233</v>
       </c>
@@ -11526,7 +11772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="17:18">
+    <row r="319" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q319" s="6" t="s">
         <v>233</v>
       </c>
@@ -11534,7 +11780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="17:18">
+    <row r="320" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q320" s="6" t="s">
         <v>233</v>
       </c>
@@ -11542,7 +11788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="17:18">
+    <row r="321" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q321" s="6" t="s">
         <v>233</v>
       </c>
@@ -11550,7 +11796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="17:18">
+    <row r="322" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q322" s="6" t="s">
         <v>234</v>
       </c>
@@ -11558,7 +11804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="17:18">
+    <row r="323" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q323" s="6" t="s">
         <v>234</v>
       </c>
@@ -11566,7 +11812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="17:18">
+    <row r="324" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q324" s="6" t="s">
         <v>234</v>
       </c>
@@ -11574,7 +11820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="17:18">
+    <row r="325" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q325" s="6" t="s">
         <v>234</v>
       </c>
@@ -11582,7 +11828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="17:18">
+    <row r="326" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q326" s="6" t="s">
         <v>235</v>
       </c>
@@ -11590,7 +11836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="17:18">
+    <row r="327" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q327" s="6" t="s">
         <v>235</v>
       </c>
@@ -11598,7 +11844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="17:18">
+    <row r="328" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q328" s="6" t="s">
         <v>235</v>
       </c>
@@ -11606,7 +11852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="17:18">
+    <row r="329" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q329" s="6" t="s">
         <v>235</v>
       </c>
@@ -11614,7 +11860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="17:18">
+    <row r="330" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q330" s="6" t="s">
         <v>235</v>
       </c>
@@ -11622,7 +11868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="17:18">
+    <row r="331" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q331" s="6" t="s">
         <v>235</v>
       </c>
@@ -11630,7 +11876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="17:18">
+    <row r="332" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q332" s="6" t="s">
         <v>235</v>
       </c>
@@ -11638,7 +11884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="17:18">
+    <row r="333" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q333" s="6" t="s">
         <v>235</v>
       </c>
@@ -11646,7 +11892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="334" spans="17:18">
+    <row r="334" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q334" s="6" t="s">
         <v>235</v>
       </c>
@@ -11654,7 +11900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="335" spans="17:18">
+    <row r="335" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q335" s="6" t="s">
         <v>235</v>
       </c>
@@ -11662,7 +11908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="17:18">
+    <row r="336" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q336" s="6" t="s">
         <v>235</v>
       </c>
@@ -11670,7 +11916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="337" spans="17:18">
+    <row r="337" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q337" s="6" t="s">
         <v>235</v>
       </c>
@@ -11678,7 +11924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="17:18">
+    <row r="338" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q338" s="6" t="s">
         <v>235</v>
       </c>
@@ -11686,7 +11932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="339" spans="17:18">
+    <row r="339" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q339" s="6" t="s">
         <v>235</v>
       </c>
@@ -11694,7 +11940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="17:18">
+    <row r="340" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q340" s="6" t="s">
         <v>235</v>
       </c>
@@ -11702,7 +11948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="17:18">
+    <row r="341" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q341" s="6" t="s">
         <v>235</v>
       </c>
@@ -11710,7 +11956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="342" spans="17:18">
+    <row r="342" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q342" s="6" t="s">
         <v>235</v>
       </c>
@@ -11718,7 +11964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="343" spans="17:18">
+    <row r="343" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q343" s="6" t="s">
         <v>235</v>
       </c>
@@ -11726,7 +11972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="344" spans="17:18">
+    <row r="344" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q344" s="6" t="s">
         <v>235</v>
       </c>
@@ -11734,7 +11980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="345" spans="17:18">
+    <row r="345" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q345" s="6" t="s">
         <v>235</v>
       </c>
@@ -11742,7 +11988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="346" spans="17:18">
+    <row r="346" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q346" s="7" t="s">
         <v>235</v>
       </c>
@@ -11752,196 +11998,196 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="M3" r:id="rId2"/>
-    <hyperlink ref="M4" r:id="rId3"/>
-    <hyperlink ref="M5" r:id="rId4"/>
-    <hyperlink ref="M6" r:id="rId5"/>
-    <hyperlink ref="M7" r:id="rId6"/>
-    <hyperlink ref="M8" r:id="rId7"/>
-    <hyperlink ref="M9" r:id="rId8"/>
-    <hyperlink ref="M10" r:id="rId9"/>
-    <hyperlink ref="M11" r:id="rId10"/>
-    <hyperlink ref="M12" r:id="rId11"/>
-    <hyperlink ref="M13" r:id="rId12"/>
-    <hyperlink ref="M14" r:id="rId13"/>
-    <hyperlink ref="M15" r:id="rId14"/>
-    <hyperlink ref="M16" r:id="rId15"/>
-    <hyperlink ref="M17" r:id="rId16"/>
-    <hyperlink ref="M18" r:id="rId17"/>
-    <hyperlink ref="M19" r:id="rId18"/>
-    <hyperlink ref="M20" r:id="rId19"/>
-    <hyperlink ref="M21" r:id="rId20"/>
-    <hyperlink ref="M22" r:id="rId21"/>
-    <hyperlink ref="M23" r:id="rId22"/>
-    <hyperlink ref="M24" r:id="rId23"/>
-    <hyperlink ref="M25" r:id="rId24"/>
-    <hyperlink ref="M26" r:id="rId25"/>
-    <hyperlink ref="M27" r:id="rId26"/>
-    <hyperlink ref="M28" r:id="rId27"/>
-    <hyperlink ref="M29" r:id="rId28"/>
-    <hyperlink ref="M30" r:id="rId29"/>
-    <hyperlink ref="M31" r:id="rId30"/>
-    <hyperlink ref="M32" r:id="rId31"/>
-    <hyperlink ref="M33" r:id="rId32"/>
-    <hyperlink ref="M34" r:id="rId33"/>
-    <hyperlink ref="M35" r:id="rId34"/>
-    <hyperlink ref="M36" r:id="rId35"/>
-    <hyperlink ref="M37" r:id="rId36"/>
-    <hyperlink ref="M38" r:id="rId37"/>
-    <hyperlink ref="M39" r:id="rId38"/>
-    <hyperlink ref="M40" r:id="rId39"/>
-    <hyperlink ref="M41" r:id="rId40"/>
-    <hyperlink ref="M42" r:id="rId41"/>
-    <hyperlink ref="M43" r:id="rId42"/>
-    <hyperlink ref="M44" r:id="rId43"/>
-    <hyperlink ref="M45" r:id="rId44"/>
-    <hyperlink ref="M46" r:id="rId45"/>
-    <hyperlink ref="M47" r:id="rId46"/>
-    <hyperlink ref="M48" r:id="rId47"/>
-    <hyperlink ref="M49" r:id="rId48"/>
-    <hyperlink ref="M50" r:id="rId49"/>
-    <hyperlink ref="M51" r:id="rId50"/>
-    <hyperlink ref="M52" r:id="rId51"/>
-    <hyperlink ref="M53" r:id="rId52"/>
-    <hyperlink ref="M54" r:id="rId53"/>
-    <hyperlink ref="M55" r:id="rId54"/>
-    <hyperlink ref="M56" r:id="rId55"/>
-    <hyperlink ref="M57" r:id="rId56"/>
-    <hyperlink ref="M58" r:id="rId57"/>
-    <hyperlink ref="M59" r:id="rId58"/>
-    <hyperlink ref="M60" r:id="rId59"/>
-    <hyperlink ref="M61" r:id="rId60"/>
-    <hyperlink ref="M62" r:id="rId61"/>
-    <hyperlink ref="M63" r:id="rId62"/>
-    <hyperlink ref="M64" r:id="rId63"/>
-    <hyperlink ref="M65" r:id="rId64"/>
-    <hyperlink ref="M66" r:id="rId65"/>
-    <hyperlink ref="M67" r:id="rId66"/>
-    <hyperlink ref="M68" r:id="rId67"/>
-    <hyperlink ref="M69" r:id="rId68"/>
-    <hyperlink ref="M70" r:id="rId69"/>
-    <hyperlink ref="M71" r:id="rId70"/>
-    <hyperlink ref="M72" r:id="rId71"/>
-    <hyperlink ref="M73" r:id="rId72"/>
-    <hyperlink ref="M74" r:id="rId73"/>
-    <hyperlink ref="M75" r:id="rId74"/>
-    <hyperlink ref="M76" r:id="rId75"/>
-    <hyperlink ref="M77" r:id="rId76"/>
-    <hyperlink ref="M78" r:id="rId77"/>
-    <hyperlink ref="M79" r:id="rId78"/>
-    <hyperlink ref="M80" r:id="rId79"/>
-    <hyperlink ref="M81" r:id="rId80"/>
-    <hyperlink ref="M82" r:id="rId81"/>
-    <hyperlink ref="M83" r:id="rId82"/>
-    <hyperlink ref="M84" r:id="rId83"/>
-    <hyperlink ref="M85" r:id="rId84"/>
-    <hyperlink ref="M86" r:id="rId85"/>
-    <hyperlink ref="M87" r:id="rId86"/>
-    <hyperlink ref="M88" r:id="rId87"/>
-    <hyperlink ref="M89" r:id="rId88"/>
-    <hyperlink ref="M90" r:id="rId89"/>
-    <hyperlink ref="M91" r:id="rId90"/>
-    <hyperlink ref="M92" r:id="rId91"/>
-    <hyperlink ref="M93" r:id="rId92"/>
-    <hyperlink ref="M94" r:id="rId93"/>
-    <hyperlink ref="M95" r:id="rId94"/>
-    <hyperlink ref="M96" r:id="rId95"/>
-    <hyperlink ref="M97" r:id="rId96"/>
-    <hyperlink ref="M98" r:id="rId97"/>
-    <hyperlink ref="M99" r:id="rId98"/>
-    <hyperlink ref="M100" r:id="rId99"/>
-    <hyperlink ref="M101" r:id="rId100"/>
-    <hyperlink ref="M102" r:id="rId101"/>
-    <hyperlink ref="M103" r:id="rId102"/>
-    <hyperlink ref="M104" r:id="rId103"/>
-    <hyperlink ref="M105" r:id="rId104"/>
-    <hyperlink ref="M106" r:id="rId105"/>
-    <hyperlink ref="M107" r:id="rId106"/>
-    <hyperlink ref="M108" r:id="rId107"/>
-    <hyperlink ref="M109" r:id="rId108"/>
-    <hyperlink ref="M110" r:id="rId109"/>
-    <hyperlink ref="M111" r:id="rId110"/>
-    <hyperlink ref="M112" r:id="rId111"/>
-    <hyperlink ref="M113" r:id="rId112"/>
-    <hyperlink ref="M114" r:id="rId113"/>
-    <hyperlink ref="M115" r:id="rId114"/>
-    <hyperlink ref="M116" r:id="rId115"/>
-    <hyperlink ref="M117" r:id="rId116"/>
-    <hyperlink ref="M118" r:id="rId117"/>
-    <hyperlink ref="M119" r:id="rId118"/>
-    <hyperlink ref="M120" r:id="rId119"/>
-    <hyperlink ref="M121" r:id="rId120"/>
-    <hyperlink ref="M122" r:id="rId121"/>
-    <hyperlink ref="M123" r:id="rId122"/>
-    <hyperlink ref="M124" r:id="rId123"/>
-    <hyperlink ref="M125" r:id="rId124"/>
-    <hyperlink ref="M126" r:id="rId125"/>
-    <hyperlink ref="M127" r:id="rId126"/>
-    <hyperlink ref="M128" r:id="rId127"/>
-    <hyperlink ref="M129" r:id="rId128"/>
-    <hyperlink ref="M130" r:id="rId129"/>
-    <hyperlink ref="M131" r:id="rId130"/>
-    <hyperlink ref="M132" r:id="rId131"/>
-    <hyperlink ref="M133" r:id="rId132"/>
-    <hyperlink ref="M134" r:id="rId133"/>
-    <hyperlink ref="M135" r:id="rId134"/>
-    <hyperlink ref="M136" r:id="rId135"/>
-    <hyperlink ref="M137" r:id="rId136"/>
-    <hyperlink ref="M138" r:id="rId137"/>
-    <hyperlink ref="M139" r:id="rId138"/>
-    <hyperlink ref="M140" r:id="rId139"/>
-    <hyperlink ref="M141" r:id="rId140"/>
-    <hyperlink ref="M142" r:id="rId141"/>
-    <hyperlink ref="M143" r:id="rId142"/>
-    <hyperlink ref="M144" r:id="rId143"/>
-    <hyperlink ref="M145" r:id="rId144"/>
-    <hyperlink ref="M146" r:id="rId145"/>
-    <hyperlink ref="M147" r:id="rId146"/>
-    <hyperlink ref="M148" r:id="rId147"/>
-    <hyperlink ref="M149" r:id="rId148"/>
-    <hyperlink ref="M150" r:id="rId149"/>
-    <hyperlink ref="M151" r:id="rId150"/>
-    <hyperlink ref="M152" r:id="rId151"/>
-    <hyperlink ref="M153" r:id="rId152"/>
-    <hyperlink ref="M154" r:id="rId153"/>
-    <hyperlink ref="M155" r:id="rId154"/>
-    <hyperlink ref="M156" r:id="rId155"/>
-    <hyperlink ref="M157" r:id="rId156"/>
-    <hyperlink ref="M158" r:id="rId157"/>
-    <hyperlink ref="M159" r:id="rId158"/>
-    <hyperlink ref="M160" r:id="rId159"/>
-    <hyperlink ref="M161" r:id="rId160"/>
-    <hyperlink ref="M162" r:id="rId161"/>
-    <hyperlink ref="M163" r:id="rId162"/>
-    <hyperlink ref="M164" r:id="rId163"/>
-    <hyperlink ref="M165" r:id="rId164"/>
-    <hyperlink ref="M166" r:id="rId165"/>
-    <hyperlink ref="M167" r:id="rId166"/>
-    <hyperlink ref="M168" r:id="rId167"/>
-    <hyperlink ref="M169" r:id="rId168"/>
-    <hyperlink ref="M170" r:id="rId169"/>
-    <hyperlink ref="M171" r:id="rId170"/>
-    <hyperlink ref="M172" r:id="rId171"/>
-    <hyperlink ref="M173" r:id="rId172"/>
-    <hyperlink ref="M174" r:id="rId173"/>
-    <hyperlink ref="M175" r:id="rId174"/>
-    <hyperlink ref="M176" r:id="rId175"/>
-    <hyperlink ref="M177" r:id="rId176"/>
-    <hyperlink ref="M178" r:id="rId177"/>
-    <hyperlink ref="M179" r:id="rId178"/>
-    <hyperlink ref="M180" r:id="rId179"/>
-    <hyperlink ref="M181" r:id="rId180"/>
-    <hyperlink ref="M182" r:id="rId181"/>
-    <hyperlink ref="M183" r:id="rId182"/>
-    <hyperlink ref="M184" r:id="rId183"/>
-    <hyperlink ref="M185" r:id="rId184"/>
-    <hyperlink ref="M186" r:id="rId185"/>
-    <hyperlink ref="M187" r:id="rId186"/>
-    <hyperlink ref="M188" r:id="rId187"/>
-    <hyperlink ref="M189" r:id="rId188"/>
-    <hyperlink ref="M190" r:id="rId189"/>
-    <hyperlink ref="M191" r:id="rId190"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="M14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="M15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="M16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="M18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="M19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="M20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="M22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="M24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="M25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="M26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="M27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="M28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="M29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="M30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="M31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="M32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="M33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="M34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="M36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="M37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="M38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="M39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="M40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="M41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="M42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="M43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="M44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="M45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="M46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="M47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="M48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="M49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="M50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="M51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="M52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="M53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="M54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="M55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="M56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="M57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="M58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="M59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="M60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="M61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="M62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="M63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="M64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="M65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="M66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="M67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="M68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="M69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="M70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="M71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="M72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="M73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="M74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="M75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="M76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="M77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="M78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="M79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="M80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="M81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="M82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="M83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="M84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="M85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="M86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="M87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="M88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="M89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="M90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="M91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="M92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="M93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="M94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="M95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="M96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="M97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="M98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="M99" r:id="rId98" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="M100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="M101" r:id="rId100" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="M102" r:id="rId101" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="M103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="M104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="M105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="M106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="M107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="M108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="M109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="M110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="M111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="M112" r:id="rId111" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="M113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="M114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="M115" r:id="rId114" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="M116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="M117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="M118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="M119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="M120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="M121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="M122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="M123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="M124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="M125" r:id="rId124" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="M126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="M127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="M128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="M129" r:id="rId128" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="M130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="M131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="M132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="M133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="M134" r:id="rId133" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="M135" r:id="rId134" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="M136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="M137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="M138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="M139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="M140" r:id="rId139" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="M141" r:id="rId140" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="M142" r:id="rId141" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="M143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="M144" r:id="rId143" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="M145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="M146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="M147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="M148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="M149" r:id="rId148" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="M150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="M151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="M152" r:id="rId151" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="M153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="M154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="M155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="M156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="M157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="M158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="M159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="M160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="M161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="M162" r:id="rId161" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="M163" r:id="rId162" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="M164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="M165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="M166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="M167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="M168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="M169" r:id="rId168" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="M170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="M171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="M172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="M173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="M174" r:id="rId173" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="M175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="M176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="M177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="M178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="M179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="M180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="M181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="M182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="M183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="M184" r:id="rId183" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="M185" r:id="rId184" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="M186" r:id="rId185" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="M187" r:id="rId186" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="M188" r:id="rId187" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="M189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="M190" r:id="rId189" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="M191" r:id="rId190" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId191"/>
@@ -11952,16 +12198,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11984,7 +12230,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -12004,7 +12250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -12024,7 +12270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -12044,7 +12290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -12064,7 +12310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -12084,7 +12330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -12104,7 +12350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -12124,7 +12370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>112</v>
       </c>

--- a/Elecciones 11 Abril 2021/Constituyentes PI.xlsx
+++ b/Elecciones 11 Abril 2021/Constituyentes PI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ELECCIONES\Elecciones 11 Abril 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F6A8AE-C3BE-48C5-ADCD-34A0F8316C75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F6E40A-4B5A-4C6A-9240-CB60B1131BCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="772">
   <si>
     <t>Pueblo</t>
   </si>
@@ -922,9 +922,6 @@
     <t>https://www.instagram.com/elisa.loncon/</t>
   </si>
   <si>
-    <t>https://pbs.twimg.com/profile_images/1345891826281160706/RTS1OEZs_400x400.jpg</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/claudio.a.lincopi</t>
   </si>
   <si>
@@ -1234,9 +1231,6 @@
     <t>https://scontent.fscl9-1.fna.fbcdn.net/v/t1.0-9/153025127_10225458902723135_6345936254943655069_o.jpg?_nc_cat=111&amp;_nc_map=control&amp;ccb=1-3&amp;_nc_sid=e3f864&amp;_nc_ohc=wGx7Ii7yrmAAX_nGei_&amp;_nc_ht=scontent.fscl9-1.fna&amp;oh=c385475a60038fbf0a0d0cbddde83cea&amp;oe=606FCADD</t>
   </si>
   <si>
-    <t>https://www.facebook.com/brenda.gutierrezalmendares/</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/Issa.Gm/</t>
   </si>
   <si>
@@ -1252,9 +1246,6 @@
     <t>https://www.facebook.com/franciscojavier.cortesgodoy.14</t>
   </si>
   <si>
-    <t>https://www.facebook.com/photo/?fbid=120608332599439&amp;set=a.102566251070314</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/zulemaluisa.mancillacardozo/</t>
   </si>
   <si>
@@ -2048,6 +2039,309 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/susana_jacqueline_rumian_vidal.png</t>
+  </si>
+  <si>
+    <t>https://radiojgm.uchile.cl/wp-content/uploads/2020/12/Elisa-Loncon.jpg</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jimenez.aymara/?hl=es</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jennyfer.choque/?hl=es</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.6435-9/138833034_1998890736919161_6472915052483692387_n.jpg?_nc_cat=105&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=d97VeN2qxv4AX_M9u5G&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=fb24a22c6d59fd5af42e6a6f07c5755a&amp;oe=60879F84</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/jennyfer_miriam_choque_flores.png</t>
+  </si>
+  <si>
+    <t>https://twitter.com/maritzaquispe3</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/maritza.quispe.medina/?hl=es</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/eduardo.floresquispe.180</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/josemanuel.troncosoflores</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.6435-9/152018694_10222109654708126_4166297181063232908_n.jpg?_nc_cat=110&amp;ccb=1-3&amp;_nc_sid=730e14&amp;_nc_ohc=_S0mGncVv7oAX_ip2Uv&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=695925b10f80ac8393f54a41f711d366&amp;oe=6088985E</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/jose_manuel_troncoso_flores.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/leslie_jasmin_villca_lovera.png</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.18169-9/13083363_10209667540269603_5718267969887513618_n.jpg?_nc_cat=109&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=J34hh4D6Gt4AX_YLpYv&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=b654c72350d7873db740df683b61670b&amp;oe=6088672B</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/carlos_bacilio_cañari_ramirez.png</t>
+  </si>
+  <si>
+    <t>https://twitter.com/cna_putre</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/cna_putre/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-2.fna.fbcdn.net/v/t1.6435-9/118323185_727292171166030_719097160124694317_n.jpg?_nc_cat=108&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=z4rk5iSABdIAX-ai63Z&amp;_nc_ht=scontent.fscl11-2.fna&amp;oh=1d6098048072191706b3f4bfa9e7ceaa&amp;oe=608B1285</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/delia_norma_condori_flores.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marcela.gomezmamani</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Marcela_GomezM</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/marcelagomezmamani/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.6435-9/143790750_10224932070228566_1395779996176415598_n.jpg?_nc_cat=111&amp;ccb=1-3&amp;_nc_sid=174925&amp;_nc_ohc=KcR2qyZvlqgAX-W9r5S&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=d66a982d9df44e8bd888dfac335ecd68&amp;oe=6088E65C</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/marcela_maria_gomez_mamani.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/juancayo/?hl=es-la</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Marcelo-Centella-tu-futuro-Constituyente-ind%C3%ADgena-103453761819707</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.6435-9/160193356_107215361443547_1979494311717390093_n.jpg?_nc_cat=104&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=_zezE5NXS5oAX86w5x9&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=a79297dc84c00505646f711f0dfd833a&amp;oe=6089B8F6</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/marcelo_antonio_centella_molina.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/huancamaitaangelino/?hl=es-la</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.18169-9/19657490_1623977800968500_1440207792763225567_n.jpg?_nc_cat=109&amp;ccb=1-3&amp;_nc_sid=8bfeb9&amp;_nc_ohc=WDbvyO1KqOcAX_fuDQf&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=748db216dfcb44424487b60d3c3cd68e&amp;oe=6088E9B9</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/angelino_santos_huanca_maita.png</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-2.fna.fbcdn.net/v/t1.18169-9/316230_157943420950976_5496917_n.jpg?_nc_cat=107&amp;ccb=1-3&amp;_nc_sid=cdbe9c&amp;_nc_ohc=AwFG7JBCrqUAX-TiH2J&amp;_nc_ht=scontent.fscl11-2.fna&amp;oh=0a853a58e8a79012bc3ed4f9de417460&amp;oe=608A82B0</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/alejandra_tapia_alave.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rolandoaguirrem/?hl=es</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.6435-9/118773060_10223594062261106_6753689588570607973_n.jpg?_nc_cat=105&amp;ccb=1-3&amp;_nc_sid=8bfeb9&amp;_nc_ohc=_NTwJUYCosoAX8CFMzL&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=93017676cf0066610815997b58501b7f&amp;oe=608A8075</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/rolando_javier_aguirre_medina.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/joel.zoey</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.6435-9/141258879_10222964054277479_8733548265325002_n.jpg?_nc_cat=106&amp;ccb=1-3&amp;_nc_sid=174925&amp;_nc_ohc=MLmhRpi4BTYAX9cNQem&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=ecb1e5b7ebb07ddb4a297605941fc064&amp;oe=608A712B</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/joel_isaac_diaz_mamani.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/isabrunimamani/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.6435-9/78458013_10217861623485310_6108989296591503360_n.jpg?_nc_cat=105&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=UqLHcYG7gogAX80VR0M&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=b730777d08de9dd34213ecb9220712a2&amp;oe=608977A5</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/franco_hector_eyzaguirre_fernandez.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/nelida_moscoso_yo_soy_aymara/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.6435-9/117444484_10222950435766972_8526393013469251776_n.jpg?_nc_cat=111&amp;ccb=1-3&amp;_nc_sid=174925&amp;_nc_ohc=OOy0iJwdS6AAX_z6Uft&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=4084fbc496ea149be81c4214493296d8&amp;oe=6089E4D5</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/nelida_claudia_moscoso_moscoso.png</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.6435-9/164151576_4300342586656772_2622281927635961383_n.jpg?_nc_cat=104&amp;ccb=1-3&amp;_nc_sid=8bfeb9&amp;_nc_ohc=DLISoDf86h8AX83eZ7s&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=58390621fb769b6e5afe4cc83f32124c&amp;oe=60890E9C</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/pablo_johao_butro_yovich.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/cuatro.nustas.5</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ChallapaYanet</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/yanetchallapa_constituyente/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.6435-9/151454649_325602579127621_177634617472144385_n.jpg?_nc_cat=109&amp;ccb=1-3&amp;_nc_sid=8bfeb9&amp;_nc_ohc=d_gCN8L22MUAX9SAdhm&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=58cb09dec06acaf831d91d0e120a3899&amp;oe=608B1059</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/yanet_teodora_challapa_flores.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/marcelo_condore/</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/1202059554/m-huaso_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/marcelo_hernan_condore_vilca.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/alinepapic/?hl=es-la</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-2.fna.fbcdn.net/v/t1.6435-9/154558043_104621241683354_7194174292268091007_n.jpg?_nc_cat=108&amp;ccb=1-3&amp;_nc_sid=174925&amp;_nc_ohc=fMfGN3tZrQ0AX-aLNNB&amp;_nc_ht=scontent.fscl11-2.fna&amp;oh=d73563f1e115c583d13151754a36de84&amp;oe=608A7398</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/aliñe_patricia_papic_tiaina.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/richardschallapa/?hl=es-la</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.6435-9/150399610_148254763753578_6703842942343247339_n.jpg?_nc_cat=104&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=0eDcr1sTuYUAX-oDnSN&amp;_nc_oc=AQlN-OWpTLDfA97rvhk3UGKPMzsrZrC6NBZRdqDuMtr80VO3TLO_gQtImdVw4GWfiGM&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=43d68b687cddb9fad5c1d40c367742c1&amp;oe=608C438F</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/richards_antonio_challapa_ayavire.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/horaciocorteschango/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100054667581896</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.6435-9/162130539_234701798362071_8486395337260093781_n.jpg?_nc_cat=104&amp;ccb=1-3&amp;_nc_sid=174925&amp;_nc_ohc=pC4UZIgxmgwAX8CEfXy&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=86e298ce0daf93d9c6a1e7b285a5c6c8&amp;oe=608BEAB2</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/luis_alberto_castro_alvarez.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pueblochango/photos/?ref=page_internal</t>
+  </si>
+  <si>
+    <t>https://twitter.com/isabelgodoym</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/isabel_godoym/?hl=es-la</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/christianmillacolla</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/paipote_tv/?hl=es-la</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-2.fna.fbcdn.net/v/t1.6435-9/143364791_104828964956024_6309029551664022026_n.png?_nc_cat=108&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=MDkFSIM7CUIAX_YldDI&amp;_nc_ht=scontent.fscl11-2.fna&amp;oh=d67eed821c01d2dab0ac3968a94f32d9&amp;oe=608E6605</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/christian_alejandro_milla_mancilla.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Elenariveraconstituyente2021</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Helena_lega</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/elenariveraconstituyente2021/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-2.fna.fbcdn.net/v/t1.6435-9/156080994_116495210444156_6971594205244325801_n.jpg?_nc_cat=108&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=8ZYHqYmZ__IAX8r6Hx6&amp;_nc_ht=scontent.fscl11-2.fna&amp;oh=b946fe932b24d8cbd9596521633f0233&amp;oe=608E0A62</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/elena_de_lourdes_rivera_cardozo.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/oscargonzalezlorca/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Cristofer-Andr%C3%A9s-Castillo-Geronimo-constituyente-Pueblo-Colla-108151348001628</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-2.fna.fbcdn.net/v/t1.6435-9/156661747_108154751334621_2853146923974183697_n.jpg?_nc_cat=107&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=bcZUwHYTjYQAX84Jx6f&amp;_nc_ht=scontent.fscl11-2.fna&amp;oh=4ee960ea5b0e55e6d9002b66be25f562&amp;oe=608FEE5D</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/cristofer_andre_castillo_geronimo.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/inessolesdad.carvajalrojas</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-1.fna.fbcdn.net/v/t1.6435-9/151232717_10224772053718748_4776243202342209394_n.jpg?_nc_cat=106&amp;ccb=1-3&amp;_nc_sid=e3f864&amp;_nc_ohc=3F4p1Z_H8HgAX-O9_-C&amp;_nc_ht=scontent.fscl11-1.fna&amp;oh=87489d01724379e91ae001d81c385aef&amp;oe=609040AB</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/ines_soledad_carvajal_rojas.png</t>
+  </si>
+  <si>
+    <t>https://conectadosconlamemoria.cl/masquenunca/wp-content/uploads/2020/06/CAMPUSANO_DICTADURA.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/sergio_fernando_campusano_villches.png</t>
+  </si>
+  <si>
+    <t>https://twitter.com/jewolpaks</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lucia.a.caro.1/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/jose.hueicha.750/about</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-2.fna.fbcdn.net/v/t1.6435-9/67131296_107934687198492_7010686863996354560_n.jpg?_nc_cat=102&amp;ccb=1-3&amp;_nc_sid=09cbfe&amp;_nc_ohc=3ImHdbRM0PwAX92oNUR&amp;_nc_ht=scontent.fscl11-2.fna&amp;oh=285d86020d51e67870695732de37c1f9&amp;oe=608F152C</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/jose_octavio_parancan_hueicha.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/juanfrancisco.gonzalezcaro/about</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-2.fna.fbcdn.net/v/t1.6435-9/53347514_2163355257064381_5423453499004289024_n.jpg?_nc_cat=103&amp;ccb=1-3&amp;_nc_sid=174925&amp;_nc_ohc=6iJmdy20lXEAX-f0uvw&amp;_nc_ht=scontent.fscl11-2.fna&amp;oh=6663b10770c08b79fe669e7a941af886&amp;oe=608FB833</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/juan_francisco_gonzalez_caro.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/celina.llanllan</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/tags/celinallanllan/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sara.berna05</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/saramercedesbernamollo/</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-2.fna.fbcdn.net/v/t1.18169-9/14368622_1105792622833110_675208583424479045_n.jpg?_nc_cat=100&amp;ccb=1-3&amp;_nc_sid=174925&amp;_nc_ohc=98h6BeSo9MMAX-4z8QA&amp;_nc_ht=scontent.fscl11-2.fna&amp;oh=00163506d1eb9f25c60ae209b3b5f2e8&amp;oe=608F9415</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/sara_mercedes_berna_mollo.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marcelina.llancapancalfucura</t>
+  </si>
+  <si>
+    <t>https://scontent.fscl11-2.fna.fbcdn.net/v/t1.6435-9/67104391_102567984403474_794951601281302528_n.jpg?_nc_cat=102&amp;ccb=1-3&amp;_nc_sid=174925&amp;_nc_ohc=BvHkfW-VFeYAX_myFn4&amp;_nc_ht=scontent.fscl11-2.fna&amp;oh=4bd88a7f4fc211918e4548765626f004&amp;oe=6090A336</t>
   </si>
 </sst>
 </file>
@@ -2306,7 +2600,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2358,7 +2652,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2562,8 +2856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="M154" sqref="M154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2618,7 +2912,7 @@
         <v>218</v>
       </c>
       <c r="M1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="N1" t="s">
         <v>219</v>
@@ -2656,19 +2950,22 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J2" t="s">
         <v>355</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>672</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>357</v>
-      </c>
       <c r="M2" s="13" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="N2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>220</v>
@@ -2703,16 +3000,22 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
+        <v>357</v>
+      </c>
+      <c r="J3" t="s">
         <v>358</v>
       </c>
-      <c r="J3" t="s">
-        <v>359</v>
+      <c r="K3" t="s">
+        <v>673</v>
+      </c>
+      <c r="L3" t="s">
+        <v>674</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>619</v>
+        <v>675</v>
       </c>
       <c r="N3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>220</v>
@@ -2747,16 +3050,22 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
+        <v>359</v>
+      </c>
+      <c r="J4" t="s">
+        <v>676</v>
+      </c>
+      <c r="K4" t="s">
+        <v>677</v>
+      </c>
+      <c r="L4" t="s">
         <v>360</v>
       </c>
-      <c r="L4" t="s">
-        <v>361</v>
-      </c>
       <c r="M4" s="13" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="N4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>220</v>
@@ -2790,11 +3099,14 @@
       <c r="H5">
         <v>2</v>
       </c>
+      <c r="I5" t="s">
+        <v>678</v>
+      </c>
       <c r="M5" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>220</v>
@@ -2828,11 +3140,17 @@
       <c r="H6">
         <v>2</v>
       </c>
+      <c r="I6" t="s">
+        <v>679</v>
+      </c>
+      <c r="L6" t="s">
+        <v>680</v>
+      </c>
       <c r="M6" s="13" t="s">
-        <v>619</v>
+        <v>681</v>
       </c>
       <c r="N6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>220</v>
@@ -2867,13 +3185,16 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="L7" t="s">
+        <v>680</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>619</v>
+        <v>682</v>
       </c>
       <c r="N7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>220</v>
@@ -2908,22 +3229,22 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
+        <v>362</v>
+      </c>
+      <c r="J8" t="s">
         <v>363</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>364</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>365</v>
       </c>
-      <c r="L8" t="s">
-        <v>366</v>
-      </c>
       <c r="M8" s="13" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="N8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>220</v>
@@ -2958,13 +3279,16 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>367</v>
+        <v>366</v>
+      </c>
+      <c r="L9" t="s">
+        <v>683</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>619</v>
+        <v>684</v>
       </c>
       <c r="N9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>221</v>
@@ -2999,13 +3323,22 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>368</v>
+        <v>367</v>
+      </c>
+      <c r="J10" t="s">
+        <v>685</v>
+      </c>
+      <c r="K10" t="s">
+        <v>686</v>
+      </c>
+      <c r="L10" t="s">
+        <v>687</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>619</v>
+        <v>688</v>
       </c>
       <c r="N10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>221</v>
@@ -3040,10 +3373,10 @@
         <v>2</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>221</v>
@@ -3077,11 +3410,23 @@
       <c r="H12">
         <v>2</v>
       </c>
+      <c r="I12" t="s">
+        <v>689</v>
+      </c>
+      <c r="J12" t="s">
+        <v>690</v>
+      </c>
+      <c r="K12" t="s">
+        <v>691</v>
+      </c>
+      <c r="L12" t="s">
+        <v>692</v>
+      </c>
       <c r="M12" s="13" t="s">
-        <v>619</v>
+        <v>693</v>
       </c>
       <c r="N12" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>221</v>
@@ -3115,11 +3460,14 @@
       <c r="H13">
         <v>2</v>
       </c>
+      <c r="K13" t="s">
+        <v>694</v>
+      </c>
       <c r="M13" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N13" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>221</v>
@@ -3154,19 +3502,19 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
+        <v>368</v>
+      </c>
+      <c r="K14" t="s">
         <v>369</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>370</v>
       </c>
-      <c r="L14" t="s">
-        <v>371</v>
-      </c>
       <c r="M14" s="13" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="N14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>221</v>
@@ -3201,10 +3549,10 @@
         <v>2</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>221</v>
@@ -3238,11 +3586,17 @@
       <c r="H16">
         <v>2</v>
       </c>
+      <c r="I16" t="s">
+        <v>695</v>
+      </c>
+      <c r="L16" t="s">
+        <v>696</v>
+      </c>
       <c r="M16" s="13" t="s">
-        <v>619</v>
+        <v>697</v>
       </c>
       <c r="N16" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>221</v>
@@ -3277,13 +3631,13 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N17" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>221</v>
@@ -3318,13 +3672,19 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>373</v>
+        <v>372</v>
+      </c>
+      <c r="K18" t="s">
+        <v>698</v>
+      </c>
+      <c r="L18" t="s">
+        <v>699</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="N18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>222</v>
@@ -3359,13 +3719,16 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>374</v>
+        <v>373</v>
+      </c>
+      <c r="L19" t="s">
+        <v>701</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>619</v>
+        <v>702</v>
       </c>
       <c r="N19" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>222</v>
@@ -3400,22 +3763,22 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
+        <v>374</v>
+      </c>
+      <c r="J20" t="s">
         <v>375</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>376</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>377</v>
       </c>
-      <c r="L20" t="s">
-        <v>378</v>
-      </c>
       <c r="M20" s="13" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="N20" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>222</v>
@@ -3450,16 +3813,16 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
+        <v>378</v>
+      </c>
+      <c r="L21" t="s">
         <v>379</v>
       </c>
-      <c r="L21" t="s">
-        <v>380</v>
-      </c>
       <c r="M21" s="13" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="N21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q21" s="6" t="s">
         <v>222</v>
@@ -3494,13 +3857,19 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>381</v>
+        <v>380</v>
+      </c>
+      <c r="K22" t="s">
+        <v>703</v>
+      </c>
+      <c r="L22" t="s">
+        <v>704</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>619</v>
+        <v>705</v>
       </c>
       <c r="N22" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>222</v>
@@ -3535,13 +3904,13 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N23" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>222</v>
@@ -3576,16 +3945,16 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
+        <v>382</v>
+      </c>
+      <c r="L24" t="s">
         <v>383</v>
       </c>
-      <c r="L24" t="s">
-        <v>384</v>
-      </c>
       <c r="M24" s="13" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="N24" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>222</v>
@@ -3619,14 +3988,20 @@
       <c r="H25">
         <v>2</v>
       </c>
+      <c r="I25" t="s">
+        <v>706</v>
+      </c>
       <c r="K25" t="s">
-        <v>385</v>
+        <v>384</v>
+      </c>
+      <c r="L25" t="s">
+        <v>707</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>619</v>
+        <v>708</v>
       </c>
       <c r="N25" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>222</v>
@@ -3661,16 +4036,19 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
+        <v>385</v>
+      </c>
+      <c r="K26" t="s">
+        <v>709</v>
+      </c>
+      <c r="L26" t="s">
         <v>386</v>
       </c>
-      <c r="L26" t="s">
-        <v>387</v>
-      </c>
       <c r="M26" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="N26" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>222</v>
@@ -3705,16 +4083,19 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
+        <v>387</v>
+      </c>
+      <c r="J27" t="s">
         <v>388</v>
       </c>
-      <c r="J27" t="s">
-        <v>389</v>
+      <c r="L27" t="s">
+        <v>710</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>619</v>
+        <v>711</v>
       </c>
       <c r="N27" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>223</v>
@@ -3749,16 +4130,22 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
+        <v>389</v>
+      </c>
+      <c r="J28" t="s">
         <v>390</v>
       </c>
-      <c r="J28" t="s">
-        <v>391</v>
+      <c r="K28" t="s">
+        <v>712</v>
+      </c>
+      <c r="L28" t="s">
+        <v>713</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>619</v>
+        <v>714</v>
       </c>
       <c r="N28" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>223</v>
@@ -3793,16 +4180,19 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
+        <v>391</v>
+      </c>
+      <c r="K29" t="s">
         <v>392</v>
       </c>
-      <c r="K29" t="s">
-        <v>393</v>
+      <c r="L29" t="s">
+        <v>715</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>619</v>
+        <v>716</v>
       </c>
       <c r="N29" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q29" s="6" t="s">
         <v>223</v>
@@ -3836,11 +4226,23 @@
       <c r="H30">
         <v>2</v>
       </c>
+      <c r="I30" t="s">
+        <v>717</v>
+      </c>
+      <c r="J30" t="s">
+        <v>718</v>
+      </c>
+      <c r="K30" t="s">
+        <v>719</v>
+      </c>
+      <c r="L30" t="s">
+        <v>720</v>
+      </c>
       <c r="M30" s="13" t="s">
-        <v>619</v>
+        <v>721</v>
       </c>
       <c r="N30" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>223</v>
@@ -3875,10 +4277,10 @@
         <v>2</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N31" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>223</v>
@@ -3913,16 +4315,22 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
+        <v>393</v>
+      </c>
+      <c r="J32" t="s">
         <v>394</v>
       </c>
-      <c r="J32" t="s">
-        <v>395</v>
+      <c r="K32" t="s">
+        <v>722</v>
+      </c>
+      <c r="L32" t="s">
+        <v>723</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>619</v>
+        <v>724</v>
       </c>
       <c r="N32" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>223</v>
@@ -3957,13 +4365,19 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>396</v>
+        <v>395</v>
+      </c>
+      <c r="K33" t="s">
+        <v>725</v>
+      </c>
+      <c r="L33" t="s">
+        <v>726</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>619</v>
+        <v>727</v>
       </c>
       <c r="N33" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>223</v>
@@ -3998,13 +4412,19 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>397</v>
+        <v>396</v>
+      </c>
+      <c r="K34" t="s">
+        <v>728</v>
+      </c>
+      <c r="L34" t="s">
+        <v>729</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>619</v>
+        <v>730</v>
       </c>
       <c r="N34" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>223</v>
@@ -4039,10 +4459,10 @@
         <v>2</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N35" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>223</v>
@@ -4077,10 +4497,10 @@
         <v>2</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N36" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>223</v>
@@ -4115,13 +4535,13 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N37" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q37" s="6" t="s">
         <v>223</v>
@@ -4156,16 +4576,19 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
+        <v>398</v>
+      </c>
+      <c r="J38" t="s">
         <v>399</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
+        <v>731</v>
+      </c>
+      <c r="L38" t="s">
         <v>400</v>
       </c>
-      <c r="L38" t="s">
-        <v>401</v>
-      </c>
       <c r="M38" s="13" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="N38" t="s">
         <v>259</v>
@@ -4203,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N39" t="s">
         <v>259</v>
@@ -4240,8 +4663,14 @@
       <c r="H40">
         <v>1</v>
       </c>
+      <c r="I40" t="s">
+        <v>732</v>
+      </c>
+      <c r="L40" t="s">
+        <v>733</v>
+      </c>
       <c r="M40" s="13" t="s">
-        <v>619</v>
+        <v>734</v>
       </c>
       <c r="N40" t="s">
         <v>259</v>
@@ -4279,10 +4708,10 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>402</v>
+        <v>735</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N41" t="s">
         <v>259</v>
@@ -4320,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N42" t="s">
         <v>259</v>
@@ -4358,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N43" t="s">
         <v>259</v>
@@ -4396,13 +4825,19 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>403</v>
+        <v>401</v>
+      </c>
+      <c r="J44" t="s">
+        <v>736</v>
+      </c>
+      <c r="K44" t="s">
+        <v>737</v>
       </c>
       <c r="L44" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="N44" t="s">
         <v>259</v>
@@ -4440,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N45" t="s">
         <v>259</v>
@@ -4478,13 +4913,13 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L46" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="N46" t="s">
         <v>259</v>
@@ -4522,13 +4957,13 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L47" t="s">
-        <v>408</v>
+        <v>771</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="N47" t="s">
         <v>259</v>
@@ -4565,8 +5000,17 @@
       <c r="H48">
         <v>1</v>
       </c>
+      <c r="I48" t="s">
+        <v>738</v>
+      </c>
+      <c r="K48" t="s">
+        <v>739</v>
+      </c>
+      <c r="L48" t="s">
+        <v>740</v>
+      </c>
       <c r="M48" s="13" t="s">
-        <v>619</v>
+        <v>741</v>
       </c>
       <c r="N48" t="s">
         <v>259</v>
@@ -4604,13 +5048,13 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L49" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="N49" t="s">
         <v>259</v>
@@ -4647,8 +5091,20 @@
       <c r="H50">
         <v>1</v>
       </c>
+      <c r="I50" t="s">
+        <v>742</v>
+      </c>
+      <c r="J50" t="s">
+        <v>743</v>
+      </c>
+      <c r="K50" t="s">
+        <v>744</v>
+      </c>
+      <c r="L50" t="s">
+        <v>745</v>
+      </c>
       <c r="M50" s="13" t="s">
-        <v>619</v>
+        <v>746</v>
       </c>
       <c r="N50" t="s">
         <v>259</v>
@@ -4686,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N51" t="s">
         <v>259</v>
@@ -4724,13 +5180,13 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L52" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="N52" t="s">
         <v>259</v>
@@ -4768,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N53" t="s">
         <v>259</v>
@@ -4805,8 +5261,11 @@
       <c r="H54">
         <v>1</v>
       </c>
+      <c r="K54" t="s">
+        <v>747</v>
+      </c>
       <c r="M54" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N54" t="s">
         <v>259</v>
@@ -4844,7 +5303,7 @@
         <v>1</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N55" t="s">
         <v>259</v>
@@ -4881,8 +5340,14 @@
       <c r="H56">
         <v>1</v>
       </c>
+      <c r="I56" t="s">
+        <v>748</v>
+      </c>
+      <c r="L56" t="s">
+        <v>749</v>
+      </c>
       <c r="M56" s="13" t="s">
-        <v>619</v>
+        <v>750</v>
       </c>
       <c r="N56" t="s">
         <v>259</v>
@@ -4920,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N57" t="s">
         <v>259</v>
@@ -4957,11 +5422,17 @@
       <c r="H58">
         <v>1</v>
       </c>
+      <c r="I58" t="s">
+        <v>751</v>
+      </c>
       <c r="K58" t="s">
-        <v>413</v>
+        <v>410</v>
+      </c>
+      <c r="L58" t="s">
+        <v>752</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>619</v>
+        <v>753</v>
       </c>
       <c r="N58" t="s">
         <v>259</v>
@@ -4999,13 +5470,13 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L59" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N59" t="s">
         <v>259</v>
@@ -5043,13 +5514,13 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L60" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="N60" t="s">
         <v>259</v>
@@ -5086,8 +5557,11 @@
       <c r="H61">
         <v>1</v>
       </c>
+      <c r="L61" t="s">
+        <v>754</v>
+      </c>
       <c r="M61" s="13" t="s">
-        <v>619</v>
+        <v>755</v>
       </c>
       <c r="N61" t="s">
         <v>259</v>
@@ -5131,7 +5605,7 @@
         <v>238</v>
       </c>
       <c r="M62" s="13" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="N62" t="s">
         <v>259</v>
@@ -5175,7 +5649,7 @@
         <v>239</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="N63" t="s">
         <v>259</v>
@@ -5219,7 +5693,7 @@
         <v>241</v>
       </c>
       <c r="M64" s="13" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="N64" t="s">
         <v>259</v>
@@ -5269,7 +5743,7 @@
         <v>244</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="N65" t="s">
         <v>259</v>
@@ -5316,7 +5790,7 @@
         <v>247</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="N66" t="s">
         <v>259</v>
@@ -5360,7 +5834,7 @@
         <v>248</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="N67" t="s">
         <v>259</v>
@@ -5400,14 +5874,17 @@
       <c r="I68" t="s">
         <v>249</v>
       </c>
+      <c r="J68" t="s">
+        <v>756</v>
+      </c>
       <c r="L68" t="s">
         <v>250</v>
       </c>
       <c r="M68" s="13" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="N68" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q68" s="6" t="s">
         <v>224</v>
@@ -5445,10 +5922,10 @@
         <v>251</v>
       </c>
       <c r="M69" s="13" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="N69" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q69" s="6" t="s">
         <v>224</v>
@@ -5492,10 +5969,10 @@
         <v>254</v>
       </c>
       <c r="M70" s="13" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="N70" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q70" s="6" t="s">
         <v>224</v>
@@ -5533,10 +6010,10 @@
         <v>255</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="N71" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q71" s="6" t="s">
         <v>224</v>
@@ -5576,14 +6053,17 @@
       <c r="J72" t="s">
         <v>257</v>
       </c>
+      <c r="K72" t="s">
+        <v>757</v>
+      </c>
       <c r="L72" t="s">
         <v>258</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="N72" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q72" s="6" t="s">
         <v>224</v>
@@ -5618,10 +6098,10 @@
         <v>1</v>
       </c>
       <c r="M73" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N73" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q73" s="6" t="s">
         <v>224</v>
@@ -5662,10 +6142,10 @@
         <v>261</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="N74" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q74" s="6" t="s">
         <v>224</v>
@@ -5699,11 +6179,17 @@
       <c r="H75">
         <v>1</v>
       </c>
+      <c r="I75" t="s">
+        <v>758</v>
+      </c>
+      <c r="L75" t="s">
+        <v>759</v>
+      </c>
       <c r="M75" s="13" t="s">
-        <v>619</v>
+        <v>760</v>
       </c>
       <c r="N75" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q75" s="6" t="s">
         <v>224</v>
@@ -5737,11 +6223,17 @@
       <c r="H76">
         <v>1</v>
       </c>
+      <c r="I76" t="s">
+        <v>761</v>
+      </c>
+      <c r="L76" t="s">
+        <v>762</v>
+      </c>
       <c r="M76" s="13" t="s">
-        <v>619</v>
+        <v>763</v>
       </c>
       <c r="N76" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q76" s="6" t="s">
         <v>224</v>
@@ -5775,11 +6267,17 @@
       <c r="H77">
         <v>1</v>
       </c>
+      <c r="I77" t="s">
+        <v>764</v>
+      </c>
+      <c r="K77" t="s">
+        <v>765</v>
+      </c>
       <c r="M77" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N77" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q77" s="6" t="s">
         <v>224</v>
@@ -5826,7 +6324,7 @@
         <v>265</v>
       </c>
       <c r="M78" s="13" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="N78" t="s">
         <v>259</v>
@@ -5870,7 +6368,7 @@
         <v>267</v>
       </c>
       <c r="M79" s="13" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="N79" t="s">
         <v>259</v>
@@ -5917,7 +6415,7 @@
         <v>270</v>
       </c>
       <c r="M80" s="13" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="N80" t="s">
         <v>259</v>
@@ -5954,8 +6452,17 @@
       <c r="H81">
         <v>1</v>
       </c>
+      <c r="I81" t="s">
+        <v>766</v>
+      </c>
+      <c r="K81" t="s">
+        <v>767</v>
+      </c>
+      <c r="L81" t="s">
+        <v>768</v>
+      </c>
       <c r="M81" s="13" t="s">
-        <v>619</v>
+        <v>769</v>
       </c>
       <c r="N81" t="s">
         <v>259</v>
@@ -5999,7 +6506,7 @@
         <v>272</v>
       </c>
       <c r="M82" s="13" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="N82" t="s">
         <v>259</v>
@@ -6040,7 +6547,7 @@
         <v>273</v>
       </c>
       <c r="M83" s="13" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="N83" t="s">
         <v>259</v>
@@ -6090,7 +6597,7 @@
         <v>277</v>
       </c>
       <c r="M84" s="13" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="N84" t="s">
         <v>259</v>
@@ -6128,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="M85" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N85" t="s">
         <v>259</v>
@@ -6175,7 +6682,7 @@
         <v>280</v>
       </c>
       <c r="M86" s="13" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="N86" t="s">
         <v>259</v>
@@ -6213,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="M87" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N87" t="s">
         <v>259</v>
@@ -6260,7 +6767,7 @@
         <v>283</v>
       </c>
       <c r="M88" s="13" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="N88" t="s">
         <v>259</v>
@@ -6307,7 +6814,7 @@
         <v>283</v>
       </c>
       <c r="M89" s="13" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="N89" t="s">
         <v>259</v>
@@ -6357,7 +6864,7 @@
         <v>287</v>
       </c>
       <c r="M90" s="13" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="N90" t="s">
         <v>259</v>
@@ -6395,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="M91" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N91" t="s">
         <v>259</v>
@@ -6442,7 +6949,7 @@
         <v>290</v>
       </c>
       <c r="M92" s="13" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="N92" t="s">
         <v>259</v>
@@ -6480,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="M93" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N93" t="s">
         <v>259</v>
@@ -6530,10 +7037,10 @@
         <v>294</v>
       </c>
       <c r="M94" s="13" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="N94" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q94" s="6" t="s">
         <v>225</v>
@@ -6567,11 +7074,14 @@
       <c r="H95">
         <v>7</v>
       </c>
+      <c r="I95" t="s">
+        <v>770</v>
+      </c>
       <c r="M95" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N95" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q95" s="6" t="s">
         <v>225</v>
@@ -6615,13 +7125,13 @@
         <v>297</v>
       </c>
       <c r="L96" t="s">
-        <v>298</v>
+        <v>671</v>
       </c>
       <c r="M96" s="13" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N96" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q96" s="6" t="s">
         <v>225</v>
@@ -6656,19 +7166,19 @@
         <v>7</v>
       </c>
       <c r="I97" t="s">
+        <v>298</v>
+      </c>
+      <c r="J97" t="s">
         <v>299</v>
       </c>
-      <c r="J97" t="s">
+      <c r="L97" t="s">
         <v>300</v>
       </c>
-      <c r="L97" t="s">
-        <v>301</v>
-      </c>
       <c r="M97" s="13" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="N97" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q97" s="6" t="s">
         <v>225</v>
@@ -6703,22 +7213,22 @@
         <v>7</v>
       </c>
       <c r="I98" t="s">
+        <v>301</v>
+      </c>
+      <c r="J98" t="s">
         <v>302</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>303</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>304</v>
       </c>
-      <c r="L98" t="s">
-        <v>305</v>
-      </c>
       <c r="M98" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="N98" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q98" s="6" t="s">
         <v>225</v>
@@ -6753,13 +7263,13 @@
         <v>7</v>
       </c>
       <c r="I99" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M99" s="13" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="N99" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q99" s="6" t="s">
         <v>225</v>
@@ -6794,22 +7304,22 @@
         <v>7</v>
       </c>
       <c r="I100" t="s">
+        <v>306</v>
+      </c>
+      <c r="J100" t="s">
         <v>307</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>308</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>309</v>
       </c>
-      <c r="L100" t="s">
-        <v>310</v>
-      </c>
       <c r="M100" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="N100" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q100" s="6" t="s">
         <v>225</v>
@@ -6844,13 +7354,13 @@
         <v>7</v>
       </c>
       <c r="K101" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M101" s="13" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="N101" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q101" s="6" t="s">
         <v>225</v>
@@ -6885,16 +7395,16 @@
         <v>7</v>
       </c>
       <c r="I102" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J102" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M102" s="13" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="N102" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q102" s="6" t="s">
         <v>225</v>
@@ -6929,19 +7439,19 @@
         <v>7</v>
       </c>
       <c r="I103" t="s">
+        <v>311</v>
+      </c>
+      <c r="K103" t="s">
         <v>312</v>
       </c>
-      <c r="K103" t="s">
+      <c r="L103" t="s">
         <v>313</v>
       </c>
-      <c r="L103" t="s">
-        <v>314</v>
-      </c>
       <c r="M103" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="N103" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q103" s="6" t="s">
         <v>225</v>
@@ -6976,22 +7486,22 @@
         <v>7</v>
       </c>
       <c r="I104" t="s">
+        <v>314</v>
+      </c>
+      <c r="J104" t="s">
         <v>315</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>316</v>
       </c>
-      <c r="K104" t="s">
+      <c r="L104" t="s">
         <v>317</v>
       </c>
-      <c r="L104" t="s">
-        <v>318</v>
-      </c>
       <c r="M104" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="N104" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q104" s="6" t="s">
         <v>225</v>
@@ -7026,19 +7536,19 @@
         <v>7</v>
       </c>
       <c r="I105" t="s">
+        <v>318</v>
+      </c>
+      <c r="K105" t="s">
         <v>319</v>
       </c>
-      <c r="K105" t="s">
+      <c r="L105" t="s">
         <v>320</v>
       </c>
-      <c r="L105" t="s">
-        <v>321</v>
-      </c>
       <c r="M105" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="N105" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q105" s="6" t="s">
         <v>225</v>
@@ -7073,22 +7583,22 @@
         <v>7</v>
       </c>
       <c r="I106" t="s">
+        <v>321</v>
+      </c>
+      <c r="J106" t="s">
         <v>322</v>
       </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>323</v>
       </c>
-      <c r="K106" t="s">
+      <c r="L106" t="s">
         <v>324</v>
       </c>
-      <c r="L106" t="s">
-        <v>325</v>
-      </c>
       <c r="M106" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="N106" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q106" s="6" t="s">
         <v>225</v>
@@ -7114,7 +7624,7 @@
         <v>11</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G107">
         <v>8</v>
@@ -7123,10 +7633,10 @@
         <v>7</v>
       </c>
       <c r="M107" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N107" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q107" s="6" t="s">
         <v>225</v>
@@ -7161,19 +7671,19 @@
         <v>7</v>
       </c>
       <c r="I108" t="s">
+        <v>325</v>
+      </c>
+      <c r="K108" t="s">
         <v>326</v>
       </c>
-      <c r="K108" t="s">
+      <c r="L108" t="s">
         <v>327</v>
       </c>
-      <c r="L108" t="s">
-        <v>328</v>
-      </c>
       <c r="M108" s="13" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="N108" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q108" s="6" t="s">
         <v>225</v>
@@ -7208,13 +7718,13 @@
         <v>7</v>
       </c>
       <c r="I109" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M109" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N109" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q109" s="6" t="s">
         <v>225</v>
@@ -7249,19 +7759,19 @@
         <v>7</v>
       </c>
       <c r="I110" t="s">
+        <v>329</v>
+      </c>
+      <c r="K110" t="s">
         <v>330</v>
       </c>
-      <c r="K110" t="s">
+      <c r="L110" t="s">
         <v>331</v>
       </c>
-      <c r="L110" t="s">
-        <v>332</v>
-      </c>
       <c r="M110" s="13" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="N110" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q110" s="6" t="s">
         <v>225</v>
@@ -7296,22 +7806,22 @@
         <v>7</v>
       </c>
       <c r="I111" t="s">
+        <v>332</v>
+      </c>
+      <c r="J111" t="s">
         <v>333</v>
       </c>
-      <c r="J111" t="s">
+      <c r="K111" t="s">
         <v>334</v>
       </c>
-      <c r="K111" t="s">
+      <c r="L111" t="s">
         <v>335</v>
       </c>
-      <c r="L111" t="s">
-        <v>336</v>
-      </c>
       <c r="M111" s="13" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="N111" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q111" s="6" t="s">
         <v>225</v>
@@ -7346,16 +7856,16 @@
         <v>7</v>
       </c>
       <c r="I112" t="s">
+        <v>336</v>
+      </c>
+      <c r="K112" t="s">
         <v>337</v>
       </c>
-      <c r="K112" t="s">
-        <v>338</v>
-      </c>
       <c r="M112" s="13" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="N112" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q112" s="6" t="s">
         <v>225</v>
@@ -7381,7 +7891,7 @@
         <v>11</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G113">
         <v>8</v>
@@ -7390,10 +7900,10 @@
         <v>7</v>
       </c>
       <c r="M113" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N113" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q113" s="6" t="s">
         <v>226</v>
@@ -7428,16 +7938,16 @@
         <v>7</v>
       </c>
       <c r="I114" t="s">
+        <v>338</v>
+      </c>
+      <c r="L114" t="s">
         <v>339</v>
       </c>
-      <c r="L114" t="s">
-        <v>340</v>
-      </c>
       <c r="M114" s="13" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="N114" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q114" s="6" t="s">
         <v>226</v>
@@ -7472,13 +7982,13 @@
         <v>7</v>
       </c>
       <c r="I115" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M115" s="13" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="N115" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q115" s="6" t="s">
         <v>226</v>
@@ -7503,7 +8013,7 @@
       <c r="E116" t="s">
         <v>11</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G116">
@@ -7513,19 +8023,19 @@
         <v>7</v>
       </c>
       <c r="I116" t="s">
+        <v>341</v>
+      </c>
+      <c r="K116" t="s">
         <v>342</v>
       </c>
-      <c r="K116" t="s">
+      <c r="L116" t="s">
         <v>343</v>
       </c>
-      <c r="L116" t="s">
-        <v>344</v>
-      </c>
       <c r="M116" s="13" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="N116" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q116" s="6" t="s">
         <v>226</v>
@@ -7550,7 +8060,7 @@
       <c r="E117" t="s">
         <v>8</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G117">
@@ -7560,10 +8070,10 @@
         <v>7</v>
       </c>
       <c r="M117" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N117" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q117" s="6" t="s">
         <v>226</v>
@@ -7588,7 +8098,7 @@
       <c r="E118" t="s">
         <v>11</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G118">
@@ -7598,22 +8108,22 @@
         <v>7</v>
       </c>
       <c r="I118" t="s">
+        <v>344</v>
+      </c>
+      <c r="J118" t="s">
         <v>345</v>
       </c>
-      <c r="J118" t="s">
+      <c r="K118" t="s">
         <v>346</v>
       </c>
-      <c r="K118" t="s">
+      <c r="L118" t="s">
         <v>347</v>
       </c>
-      <c r="L118" t="s">
-        <v>348</v>
-      </c>
       <c r="M118" s="13" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="N118" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q118" s="6" t="s">
         <v>226</v>
@@ -7638,7 +8148,7 @@
       <c r="E119" t="s">
         <v>8</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G119">
@@ -7648,10 +8158,10 @@
         <v>7</v>
       </c>
       <c r="M119" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N119" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q119" s="6" t="s">
         <v>226</v>
@@ -7676,7 +8186,7 @@
       <c r="E120" t="s">
         <v>8</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G120">
@@ -7686,19 +8196,19 @@
         <v>7</v>
       </c>
       <c r="I120" t="s">
+        <v>348</v>
+      </c>
+      <c r="K120" t="s">
         <v>349</v>
       </c>
-      <c r="K120" t="s">
+      <c r="L120" t="s">
         <v>350</v>
       </c>
-      <c r="L120" t="s">
-        <v>351</v>
-      </c>
       <c r="M120" s="13" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="N120" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q120" s="6" t="s">
         <v>226</v>
@@ -7723,7 +8233,7 @@
       <c r="E121" t="s">
         <v>11</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G121">
@@ -7733,19 +8243,19 @@
         <v>7</v>
       </c>
       <c r="I121" t="s">
+        <v>351</v>
+      </c>
+      <c r="K121" t="s">
         <v>352</v>
       </c>
-      <c r="K121" t="s">
+      <c r="L121" t="s">
         <v>353</v>
       </c>
-      <c r="L121" t="s">
-        <v>354</v>
-      </c>
       <c r="M121" s="13" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="N121" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q121" s="6" t="s">
         <v>226</v>
@@ -7770,7 +8280,7 @@
       <c r="E122" t="s">
         <v>11</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G122">
@@ -7780,19 +8290,19 @@
         <v>7</v>
       </c>
       <c r="I122" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K122" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L122" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M122" s="13" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="N122" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q122" s="6" t="s">
         <v>226</v>
@@ -7817,7 +8327,7 @@
       <c r="E123" t="s">
         <v>8</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G123">
@@ -7827,19 +8337,19 @@
         <v>7</v>
       </c>
       <c r="I123" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K123" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L123" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M123" s="13" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N123" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q123" s="6" t="s">
         <v>226</v>
@@ -7874,22 +8384,22 @@
         <v>7</v>
       </c>
       <c r="I124" t="s">
+        <v>421</v>
+      </c>
+      <c r="J124" t="s">
+        <v>422</v>
+      </c>
+      <c r="K124" t="s">
+        <v>423</v>
+      </c>
+      <c r="L124" t="s">
         <v>424</v>
       </c>
-      <c r="J124" t="s">
-        <v>425</v>
-      </c>
-      <c r="K124" t="s">
-        <v>426</v>
-      </c>
-      <c r="L124" t="s">
-        <v>427</v>
-      </c>
       <c r="M124" s="13" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="N124" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q124" s="6" t="s">
         <v>226</v>
@@ -7924,13 +8434,13 @@
         <v>7</v>
       </c>
       <c r="I125" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="M125" s="13" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="N125" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q125" s="6" t="s">
         <v>226</v>
@@ -7965,16 +8475,16 @@
         <v>7</v>
       </c>
       <c r="I126" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L126" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M126" s="13" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="N126" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q126" s="6" t="s">
         <v>226</v>
@@ -8009,19 +8519,19 @@
         <v>7</v>
       </c>
       <c r="I127" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J127" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L127" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M127" s="13" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N127" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q127" s="6" t="s">
         <v>226</v>
@@ -8056,22 +8566,22 @@
         <v>7</v>
       </c>
       <c r="I128" t="s">
+        <v>430</v>
+      </c>
+      <c r="J128" t="s">
+        <v>431</v>
+      </c>
+      <c r="K128" t="s">
+        <v>432</v>
+      </c>
+      <c r="L128" t="s">
         <v>433</v>
       </c>
-      <c r="J128" t="s">
-        <v>434</v>
-      </c>
-      <c r="K128" t="s">
-        <v>435</v>
-      </c>
-      <c r="L128" t="s">
-        <v>436</v>
-      </c>
       <c r="M128" s="13" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="N128" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q128" s="6" t="s">
         <v>226</v>
@@ -8106,13 +8616,13 @@
         <v>7</v>
       </c>
       <c r="I129" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="M129" s="13" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="N129" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q129" s="6" t="s">
         <v>226</v>
@@ -8147,22 +8657,22 @@
         <v>7</v>
       </c>
       <c r="I130" t="s">
+        <v>434</v>
+      </c>
+      <c r="J130" t="s">
+        <v>435</v>
+      </c>
+      <c r="K130" t="s">
+        <v>436</v>
+      </c>
+      <c r="L130" t="s">
         <v>437</v>
       </c>
-      <c r="J130" t="s">
-        <v>438</v>
-      </c>
-      <c r="K130" t="s">
-        <v>439</v>
-      </c>
-      <c r="L130" t="s">
-        <v>440</v>
-      </c>
       <c r="M130" s="13" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="N130" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q130" s="6" t="s">
         <v>226</v>
@@ -8197,19 +8707,19 @@
         <v>7</v>
       </c>
       <c r="I131" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K131" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L131" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M131" s="13" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N131" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q131" s="6" t="s">
         <v>226</v>
@@ -8244,16 +8754,16 @@
         <v>7</v>
       </c>
       <c r="I132" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L132" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M132" s="13" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="N132" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q132" s="6" t="s">
         <v>226</v>
@@ -8288,10 +8798,10 @@
         <v>7</v>
       </c>
       <c r="M133" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N133" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q133" s="6" t="s">
         <v>226</v>
@@ -8316,7 +8826,7 @@
       <c r="E134" t="s">
         <v>8</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G134">
@@ -8326,19 +8836,19 @@
         <v>7</v>
       </c>
       <c r="I134" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="J134" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="K134" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="M134" s="13" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="N134" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q134" s="6" t="s">
         <v>226</v>
@@ -8373,10 +8883,10 @@
         <v>7</v>
       </c>
       <c r="M135" s="13" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="N135" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q135" s="6" t="s">
         <v>226</v>
@@ -8401,7 +8911,7 @@
       <c r="E136" t="s">
         <v>8</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G136">
@@ -8411,19 +8921,19 @@
         <v>7</v>
       </c>
       <c r="I136" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K136" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L136" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M136" s="13" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N136" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q136" s="6" t="s">
         <v>226</v>
@@ -8458,10 +8968,10 @@
         <v>7</v>
       </c>
       <c r="M137" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N137" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q137" s="6" t="s">
         <v>226</v>
@@ -8486,7 +8996,7 @@
       <c r="E138" t="s">
         <v>8</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G138">
@@ -8496,16 +9006,16 @@
         <v>7</v>
       </c>
       <c r="I138" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L138" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M138" s="13" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="N138" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q138" s="6" t="s">
         <v>226</v>
@@ -8540,10 +9050,10 @@
         <v>7</v>
       </c>
       <c r="M139" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N139" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q139" s="6" t="s">
         <v>226</v>
@@ -8568,7 +9078,7 @@
       <c r="E140" t="s">
         <v>8</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G140">
@@ -8578,16 +9088,16 @@
         <v>7</v>
       </c>
       <c r="I140" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="K140" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M140" s="13" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="N140" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q140" s="6" t="s">
         <v>226</v>
@@ -8622,13 +9132,13 @@
         <v>7</v>
       </c>
       <c r="I141" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M141" s="13" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="N141" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q141" s="6" t="s">
         <v>226</v>
@@ -8663,16 +9173,16 @@
         <v>7</v>
       </c>
       <c r="I142" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="K142" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="M142" s="13" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="N142" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q142" s="6" t="s">
         <v>226</v>
@@ -8697,7 +9207,7 @@
       <c r="E143" t="s">
         <v>11</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G143">
@@ -8707,16 +9217,16 @@
         <v>7</v>
       </c>
       <c r="J143" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L143" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M143" s="13" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="N143" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q143" s="6" t="s">
         <v>227</v>
@@ -8751,19 +9261,19 @@
         <v>7</v>
       </c>
       <c r="I144" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="J144" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="K144" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="M144" s="13" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="N144" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q144" s="6" t="s">
         <v>227</v>
@@ -8798,10 +9308,10 @@
         <v>7</v>
       </c>
       <c r="M145" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N145" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q145" s="6" t="s">
         <v>227</v>
@@ -8836,16 +9346,16 @@
         <v>7</v>
       </c>
       <c r="I146" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L146" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M146" s="13" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N146" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q146" s="6" t="s">
         <v>227</v>
@@ -8880,16 +9390,16 @@
         <v>7</v>
       </c>
       <c r="I147" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L147" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M147" s="13" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="N147" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q147" s="6" t="s">
         <v>227</v>
@@ -8924,16 +9434,16 @@
         <v>7</v>
       </c>
       <c r="I148" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L148" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M148" s="13" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="N148" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q148" s="6" t="s">
         <v>227</v>
@@ -8968,13 +9478,13 @@
         <v>7</v>
       </c>
       <c r="K149" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M149" s="13" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="N149" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q149" s="6" t="s">
         <v>227</v>
@@ -9009,19 +9519,19 @@
         <v>7</v>
       </c>
       <c r="I150" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K150" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L150" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M150" s="13" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N150" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q150" s="6" t="s">
         <v>227</v>
@@ -9056,10 +9566,10 @@
         <v>7</v>
       </c>
       <c r="M151" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N151" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q151" s="6" t="s">
         <v>227</v>
@@ -9094,16 +9604,16 @@
         <v>7</v>
       </c>
       <c r="I152" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K152" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M152" s="13" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="N152" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q152" s="6" t="s">
         <v>227</v>
@@ -9138,13 +9648,13 @@
         <v>7</v>
       </c>
       <c r="I153" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M153" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N153" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q153" s="6" t="s">
         <v>227</v>
@@ -9179,16 +9689,16 @@
         <v>7</v>
       </c>
       <c r="I154" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L154" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M154" s="13" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="N154" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q154" s="6" t="s">
         <v>227</v>
@@ -9223,10 +9733,10 @@
         <v>7</v>
       </c>
       <c r="M155" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N155" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q155" s="6" t="s">
         <v>227</v>
@@ -9261,19 +9771,19 @@
         <v>7</v>
       </c>
       <c r="I156" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K156" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L156" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M156" s="13" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="N156" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q156" s="6" t="s">
         <v>227</v>
@@ -9308,19 +9818,19 @@
         <v>7</v>
       </c>
       <c r="I157" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J157" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L157" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M157" s="13" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="N157" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q157" s="6" t="s">
         <v>227</v>
@@ -9355,16 +9865,16 @@
         <v>7</v>
       </c>
       <c r="I158" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L158" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M158" s="13" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="N158" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q158" s="6" t="s">
         <v>227</v>
@@ -9399,10 +9909,10 @@
         <v>7</v>
       </c>
       <c r="M159" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N159" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q159" s="6" t="s">
         <v>227</v>
@@ -9437,16 +9947,16 @@
         <v>7</v>
       </c>
       <c r="I160" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L160" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M160" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="N160" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q160" s="6" t="s">
         <v>227</v>
@@ -9481,16 +9991,16 @@
         <v>7</v>
       </c>
       <c r="K161" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L161" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M161" s="13" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="N161" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q161" s="6" t="s">
         <v>227</v>
@@ -9525,16 +10035,16 @@
         <v>7</v>
       </c>
       <c r="I162" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K162" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M162" s="13" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="N162" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q162" s="6" t="s">
         <v>227</v>
@@ -9569,13 +10079,13 @@
         <v>7</v>
       </c>
       <c r="I163" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M163" s="13" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="N163" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q163" s="6" t="s">
         <v>227</v>
@@ -9610,10 +10120,10 @@
         <v>7</v>
       </c>
       <c r="M164" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N164" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q164" s="6" t="s">
         <v>227</v>
@@ -9648,19 +10158,19 @@
         <v>7</v>
       </c>
       <c r="I165" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K165" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L165" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M165" s="13" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="N165" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q165" s="6" t="s">
         <v>227</v>
@@ -9695,19 +10205,19 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
+        <v>483</v>
+      </c>
+      <c r="K166" t="s">
+        <v>484</v>
+      </c>
+      <c r="L166" t="s">
+        <v>485</v>
+      </c>
+      <c r="M166" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="N166" s="9" t="s">
         <v>486</v>
-      </c>
-      <c r="K166" t="s">
-        <v>487</v>
-      </c>
-      <c r="L166" t="s">
-        <v>488</v>
-      </c>
-      <c r="M166" s="13" t="s">
-        <v>610</v>
-      </c>
-      <c r="N166" s="9" t="s">
-        <v>489</v>
       </c>
       <c r="Q166" s="6" t="s">
         <v>227</v>
@@ -9742,10 +10252,10 @@
         <v>1</v>
       </c>
       <c r="M167" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N167" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q167" s="6" t="s">
         <v>227</v>
@@ -9780,16 +10290,16 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L168" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M168" s="13" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="N168" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q168" s="6" t="s">
         <v>227</v>
@@ -9824,13 +10334,13 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M169" s="13" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="N169" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q169" s="6" t="s">
         <v>227</v>
@@ -9865,16 +10375,16 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="L170" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M170" s="13" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N170" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q170" s="6" t="s">
         <v>227</v>
@@ -9909,13 +10419,13 @@
         <v>1</v>
       </c>
       <c r="L171" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M171" s="13" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="N171" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q171" s="6" t="s">
         <v>227</v>
@@ -9950,10 +10460,10 @@
         <v>1</v>
       </c>
       <c r="M172" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N172" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q172" s="6" t="s">
         <v>227</v>
@@ -9988,10 +10498,10 @@
         <v>1</v>
       </c>
       <c r="M173" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N173" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q173" s="6" t="s">
         <v>227</v>
@@ -10026,13 +10536,13 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="M174" s="13" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="N174" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q174" s="6" t="s">
         <v>227</v>
@@ -10067,10 +10577,10 @@
         <v>1</v>
       </c>
       <c r="M175" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N175" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q175" s="6" t="s">
         <v>227</v>
@@ -10105,19 +10615,19 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K176" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L176" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M176" s="13" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="N176" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q176" s="6" t="s">
         <v>228</v>
@@ -10152,10 +10662,10 @@
         <v>1</v>
       </c>
       <c r="M177" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N177" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q177" s="6" t="s">
         <v>228</v>
@@ -10190,16 +10700,16 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L178" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M178" s="13" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="N178" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q178" s="6" t="s">
         <v>228</v>
@@ -10234,10 +10744,10 @@
         <v>1</v>
       </c>
       <c r="M179" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N179" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q179" s="6" t="s">
         <v>228</v>
@@ -10272,22 +10782,22 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
+        <v>497</v>
+      </c>
+      <c r="J180" t="s">
+        <v>498</v>
+      </c>
+      <c r="K180" t="s">
+        <v>499</v>
+      </c>
+      <c r="L180" t="s">
         <v>500</v>
       </c>
-      <c r="J180" t="s">
-        <v>501</v>
-      </c>
-      <c r="K180" t="s">
-        <v>502</v>
-      </c>
-      <c r="L180" t="s">
-        <v>503</v>
-      </c>
       <c r="M180" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="N180" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q180" s="6" t="s">
         <v>228</v>
@@ -10322,16 +10832,16 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L181" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M181" s="13" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="N181" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q181" s="6" t="s">
         <v>228</v>
@@ -10366,13 +10876,13 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="L182" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M182" s="13" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="N182" t="s">
         <v>259</v>
@@ -10410,7 +10920,7 @@
         <v>1</v>
       </c>
       <c r="M183" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N183" t="s">
         <v>259</v>
@@ -10430,13 +10940,13 @@
         <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D184" t="s">
         <v>213</v>
       </c>
       <c r="E184" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F184" t="s">
         <v>52</v>
@@ -10448,10 +10958,10 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="M184" s="13" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N184" t="s">
         <v>259</v>
@@ -10471,13 +10981,13 @@
         <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D185" t="s">
         <v>214</v>
       </c>
       <c r="E185" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F185" t="s">
         <v>52</v>
@@ -10489,10 +10999,10 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="M185" s="13" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="N185" t="s">
         <v>259</v>
@@ -10512,13 +11022,13 @@
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D186" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E186" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F186" t="s">
         <v>137</v>
@@ -10530,16 +11040,16 @@
         <v>7</v>
       </c>
       <c r="I186" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J186" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="M186" s="13" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N186" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q186" s="6" t="s">
         <v>228</v>
@@ -10556,13 +11066,13 @@
         <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D187" t="s">
         <v>214</v>
       </c>
       <c r="E187" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F187" t="s">
         <v>137</v>
@@ -10574,13 +11084,13 @@
         <v>7</v>
       </c>
       <c r="I187" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="M187" s="13" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="N187" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q187" s="6" t="s">
         <v>228</v>
@@ -10597,13 +11107,13 @@
         <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D188" t="s">
         <v>213</v>
       </c>
       <c r="E188" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F188" t="s">
         <v>177</v>
@@ -10615,19 +11125,19 @@
         <v>7</v>
       </c>
       <c r="I188" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="J188" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K188" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="M188" s="13" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="N188" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q188" s="6" t="s">
         <v>228</v>
@@ -10644,13 +11154,13 @@
         <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D189" t="s">
         <v>214</v>
       </c>
       <c r="E189" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F189" t="s">
         <v>177</v>
@@ -10662,10 +11172,10 @@
         <v>7</v>
       </c>
       <c r="M189" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N189" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q189" s="6" t="s">
         <v>228</v>
@@ -10682,13 +11192,13 @@
         <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D190" t="s">
         <v>213</v>
       </c>
       <c r="E190" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F190" t="s">
         <v>177</v>
@@ -10700,13 +11210,13 @@
         <v>7</v>
       </c>
       <c r="I190" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="M190" s="13" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="N190" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q190" s="6" t="s">
         <v>228</v>
@@ -10723,13 +11233,13 @@
         <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D191" t="s">
         <v>214</v>
       </c>
       <c r="E191" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F191" t="s">
         <v>177</v>
@@ -10741,13 +11251,13 @@
         <v>7</v>
       </c>
       <c r="I191" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="M191" s="13" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="N191" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q191" s="6" t="s">
         <v>228</v>
@@ -11999,44 +12509,44 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M3" r:id="rId2" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="M4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="M5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M6" r:id="rId5" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M7" r:id="rId6" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="M8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="M10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M9" r:id="rId8" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M10" r:id="rId9" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="M11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="M12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M12" r:id="rId11" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="M13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="M14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="M15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="M16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M16" r:id="rId15" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="M17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="M18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="M19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="M18" r:id="rId17" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="M19" r:id="rId18" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="M20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="M21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="M22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M22" r:id="rId21" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="M23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="M24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="M25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="M25" r:id="rId24" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="M26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="M27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="M28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="M29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="M30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="M27" r:id="rId26" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="M28" r:id="rId27" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="M29" r:id="rId28" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="M30" r:id="rId29" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
     <hyperlink ref="M31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="M32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="M33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="M34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M32" r:id="rId31" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="M33" r:id="rId32" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="M34" r:id="rId33" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="M35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="M36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="M37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="M38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="M39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="M40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="M40" r:id="rId39" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="M41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
     <hyperlink ref="M42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="M43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
@@ -12044,20 +12554,20 @@
     <hyperlink ref="M45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="M46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="M47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="M48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="M48" r:id="rId47" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="M49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="M50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="M50" r:id="rId49" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="M51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="M52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="M53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="M54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
     <hyperlink ref="M55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="M56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="M56" r:id="rId55" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="M57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="M58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="M58" r:id="rId57" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="M59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="M60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="M61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="M61" r:id="rId60" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="M62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
     <hyperlink ref="M63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="M64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
@@ -12071,13 +12581,13 @@
     <hyperlink ref="M72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="M73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="M74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="M75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="M76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="M75" r:id="rId74" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="M76" r:id="rId75" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="M77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
     <hyperlink ref="M78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="M79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="M80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="M81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="M81" r:id="rId80" display="https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/SinImagen.png" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="M82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
     <hyperlink ref="M83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
     <hyperlink ref="M84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
@@ -12235,13 +12745,13 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D2" t="s">
         <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F2" t="s">
         <v>222</v>
@@ -12255,13 +12765,13 @@
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D3" t="s">
         <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F3" t="s">
         <v>222</v>
@@ -12275,13 +12785,13 @@
         <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F4" t="s">
         <v>228</v>
@@ -12295,13 +12805,13 @@
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D5" t="s">
         <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F5" t="s">
         <v>228</v>
@@ -12315,13 +12825,13 @@
         <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D6" t="s">
         <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F6" t="s">
         <v>229</v>
@@ -12335,13 +12845,13 @@
         <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D7" t="s">
         <v>214</v>
       </c>
       <c r="E7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F7" t="s">
         <v>229</v>
@@ -12355,13 +12865,13 @@
         <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D8" t="s">
         <v>213</v>
       </c>
       <c r="E8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F8" t="s">
         <v>229</v>
@@ -12375,13 +12885,13 @@
         <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D9" t="s">
         <v>214</v>
       </c>
       <c r="E9" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F9" t="s">
         <v>229</v>
